--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD105"/>
+  <dimension ref="A1:BD106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>41</v>
@@ -947,10 +947,10 @@
         <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
@@ -1496,7 +1496,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
@@ -1505,10 +1505,10 @@
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.22</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1857,13 +1857,13 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
         <v>6.5</v>
@@ -2039,13 +2039,13 @@
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2221,13 +2221,13 @@
         <v>1.83</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2524,7 +2524,7 @@
         <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -5627,13 +5627,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
         <v>1.62</v>
@@ -5642,14 +5642,10 @@
         <v>2.47</v>
       </c>
       <c r="L29" t="n">
-        <v>10</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.6</v>
-      </c>
+        <v>10.25</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
         <v>1.23</v>
       </c>
@@ -5663,16 +5659,16 @@
         <v>1.93</v>
       </c>
       <c r="S29" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="V29" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W29" t="n">
         <v>5.9</v>
@@ -5684,7 +5680,7 @@
         <v>10.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA29" t="n">
         <v>12.5</v>
@@ -5693,7 +5689,7 @@
         <v>50</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>12</v>
@@ -5702,11 +5698,11 @@
         <v>40</v>
       </c>
       <c r="AF29" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
         <v>100</v>
@@ -5715,19 +5711,19 @@
         <v>45</v>
       </c>
       <c r="AK29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL29" t="n">
         <v>250</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
         <v>2.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5745,19 +5741,19 @@
         <v>2.9</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AV29" t="n">
         <v>150</v>
       </c>
       <c r="AW29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
         <v>90</v>
       </c>
       <c r="AY29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AZ29" t="n">
         <v>51</v>
@@ -6525,40 +6521,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6567,25 +6563,25 @@
         <v>2.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W34" t="n">
         <v>6.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
       </c>
       <c r="Z34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA34" t="n">
         <v>13</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
@@ -6597,22 +6593,22 @@
         <v>7</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH34" t="n">
         <v>13</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="n">
         <v>51</v>
@@ -6621,19 +6617,19 @@
         <v>41</v>
       </c>
       <c r="AM34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
@@ -6645,28 +6641,28 @@
         <v>2.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ34" t="n">
         <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -6721,13 +6717,13 @@
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>8.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>3.2</v>
@@ -6903,13 +6899,13 @@
         <v>3.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
         <v>8.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
         <v>3.2</v>
@@ -7085,22 +7081,22 @@
         <v>3.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7267,13 +7263,13 @@
         <v>4.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
         <v>3.4</v>
@@ -8554,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
         <v>6.5</v>
@@ -8733,10 +8729,10 @@
         <v>2.63</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W46" t="n">
         <v>7</v>
@@ -8915,7 +8911,7 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
         <v>2</v>
@@ -9097,10 +9093,10 @@
         <v>2.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V48" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W48" t="n">
         <v>7</v>
@@ -9619,22 +9615,22 @@
         <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9983,10 +9979,10 @@
         <v>2.25</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
         <v>1.25</v>
@@ -9995,10 +9991,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10007,10 +10003,10 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V53" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W53" t="n">
         <v>13</v>
@@ -10147,13 +10143,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J54" t="n">
         <v>3.75</v>
@@ -10162,7 +10158,7 @@
         <v>2.05</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -10177,10 +10173,10 @@
         <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R54" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
         <v>1.44</v>
@@ -10189,10 +10185,10 @@
         <v>2.63</v>
       </c>
       <c r="U54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W54" t="n">
         <v>9</v>
@@ -10353,16 +10349,16 @@
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10371,10 +10367,10 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W55" t="n">
         <v>6.5</v>
@@ -10535,10 +10531,10 @@
         <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
         <v>2.1</v>
@@ -10553,10 +10549,10 @@
         <v>2.63</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W56" t="n">
         <v>7</v>
@@ -10896,7 +10892,7 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
@@ -11239,112 +11235,112 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H60" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="I60" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J60" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K60" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L60" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>6.4</v>
+        <v>5.95</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P60" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="R60" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S60" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="T60" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="U60" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="V60" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="W60" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X60" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB60" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC60" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD60" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG60" t="n">
         <v>101</v>
       </c>
       <c r="AH60" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AI60" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK60" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL60" t="n">
         <v>24</v>
       </c>
-      <c r="AL60" t="n">
-        <v>21</v>
-      </c>
       <c r="AM60" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO60" t="n">
         <v>17.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ60" t="n">
         <v>90</v>
@@ -11353,34 +11349,34 @@
         <v>150</v>
       </c>
       <c r="AS60" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV60" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW60" t="n">
         <v>4.35</v>
       </c>
       <c r="AX60" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AY60" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AZ60" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA60" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB60" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
@@ -11978,7 +11974,7 @@
         <v>1.06</v>
       </c>
       <c r="P64" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q64" t="n">
         <v>1.37</v>
@@ -12156,7 +12152,7 @@
         <v>1.05</v>
       </c>
       <c r="P65" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="Q65" t="n">
         <v>1.36</v>
@@ -12336,7 +12332,7 @@
         <v>1.1</v>
       </c>
       <c r="P66" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q66" t="n">
         <v>1.47</v>
@@ -12556,7 +12552,7 @@
         <v>27</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE67" t="n">
         <v>40</v>
@@ -12571,7 +12567,7 @@
         <v>70</v>
       </c>
       <c r="AI67" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ67" t="n">
         <v>70</v>
@@ -12580,10 +12576,10 @@
         <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AM67" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN67" t="n">
         <v>3.3</v>
@@ -12604,7 +12600,7 @@
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AU67" t="n">
         <v>11</v>
@@ -12616,7 +12612,7 @@
         <v>16.5</v>
       </c>
       <c r="AX67" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AY67" t="n">
         <v>70</v>
@@ -13019,28 +13015,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I70" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="J70" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="O70" t="n">
         <v>1.11</v>
@@ -13049,10 +13045,10 @@
         <v>4.65</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R70" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13061,34 +13057,34 @@
         <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V70" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W70" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X70" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z70" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA70" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB70" t="n">
         <v>20</v>
       </c>
       <c r="AC70" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE70" t="n">
         <v>11.5</v>
@@ -13100,34 +13096,34 @@
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK70" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AL70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO70" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR70" t="n">
         <v>55</v>
@@ -13136,7 +13132,7 @@
         <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU70" t="n">
         <v>6.3</v>
@@ -13145,16 +13141,16 @@
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX70" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AY70" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA70" t="n">
         <v>70</v>
@@ -13402,7 +13398,7 @@
         <v>1.04</v>
       </c>
       <c r="P72" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="Q72" t="n">
         <v>1.32</v>
@@ -13564,7 +13560,7 @@
         <v>4.8</v>
       </c>
       <c r="J73" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K73" t="n">
         <v>2.77</v>
@@ -13578,7 +13574,7 @@
         <v>1.04</v>
       </c>
       <c r="P73" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Q73" t="n">
         <v>1.24</v>
@@ -13587,16 +13583,16 @@
         <v>3.3</v>
       </c>
       <c r="S73" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="T73" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="U73" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V73" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W73" t="n">
         <v>17</v>
@@ -13623,7 +13619,7 @@
         <v>12.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF73" t="n">
         <v>30</v>
@@ -13632,7 +13628,7 @@
         <v>120</v>
       </c>
       <c r="AH73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI73" t="n">
         <v>45</v>
@@ -13668,7 +13664,7 @@
         <v>75</v>
       </c>
       <c r="AT73" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AU73" t="n">
         <v>6.6</v>
@@ -13677,7 +13673,7 @@
         <v>32</v>
       </c>
       <c r="AW73" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AX73" t="n">
         <v>23</v>
@@ -13880,7 +13876,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dKFHmCF5</t>
+          <t>2TQjtUog</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -13890,165 +13886,167 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>IRAQ - STARS LEAGUE</t>
+          <t>INDIA - SANTOSH TROPHY</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Al Najaf</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Naft Missan</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.07</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.55</v>
+        <v>1.93</v>
       </c>
       <c r="J75" t="n">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L75" t="n">
-        <v>4.25</v>
+        <v>2.57</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>2.27</v>
+        <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="R75" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="S75" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="T75" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="U75" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="V75" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="W75" t="n">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="X75" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="Y75" t="n">
-        <v>7.8</v>
+        <v>10.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AB75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC75" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AE75" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA75" t="n">
         <v>80</v>
       </c>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>200</v>
-      </c>
       <c r="BB75" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BC75" t="inlineStr"/>
       <c r="BD75" t="inlineStr"/>
@@ -14056,7 +14054,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2XpIojpI</t>
+          <t>dKFHmCF5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14066,7 +14064,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -14076,131 +14074,131 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Al Najaf</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Al-Hudod</t>
+          <t>Naft Missan</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="H76" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I76" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="J76" t="n">
-        <v>2.47</v>
+        <v>2.85</v>
       </c>
       <c r="K76" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>6.97</v>
+        <v>6.6</v>
       </c>
       <c r="O76" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P76" t="n">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R76" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S76" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T76" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="U76" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V76" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W76" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="X76" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y76" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AA76" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC76" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD76" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AE76" t="n">
         <v>14.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI76" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AJ76" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL76" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM76" t="n">
         <v>40</v>
       </c>
-      <c r="AM76" t="n">
-        <v>45</v>
-      </c>
       <c r="AN76" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="AO76" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AP76" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AQ76" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AR76" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS76" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU76" t="n">
         <v>8.25</v>
@@ -14209,28 +14207,30 @@
         <v>100</v>
       </c>
       <c r="AW76" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX76" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AY76" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AZ76" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA76" t="n">
         <v>200</v>
       </c>
-      <c r="BA76" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB76" t="inlineStr"/>
+      <c r="BB76" t="n">
+        <v>500</v>
+      </c>
       <c r="BC76" t="inlineStr"/>
       <c r="BD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>QPKvimA6</t>
+          <t>2XpIojpI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14240,95 +14240,95 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ITALY - COPPA ITALIA SERIE C</t>
+          <t>IRAQ - STARS LEAGUE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Erbil</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Altamura</t>
+          <t>Al-Hudod</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="H77" t="n">
         <v>3.05</v>
       </c>
       <c r="I77" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="J77" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="K77" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="L77" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>7.6</v>
+        <v>6.97</v>
       </c>
       <c r="O77" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P77" t="n">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R77" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T77" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="U77" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="V77" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W77" t="n">
-        <v>6.8</v>
+        <v>4.55</v>
       </c>
       <c r="X77" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="Z77" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD77" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AE77" t="n">
         <v>14.5</v>
@@ -14336,79 +14336,75 @@
       <c r="AF77" t="n">
         <v>75</v>
       </c>
-      <c r="AG77" t="n">
-        <v>700</v>
-      </c>
+      <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AL77" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM77" t="n">
         <v>45</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="AO77" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR77" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AS77" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA77" t="n">
         <v>250</v>
       </c>
-      <c r="AT77" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>350</v>
-      </c>
+      <c r="BB77" t="inlineStr"/>
       <c r="BC77" t="inlineStr"/>
       <c r="BD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x0ni0imK</t>
+          <t>QPKvimA6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14418,7 +14414,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14428,157 +14424,157 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Avellino</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.85</v>
+        <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I78" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="J78" t="n">
-        <v>4.25</v>
+        <v>2.7</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W78" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT78" t="n">
         <v>2.45</v>
       </c>
-      <c r="M78" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T78" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W78" t="n">
-        <v>10</v>
-      </c>
-      <c r="X78" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z78" t="n">
+      <c r="AU78" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV78" t="n">
         <v>60</v>
       </c>
-      <c r="AA78" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>70</v>
-      </c>
       <c r="AW78" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="AX78" t="n">
-        <v>9.25</v>
+        <v>19</v>
       </c>
       <c r="AY78" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ78" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="BA78" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="BB78" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC78" t="inlineStr"/>
       <c r="BD78" t="inlineStr"/>
@@ -14586,7 +14582,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gf1dvAQ0</t>
+          <t>x0ni0imK</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14596,7 +14592,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14606,46 +14602,46 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Avellino</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="H79" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="J79" t="n">
-        <v>3.55</v>
+        <v>4.25</v>
       </c>
       <c r="K79" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>8.15</v>
+        <v>6.45</v>
       </c>
       <c r="O79" t="n">
         <v>1.34</v>
       </c>
       <c r="P79" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
         <v>1.65</v>
@@ -14654,106 +14650,106 @@
         <v>1.4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U79" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V79" t="n">
         <v>1.75</v>
       </c>
-      <c r="V79" t="n">
-        <v>1.85</v>
-      </c>
       <c r="W79" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X79" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y79" t="n">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="Z79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA79" t="n">
         <v>40</v>
       </c>
-      <c r="AA79" t="n">
-        <v>28</v>
-      </c>
       <c r="AB79" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD79" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF79" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG79" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AL79" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AM79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN79" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AP79" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AQ79" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AR79" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AT79" t="n">
         <v>2.5</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV79" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="AX79" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AY79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ79" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="BA79" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB79" t="n">
         <v>250</v>
@@ -14764,66 +14760,66 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6m6bZOqo</t>
+          <t>Gf1dvAQ0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25/11/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX WOMEN</t>
+          <t>ITALY - COPPA ITALIA SERIE C</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres W</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I80" t="n">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
         <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="M80" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>6.1</v>
+        <v>8.15</v>
       </c>
       <c r="O80" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P80" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
         <v>1.65</v>
@@ -14832,40 +14828,40 @@
         <v>1.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="U80" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V80" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W80" t="n">
-        <v>7.6</v>
+        <v>9.25</v>
       </c>
       <c r="X80" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z80" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AA80" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC80" t="n">
-        <v>6.1</v>
+        <v>8.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF80" t="n">
         <v>70</v>
@@ -14874,64 +14870,64 @@
         <v>600</v>
       </c>
       <c r="AH80" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AI80" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AK80" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AL80" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AM80" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO80" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AQ80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV80" t="n">
         <v>55</v>
       </c>
-      <c r="AR80" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV80" t="n">
+      <c r="AW80" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>50</v>
       </c>
-      <c r="AW80" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>75</v>
-      </c>
       <c r="BA80" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -14942,189 +14938,185 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YLnqVaS1</t>
+          <t>6m6bZOqo</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>26/11/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA MX WOMEN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Monterrey W</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>U.A.N.L.- Tigres W</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.57</v>
+        <v>2.52</v>
       </c>
       <c r="H81" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="I81" t="n">
-        <v>5.25</v>
+        <v>2.95</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N81" t="n">
-        <v>17</v>
+        <v>6.1</v>
       </c>
       <c r="O81" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T81" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="U81" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W81" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="X81" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA81" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB81" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AC81" t="n">
-        <v>17</v>
+        <v>6.1</v>
       </c>
       <c r="AD81" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE81" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO81" t="n">
         <v>13</v>
       </c>
-      <c r="AF81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>8</v>
-      </c>
       <c r="AP81" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AR81" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AS81" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV81" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW81" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="AX81" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ81" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BA81" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="BB81" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>151</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC81" t="inlineStr"/>
+      <c r="BD81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0Eadv45F</t>
+          <t>YLnqVaS1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15144,133 +15136,133 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.75</v>
+        <v>1.57</v>
       </c>
       <c r="H82" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>1.57</v>
+        <v>5.25</v>
       </c>
       <c r="J82" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
         <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S82" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U82" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="V82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W82" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Y82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE82" t="n">
         <v>15</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>13</v>
       </c>
       <c r="AF82" t="n">
         <v>41</v>
       </c>
       <c r="AG82" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI82" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK82" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL82" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM82" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AN82" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AO82" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ82" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AR82" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS82" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU82" t="n">
         <v>7.5</v>
@@ -15279,22 +15271,22 @@
         <v>41</v>
       </c>
       <c r="AW82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX82" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AY82" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ82" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA82" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB82" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC82" t="n">
         <v>351</v>
@@ -15306,7 +15298,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>xfgzXLck</t>
+          <t>0Eadv45F</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15326,133 +15318,133 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="J83" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
         <v>2.5</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N83" t="n">
+        <v>19</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W83" t="n">
+        <v>19</v>
+      </c>
+      <c r="X83" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE83" t="n">
         <v>15</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P83" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R83" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T83" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U83" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V83" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W83" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X83" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>13</v>
       </c>
       <c r="AF83" t="n">
         <v>41</v>
       </c>
       <c r="AG83" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS83" t="n">
         <v>151</v>
       </c>
-      <c r="AH83" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN83" t="n">
+      <c r="AT83" t="n">
         <v>3.75</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>3.5</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
@@ -15461,25 +15453,25 @@
         <v>41</v>
       </c>
       <c r="AW83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX83" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AY83" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ83" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB83" t="n">
         <v>81</v>
       </c>
-      <c r="BA83" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>151</v>
-      </c>
       <c r="BC83" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD83" t="n">
         <v>151</v>
@@ -15488,7 +15480,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trtCQa2m</t>
+          <t>xfgzXLck</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15498,175 +15490,179 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Real Hope</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Moca</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="J84" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="K84" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L84" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R84" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="S84" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T84" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U84" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V84" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="W84" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="X84" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Y84" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA84" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH84" t="n">
         <v>19</v>
       </c>
-      <c r="AC84" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AI84" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AK84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX84" t="n">
         <v>26</v>
       </c>
-      <c r="AL84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>15</v>
-      </c>
       <c r="AY84" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ84" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BA84" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB84" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC84" t="inlineStr"/>
-      <c r="BD84" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>U3Cg8InJ</t>
+          <t>trtCQa2m</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15676,7 +15672,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -15686,163 +15682,165 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cavalier</t>
+          <t>Real Hope</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cibao</t>
+          <t>Moca</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="H85" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I85" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J85" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="K85" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="L85" t="n">
-        <v>2.77</v>
+        <v>3.35</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="R85" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+        <v>1.93</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.1</v>
+      </c>
       <c r="U85" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="V85" t="n">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="W85" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="X85" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA85" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AB85" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC85" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AE85" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF85" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK85" t="n">
         <v>26</v>
       </c>
-      <c r="AG85" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK85" t="n">
+      <c r="AL85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY85" t="n">
         <v>21</v>
       </c>
-      <c r="AL85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR85" t="n">
+      <c r="AZ85" t="n">
         <v>65</v>
       </c>
-      <c r="AS85" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>40</v>
-      </c>
       <c r="BA85" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="BB85" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>500</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mavyaiwf</t>
+          <t>U3Cg8InJ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -15852,175 +15850,173 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>OMAN - PROFESSIONAL LEAGUE</t>
+          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>Cavalier</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sur Club</t>
+          <t>Cibao</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="I86" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="K86" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="L86" t="n">
-        <v>3.35</v>
+        <v>2.77</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="P86" t="n">
-        <v>2.78</v>
+        <v>4.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="R86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.27</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="V86" t="n">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="W86" t="n">
+        <v>11</v>
+      </c>
+      <c r="X86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU86" t="n">
         <v>6.3</v>
       </c>
-      <c r="X86" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AV86" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AX86" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY86" t="n">
         <v>15.5</v>
       </c>
-      <c r="AY86" t="n">
-        <v>25</v>
-      </c>
       <c r="AZ86" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="BA86" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="BB86" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC86" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>500</v>
+      </c>
       <c r="BD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IRXqcV76</t>
+          <t>Mavyaiwf</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16030,7 +16026,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -16040,155 +16036,157 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Saham</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Nahda</t>
+          <t>Sur Club</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>2.47</v>
       </c>
       <c r="H87" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="L87" t="n">
-        <v>2.07</v>
+        <v>3.35</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="O87" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q87" t="n">
         <v>2.05</v>
       </c>
       <c r="R87" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S87" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T87" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U87" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="V87" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="W87" t="n">
-        <v>10.25</v>
+        <v>6.3</v>
       </c>
       <c r="X87" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB87" t="n">
         <v>26</v>
       </c>
-      <c r="Y87" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB87" t="n">
+      <c r="AC87" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ87" t="n">
         <v>65</v>
       </c>
-      <c r="AC87" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>300</v>
-      </c>
       <c r="AR87" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS87" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>350</v>
+      </c>
       <c r="AT87" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="AU87" t="n">
-        <v>9.25</v>
+        <v>7.2</v>
       </c>
       <c r="AV87" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA87" t="n">
         <v>120</v>
       </c>
-      <c r="AW87" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>70</v>
-      </c>
       <c r="BB87" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
@@ -16196,7 +16194,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0p2VVwbE</t>
+          <t>IRXqcV76</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16211,168 +16209,168 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>OMAN - PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Steaua Bucuresti</t>
+          <t>Al-Rustaq</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>Al Nahda</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.52</v>
+        <v>5.8</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="n">
         <v>2.07</v>
       </c>
-      <c r="K88" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L88" t="n">
-        <v>5.9</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>7.2</v>
+        <v>7.23</v>
       </c>
       <c r="O88" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P88" t="n">
-        <v>3.1</v>
+        <v>2.73</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R88" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="S88" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T88" t="n">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="U88" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="V88" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="W88" t="n">
-        <v>5.9</v>
+        <v>10.25</v>
       </c>
       <c r="X88" t="n">
-        <v>6.4</v>
+        <v>26</v>
       </c>
       <c r="Y88" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA88" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AB88" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AC88" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD88" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI88" t="n">
-        <v>32</v>
+        <v>5.2</v>
       </c>
       <c r="AJ88" t="n">
-        <v>19.5</v>
+        <v>7.3</v>
       </c>
       <c r="AK88" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS88" t="inlineStr"/>
+      <c r="AT88" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV88" t="n">
         <v>120</v>
       </c>
-      <c r="AL88" t="n">
+      <c r="AW88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA88" t="n">
         <v>70</v>
       </c>
-      <c r="AM88" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA88" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB88" t="inlineStr"/>
+      <c r="BB88" t="n">
+        <v>400</v>
+      </c>
       <c r="BC88" t="inlineStr"/>
       <c r="BD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>QwEUTK4k</t>
+          <t>0p2VVwbE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16382,164 +16380,164 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="H89" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="J89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N89" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
         <v>1.65</v>
       </c>
-      <c r="K89" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L89" t="n">
+      <c r="W89" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X89" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y89" t="n">
         <v>8.5</v>
       </c>
-      <c r="M89" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P89" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T89" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U89" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W89" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X89" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Z89" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA89" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AB89" t="n">
         <v>32</v>
       </c>
       <c r="AC89" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AD89" t="n">
-        <v>10.75</v>
+        <v>7.8</v>
       </c>
       <c r="AE89" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AF89" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AJ89" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AL89" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AM89" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN89" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AO89" t="n">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP89" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AQ89" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AR89" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AS89" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV89" t="n">
         <v>100</v>
       </c>
       <c r="AW89" t="n">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AY89" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AZ89" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="BA89" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
@@ -16548,7 +16546,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kx7wSbZ1</t>
+          <t>QwEUTK4k</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16558,7 +16556,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -16568,165 +16566,163 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="I90" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="J90" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K90" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="L90" t="n">
-        <v>4.6</v>
+        <v>8.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>6.95</v>
+        <v>11.8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="P90" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="S90" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T90" t="n">
-        <v>2.47</v>
+        <v>3.28</v>
       </c>
       <c r="U90" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="V90" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="W90" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="X90" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z90" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AA90" t="n">
-        <v>16</v>
+        <v>11.25</v>
       </c>
       <c r="AB90" t="n">
         <v>32</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AD90" t="n">
-        <v>6.4</v>
+        <v>10.75</v>
       </c>
       <c r="AE90" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP90" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF90" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL90" t="n">
+      <c r="AQ90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR90" t="n">
         <v>45</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>70</v>
       </c>
       <c r="AS90" t="n">
         <v>250</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AU90" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="AV90" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AW90" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AY90" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AZ90" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="BA90" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>400</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
       <c r="BD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MZlGlqgt</t>
+          <t>Kx7wSbZ1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16736,179 +16732,175 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I91" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J91" t="n">
         <v>2.4</v>
       </c>
-      <c r="J91" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>6.95</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P91" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U91" t="n">
         <v>1.9</v>
       </c>
-      <c r="R91" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T91" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V91" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="W91" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X91" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="Y91" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AB91" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AD91" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE91" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG91" t="n">
-        <v>151</v>
+        <v>800</v>
       </c>
       <c r="AH91" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO91" t="n">
         <v>9</v>
       </c>
-      <c r="AI91" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL91" t="n">
+      <c r="AP91" t="n">
         <v>19</v>
       </c>
-      <c r="AM91" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ91" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AR91" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS91" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="AU91" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV91" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW91" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="AX91" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AY91" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AZ91" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="BA91" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BB91" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC91" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD91" t="n">
-        <v>126</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>APjFSZK5</t>
+          <t>MZlGlqgt</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -16918,175 +16910,179 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SLOVENIA - 2. SNL</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.62</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="J92" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L92" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
         <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P92" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="R92" t="n">
         <v>1.93</v>
       </c>
       <c r="S92" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T92" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U92" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V92" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W92" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="X92" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="Y92" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z92" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AA92" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AB92" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE92" t="n">
         <v>12</v>
       </c>
-      <c r="AD92" t="n">
+      <c r="AF92" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU92" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AV92" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="AX92" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY92" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ92" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="BA92" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="BB92" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC92" t="inlineStr"/>
-      <c r="BD92" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WvuOQDkI</t>
+          <t>APjFSZK5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17096,7 +17092,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -17106,157 +17102,157 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>1.62</v>
       </c>
       <c r="H93" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I93" t="n">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="J93" t="n">
-        <v>4.85</v>
+        <v>2.18</v>
       </c>
       <c r="K93" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L93" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P93" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R93" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="S93" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="T93" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="U93" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V93" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W93" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC93" t="n">
         <v>12</v>
       </c>
-      <c r="X93" t="n">
+      <c r="AD93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX93" t="n">
         <v>26</v>
       </c>
-      <c r="Y93" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM93" t="n">
+      <c r="AY93" t="n">
         <v>29</v>
       </c>
-      <c r="AN93" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ93" t="n">
+      <c r="AZ93" t="n">
         <v>150</v>
       </c>
-      <c r="AR93" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW93" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX93" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY93" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>27</v>
-      </c>
       <c r="BA93" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="BB93" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC93" t="inlineStr"/>
       <c r="BD93" t="inlineStr"/>
@@ -17264,7 +17260,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CCP2sBJk</t>
+          <t>WvuOQDkI</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17274,134 +17270,134 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SOUTH AFRICA - PREMIERSHIP</t>
+          <t>SLOVENIA - 2. SNL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H94" t="n">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
       <c r="I94" t="n">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="K94" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="L94" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="M94" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O94" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="P94" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.85</v>
+        <v>1.83</v>
       </c>
       <c r="R94" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="S94" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="T94" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="U94" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="V94" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W94" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X94" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AA94" t="n">
         <v>45</v>
       </c>
       <c r="AB94" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC94" t="n">
-        <v>4.8</v>
+        <v>10.25</v>
       </c>
       <c r="AD94" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="AE94" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AG94" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI94" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AJ94" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO94" t="n">
         <v>26</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>20</v>
       </c>
       <c r="AP94" t="n">
         <v>35</v>
       </c>
       <c r="AQ94" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR94" t="n">
         <v>200</v>
@@ -17410,43 +17406,39 @@
         <v>500</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AU94" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV94" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AW94" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="AX94" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AY94" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AZ94" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="BA94" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="BB94" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC94" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD94" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>nk451WAL</t>
+          <t>CCP2sBJk</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17466,157 +17458,157 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U95" t="n">
         <v>2.3</v>
       </c>
-      <c r="H95" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P95" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T95" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U95" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V95" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="W95" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="X95" t="n">
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="Y95" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AA95" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AB95" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC95" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD95" t="n">
         <v>5.7</v>
       </c>
       <c r="AE95" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AF95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AG95" t="n">
         <v>101</v>
       </c>
       <c r="AH95" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AJ95" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AL95" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP95" t="n">
         <v>35</v>
       </c>
-      <c r="AM95" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN95" t="n">
+      <c r="AQ95" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW95" t="n">
         <v>4.05</v>
       </c>
-      <c r="AO95" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AX95" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AY95" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ95" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BA95" t="n">
         <v>150</v>
       </c>
       <c r="BB95" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>
@@ -17628,7 +17620,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KxTAukl2</t>
+          <t>nk451WAL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17648,157 +17640,157 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I96" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="J96" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="L96" t="n">
-        <v>4.65</v>
+        <v>3.85</v>
       </c>
       <c r="M96" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N96" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P96" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="R96" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="S96" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="T96" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="U96" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="V96" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="W96" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="X96" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB96" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC96" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AE96" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AG96" t="n">
         <v>101</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI96" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AK96" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AL96" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AM96" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AN96" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="AO96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP96" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AQ96" t="n">
         <v>55</v>
       </c>
       <c r="AR96" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS96" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="AU96" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="AV96" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AW96" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX96" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AY96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AZ96" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="BA96" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="BB96" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BC96" t="n">
         <v>51</v>
@@ -17810,7 +17802,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MyS7z3gR</t>
+          <t>KxTAukl2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -17820,179 +17812,179 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH AFRICA - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I97" t="n">
         <v>3.9</v>
       </c>
-      <c r="I97" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J97" t="n">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="K97" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L97" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="P97" t="n">
-        <v>4.33</v>
+        <v>2.12</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.7</v>
+        <v>2.85</v>
       </c>
       <c r="R97" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="S97" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="T97" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="U97" t="n">
-        <v>1.63</v>
+        <v>2.35</v>
       </c>
       <c r="V97" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="W97" t="n">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="X97" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Y97" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z97" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AC97" t="n">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="AD97" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH97" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE97" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>15</v>
-      </c>
       <c r="AI97" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AJ97" t="n">
         <v>15</v>
       </c>
       <c r="AK97" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB97" t="n">
         <v>51</v>
       </c>
-      <c r="AL97" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV97" t="n">
+      <c r="BC97" t="n">
         <v>51</v>
       </c>
-      <c r="AW97" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB97" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC97" t="n">
-        <v>81</v>
-      </c>
       <c r="BD97" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dIEdHnXH</t>
+          <t>MyS7z3gR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18002,177 +17994,179 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SPAIN - COPA DEL REY</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CP Parla</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
-        <v>19</v>
+        <v>3.9</v>
       </c>
       <c r="I98" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="J98" t="n">
-        <v>29</v>
+        <v>2.3</v>
       </c>
       <c r="K98" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N98" t="n">
+        <v>15</v>
+      </c>
+      <c r="O98" t="n">
         <v>1.2</v>
       </c>
-      <c r="M98" t="n">
+      <c r="P98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF98" t="n">
         <v>41</v>
       </c>
-      <c r="N98" t="n">
-        <v>24</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P98" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R98" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S98" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T98" t="n">
-        <v>6</v>
-      </c>
-      <c r="U98" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W98" t="n">
-        <v>41</v>
-      </c>
-      <c r="X98" t="n">
+      <c r="AG98" t="n">
         <v>151</v>
       </c>
-      <c r="Y98" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>301</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>151</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>67</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>251</v>
-      </c>
-      <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="n">
         <v>15</v>
       </c>
       <c r="AI98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU98" t="n">
         <v>8</v>
       </c>
-      <c r="AJ98" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM98" t="n">
+      <c r="AV98" t="n">
         <v>51</v>
       </c>
-      <c r="AN98" t="n">
+      <c r="AW98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY98" t="n">
         <v>29</v>
       </c>
-      <c r="AO98" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>101</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>401</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT98" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU98" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW98" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX98" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY98" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ98" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="BA98" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB98" t="n">
         <v>151</v>
       </c>
       <c r="BC98" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD98" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rejTFZeD</t>
+          <t>dIEdHnXH</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18192,16 +18186,16 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Manises</t>
+          <t>CP Parla</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H99" t="n">
         <v>19</v>
@@ -18210,31 +18204,31 @@
         <v>1.04</v>
       </c>
       <c r="J99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K99" t="n">
         <v>4.5</v>
       </c>
       <c r="L99" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M99" t="n">
         <v>41</v>
       </c>
       <c r="N99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O99" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P99" t="n">
         <v>11</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S99" t="n">
         <v>1.13</v>
@@ -18243,21 +18237,23 @@
         <v>6</v>
       </c>
       <c r="U99" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V99" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W99" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X99" t="n">
         <v>151</v>
       </c>
       <c r="Y99" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z99" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>51</v>
+      </c>
       <c r="AA99" t="n">
         <v>301</v>
       </c>
@@ -18265,32 +18261,32 @@
         <v>151</v>
       </c>
       <c r="AC99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD99" t="n">
         <v>34</v>
       </c>
       <c r="AE99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF99" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="n">
         <v>15</v>
       </c>
       <c r="AI99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AL99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM99" t="n">
         <v>51</v>
@@ -18304,17 +18300,23 @@
       <c r="AP99" t="n">
         <v>101</v>
       </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
+      <c r="AQ99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>401</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>451</v>
+      </c>
       <c r="AT99" t="n">
         <v>6</v>
       </c>
       <c r="AU99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV99" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW99" t="n">
         <v>3.4</v>
@@ -18323,24 +18325,28 @@
         <v>3.75</v>
       </c>
       <c r="AY99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ99" t="n">
         <v>6</v>
       </c>
       <c r="BA99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB99" t="n">
         <v>151</v>
       </c>
-      <c r="BC99" t="inlineStr"/>
-      <c r="BD99" t="inlineStr"/>
+      <c r="BC99" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0QwKuo6e</t>
+          <t>rejTFZeD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -18350,179 +18356,165 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - COPA DEL REY</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Manises</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.25</v>
+        <v>29</v>
       </c>
       <c r="H100" t="n">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="I100" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K100" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="L100" t="n">
-        <v>4</v>
+        <v>1.22</v>
       </c>
       <c r="M100" t="n">
+        <v>41</v>
+      </c>
+      <c r="N100" t="n">
+        <v>25</v>
+      </c>
+      <c r="O100" t="n">
         <v>1.05</v>
       </c>
-      <c r="N100" t="n">
-        <v>9</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P100" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.2</v>
+        <v>1.18</v>
       </c>
       <c r="R100" t="n">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="T100" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="U100" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="V100" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="W100" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="X100" t="n">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="Y100" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>21</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="AB100" t="n">
+        <v>201</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD100" t="n">
         <v>34</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AE100" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI100" t="n">
         <v>8</v>
       </c>
-      <c r="AD100" t="n">
+      <c r="AJ100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="inlineStr"/>
+      <c r="AT100" t="n">
         <v>6</v>
       </c>
-      <c r="AE100" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL100" t="n">
+      <c r="AU100" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA100" t="n">
         <v>29</v>
       </c>
-      <c r="AM100" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW100" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>81</v>
-      </c>
       <c r="BB100" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC100" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD100" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tznSwPz8</t>
+          <t>0QwKuo6e</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -18532,7 +18524,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -18542,157 +18534,157 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J101" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L101" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P101" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S101" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T101" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="V101" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W101" t="n">
+        <v>7</v>
+      </c>
+      <c r="X101" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y101" t="n">
         <v>9.5</v>
       </c>
-      <c r="X101" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>11</v>
-      </c>
       <c r="Z101" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA101" t="n">
         <v>21</v>
       </c>
       <c r="AB101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC101" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG101" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH101" t="n">
         <v>9</v>
       </c>
       <c r="AI101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>12</v>
       </c>
-      <c r="AJ101" t="n">
-        <v>10</v>
-      </c>
       <c r="AK101" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL101" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM101" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO101" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR101" t="n">
         <v>67</v>
       </c>
       <c r="AS101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW101" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX101" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY101" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ101" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA101" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB101" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC101" t="n">
         <v>51</v>
@@ -18704,7 +18696,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>tznSwPz8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -18714,7 +18706,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -18724,40 +18716,40 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>3.4</v>
       </c>
       <c r="I102" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="J102" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K102" t="n">
         <v>2.2</v>
       </c>
       <c r="L102" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M102" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N102" t="n">
         <v>11</v>
       </c>
       <c r="O102" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P102" t="n">
         <v>3.5</v>
@@ -18775,28 +18767,28 @@
         <v>2.75</v>
       </c>
       <c r="U102" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V102" t="n">
         <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X102" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y102" t="n">
         <v>11</v>
       </c>
-      <c r="Y102" t="n">
-        <v>9</v>
-      </c>
       <c r="Z102" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA102" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC102" t="n">
         <v>11</v>
@@ -18814,37 +18806,37 @@
         <v>201</v>
       </c>
       <c r="AH102" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI102" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK102" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL102" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN102" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR102" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS102" t="n">
         <v>151</v>
@@ -18853,25 +18845,25 @@
         <v>2.75</v>
       </c>
       <c r="AU102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV102" t="n">
         <v>51</v>
       </c>
       <c r="AW102" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX102" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY102" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ102" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA102" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB102" t="n">
         <v>151</v>
@@ -18886,7 +18878,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>UeSMa6cR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -18896,7 +18888,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -18906,49 +18898,49 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="H103" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="J103" t="n">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="K103" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L103" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="M103" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N103" t="n">
         <v>11</v>
       </c>
       <c r="O103" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P103" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R103" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S103" t="n">
         <v>1.4</v>
@@ -18957,112 +18949,118 @@
         <v>2.75</v>
       </c>
       <c r="U103" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V103" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="W103" t="n">
+        <v>8</v>
+      </c>
+      <c r="X103" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA103" t="n">
         <v>17</v>
       </c>
-      <c r="X103" t="n">
+      <c r="AB103" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF103" t="n">
         <v>41</v>
       </c>
-      <c r="Y103" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>81</v>
-      </c>
       <c r="AG103" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH103" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI103" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AJ103" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK103" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AL103" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AM103" t="n">
         <v>34</v>
       </c>
       <c r="AN103" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="AO103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ103" t="n">
         <v>41</v>
       </c>
-      <c r="AP103" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>201</v>
-      </c>
       <c r="AR103" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS103" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>151</v>
+      </c>
       <c r="AT103" t="n">
         <v>2.75</v>
       </c>
       <c r="AU103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV103" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW103" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AX103" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AY103" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ103" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA103" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB103" t="n">
         <v>151</v>
       </c>
-      <c r="BC103" t="inlineStr"/>
-      <c r="BD103" t="inlineStr"/>
+      <c r="BC103" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>QHWqjFUh</t>
+          <t>IN9VZckt</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -19072,167 +19070,165 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Algeria U20</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Libya U20</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="H104" t="n">
-        <v>3.45</v>
+        <v>4.75</v>
       </c>
       <c r="I104" t="n">
-        <v>4.4</v>
+        <v>1.38</v>
       </c>
       <c r="J104" t="n">
-        <v>2.37</v>
+        <v>8</v>
       </c>
       <c r="K104" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L104" t="n">
-        <v>4.8</v>
+        <v>1.91</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>8.1</v>
+        <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T104" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q104" t="n">
-        <v>2</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S104" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T104" t="n">
-        <v>2.42</v>
-      </c>
       <c r="U104" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="V104" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W104" t="n">
+        <v>17</v>
+      </c>
+      <c r="X104" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH104" t="n">
         <v>6</v>
       </c>
-      <c r="X104" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y104" t="n">
+      <c r="AI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK104" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z104" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>75</v>
-      </c>
       <c r="AL104" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AM104" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AN104" t="n">
-        <v>3.45</v>
+        <v>9</v>
       </c>
       <c r="AO104" t="n">
-        <v>8.75</v>
+        <v>41</v>
       </c>
       <c r="AP104" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY104" t="n">
         <v>21</v>
       </c>
-      <c r="AQ104" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR104" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS104" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU104" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV104" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW104" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX104" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY104" t="n">
-        <v>35</v>
-      </c>
       <c r="AZ104" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="BA104" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="BB104" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
@@ -19240,7 +19236,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2y7saADN</t>
+          <t>QHWqjFUh</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -19260,160 +19256,338 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Egypt U20</t>
+          <t>Algeria U20</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tunisia U20</t>
+          <t>Libya U20</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="H105" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I105" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="J105" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="K105" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L105" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>9.25</v>
+        <v>8.1</v>
       </c>
       <c r="O105" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P105" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S105" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T105" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V105" t="n">
         <v>1.7</v>
       </c>
-      <c r="V105" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W105" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="X105" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Y105" t="n">
         <v>8.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB105" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC105" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD105" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE105" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AF105" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AG105" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB105" t="n">
         <v>500</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW105" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX105" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA105" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>350</v>
       </c>
       <c r="BC105" t="inlineStr"/>
       <c r="BD105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2y7saADN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Egypt U20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Tunisia U20</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W106" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X106" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD105"/>
+  <dimension ref="A1:BD104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,10 +756,10 @@
         <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -795,16 +795,16 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AA2" t="n">
         <v>81</v>
@@ -816,25 +816,25 @@
         <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>7.5</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AR2" t="n">
         <v>201</v>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,7 +876,7 @@
         <v>3.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -929,58 +929,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -995,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1010,28 +1010,28 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1046,7 +1046,7 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1058,19 +1058,19 @@
         <v>3.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>140</v>
@@ -1132,7 +1132,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H5" t="n">
         <v>6.5</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -4178,55 +4178,55 @@
         <v>2.55</v>
       </c>
       <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -4241,13 +4241,13 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>81</v>
@@ -4256,31 +4256,31 @@
         <v>150</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
@@ -4289,10 +4289,10 @@
         <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
@@ -4304,7 +4304,7 @@
         <v>4.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
@@ -4313,16 +4313,16 @@
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J22" t="n">
         <v>4</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.35</v>
-      </c>
       <c r="K22" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L22" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4384,13 +4384,13 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.32</v>
@@ -4399,106 +4399,106 @@
         <v>3.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W22" t="n">
         <v>10.75</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC22" t="n">
         <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AE22" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS22" t="n">
         <v>250</v>
       </c>
-      <c r="AH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>300</v>
-      </c>
       <c r="AT22" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -4538,49 +4538,49 @@
         <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="Q23" t="n">
         <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U23" t="n">
         <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W23" t="n">
         <v>8.75</v>
@@ -4601,25 +4601,25 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG23" t="n">
         <v>300</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -4628,13 +4628,13 @@
         <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO23" t="n">
         <v>9.25</v>
@@ -4652,31 +4652,31 @@
         <v>175</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW23" t="n">
         <v>5.8</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H24" t="n">
         <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.78</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4756,25 +4756,25 @@
         <v>1.26</v>
       </c>
       <c r="T24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="U24" t="n">
         <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
         <v>9.25</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA24" t="n">
         <v>10.25</v>
@@ -4798,16 +4798,16 @@
         <v>400</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="n">
         <v>70</v>
@@ -4816,13 +4816,13 @@
         <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
         <v>6</v>
       </c>
       <c r="AP24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>15</v>
@@ -4834,19 +4834,19 @@
         <v>150</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV24" t="n">
         <v>60</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY24" t="n">
         <v>35</v>
@@ -4858,7 +4858,7 @@
         <v>200</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -5081,22 +5081,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5105,100 +5105,100 @@
         <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="n">
         <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U26" t="n">
         <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="n">
         <v>12</v>
       </c>
-      <c r="X26" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
         <v>300</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>22</v>
       </c>
-      <c r="AN26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS26" t="n">
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU26" t="n">
         <v>6.8</v>
@@ -5207,19 +5207,19 @@
         <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ26" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="BA26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB26" t="n">
         <v>175</v>
@@ -5457,46 +5457,46 @@
         <v>5.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P28" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="S28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T28" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="U28" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="W28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="n">
         <v>17</v>
@@ -5508,49 +5508,49 @@
         <v>45</v>
       </c>
       <c r="AB28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF28" t="n">
         <v>40</v>
       </c>
-      <c r="AC28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>45</v>
-      </c>
       <c r="AG28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH28" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AO28" t="n">
         <v>28</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ28" t="n">
         <v>150</v>
@@ -5559,37 +5559,37 @@
         <v>150</v>
       </c>
       <c r="AS28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AX28" t="n">
         <v>6.9</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC28" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5642,7 +5642,7 @@
         <v>2.47</v>
       </c>
       <c r="L29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -5669,7 +5669,7 @@
         <v>2.99</v>
       </c>
       <c r="U29" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="V29" t="n">
         <v>1.39</v>
@@ -5681,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>6.1</v>
@@ -5693,7 +5693,7 @@
         <v>50</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD29" t="n">
         <v>12</v>
@@ -5712,7 +5712,7 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK29" t="n">
         <v>600</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -5849,101 +5849,101 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="V30" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="n">
         <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AP30" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>60</v>
       </c>
       <c r="AS30" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT30" t="n">
         <v>2.57</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AX30" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AY30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA30" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB30" t="n">
         <v>500</v>
@@ -6525,58 +6525,58 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.83</v>
       </c>
-      <c r="S34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
@@ -6588,13 +6588,13 @@
         <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE34" t="n">
         <v>17</v>
@@ -6603,10 +6603,10 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI34" t="n">
         <v>26</v>
@@ -6624,25 +6624,25 @@
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO34" t="n">
         <v>8.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="n">
         <v>26</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
         <v>8.5</v>
@@ -6663,10 +6663,10 @@
         <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -6885,22 +6885,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -6909,49 +6909,49 @@
         <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
         <v>29</v>
       </c>
-      <c r="AA36" t="n">
-        <v>23</v>
-      </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD36" t="n">
         <v>6</v>
@@ -6963,19 +6963,19 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ36" t="n">
         <v>10</v>
       </c>
       <c r="AK36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
         <v>21</v>
@@ -6984,34 +6984,34 @@
         <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR36" t="n">
         <v>81</v>
       </c>
       <c r="AS36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX36" t="n">
         <v>15</v>
@@ -7070,37 +7070,37 @@
         <v>2.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
         <v>2.88</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
         <v>3.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7109,13 +7109,13 @@
         <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -7130,10 +7130,10 @@
         <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -7145,10 +7145,10 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
@@ -7172,16 +7172,16 @@
         <v>15</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
         <v>2.63</v>
@@ -7249,40 +7249,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L38" t="n">
         <v>4.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7291,31 +7291,31 @@
         <v>2.63</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="n">
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
@@ -7330,40 +7330,40 @@
         <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
       </c>
       <c r="AK38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT38" t="n">
         <v>2.63</v>
@@ -7372,13 +7372,13 @@
         <v>8.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
         <v>34</v>
@@ -7623,13 +7623,13 @@
         <v>3.6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
         <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P40" t="n">
         <v>2.5</v>
@@ -7803,13 +7803,13 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
         <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
         <v>3.2</v>
@@ -7976,7 +7976,7 @@
         <v>2.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
@@ -7985,13 +7985,13 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
         <v>3.2</v>
@@ -8033,10 +8033,10 @@
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8069,7 +8069,7 @@
         <v>4.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
@@ -8099,7 +8099,7 @@
         <v>17</v>
       </c>
       <c r="AY42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
         <v>51</v>
@@ -8167,13 +8167,13 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -8543,10 +8543,10 @@
         <v>3.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
         <v>1.44</v>
@@ -8695,13 +8695,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>3.1</v>
@@ -8710,7 +8710,7 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -8758,7 +8758,7 @@
         <v>19</v>
       </c>
       <c r="AB46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
         <v>11</v>
@@ -8788,7 +8788,7 @@
         <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
         <v>29</v>
@@ -8821,7 +8821,7 @@
         <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX46" t="n">
         <v>15</v>
@@ -9059,22 +9059,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
         <v>2.4</v>
       </c>
       <c r="L48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -9107,7 +9107,7 @@
         <v>2.25</v>
       </c>
       <c r="W48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X48" t="n">
         <v>10</v>
@@ -9119,7 +9119,7 @@
         <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
         <v>21</v>
@@ -9149,25 +9149,25 @@
         <v>15</v>
       </c>
       <c r="AK48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN48" t="n">
         <v>4</v>
       </c>
       <c r="AO48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
       </c>
       <c r="AQ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR48" t="n">
         <v>41</v>
@@ -9185,19 +9185,19 @@
         <v>41</v>
       </c>
       <c r="AW48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX48" t="n">
         <v>21</v>
       </c>
       <c r="AY48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ48" t="n">
         <v>67</v>
       </c>
       <c r="BA48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB48" t="n">
         <v>151</v>
@@ -9262,7 +9262,7 @@
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>1.22</v>
@@ -9423,13 +9423,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>4</v>
@@ -9447,16 +9447,16 @@
         <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="n">
         <v>1.4</v>
@@ -9465,25 +9465,25 @@
         <v>2.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB50" t="n">
         <v>34</v>
@@ -9501,13 +9501,13 @@
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>9</v>
@@ -9525,13 +9525,13 @@
         <v>5.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR50" t="n">
         <v>81</v>
@@ -9552,7 +9552,7 @@
         <v>4</v>
       </c>
       <c r="AX50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY50" t="n">
         <v>21</v>
@@ -9990,19 +9990,19 @@
         <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10697,16 +10697,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
@@ -10718,7 +10718,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -10751,13 +10751,13 @@
         <v>17</v>
       </c>
       <c r="Y57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z57" t="n">
         <v>41</v>
       </c>
       <c r="AA57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB57" t="n">
         <v>41</v>
@@ -10775,16 +10775,16 @@
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH57" t="n">
         <v>6.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK57" t="n">
         <v>19</v>
@@ -10802,7 +10802,7 @@
         <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ57" t="n">
         <v>67</v>
@@ -12336,7 +12336,7 @@
         <v>1.02</v>
       </c>
       <c r="P66" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q66" t="n">
         <v>1.23</v>
@@ -12661,22 +12661,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H68" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I68" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="J68" t="n">
         <v>1.87</v>
       </c>
       <c r="K68" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L68" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
@@ -12688,13 +12688,13 @@
         <v>1.07</v>
       </c>
       <c r="P68" t="n">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R68" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="S68" t="n">
         <v>1.21</v>
@@ -12703,10 +12703,10 @@
         <v>4.1</v>
       </c>
       <c r="U68" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V68" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W68" t="n">
         <v>10.25</v>
@@ -12721,19 +12721,19 @@
         <v>11.25</v>
       </c>
       <c r="AA68" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB68" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC68" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>18</v>
       </c>
       <c r="AD68" t="n">
         <v>9.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF68" t="n">
         <v>45</v>
@@ -12742,25 +12742,25 @@
         <v>250</v>
       </c>
       <c r="AH68" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI68" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ68" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK68" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL68" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM68" t="n">
         <v>40</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO68" t="n">
         <v>6.5</v>
@@ -12778,7 +12778,7 @@
         <v>120</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU68" t="n">
         <v>6.9</v>
@@ -12787,16 +12787,16 @@
         <v>45</v>
       </c>
       <c r="AW68" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AX68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY68" t="n">
         <v>27</v>
       </c>
       <c r="AZ68" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA68" t="n">
         <v>150</v>
@@ -13577,10 +13577,10 @@
         <v>13</v>
       </c>
       <c r="O73" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q73" t="n">
         <v>1.7</v>
@@ -13749,16 +13749,16 @@
         <v>2.35</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="n">
         <v>1.75</v>
@@ -13773,10 +13773,10 @@
         <v>2.4</v>
       </c>
       <c r="U74" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V74" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="W74" t="n">
         <v>9.75</v>
@@ -14458,7 +14458,7 @@
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="O78" t="n">
         <v>1.34</v>
@@ -14764,185 +14764,189 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6m6bZOqo</t>
+          <t>YLnqVaS1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25/11/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX WOMEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres W</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="H80" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="I80" t="n">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K80" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L80" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N80" t="n">
+        <v>17</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T80" t="n">
         <v>3.5</v>
       </c>
-      <c r="M80" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.72</v>
-      </c>
       <c r="U80" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V80" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W80" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="X80" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI80" t="n">
         <v>29</v>
       </c>
-      <c r="AA80" t="n">
+      <c r="AJ80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>21</v>
       </c>
-      <c r="AB80" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>55</v>
-      </c>
       <c r="AR80" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AS80" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AV80" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW80" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AX80" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AY80" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ80" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BA80" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="BB80" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC80" t="inlineStr"/>
-      <c r="BD80" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YLnqVaS1</t>
+          <t>0Eadv45F</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -14962,85 +14966,85 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>4.33</v>
       </c>
       <c r="I81" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="J81" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
+        <v>19</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>19</v>
+      </c>
+      <c r="X81" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y81" t="n">
         <v>17</v>
       </c>
-      <c r="O81" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P81" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W81" t="n">
+      <c r="Z81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD81" t="n">
         <v>9</v>
-      </c>
-      <c r="X81" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>8.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15049,70 +15053,70 @@
         <v>41</v>
       </c>
       <c r="AG81" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS81" t="n">
         <v>151</v>
       </c>
-      <c r="AH81" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="n">
+      <c r="AT81" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO81" t="n">
+      <c r="AU81" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>8</v>
       </c>
       <c r="AV81" t="n">
         <v>41</v>
       </c>
       <c r="AW81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX81" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ81" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB81" t="n">
         <v>81</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>151</v>
       </c>
       <c r="BC81" t="n">
         <v>351</v>
@@ -15124,7 +15128,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0Eadv45F</t>
+          <t>xfgzXLck</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15144,133 +15148,133 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>1.57</v>
+        <v>5.25</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
         <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R82" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S82" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W82" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Y82" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AA82" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AB82" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC82" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
         <v>41</v>
       </c>
       <c r="AG82" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI82" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK82" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL82" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM82" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN82" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AO82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ82" t="n">
         <v>23</v>
       </c>
-      <c r="AP82" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>81</v>
-      </c>
       <c r="AR82" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS82" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT82" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU82" t="n">
         <v>7.5</v>
@@ -15279,25 +15283,25 @@
         <v>41</v>
       </c>
       <c r="AW82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX82" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AY82" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ82" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA82" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB82" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC82" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD82" t="n">
         <v>151</v>
@@ -15306,7 +15310,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>xfgzXLck</t>
+          <t>trtCQa2m</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15316,179 +15320,175 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Real Hope</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Moca</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="I83" t="n">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="J83" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="K83" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R83" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="S83" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="T83" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="U83" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V83" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="W83" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="X83" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z83" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB83" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY83" t="n">
         <v>21</v>
       </c>
-      <c r="AC83" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ83" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="BA83" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BB83" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>151</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC83" t="inlineStr"/>
+      <c r="BD83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trtCQa2m</t>
+          <t>U3Cg8InJ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15508,165 +15508,163 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Real Hope</t>
+          <t>Cavalier</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Moca</t>
+          <t>Cibao</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W84" t="n">
+        <v>11</v>
+      </c>
+      <c r="X84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT84" t="n">
         <v>3.45</v>
       </c>
-      <c r="I84" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N84" t="n">
+      <c r="AU84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX84" t="n">
         <v>11.5</v>
       </c>
-      <c r="O84" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P84" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V84" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W84" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X84" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ84" t="n">
+      <c r="AY84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ84" t="n">
         <v>40</v>
       </c>
-      <c r="AR84" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV84" t="n">
+      <c r="BA84" t="n">
         <v>55</v>
       </c>
-      <c r="AW84" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>90</v>
-      </c>
       <c r="BB84" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC84" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>500</v>
+      </c>
       <c r="BD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>U3Cg8InJ</t>
+          <t>Mavyaiwf</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15676,173 +15674,175 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
+          <t>OMAN - PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cavalier</t>
+          <t>Saham</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cibao</t>
+          <t>Sur Club</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H85" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J85" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="K85" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="L85" t="n">
-        <v>2.77</v>
+        <v>3.35</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="O85" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="P85" t="n">
-        <v>4.75</v>
+        <v>2.78</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="R85" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.27</v>
+      </c>
       <c r="U85" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="W85" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X85" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI85" t="n">
         <v>11</v>
       </c>
-      <c r="X85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y85" t="n">
+      <c r="AJ85" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z85" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG85" t="n">
+      <c r="AK85" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA85" t="n">
         <v>120</v>
       </c>
-      <c r="AH85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>55</v>
-      </c>
       <c r="BB85" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>500</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mavyaiwf</t>
+          <t>IRXqcV76</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -15862,157 +15862,155 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>Al-Rustaq</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sur Club</t>
+          <t>Al Nahda</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I86" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="L86" t="n">
-        <v>3.35</v>
+        <v>2.07</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.8</v>
+        <v>7.23</v>
       </c>
       <c r="O86" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P86" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="Q86" t="n">
         <v>2.05</v>
       </c>
       <c r="R86" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S86" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T86" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="U86" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="V86" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="W86" t="n">
-        <v>6.3</v>
+        <v>10.25</v>
       </c>
       <c r="X86" t="n">
-        <v>9.75</v>
+        <v>26</v>
       </c>
       <c r="Y86" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC86" t="n">
         <v>8</v>
       </c>
-      <c r="Z86" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AD86" t="n">
-        <v>5.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>11.75</v>
+        <v>18.5</v>
       </c>
       <c r="AF86" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP86" t="n">
         <v>50</v>
       </c>
-      <c r="AG86" t="n">
+      <c r="AQ86" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR86" t="n">
         <v>400</v>
       </c>
-      <c r="AH86" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP86" t="n">
+      <c r="AS86" t="inlineStr"/>
+      <c r="AT86" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ86" t="n">
         <v>24</v>
       </c>
-      <c r="AQ86" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>75</v>
-      </c>
       <c r="BA86" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="BB86" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16020,7 +16018,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IRXqcV76</t>
+          <t>0p2VVwbE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16035,168 +16033,168 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>OMAN - PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Al Nahda</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>1.52</v>
       </c>
       <c r="H87" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>2.07</v>
       </c>
       <c r="K87" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L87" t="n">
-        <v>2.07</v>
+        <v>5.9</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>7.23</v>
+        <v>7.1</v>
       </c>
       <c r="O87" t="n">
         <v>1.33</v>
       </c>
       <c r="P87" t="n">
-        <v>2.73</v>
+        <v>3.05</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R87" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S87" t="n">
         <v>1.44</v>
       </c>
       <c r="T87" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="U87" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="V87" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="W87" t="n">
-        <v>10.25</v>
+        <v>5.8</v>
       </c>
       <c r="X87" t="n">
-        <v>26</v>
+        <v>6.3</v>
       </c>
       <c r="Y87" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AA87" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE87" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF87" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG87" t="n">
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>4.6</v>
+        <v>13.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>5.2</v>
+        <v>35</v>
       </c>
       <c r="AJ87" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO87" t="n">
         <v>7.3</v>
       </c>
-      <c r="AK87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO87" t="n">
+      <c r="AP87" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX87" t="n">
         <v>37</v>
       </c>
-      <c r="AP87" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>300</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AY87" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AZ87" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="BA87" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB87" t="n">
-        <v>400</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BB87" t="inlineStr"/>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0p2VVwbE</t>
+          <t>QwEUTK4k</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16206,164 +16204,164 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Steaua Bucuresti</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I88" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="J88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R88" t="n">
         <v>2.07</v>
       </c>
-      <c r="K88" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N88" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P88" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S88" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T88" t="n">
-        <v>2.62</v>
+        <v>3.28</v>
       </c>
       <c r="U88" t="n">
         <v>2.12</v>
       </c>
       <c r="V88" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W88" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X88" t="n">
         <v>5.8</v>
       </c>
-      <c r="X88" t="n">
-        <v>6.3</v>
-      </c>
       <c r="Y88" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA88" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC88" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AD88" t="n">
-        <v>7.8</v>
+        <v>10.75</v>
       </c>
       <c r="AE88" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AF88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AI88" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>35</v>
       </c>
-      <c r="AJ88" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AK88" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM88" t="n">
         <v>120</v>
       </c>
-      <c r="AL88" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>80</v>
-      </c>
       <c r="AN88" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AO88" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="AP88" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AR88" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AS88" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="AU88" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV88" t="n">
         <v>100</v>
       </c>
       <c r="AW88" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AY88" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AZ88" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BA88" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
@@ -16372,7 +16370,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>QwEUTK4k</t>
+          <t>Kx7wSbZ1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16382,7 +16380,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16392,163 +16390,165 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
-        <v>1.65</v>
+        <v>2.47</v>
       </c>
       <c r="K89" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>11.8</v>
+        <v>6.85</v>
       </c>
       <c r="O89" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="P89" t="n">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R89" t="n">
         <v>1.6</v>
       </c>
-      <c r="R89" t="n">
-        <v>2.07</v>
-      </c>
       <c r="S89" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="T89" t="n">
-        <v>3.28</v>
+        <v>2.47</v>
       </c>
       <c r="U89" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="V89" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="W89" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X89" t="n">
-        <v>5.8</v>
+        <v>8.25</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AA89" t="n">
-        <v>11.25</v>
+        <v>16.5</v>
       </c>
       <c r="AB89" t="n">
         <v>32</v>
       </c>
       <c r="AC89" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>10.75</v>
+        <v>6.2</v>
       </c>
       <c r="AE89" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AG89" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH89" t="n">
-        <v>28</v>
+        <v>9.75</v>
       </c>
       <c r="AI89" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AJ89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>35</v>
       </c>
-      <c r="AK89" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>13</v>
-      </c>
       <c r="AR89" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AS89" t="n">
         <v>250</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV89" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AW89" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="AX89" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AY89" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AZ89" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="BA89" t="n">
-        <v>500</v>
-      </c>
-      <c r="BB89" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>400</v>
+      </c>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kx7wSbZ1</t>
+          <t>MZlGlqgt</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16558,175 +16558,179 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N90" t="n">
+        <v>8</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U90" t="n">
         <v>1.8</v>
       </c>
-      <c r="H90" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V90" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="W90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD90" t="n">
         <v>6</v>
       </c>
-      <c r="X90" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AE90" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF90" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG90" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH90" t="n">
-        <v>10.75</v>
+        <v>8</v>
       </c>
       <c r="AI90" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AJ90" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AK90" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AL90" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AM90" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="AO90" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AP90" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ90" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AR90" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AS90" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="AU90" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AV90" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW90" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AY90" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ90" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA90" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB90" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC90" t="inlineStr"/>
-      <c r="BD90" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MZlGlqgt</t>
+          <t>APjFSZK5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16736,179 +16740,175 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SLOVENIA - 2. SNL</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I91" t="n">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="J91" t="n">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="K91" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L91" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O91" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P91" t="n">
         <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R91" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U91" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V91" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W91" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="X91" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE91" t="n">
         <v>15</v>
       </c>
-      <c r="Y91" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z91" t="n">
+      <c r="AF91" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY91" t="n">
         <v>29</v>
       </c>
-      <c r="AA91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ91" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="BA91" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BB91" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC91" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD91" t="n">
-        <v>126</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>APjFSZK5</t>
+          <t>WvuOQDkI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -16928,157 +16928,157 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.62</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I92" t="n">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="J92" t="n">
-        <v>2.18</v>
+        <v>4.85</v>
       </c>
       <c r="K92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L92" t="n">
         <v>2.22</v>
       </c>
-      <c r="L92" t="n">
-        <v>4.8</v>
-      </c>
       <c r="M92" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N92" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O92" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W92" t="n">
+        <v>12</v>
+      </c>
+      <c r="X92" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW92" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q92" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T92" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U92" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V92" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W92" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X92" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Y92" t="n">
+      <c r="AX92" t="n">
         <v>8</v>
       </c>
-      <c r="Z92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF92" t="n">
+      <c r="AY92" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA92" t="n">
         <v>65</v>
       </c>
-      <c r="AG92" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA92" t="n">
-        <v>175</v>
-      </c>
       <c r="BB92" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
@@ -17086,7 +17086,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WvuOQDkI</t>
+          <t>CCP2sBJk</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17096,134 +17096,134 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SLOVENIA - 2. SNL</t>
+          <t>SOUTH AFRICA - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="I93" t="n">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="J93" t="n">
-        <v>4.85</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P93" t="n">
         <v>2.15</v>
       </c>
-      <c r="L93" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N93" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P93" t="n">
-        <v>3</v>
-      </c>
       <c r="Q93" t="n">
-        <v>1.83</v>
+        <v>2.85</v>
       </c>
       <c r="R93" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="T93" t="n">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="U93" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="V93" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="W93" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X93" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y93" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AA93" t="n">
         <v>45</v>
       </c>
       <c r="AB93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM93" t="n">
         <v>55</v>
       </c>
-      <c r="AC93" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>29</v>
-      </c>
       <c r="AN93" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO93" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AP93" t="n">
         <v>35</v>
       </c>
       <c r="AQ93" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR93" t="n">
         <v>200</v>
@@ -17232,39 +17232,43 @@
         <v>500</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AU93" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV93" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AW93" t="n">
-        <v>3.4</v>
+        <v>4.05</v>
       </c>
       <c r="AX93" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AY93" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AZ93" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="BA93" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="BB93" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC93" t="inlineStr"/>
-      <c r="BD93" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CCP2sBJk</t>
+          <t>nk451WAL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17284,157 +17288,157 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="I94" t="n">
-        <v>2.45</v>
+        <v>3.35</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="L94" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="M94" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N94" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P94" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="R94" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="S94" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T94" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="U94" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="V94" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="W94" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="X94" t="n">
-        <v>14</v>
+        <v>9.75</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AA94" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AB94" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AC94" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD94" t="n">
         <v>5.7</v>
       </c>
       <c r="AE94" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AG94" t="n">
         <v>101</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AI94" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK94" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AL94" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AM94" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ94" t="n">
         <v>55</v>
       </c>
-      <c r="AN94" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>120</v>
-      </c>
       <c r="AR94" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AS94" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AU94" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV94" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AW94" t="n">
-        <v>4.05</v>
+        <v>5.1</v>
       </c>
       <c r="AX94" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AY94" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ94" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BA94" t="n">
         <v>150</v>
       </c>
       <c r="BB94" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC94" t="n">
         <v>51</v>
@@ -17446,7 +17450,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>nk451WAL</t>
+          <t>KxTAukl2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17466,157 +17470,157 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H95" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I95" t="n">
         <v>3.35</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K95" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="L95" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="M95" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N95" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O95" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P95" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="R95" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="S95" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="T95" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U95" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="V95" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="W95" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="X95" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z95" t="n">
         <v>24</v>
       </c>
       <c r="AA95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB95" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC95" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD95" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE95" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AF95" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AG95" t="n">
         <v>101</v>
       </c>
       <c r="AH95" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AI95" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ95" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AK95" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL95" t="n">
         <v>45</v>
       </c>
-      <c r="AL95" t="n">
-        <v>35</v>
-      </c>
       <c r="AM95" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AN95" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AO95" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AQ95" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR95" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AS95" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AU95" t="n">
-        <v>7.3</v>
+        <v>8.75</v>
       </c>
       <c r="AV95" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AW95" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX95" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY95" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AZ95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="BA95" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BB95" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>
@@ -17628,7 +17632,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KxTAukl2</t>
+          <t>MyS7z3gR</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17638,179 +17642,179 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOUTH AFRICA - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="K96" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="L96" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N96" t="n">
-        <v>4.85</v>
+        <v>15</v>
       </c>
       <c r="O96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U96" t="n">
         <v>1.62</v>
       </c>
-      <c r="P96" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T96" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U96" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V96" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="W96" t="n">
-        <v>4.85</v>
+        <v>9</v>
       </c>
       <c r="X96" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AA96" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AB96" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AC96" t="n">
-        <v>4.85</v>
+        <v>15</v>
       </c>
       <c r="AD96" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AE96" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AF96" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AG96" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS96" t="n">
         <v>101</v>
       </c>
-      <c r="AH96" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>500</v>
-      </c>
       <c r="AT96" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="AU96" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV96" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AW96" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX96" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AY96" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AZ96" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="BA96" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BB96" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC96" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD96" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MyS7z3gR</t>
+          <t>dIEdHnXH</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -17820,179 +17824,177 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SPAIN - COPA DEL REY</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>CP Parla</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>26</v>
       </c>
       <c r="H97" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
       <c r="I97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J97" t="n">
+        <v>29</v>
+      </c>
+      <c r="K97" t="n">
         <v>4.5</v>
       </c>
-      <c r="J97" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L97" t="n">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>41</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P97" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q97" t="n">
         <v>1.2</v>
       </c>
-      <c r="P97" t="n">
+      <c r="R97" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q97" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T97" t="n">
+        <v>6</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V97" t="n">
         <v>1.33</v>
       </c>
-      <c r="T97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U97" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V97" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W97" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="X97" t="n">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="Y97" t="n">
-        <v>8.5</v>
+        <v>51</v>
       </c>
       <c r="Z97" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA97" t="n">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="AC97" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AD97" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="AE97" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AF97" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>151</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="n">
         <v>15</v>
       </c>
       <c r="AI97" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AJ97" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM97" t="n">
         <v>51</v>
       </c>
-      <c r="AL97" t="n">
+      <c r="AN97" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>401</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA97" t="n">
         <v>34</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA97" t="n">
-        <v>81</v>
       </c>
       <c r="BB97" t="n">
         <v>151</v>
       </c>
       <c r="BC97" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD97" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dIEdHnXH</t>
+          <t>rejTFZeD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18012,16 +18014,16 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CP Parla</t>
+          <t>Manises</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H98" t="n">
         <v>19</v>
@@ -18030,19 +18032,19 @@
         <v>1.04</v>
       </c>
       <c r="J98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K98" t="n">
         <v>4.5</v>
       </c>
       <c r="L98" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M98" t="n">
         <v>41</v>
       </c>
       <c r="N98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O98" t="n">
         <v>1.05</v>
@@ -18051,10 +18053,10 @@
         <v>11</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R98" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S98" t="n">
         <v>1.13</v>
@@ -18063,40 +18065,38 @@
         <v>6</v>
       </c>
       <c r="U98" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V98" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="Y98" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>51</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AB98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AC98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD98" t="n">
         <v>34</v>
       </c>
       <c r="AE98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF98" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="n">
@@ -18106,13 +18106,13 @@
         <v>8</v>
       </c>
       <c r="AJ98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK98" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AL98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM98" t="n">
         <v>51</v>
@@ -18126,23 +18126,17 @@
       <c r="AP98" t="n">
         <v>101</v>
       </c>
-      <c r="AQ98" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR98" t="n">
-        <v>401</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>451</v>
-      </c>
+      <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="inlineStr"/>
+      <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="n">
         <v>6</v>
       </c>
       <c r="AU98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV98" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW98" t="n">
         <v>3.4</v>
@@ -18151,28 +18145,24 @@
         <v>3.75</v>
       </c>
       <c r="AY98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ98" t="n">
         <v>6</v>
       </c>
       <c r="BA98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB98" t="n">
         <v>151</v>
       </c>
-      <c r="BC98" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD98" t="n">
-        <v>51</v>
-      </c>
+      <c r="BC98" t="inlineStr"/>
+      <c r="BD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rejTFZeD</t>
+          <t>0QwKuo6e</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18182,165 +18172,179 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SPAIN - COPA DEL REY</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Manises</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W99" t="n">
+        <v>7</v>
+      </c>
+      <c r="X99" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL99" t="n">
         <v>29</v>
       </c>
-      <c r="H99" t="n">
+      <c r="AM99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX99" t="n">
         <v>19</v>
       </c>
-      <c r="I99" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M99" t="n">
-        <v>41</v>
-      </c>
-      <c r="N99" t="n">
-        <v>25</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P99" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S99" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T99" t="n">
-        <v>6</v>
-      </c>
-      <c r="U99" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W99" t="n">
+      <c r="AY99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ99" t="n">
         <v>51</v>
       </c>
-      <c r="X99" t="n">
-        <v>201</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="n">
-        <v>351</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>201</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE99" t="n">
+      <c r="BA99" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC99" t="n">
         <v>51</v>
       </c>
-      <c r="AF99" t="n">
-        <v>201</v>
-      </c>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM99" t="n">
+      <c r="BD99" t="n">
         <v>51</v>
       </c>
-      <c r="AN99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>101</v>
-      </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC99" t="inlineStr"/>
-      <c r="BD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0QwKuo6e</t>
+          <t>tznSwPz8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -18350,7 +18354,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -18360,157 +18364,157 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L100" t="n">
         <v>3.1</v>
       </c>
-      <c r="I100" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>11</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V100" t="n">
         <v>2</v>
       </c>
-      <c r="L100" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P100" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S100" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V100" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W100" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X100" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y100" t="n">
         <v>11</v>
       </c>
-      <c r="Y100" t="n">
-        <v>10</v>
-      </c>
       <c r="Z100" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA100" t="n">
         <v>21</v>
       </c>
       <c r="AB100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC100" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO100" t="n">
         <v>15</v>
       </c>
-      <c r="AF100" t="n">
+      <c r="AP100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ100" t="n">
         <v>51</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>41</v>
       </c>
       <c r="AR100" t="n">
         <v>67</v>
       </c>
       <c r="AS100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU100" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV100" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA100" t="n">
         <v>67</v>
       </c>
-      <c r="AW100" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>81</v>
-      </c>
       <c r="BB100" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18522,7 +18526,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tznSwPz8</t>
+          <t>UeSMa6cR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -18532,7 +18536,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -18542,31 +18546,31 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K101" t="n">
         <v>2.2</v>
       </c>
       <c r="L101" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M101" t="n">
         <v>1.05</v>
@@ -18581,10 +18585,10 @@
         <v>3.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R101" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S101" t="n">
         <v>1.4</v>
@@ -18599,22 +18603,22 @@
         <v>2</v>
       </c>
       <c r="W101" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X101" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y101" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z101" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA101" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC101" t="n">
         <v>11</v>
@@ -18632,37 +18636,37 @@
         <v>201</v>
       </c>
       <c r="AH101" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI101" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>12</v>
       </c>
-      <c r="AJ101" t="n">
-        <v>10</v>
-      </c>
       <c r="AK101" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL101" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO101" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ101" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR101" t="n">
         <v>51</v>
-      </c>
-      <c r="AR101" t="n">
-        <v>67</v>
       </c>
       <c r="AS101" t="n">
         <v>151</v>
@@ -18671,25 +18675,25 @@
         <v>2.75</v>
       </c>
       <c r="AU101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV101" t="n">
         <v>51</v>
       </c>
       <c r="AW101" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX101" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA101" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB101" t="n">
         <v>151</v>
@@ -18704,7 +18708,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>IN9VZckt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -18714,7 +18718,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -18724,31 +18728,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I102" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="J102" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="K102" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L102" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="M102" t="n">
         <v>1.05</v>
@@ -18757,16 +18761,16 @@
         <v>11</v>
       </c>
       <c r="O102" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P102" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R102" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S102" t="n">
         <v>1.4</v>
@@ -18775,118 +18779,112 @@
         <v>2.75</v>
       </c>
       <c r="U102" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V102" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W102" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X102" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y102" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD102" t="n">
         <v>9</v>
       </c>
-      <c r="Z102" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL102" t="n">
         <v>13</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>26</v>
       </c>
       <c r="AM102" t="n">
         <v>34</v>
       </c>
       <c r="AN102" t="n">
-        <v>4.33</v>
+        <v>9</v>
       </c>
       <c r="AO102" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AP102" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ102" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AR102" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>151</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AS102" t="inlineStr"/>
       <c r="AT102" t="n">
         <v>2.75</v>
       </c>
       <c r="AU102" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV102" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW102" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AX102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ102" t="n">
         <v>19</v>
       </c>
-      <c r="AY102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>51</v>
-      </c>
       <c r="BA102" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB102" t="n">
         <v>151</v>
       </c>
-      <c r="BC102" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD102" t="n">
-        <v>51</v>
-      </c>
+      <c r="BC102" t="inlineStr"/>
+      <c r="BD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>QHWqjFUh</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -18896,165 +18894,167 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>WORLD - FRIENDLY INTERNATIONAL</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Algeria U20</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Libya U20</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N103" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W103" t="n">
+        <v>6</v>
+      </c>
+      <c r="X103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU103" t="n">
         <v>8</v>
       </c>
-      <c r="H103" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>11</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P103" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T103" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U103" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V103" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W103" t="n">
-        <v>17</v>
-      </c>
-      <c r="X103" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR103" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS103" t="inlineStr"/>
-      <c r="AT103" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU103" t="n">
-        <v>10</v>
-      </c>
       <c r="AV103" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AW103" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="AX103" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AY103" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AZ103" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="BA103" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="BB103" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC103" t="inlineStr"/>
       <c r="BD103" t="inlineStr"/>
@@ -19062,7 +19062,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>QHWqjFUh</t>
+          <t>2y7saADN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -19082,338 +19082,160 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Algeria U20</t>
+          <t>Egypt U20</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Libya U20</t>
+          <t>Tunisia U20</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="H104" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I104" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="J104" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="K104" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L104" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="M104" t="n">
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O104" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P104" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q104" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R104" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S104" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T104" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="U104" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="V104" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="W104" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="X104" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="Y104" t="n">
         <v>8.5</v>
       </c>
       <c r="Z104" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE104" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB104" t="n">
+      <c r="AF104" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL104" t="n">
         <v>32</v>
       </c>
-      <c r="AC104" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF104" t="n">
+      <c r="AM104" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ104" t="n">
         <v>100</v>
       </c>
-      <c r="AG104" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO104" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP104" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ104" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR104" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS104" t="n">
+      <c r="BA104" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB104" t="n">
         <v>350</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU104" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV104" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW104" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX104" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY104" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ104" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA104" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB104" t="n">
-        <v>500</v>
       </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2y7saADN</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>26/11/2024</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Egypt U20</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Tunisia U20</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H105" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R105" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S105" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T105" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U105" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V105" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W105" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X105" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW105" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX105" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA105" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J2" t="n">
         <v>9.5</v>
@@ -828,16 +828,16 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -849,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1487,7 +1487,7 @@
         <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
@@ -1544,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1577,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -4007,7 +4007,7 @@
         <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L20" t="n">
         <v>3.5</v>
@@ -4019,22 +4019,22 @@
         <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
         <v>2.63</v>
@@ -4061,7 +4061,7 @@
         <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4101,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="AQ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR20" t="n">
         <v>151</v>
@@ -4110,7 +4110,7 @@
         <v>501</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
@@ -4211,19 +4211,19 @@
         <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -4232,10 +4232,10 @@
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4250,7 +4250,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>150</v>
@@ -4286,16 +4286,16 @@
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>81</v>
@@ -4322,7 +4322,7 @@
         <v>400</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -4357,22 +4357,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4381,100 +4381,100 @@
         <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="T22" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="V22" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="W22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
         <v>10.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
         <v>24</v>
       </c>
-      <c r="AB22" t="n">
-        <v>25</v>
-      </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE22" t="n">
         <v>10.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="n">
         <v>200</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AK22" t="n">
         <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AN22" t="n">
         <v>5.7</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS22" t="n">
         <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="AU22" t="n">
         <v>6.7</v>
@@ -4483,22 +4483,22 @@
         <v>50</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -5081,13 +5081,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
         <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -5129,10 +5129,10 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
@@ -5141,7 +5141,7 @@
         <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB26" t="n">
         <v>30</v>
@@ -5165,13 +5165,13 @@
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
         <v>13.5</v>
@@ -5183,10 +5183,10 @@
         <v>5.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
@@ -5445,19 +5445,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.5</v>
       </c>
       <c r="J28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L28" t="n">
         <v>1.93</v>
@@ -5478,13 +5478,13 @@
         <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="S28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -5493,7 +5493,7 @@
         <v>2.4</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X28" t="n">
         <v>40</v>
@@ -5514,10 +5514,10 @@
         <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
         <v>40</v>
@@ -5547,7 +5547,7 @@
         <v>7.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
@@ -5562,7 +5562,7 @@
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AU28" t="n">
         <v>6.9</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L30" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -5849,74 +5849,74 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
         <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
         <v>13.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="n">
         <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AP30" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS30" t="n">
         <v>300</v>
@@ -5925,19 +5925,19 @@
         <v>2.57</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV30" t="n">
         <v>90</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AX30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ30" t="n">
         <v>250</v>
@@ -5990,55 +5990,55 @@
         <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L31" t="n">
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S31" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T31" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U31" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="V31" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="X31" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
@@ -6047,34 +6047,34 @@
         <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI31" t="n">
         <v>26</v>
       </c>
-      <c r="AC31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
         <v>80</v>
@@ -6086,31 +6086,31 @@
         <v>50</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW31" t="n">
         <v>6.3</v>
@@ -6128,7 +6128,7 @@
         <v>200</v>
       </c>
       <c r="BB31" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
@@ -6347,22 +6347,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -6371,16 +6371,16 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
         <v>1.36</v>
@@ -6389,10 +6389,10 @@
         <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W33" t="n">
         <v>7.5</v>
@@ -6449,16 +6449,16 @@
         <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP33" t="n">
         <v>19</v>
       </c>
       <c r="AQ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
         <v>126</v>
@@ -6476,7 +6476,7 @@
         <v>6.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY33" t="n">
         <v>29</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
         <v>3.9</v>
@@ -7067,88 +7067,88 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
       </c>
       <c r="Z37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA37" t="n">
         <v>23</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>21</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
@@ -7160,10 +7160,10 @@
         <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
         <v>4.5</v>
@@ -7172,7 +7172,7 @@
         <v>15</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7181,16 +7181,16 @@
         <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW37" t="n">
         <v>4.75</v>
@@ -7199,7 +7199,7 @@
         <v>17</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
         <v>51</v>
@@ -7208,7 +7208,7 @@
         <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC37" t="n">
         <v>126</v>
@@ -7279,10 +7279,10 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7623,13 +7623,13 @@
         <v>3.6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
         <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
         <v>2.5</v>
@@ -7785,34 +7785,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>2.2</v>
@@ -7821,37 +7821,37 @@
         <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X41" t="n">
         <v>9.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
         <v>6.5</v>
@@ -7863,19 +7863,19 @@
         <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
         <v>12</v>
       </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
         <v>29</v>
@@ -7887,10 +7887,10 @@
         <v>4</v>
       </c>
       <c r="AO41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -7902,16 +7902,16 @@
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU41" t="n">
         <v>8.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
         <v>21</v>
@@ -7973,25 +7973,25 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L42" t="n">
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
         <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
         <v>3.2</v>
@@ -8009,16 +8009,16 @@
         <v>2.63</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8030,10 +8030,10 @@
         <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD42" t="n">
         <v>6.5</v>
@@ -8045,7 +8045,7 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH42" t="n">
         <v>8.5</v>
@@ -8060,22 +8060,22 @@
         <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM42" t="n">
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO42" t="n">
         <v>13</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
@@ -8114,7 +8114,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
@@ -8155,7 +8155,7 @@
         <v>4.33</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J43" t="n">
         <v>1.95</v>
@@ -8167,22 +8167,22 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
         <v>1.29</v>
@@ -8197,13 +8197,13 @@
         <v>2.1</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>8</v>
       </c>
       <c r="Y43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z43" t="n">
         <v>11</v>
@@ -8233,10 +8233,10 @@
         <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
         <v>67</v>
@@ -8334,7 +8334,7 @@
         <v>1.45</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
@@ -8346,40 +8346,40 @@
         <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X44" t="n">
         <v>6.5</v>
@@ -8388,31 +8388,31 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
       </c>
       <c r="AE44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF44" t="n">
         <v>67</v>
       </c>
       <c r="AG44" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI44" t="n">
         <v>34</v>
@@ -8430,28 +8430,28 @@
         <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO44" t="n">
         <v>7</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ44" t="n">
         <v>21</v>
       </c>
       <c r="AR44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS44" t="n">
         <v>151</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV44" t="n">
         <v>67</v>
@@ -8460,7 +8460,7 @@
         <v>8</v>
       </c>
       <c r="AX44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY44" t="n">
         <v>41</v>
@@ -8475,7 +8475,7 @@
         <v>351</v>
       </c>
       <c r="BC44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8531,22 +8531,22 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S45" t="n">
         <v>1.44</v>
@@ -8877,22 +8877,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -8928,13 +8928,13 @@
         <v>7</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
         <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA47" t="n">
         <v>21</v>
@@ -8955,37 +8955,37 @@
         <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH47" t="n">
         <v>8</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ47" t="n">
         <v>11</v>
       </c>
       <c r="AK47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM47" t="n">
         <v>34</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>41</v>
       </c>
       <c r="AN47" t="n">
         <v>4.33</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP47" t="n">
         <v>26</v>
       </c>
       <c r="AQ47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR47" t="n">
         <v>67</v>
@@ -9006,16 +9006,16 @@
         <v>5</v>
       </c>
       <c r="AX47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY47" t="n">
         <v>29</v>
       </c>
       <c r="AZ47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB47" t="n">
         <v>251</v>
@@ -9271,10 +9271,10 @@
         <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9423,22 +9423,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -9471,22 +9471,22 @@
         <v>1.95</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z50" t="n">
         <v>41</v>
       </c>
       <c r="AA50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="n">
         <v>10</v>
@@ -9504,37 +9504,37 @@
         <v>251</v>
       </c>
       <c r="AH50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM50" t="n">
         <v>26</v>
       </c>
       <c r="AN50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP50" t="n">
         <v>29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS50" t="n">
         <v>201</v>
@@ -9549,16 +9549,16 @@
         <v>51</v>
       </c>
       <c r="AW50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY50" t="n">
         <v>21</v>
       </c>
       <c r="AZ50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA50" t="n">
         <v>51</v>
@@ -9993,16 +9993,16 @@
         <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10515,22 +10515,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10545,16 +10545,16 @@
         <v>4.33</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U56" t="n">
         <v>1.75</v>
@@ -10566,28 +10566,28 @@
         <v>8</v>
       </c>
       <c r="X56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z56" t="n">
         <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF56" t="n">
         <v>51</v>
@@ -10596,13 +10596,13 @@
         <v>201</v>
       </c>
       <c r="AH56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK56" t="n">
         <v>51</v>
@@ -10614,25 +10614,25 @@
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP56" t="n">
         <v>17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
         <v>41</v>
       </c>
       <c r="AS56" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU56" t="n">
         <v>8</v>
@@ -10644,13 +10644,13 @@
         <v>7</v>
       </c>
       <c r="AX56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY56" t="n">
         <v>29</v>
       </c>
       <c r="AZ56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA56" t="n">
         <v>101</v>
@@ -10718,7 +10718,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -11260,7 +11260,7 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O60" t="n">
         <v>1.5</v>
@@ -13553,16 +13553,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>3.75</v>
       </c>
       <c r="I73" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K73" t="n">
         <v>2.3</v>
@@ -13595,16 +13595,16 @@
         <v>3.25</v>
       </c>
       <c r="U73" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y73" t="n">
         <v>8.5</v>
@@ -13649,16 +13649,16 @@
         <v>34</v>
       </c>
       <c r="AM73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN73" t="n">
         <v>3.75</v>
       </c>
       <c r="AO73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ73" t="n">
         <v>26</v>
@@ -13667,7 +13667,7 @@
         <v>41</v>
       </c>
       <c r="AS73" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT73" t="n">
         <v>3.25</v>
@@ -13691,10 +13691,10 @@
         <v>81</v>
       </c>
       <c r="BA73" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB73" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
@@ -14458,7 +14458,7 @@
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="O78" t="n">
         <v>1.34</v>
@@ -14814,7 +14814,7 @@
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O80" t="n">
         <v>1.17</v>
@@ -15157,13 +15157,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J82" t="n">
         <v>2.1</v>
@@ -15205,7 +15205,7 @@
         <v>2.2</v>
       </c>
       <c r="W82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X82" t="n">
         <v>9</v>
@@ -15241,7 +15241,7 @@
         <v>19</v>
       </c>
       <c r="AI82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ82" t="n">
         <v>17</v>
@@ -15693,22 +15693,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.47</v>
+        <v>2.22</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K85" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L85" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="M85" t="n">
         <v>1.01</v>
@@ -15741,70 +15741,70 @@
         <v>1.93</v>
       </c>
       <c r="W85" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="X85" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z85" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB85" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC85" t="n">
         <v>7.9</v>
       </c>
       <c r="AD85" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE85" t="n">
         <v>11.75</v>
       </c>
       <c r="AF85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG85" t="n">
         <v>400</v>
       </c>
       <c r="AH85" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL85" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN85" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="AO85" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ85" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR85" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS85" t="n">
         <v>350</v>
@@ -15813,22 +15813,22 @@
         <v>2.27</v>
       </c>
       <c r="AU85" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV85" t="n">
         <v>75</v>
       </c>
       <c r="AW85" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="AX85" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ85" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BA85" t="n">
         <v>120</v>
@@ -16420,7 +16420,7 @@
         <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="O89" t="n">
         <v>1.37</v>
@@ -16577,7 +16577,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>3.1</v>
@@ -16595,16 +16595,16 @@
         <v>3.2</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P90" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q90" t="n">
         <v>2.1</v>
@@ -16625,10 +16625,10 @@
         <v>1.95</v>
       </c>
       <c r="W90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y90" t="n">
         <v>11</v>
@@ -16649,7 +16649,7 @@
         <v>6</v>
       </c>
       <c r="AE90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
         <v>51</v>
@@ -16673,7 +16673,7 @@
         <v>21</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN90" t="n">
         <v>4.75</v>
@@ -16709,7 +16709,7 @@
         <v>15</v>
       </c>
       <c r="AY90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ90" t="n">
         <v>51</v>
@@ -17661,40 +17661,40 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I96" t="n">
         <v>4.5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K96" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L96" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M96" t="n">
         <v>1.03</v>
       </c>
       <c r="N96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O96" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P96" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R96" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S96" t="n">
         <v>1.3</v>
@@ -17721,7 +17721,7 @@
         <v>13</v>
       </c>
       <c r="AA96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB96" t="n">
         <v>21</v>
@@ -17742,7 +17742,7 @@
         <v>151</v>
       </c>
       <c r="AH96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI96" t="n">
         <v>26</v>
@@ -17769,7 +17769,7 @@
         <v>17</v>
       </c>
       <c r="AQ96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR96" t="n">
         <v>41</v>
@@ -18221,10 +18221,10 @@
         <v>3</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S99" t="n">
         <v>1.5</v>
@@ -18737,19 +18737,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H102" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I102" t="n">
         <v>1.38</v>
       </c>
       <c r="J102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K102" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L102" t="n">
         <v>1.91</v>
@@ -18761,16 +18761,16 @@
         <v>11</v>
       </c>
       <c r="O102" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R102" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S102" t="n">
         <v>1.4</v>
@@ -18779,10 +18779,10 @@
         <v>2.75</v>
       </c>
       <c r="U102" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V102" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W102" t="n">
         <v>17</v>
@@ -18791,7 +18791,7 @@
         <v>41</v>
       </c>
       <c r="Y102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z102" t="n">
         <v>101</v>
@@ -18803,65 +18803,65 @@
         <v>67</v>
       </c>
       <c r="AC102" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD102" t="n">
         <v>9</v>
       </c>
       <c r="AE102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF102" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG102" t="n">
         <v>101</v>
       </c>
       <c r="AH102" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI102" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL102" t="n">
         <v>13</v>
       </c>
       <c r="AM102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO102" t="n">
         <v>41</v>
       </c>
       <c r="AP102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ102" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR102" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AS102" t="inlineStr"/>
       <c r="AT102" t="n">
         <v>2.75</v>
       </c>
       <c r="AU102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW102" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX102" t="n">
         <v>6.5</v>
@@ -18870,13 +18870,13 @@
         <v>21</v>
       </c>
       <c r="AZ102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC102" t="inlineStr"/>
       <c r="BD102" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD104"/>
+  <dimension ref="A1:BD106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
         <v>9.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -828,13 +828,13 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -1114,19 +1114,19 @@
         <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1189,22 +1189,22 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1487,7 +1487,7 @@
         <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
         <v>4.75</v>
@@ -1544,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1986,7 +1986,7 @@
         <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>41</v>
@@ -2703,9 +2703,15 @@
       <c r="BA12" t="n">
         <v>201</v>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4175,22 +4181,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.1</v>
       </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -4199,37 +4205,37 @@
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
         <v>23</v>
@@ -4241,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4253,10 +4259,10 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>150</v>
+        <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
@@ -4289,19 +4295,19 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4316,7 +4322,7 @@
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -4357,25 +4363,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -4387,10 +4393,10 @@
         <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
         <v>1.28</v>
@@ -4405,43 +4411,43 @@
         <v>2.38</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
         <v>24</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>7.1</v>
@@ -4450,19 +4456,19 @@
         <v>13.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM22" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO22" t="n">
         <v>19.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ22" t="n">
         <v>90</v>
@@ -4474,28 +4480,28 @@
         <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AX22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB22" t="n">
         <v>150</v>
@@ -4535,22 +4541,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L23" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4559,16 +4565,16 @@
         <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
         <v>1.33</v>
@@ -4583,7 +4589,7 @@
         <v>2.22</v>
       </c>
       <c r="W23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -4592,10 +4598,10 @@
         <v>8.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>21</v>
@@ -4604,7 +4610,7 @@
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE23" t="n">
         <v>12.5</v>
@@ -4619,7 +4625,7 @@
         <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -4628,22 +4634,22 @@
         <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
         <v>30</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>16</v>
       </c>
       <c r="AQ23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>55</v>
@@ -4655,22 +4661,22 @@
         <v>3.05</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV23" t="n">
         <v>50</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA23" t="n">
         <v>110</v>
@@ -4720,16 +4726,16 @@
         <v>1.34</v>
       </c>
       <c r="H24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
@@ -4738,37 +4744,37 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R24" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S24" t="n">
         <v>1.26</v>
       </c>
       <c r="T24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U24" t="n">
         <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
@@ -4783,13 +4789,13 @@
         <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>65</v>
@@ -4819,10 +4825,10 @@
         <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>15</v>
@@ -4834,10 +4840,10 @@
         <v>150</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV24" t="n">
         <v>60</v>
@@ -4846,7 +4852,7 @@
         <v>8.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY24" t="n">
         <v>35</v>
@@ -4855,10 +4861,10 @@
         <v>250</v>
       </c>
       <c r="BA24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4911,43 +4917,43 @@
         <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
@@ -4959,25 +4965,25 @@
         <v>37</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
         <v>30</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE25" t="n">
         <v>12.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH25" t="n">
         <v>8.5</v>
@@ -4986,16 +4992,16 @@
         <v>11.75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK25" t="n">
         <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -5007,25 +5013,25 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR25" t="n">
         <v>110</v>
       </c>
       <c r="AS25" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5084,16 +5090,16 @@
         <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L26" t="n">
         <v>2.4</v>
@@ -5111,16 +5117,16 @@
         <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U26" t="n">
         <v>1.6</v>
@@ -5150,7 +5156,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5165,13 +5171,13 @@
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>13.5</v>
@@ -5186,7 +5192,7 @@
         <v>18.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
@@ -5198,10 +5204,10 @@
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
@@ -5263,55 +5269,55 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="n">
         <v>4.25</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L27" t="n">
         <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
         <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
         <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X27" t="n">
         <v>19</v>
@@ -5323,13 +5329,13 @@
         <v>55</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="n">
         <v>50</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
@@ -5344,7 +5350,7 @@
         <v>800</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI27" t="n">
         <v>8.5</v>
@@ -5353,22 +5359,22 @@
         <v>8.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN27" t="n">
         <v>5.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
         <v>120</v>
@@ -5377,10 +5383,10 @@
         <v>175</v>
       </c>
       <c r="AS27" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
@@ -5392,7 +5398,7 @@
         <v>3.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY27" t="n">
         <v>19.5</v>
@@ -6169,7 +6175,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
@@ -6347,7 +6353,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
@@ -6525,7 +6531,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
         <v>3.9</v>
@@ -7088,7 +7094,7 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -7097,10 +7103,10 @@
         <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
         <v>1.53</v>
@@ -7279,10 +7285,10 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7973,28 +7979,28 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" t="n">
         <v>2.1</v>
@@ -8009,16 +8015,16 @@
         <v>2.63</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8033,7 +8039,7 @@
         <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD42" t="n">
         <v>6.5</v>
@@ -8045,7 +8051,7 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH42" t="n">
         <v>8.5</v>
@@ -8066,7 +8072,7 @@
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO42" t="n">
         <v>13</v>
@@ -8075,7 +8081,7 @@
         <v>23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
@@ -8173,10 +8179,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
         <v>1.62</v>
@@ -8337,13 +8343,13 @@
         <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L44" t="n">
         <v>7</v>
@@ -8352,7 +8358,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
@@ -8397,7 +8403,7 @@
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
@@ -8412,13 +8418,13 @@
         <v>451</v>
       </c>
       <c r="AH44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK44" t="n">
         <v>81</v>
@@ -8433,7 +8439,7 @@
         <v>3.25</v>
       </c>
       <c r="AO44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP44" t="n">
         <v>21</v>
@@ -8469,13 +8475,13 @@
         <v>151</v>
       </c>
       <c r="BA44" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC44" t="n">
         <v>151</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>126</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8513,13 +8519,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J45" t="n">
         <v>2.88</v>
@@ -8531,16 +8537,16 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -8564,7 +8570,7 @@
         <v>7</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y45" t="n">
         <v>9</v>
@@ -8603,7 +8609,7 @@
         <v>12</v>
       </c>
       <c r="AK45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="n">
         <v>29</v>
@@ -8642,7 +8648,7 @@
         <v>5.5</v>
       </c>
       <c r="AX45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY45" t="n">
         <v>29</v>
@@ -9059,28 +9065,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K48" t="n">
         <v>2.4</v>
       </c>
       <c r="L48" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O48" t="n">
         <v>1.17</v>
@@ -9101,37 +9107,37 @@
         <v>3.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
         <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
         <v>41</v>
@@ -9149,25 +9155,25 @@
         <v>15</v>
       </c>
       <c r="AK48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN48" t="n">
         <v>4</v>
       </c>
       <c r="AO48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
       </c>
       <c r="AQ48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR48" t="n">
         <v>41</v>
@@ -9185,19 +9191,19 @@
         <v>41</v>
       </c>
       <c r="AW48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ48" t="n">
         <v>67</v>
       </c>
       <c r="BA48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB48" t="n">
         <v>151</v>
@@ -10536,19 +10542,19 @@
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S56" t="n">
         <v>1.3</v>
@@ -10557,19 +10563,19 @@
         <v>3.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z56" t="n">
         <v>12</v>
@@ -10587,13 +10593,13 @@
         <v>8.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH56" t="n">
         <v>17</v>
@@ -10602,7 +10608,7 @@
         <v>29</v>
       </c>
       <c r="AJ56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK56" t="n">
         <v>51</v>
@@ -10614,7 +10620,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO56" t="n">
         <v>7.5</v>
@@ -10644,19 +10650,19 @@
         <v>7</v>
       </c>
       <c r="AX56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY56" t="n">
         <v>29</v>
       </c>
       <c r="AZ56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA56" t="n">
         <v>101</v>
       </c>
       <c r="BB56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC56" t="n">
         <v>501</v>
@@ -10727,10 +10733,10 @@
         <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
         <v>1.5</v>
@@ -11260,7 +11266,7 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="O60" t="n">
         <v>1.5</v>
@@ -11978,7 +11984,7 @@
         <v>1.05</v>
       </c>
       <c r="P64" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="Q64" t="n">
         <v>1.36</v>
@@ -12688,7 +12694,7 @@
         <v>1.07</v>
       </c>
       <c r="P68" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="Q68" t="n">
         <v>1.4</v>
@@ -12841,22 +12847,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="H69" t="n">
         <v>3.65</v>
       </c>
       <c r="I69" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="K69" t="n">
         <v>2.32</v>
       </c>
       <c r="L69" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
@@ -12871,10 +12877,10 @@
         <v>4.65</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S69" t="n">
         <v>1.25</v>
@@ -12883,31 +12889,31 @@
         <v>3.6</v>
       </c>
       <c r="U69" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V69" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W69" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="X69" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z69" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA69" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB69" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD69" t="n">
         <v>7.6</v>
@@ -12922,37 +12928,37 @@
         <v>200</v>
       </c>
       <c r="AH69" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AI69" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK69" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL69" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN69" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="AO69" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS69" t="n">
         <v>150</v>
@@ -12967,16 +12973,16 @@
         <v>40</v>
       </c>
       <c r="AW69" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AX69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY69" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ69" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BA69" t="n">
         <v>70</v>
@@ -12984,7 +12990,9 @@
       <c r="BB69" t="n">
         <v>175</v>
       </c>
-      <c r="BC69" t="inlineStr"/>
+      <c r="BC69" t="n">
+        <v>500</v>
+      </c>
       <c r="BD69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -13583,10 +13591,10 @@
         <v>4.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S73" t="n">
         <v>1.33</v>
@@ -14437,145 +14445,145 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I78" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="J78" t="n">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>2.45</v>
+        <v>2.82</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P78" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S78" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T78" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U78" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V78" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="W78" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X78" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY78" t="n">
         <v>20</v>
       </c>
-      <c r="Y78" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ78" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="BA78" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB78" t="n">
         <v>250</v>
@@ -14764,7 +14772,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>YLnqVaS1</t>
+          <t>QJNOm5l2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -14774,179 +14782,173 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>KENYA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Police FC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>KCB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>4.33</v>
+        <v>2.67</v>
       </c>
       <c r="I80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W80" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X80" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC80" t="n">
         <v>5.5</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N80" t="n">
-        <v>15</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W80" t="n">
-        <v>9</v>
-      </c>
-      <c r="X80" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>17</v>
-      </c>
       <c r="AD80" t="n">
-        <v>8.5</v>
+        <v>4.85</v>
       </c>
       <c r="AE80" t="n">
         <v>15</v>
       </c>
       <c r="AF80" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AG80" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH80" t="n">
-        <v>19</v>
+        <v>5.9</v>
       </c>
       <c r="AI80" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AL80" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AM80" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO80" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP80" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AQ80" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AR80" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AS80" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="AU80" t="n">
         <v>8</v>
       </c>
       <c r="AV80" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AW80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX80" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY80" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ80" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BA80" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>151</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
+      <c r="BD80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0Eadv45F</t>
+          <t>YLnqVaS1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -14966,85 +14968,85 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="H81" t="n">
         <v>4.33</v>
       </c>
       <c r="I81" t="n">
-        <v>1.57</v>
+        <v>5.5</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="K81" t="n">
         <v>2.5</v>
       </c>
       <c r="L81" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T81" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W81" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X81" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Y81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC81" t="n">
         <v>17</v>
       </c>
-      <c r="Z81" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>19</v>
-      </c>
       <c r="AD81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15053,70 +15055,70 @@
         <v>41</v>
       </c>
       <c r="AG81" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH81" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI81" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AJ81" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK81" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL81" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM81" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN81" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ81" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AR81" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV81" t="n">
         <v>41</v>
       </c>
       <c r="AW81" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX81" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AY81" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ81" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA81" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB81" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC81" t="n">
         <v>351</v>
@@ -15128,7 +15130,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>xfgzXLck</t>
+          <t>0Eadv45F</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15148,133 +15150,133 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I82" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="J82" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K82" t="n">
         <v>2.5</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
+        <v>19</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>19</v>
+      </c>
+      <c r="X82" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE82" t="n">
         <v>15</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P82" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R82" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T82" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V82" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W82" t="n">
-        <v>9</v>
-      </c>
-      <c r="X82" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>13</v>
       </c>
       <c r="AF82" t="n">
         <v>41</v>
       </c>
       <c r="AG82" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS82" t="n">
         <v>151</v>
       </c>
-      <c r="AH82" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN82" t="n">
+      <c r="AT82" t="n">
         <v>3.75</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR82" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>3.5</v>
       </c>
       <c r="AU82" t="n">
         <v>7.5</v>
@@ -15283,25 +15285,25 @@
         <v>41</v>
       </c>
       <c r="AW82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX82" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AY82" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ82" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB82" t="n">
         <v>81</v>
       </c>
-      <c r="BA82" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB82" t="n">
-        <v>151</v>
-      </c>
       <c r="BC82" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD82" t="n">
         <v>151</v>
@@ -15310,7 +15312,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trtCQa2m</t>
+          <t>xfgzXLck</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15320,175 +15322,179 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Real Hope</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Moca</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="J83" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="K83" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L83" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R83" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="S83" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T83" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U83" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V83" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="W83" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="X83" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AA83" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB83" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH83" t="n">
         <v>19</v>
       </c>
-      <c r="AC83" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AI83" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AJ83" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AK83" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL83" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AN83" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO83" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="AP83" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AR83" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS83" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV83" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.85</v>
+        <v>7</v>
       </c>
       <c r="AX83" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY83" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ83" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BA83" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB83" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC83" t="inlineStr"/>
-      <c r="BD83" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>U3Cg8InJ</t>
+          <t>trtCQa2m</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15498,7 +15504,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -15508,163 +15514,165 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cavalier</t>
+          <t>Real Hope</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cibao</t>
+          <t>Moca</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="H84" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I84" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J84" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="K84" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="L84" t="n">
-        <v>2.77</v>
+        <v>3.35</v>
       </c>
       <c r="M84" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="O84" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P84" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="R84" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
+        <v>1.93</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3.1</v>
+      </c>
       <c r="U84" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="V84" t="n">
-        <v>2.85</v>
+        <v>2.29</v>
       </c>
       <c r="W84" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="X84" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA84" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y84" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AB84" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC84" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AD84" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AE84" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF84" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK84" t="n">
         <v>26</v>
       </c>
-      <c r="AG84" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK84" t="n">
+      <c r="AL84" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY84" t="n">
         <v>21</v>
       </c>
-      <c r="AL84" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR84" t="n">
+      <c r="AZ84" t="n">
         <v>65</v>
       </c>
-      <c r="AS84" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>40</v>
-      </c>
       <c r="BA84" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="BB84" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC84" t="n">
-        <v>500</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC84" t="inlineStr"/>
       <c r="BD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mavyaiwf</t>
+          <t>U3Cg8InJ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -15674,175 +15682,173 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OMAN - PROFESSIONAL LEAGUE</t>
+          <t>NORTH &amp; CENTRAL AMERICA - CONCACAF CARIBBEAN CUP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>Cavalier</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sur Club</t>
+          <t>Cibao</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="I85" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K85" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="L85" t="n">
-        <v>3.65</v>
+        <v>2.77</v>
       </c>
       <c r="M85" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="P85" t="n">
-        <v>2.78</v>
+        <v>4.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2.27</v>
-      </c>
+        <v>2.45</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="V85" t="n">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="W85" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="X85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y85" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y85" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Z85" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AA85" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="AD85" t="n">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE85" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF85" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AG85" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AH85" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI85" t="n">
         <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AL85" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AM85" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AN85" t="n">
-        <v>4.05</v>
+        <v>4.85</v>
       </c>
       <c r="AO85" t="n">
         <v>12.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AQ85" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA85" t="n">
         <v>55</v>
       </c>
-      <c r="AR85" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>120</v>
-      </c>
       <c r="BB85" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC85" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>500</v>
+      </c>
       <c r="BD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IRXqcV76</t>
+          <t>Mavyaiwf</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -15852,7 +15858,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -15862,155 +15868,157 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Saham</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Al Nahda</t>
+          <t>Sur Club</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.8</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="K86" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L86" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>7.23</v>
+        <v>7.8</v>
       </c>
       <c r="O86" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P86" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="Q86" t="n">
         <v>2.05</v>
       </c>
       <c r="R86" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S86" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T86" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U86" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="V86" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="W86" t="n">
-        <v>10.25</v>
+        <v>5.8</v>
       </c>
       <c r="X86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY86" t="n">
         <v>26</v>
       </c>
-      <c r="Y86" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z86" t="n">
+      <c r="AZ86" t="n">
         <v>90</v>
       </c>
-      <c r="AA86" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>300</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AV86" t="n">
+      <c r="BA86" t="n">
         <v>120</v>
       </c>
-      <c r="AW86" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>70</v>
-      </c>
       <c r="BB86" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16018,7 +16026,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0p2VVwbE</t>
+          <t>IRXqcV76</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -16033,168 +16041,168 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>OMAN - PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Steaua Bucuresti</t>
+          <t>Al-Rustaq</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>Al Nahda</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.52</v>
+        <v>5.8</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I87" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="J87" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" t="n">
         <v>2.07</v>
       </c>
-      <c r="K87" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L87" t="n">
-        <v>5.9</v>
+        <v>2.07</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.1</v>
+        <v>7.23</v>
       </c>
       <c r="O87" t="n">
         <v>1.33</v>
       </c>
       <c r="P87" t="n">
-        <v>3.05</v>
+        <v>2.73</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R87" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S87" t="n">
         <v>1.44</v>
       </c>
       <c r="T87" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="U87" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="V87" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="W87" t="n">
-        <v>5.8</v>
+        <v>10.25</v>
       </c>
       <c r="X87" t="n">
-        <v>6.3</v>
+        <v>26</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AA87" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AB87" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG87" t="n">
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI87" t="n">
-        <v>35</v>
+        <v>5.2</v>
       </c>
       <c r="AJ87" t="n">
-        <v>19.5</v>
+        <v>7.3</v>
       </c>
       <c r="AK87" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS87" t="inlineStr"/>
+      <c r="AT87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AV87" t="n">
         <v>120</v>
       </c>
-      <c r="AL87" t="n">
+      <c r="AW87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA87" t="n">
         <v>70</v>
       </c>
-      <c r="AM87" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB87" t="inlineStr"/>
+      <c r="BB87" t="n">
+        <v>400</v>
+      </c>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>QwEUTK4k</t>
+          <t>0p2VVwbE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16204,164 +16212,164 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="H88" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="J88" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K88" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="L88" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="M88" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>11.8</v>
+        <v>7.1</v>
       </c>
       <c r="O88" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P88" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="R88" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="S88" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T88" t="n">
-        <v>3.28</v>
+        <v>2.62</v>
       </c>
       <c r="U88" t="n">
         <v>2.12</v>
       </c>
       <c r="V88" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="W88" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="X88" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y88" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA88" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC88" t="n">
-        <v>13</v>
+        <v>7.1</v>
       </c>
       <c r="AD88" t="n">
-        <v>10.75</v>
+        <v>7.8</v>
       </c>
       <c r="AE88" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AF88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="AJ88" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AL88" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AM88" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AO88" t="n">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP88" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AQ88" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AR88" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AS88" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT88" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="AU88" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV88" t="n">
         <v>100</v>
       </c>
       <c r="AW88" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AX88" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AY88" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AZ88" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="BA88" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
@@ -16370,7 +16378,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kx7wSbZ1</t>
+          <t>QwEUTK4k</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16380,7 +16388,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -16390,165 +16398,163 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="H89" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="K89" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L89" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
       </c>
       <c r="N89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W89" t="n">
         <v>6.8</v>
       </c>
-      <c r="O89" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T89" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U89" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V89" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W89" t="n">
-        <v>6.2</v>
-      </c>
       <c r="X89" t="n">
-        <v>8.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y89" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA89" t="n">
-        <v>16.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB89" t="n">
         <v>32</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.2</v>
+        <v>10.75</v>
       </c>
       <c r="AE89" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP89" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF89" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL89" t="n">
+      <c r="AQ89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR89" t="n">
         <v>45</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>70</v>
       </c>
       <c r="AS89" t="n">
         <v>250</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AU89" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="AV89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AW89" t="n">
-        <v>5.7</v>
+        <v>10.5</v>
       </c>
       <c r="AX89" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AY89" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AZ89" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="BA89" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB89" t="n">
-        <v>400</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MZlGlqgt</t>
+          <t>Kx7wSbZ1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16558,179 +16564,175 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="J90" t="n">
-        <v>3.6</v>
+        <v>2.27</v>
       </c>
       <c r="K90" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L90" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P90" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T90" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="U90" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V90" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W90" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="X90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA90" t="n">
         <v>15</v>
       </c>
-      <c r="Y90" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>23</v>
-      </c>
       <c r="AB90" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC90" t="n">
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AE90" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG90" t="n">
-        <v>251</v>
+        <v>900</v>
       </c>
       <c r="AH90" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ90" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AK90" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AL90" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AM90" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ90" t="n">
         <v>29</v>
       </c>
-      <c r="AN90" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>51</v>
-      </c>
       <c r="AR90" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AS90" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU90" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV90" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW90" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX90" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AY90" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AZ90" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BA90" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BB90" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC90" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD90" t="n">
-        <v>126</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC90" t="inlineStr"/>
+      <c r="BD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APjFSZK5</t>
+          <t>MZlGlqgt</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -16740,175 +16742,179 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SLOVENIA - 2. SNL</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="J91" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="K91" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="P91" t="n">
         <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="R91" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="S91" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="T91" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V91" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W91" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="X91" t="n">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="Y91" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU91" t="n">
         <v>8</v>
       </c>
-      <c r="Z91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE91" t="n">
+      <c r="AV91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX91" t="n">
         <v>15</v>
       </c>
-      <c r="AF91" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX91" t="n">
+      <c r="AY91" t="n">
         <v>26</v>
       </c>
-      <c r="AY91" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ91" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA91" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB91" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC91" t="inlineStr"/>
-      <c r="BD91" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WvuOQDkI</t>
+          <t>APjFSZK5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -16918,7 +16924,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -16928,157 +16934,157 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>1.62</v>
       </c>
       <c r="H92" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I92" t="n">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="J92" t="n">
-        <v>4.85</v>
+        <v>2.18</v>
       </c>
       <c r="K92" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L92" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="M92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P92" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R92" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="S92" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="T92" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="U92" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V92" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W92" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X92" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC92" t="n">
         <v>12</v>
       </c>
-      <c r="X92" t="n">
+      <c r="AD92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX92" t="n">
         <v>26</v>
       </c>
-      <c r="Y92" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM92" t="n">
+      <c r="AY92" t="n">
         <v>29</v>
       </c>
-      <c r="AN92" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ92" t="n">
+      <c r="AZ92" t="n">
         <v>150</v>
       </c>
-      <c r="AR92" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY92" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ92" t="n">
-        <v>27</v>
-      </c>
       <c r="BA92" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="BB92" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
@@ -17086,7 +17092,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CCP2sBJk</t>
+          <t>WvuOQDkI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17096,134 +17102,134 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOUTH AFRICA - PREMIERSHIP</t>
+          <t>SLOVENIA - 2. SNL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
       <c r="I93" t="n">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="K93" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="L93" t="n">
-        <v>3.2</v>
+        <v>2.22</v>
       </c>
       <c r="M93" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="N93" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O93" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="P93" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.85</v>
+        <v>1.83</v>
       </c>
       <c r="R93" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="S93" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="T93" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="U93" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="V93" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W93" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X93" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y93" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="n">
         <v>45</v>
       </c>
       <c r="AB93" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC93" t="n">
-        <v>4.8</v>
+        <v>10.25</v>
       </c>
       <c r="AD93" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="AE93" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF93" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AG93" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AH93" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI93" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO93" t="n">
         <v>26</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>20</v>
       </c>
       <c r="AP93" t="n">
         <v>35</v>
       </c>
       <c r="AQ93" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR93" t="n">
         <v>200</v>
@@ -17232,43 +17238,39 @@
         <v>500</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AU93" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV93" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="AX93" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AY93" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AZ93" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="BA93" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="BB93" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC93" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD93" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC93" t="inlineStr"/>
+      <c r="BD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nk451WAL</t>
+          <t>CCP2sBJk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17288,157 +17290,157 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Royal AM</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U94" t="n">
         <v>2.3</v>
       </c>
-      <c r="H94" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S94" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U94" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V94" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="W94" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="X94" t="n">
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="Y94" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AA94" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AB94" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC94" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD94" t="n">
         <v>5.7</v>
       </c>
       <c r="AE94" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AF94" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AG94" t="n">
         <v>101</v>
       </c>
       <c r="AH94" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AL94" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP94" t="n">
         <v>35</v>
       </c>
-      <c r="AM94" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN94" t="n">
+      <c r="AQ94" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW94" t="n">
         <v>4.05</v>
       </c>
-      <c r="AO94" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AX94" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AY94" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ94" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BA94" t="n">
         <v>150</v>
       </c>
       <c r="BB94" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC94" t="n">
         <v>51</v>
@@ -17450,7 +17452,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KxTAukl2</t>
+          <t>nk451WAL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17470,157 +17472,157 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sekhukhune</t>
+          <t>Royal AM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I95" t="n">
         <v>3.35</v>
       </c>
       <c r="J95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="L95" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="M95" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N95" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P95" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="R95" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="S95" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="T95" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U95" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="V95" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="W95" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="X95" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y95" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z95" t="n">
         <v>24</v>
       </c>
       <c r="AA95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB95" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC95" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE95" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AG95" t="n">
         <v>101</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AI95" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ95" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK95" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM95" t="n">
         <v>45</v>
       </c>
-      <c r="AM95" t="n">
+      <c r="AN95" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV95" t="n">
         <v>75</v>
       </c>
-      <c r="AN95" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR95" t="n">
+      <c r="AW95" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA95" t="n">
         <v>150</v>
       </c>
-      <c r="AS95" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>250</v>
-      </c>
       <c r="BB95" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BC95" t="n">
         <v>51</v>
@@ -17632,7 +17634,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MyS7z3gR</t>
+          <t>KxTAukl2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17642,179 +17644,179 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH AFRICA - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="H96" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="I96" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="J96" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="K96" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="L96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N96" t="n">
         <v>4.75</v>
       </c>
-      <c r="M96" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N96" t="n">
-        <v>17</v>
-      </c>
       <c r="O96" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="P96" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="R96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U96" t="n">
         <v>2.35</v>
       </c>
-      <c r="S96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T96" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U96" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V96" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="W96" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="X96" t="n">
         <v>9.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AA96" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB96" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AC96" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI96" t="n">
         <v>15</v>
       </c>
-      <c r="AD96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ96" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK96" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB96" t="n">
         <v>51</v>
       </c>
-      <c r="AL96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>151</v>
-      </c>
       <c r="BC96" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD96" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dIEdHnXH</t>
+          <t>MyS7z3gR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -17824,177 +17826,179 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SPAIN - COPA DEL REY</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CP Parla</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N97" t="n">
+        <v>17</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W97" t="n">
+        <v>9</v>
+      </c>
+      <c r="X97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI97" t="n">
         <v>26</v>
       </c>
-      <c r="H97" t="n">
-        <v>19</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M97" t="n">
+      <c r="AJ97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR97" t="n">
         <v>41</v>
       </c>
-      <c r="N97" t="n">
-        <v>24</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P97" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R97" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S97" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T97" t="n">
-        <v>6</v>
-      </c>
-      <c r="U97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W97" t="n">
+      <c r="AS97" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV97" t="n">
         <v>41</v>
       </c>
-      <c r="X97" t="n">
-        <v>151</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>301</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>151</v>
-      </c>
-      <c r="AC97" t="n">
+      <c r="AW97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY97" t="n">
         <v>26</v>
       </c>
-      <c r="AD97" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE97" t="n">
+      <c r="AZ97" t="n">
         <v>67</v>
       </c>
-      <c r="AF97" t="n">
-        <v>251</v>
-      </c>
-      <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>101</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>401</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT97" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU97" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>6</v>
-      </c>
       <c r="BA97" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB97" t="n">
         <v>151</v>
       </c>
       <c r="BC97" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD97" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>rejTFZeD</t>
+          <t>dIEdHnXH</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -18014,16 +18018,16 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Manises</t>
+          <t>CP Parla</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H98" t="n">
         <v>19</v>
@@ -18032,19 +18036,19 @@
         <v>1.04</v>
       </c>
       <c r="J98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K98" t="n">
         <v>4.5</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M98" t="n">
         <v>41</v>
       </c>
       <c r="N98" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O98" t="n">
         <v>1.05</v>
@@ -18053,10 +18057,10 @@
         <v>11</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S98" t="n">
         <v>1.13</v>
@@ -18065,38 +18069,40 @@
         <v>6</v>
       </c>
       <c r="U98" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
+        <v>41</v>
+      </c>
+      <c r="X98" t="n">
+        <v>151</v>
+      </c>
+      <c r="Y98" t="n">
         <v>51</v>
       </c>
-      <c r="X98" t="n">
-        <v>201</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z98" t="inlineStr"/>
+      <c r="Z98" t="n">
+        <v>51</v>
+      </c>
       <c r="AA98" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AB98" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AC98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD98" t="n">
         <v>34</v>
       </c>
       <c r="AE98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF98" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="n">
@@ -18106,13 +18112,13 @@
         <v>8</v>
       </c>
       <c r="AJ98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AL98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM98" t="n">
         <v>51</v>
@@ -18126,17 +18132,23 @@
       <c r="AP98" t="n">
         <v>101</v>
       </c>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
+      <c r="AQ98" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>401</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>451</v>
+      </c>
       <c r="AT98" t="n">
         <v>6</v>
       </c>
       <c r="AU98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV98" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW98" t="n">
         <v>3.4</v>
@@ -18145,24 +18157,28 @@
         <v>3.75</v>
       </c>
       <c r="AY98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ98" t="n">
         <v>6</v>
       </c>
       <c r="BA98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB98" t="n">
         <v>151</v>
       </c>
-      <c r="BC98" t="inlineStr"/>
-      <c r="BD98" t="inlineStr"/>
+      <c r="BC98" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0QwKuo6e</t>
+          <t>rejTFZeD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -18172,179 +18188,165 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - COPA DEL REY</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Manises</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.35</v>
+        <v>29</v>
       </c>
       <c r="H99" t="n">
-        <v>3.1</v>
+        <v>19</v>
       </c>
       <c r="I99" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>26</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N99" t="n">
+        <v>29</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P99" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T99" t="n">
+        <v>6</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W99" t="n">
+        <v>51</v>
+      </c>
+      <c r="X99" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="n">
+        <v>301</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="inlineStr"/>
+      <c r="AS99" t="inlineStr"/>
+      <c r="AT99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX99" t="n">
         <v>3.75</v>
       </c>
-      <c r="M99" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P99" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R99" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S99" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U99" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W99" t="n">
-        <v>7</v>
-      </c>
-      <c r="X99" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD99" t="n">
+      <c r="AY99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ99" t="n">
         <v>6</v>
       </c>
-      <c r="AE99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL99" t="n">
+      <c r="BA99" t="n">
         <v>29</v>
       </c>
-      <c r="AM99" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP99" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ99" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR99" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV99" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW99" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>81</v>
-      </c>
       <c r="BB99" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC99" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD99" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC99" t="inlineStr"/>
+      <c r="BD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tznSwPz8</t>
+          <t>AV1RUQhR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -18354,179 +18356,163 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>UGANDA - BIG LEAGUE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Kigezi HomeBoyz</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J100" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="K100" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="L100" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N100" t="n">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="P100" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="R100" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="S100" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="T100" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U100" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V100" t="n">
-        <v>2</v>
-      </c>
+        <v>2.12</v>
+      </c>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
       <c r="W100" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="X100" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE100" t="n">
         <v>15</v>
       </c>
-      <c r="Y100" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>13</v>
-      </c>
       <c r="AF100" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>201</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AI100" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO100" t="n">
         <v>12</v>
       </c>
-      <c r="AJ100" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>15</v>
-      </c>
       <c r="AP100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ100" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AR100" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AS100" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AU100" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV100" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AW100" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AX100" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AY100" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AZ100" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BA100" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC100" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD100" t="n">
-        <v>51</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BB100" t="inlineStr"/>
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>UeSMa6cR</t>
+          <t>0QwKuo6e</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -18536,7 +18522,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -18546,100 +18532,100 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K101" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
         <v>3.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P101" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="R101" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T101" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V101" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X101" t="n">
         <v>11</v>
       </c>
       <c r="Y101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA101" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB101" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC101" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG101" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH101" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ101" t="n">
         <v>12</v>
@@ -18648,46 +18634,46 @@
         <v>34</v>
       </c>
       <c r="AL101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN101" t="n">
         <v>4.33</v>
       </c>
       <c r="AO101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP101" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ101" t="n">
         <v>41</v>
       </c>
       <c r="AR101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX101" t="n">
         <v>19</v>
       </c>
       <c r="AY101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ101" t="n">
         <v>51</v>
@@ -18696,7 +18682,7 @@
         <v>81</v>
       </c>
       <c r="BB101" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC101" t="n">
         <v>51</v>
@@ -18708,7 +18694,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN9VZckt</t>
+          <t>tznSwPz8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -18718,7 +18704,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -18728,31 +18714,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I102" t="n">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="J102" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="K102" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L102" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="M102" t="n">
         <v>1.05</v>
@@ -18779,112 +18765,118 @@
         <v>2.75</v>
       </c>
       <c r="U102" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="V102" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="X102" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF102" t="n">
         <v>41</v>
       </c>
-      <c r="Y102" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA102" t="n">
+      <c r="AG102" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR102" t="n">
         <v>67</v>
       </c>
-      <c r="AB102" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO102" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP102" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR102" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS102" t="inlineStr"/>
+      <c r="AS102" t="n">
+        <v>151</v>
+      </c>
       <c r="AT102" t="n">
         <v>2.75</v>
       </c>
       <c r="AU102" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV102" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW102" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="AX102" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AY102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ102" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA102" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC102" t="n">
         <v>51</v>
       </c>
-      <c r="BB102" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC102" t="inlineStr"/>
-      <c r="BD102" t="inlineStr"/>
+      <c r="BD102" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>QHWqjFUh</t>
+          <t>UeSMa6cR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -18894,175 +18886,179 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Algeria U20</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Libya U20</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H103" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J103" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="K103" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L103" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="M103" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N103" t="n">
-        <v>8.1</v>
+        <v>11</v>
       </c>
       <c r="O103" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T103" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="U103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V103" t="n">
         <v>2</v>
       </c>
-      <c r="R103" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T103" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U103" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V103" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W103" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X103" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z103" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AA103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB103" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC103" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AD103" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE103" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AF103" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AG103" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH103" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI103" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AJ103" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK103" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL103" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AM103" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AN103" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="AO103" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AP103" t="n">
         <v>21</v>
       </c>
       <c r="AQ103" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AR103" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS103" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU103" t="n">
         <v>8</v>
       </c>
       <c r="AV103" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW103" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY103" t="n">
         <v>26</v>
       </c>
-      <c r="AY103" t="n">
-        <v>35</v>
-      </c>
       <c r="AZ103" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA103" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BB103" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC103" t="inlineStr"/>
-      <c r="BD103" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2y7saADN</t>
+          <t>IN9VZckt</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -19072,170 +19068,524 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Egypt U20</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tunisia U20</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.07</v>
+        <v>9</v>
       </c>
       <c r="H104" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>1.38</v>
       </c>
       <c r="J104" t="n">
-        <v>2.72</v>
+        <v>9.5</v>
       </c>
       <c r="K104" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="O104" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P104" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="R104" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="S104" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T104" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="U104" t="n">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="V104" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="W104" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
       <c r="X104" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN104" t="n">
         <v>10</v>
       </c>
-      <c r="Y104" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z104" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AO104" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>301</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>351</v>
+      </c>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU104" t="n">
         <v>11</v>
       </c>
-      <c r="AP104" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ104" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR104" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS104" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT104" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU104" t="n">
-        <v>7</v>
-      </c>
       <c r="AV104" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AW104" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="AX104" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AY104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ104" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="BA104" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB104" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>QHWqjFUh</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Algeria U20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Libya U20</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N105" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W105" t="n">
+        <v>6</v>
+      </c>
+      <c r="X105" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC105" t="inlineStr"/>
+      <c r="BD105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2y7saADN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Egypt U20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Tunisia U20</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W106" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X106" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
@@ -1580,7 +1580,7 @@
         <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
         <v>4.33</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
         <v>2.45</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K20" t="n">
         <v>1.73</v>
@@ -4019,16 +4019,16 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.8</v>
       </c>
       <c r="P20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
         <v>3.6</v>
@@ -4043,13 +4043,13 @@
         <v>1.98</v>
       </c>
       <c r="U20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -4064,10 +4064,10 @@
         <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AI20" t="n">
         <v>9.5</v>
@@ -4089,10 +4089,10 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>51</v>
@@ -4101,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>41</v>
@@ -4110,7 +4110,7 @@
         <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS20" t="n">
         <v>501</v>
@@ -4119,22 +4119,22 @@
         <v>1.91</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="n">
         <v>126</v>
@@ -4199,16 +4199,16 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q21" t="n">
         <v>2.4</v>
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>1.8</v>
@@ -4375,52 +4375,52 @@
         <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S22" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T22" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="U22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="W22" t="n">
         <v>11.5</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="n">
         <v>24</v>
@@ -4429,49 +4429,49 @@
         <v>24</v>
       </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN22" t="n">
         <v>5.8</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR22" t="n">
         <v>110</v>
@@ -4480,28 +4480,28 @@
         <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB22" t="n">
         <v>150</v>
@@ -4544,55 +4544,55 @@
         <v>1.82</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K23" t="n">
         <v>2.27</v>
       </c>
       <c r="L23" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y23" t="n">
         <v>8.25</v>
@@ -4604,13 +4604,13 @@
         <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>12.5</v>
@@ -4619,7 +4619,7 @@
         <v>45</v>
       </c>
       <c r="AG23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -4631,55 +4631,55 @@
         <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS23" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV23" t="n">
         <v>50</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB23" t="n">
         <v>250</v>
@@ -4723,13 +4723,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="J24" t="n">
         <v>1.75</v>
@@ -4738,7 +4738,7 @@
         <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4768,13 +4768,13 @@
         <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X24" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
@@ -4792,22 +4792,22 @@
         <v>9.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
         <v>400</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
@@ -4816,7 +4816,7 @@
         <v>175</v>
       </c>
       <c r="AL24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
         <v>55</v>
@@ -4843,16 +4843,16 @@
         <v>3.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY24" t="n">
         <v>35</v>
@@ -4861,10 +4861,10 @@
         <v>250</v>
       </c>
       <c r="BA24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4911,7 +4911,7 @@
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J25" t="n">
         <v>3.55</v>
@@ -4920,7 +4920,7 @@
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4950,10 +4950,10 @@
         <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X25" t="n">
         <v>16</v>
@@ -4965,10 +4965,10 @@
         <v>37</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -4986,40 +4986,40 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.75</v>
       </c>
       <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
         <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>25</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT25" t="n">
         <v>2.72</v>
@@ -5028,22 +5028,22 @@
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB25" t="n">
         <v>250</v>
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5114,19 +5114,19 @@
         <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S26" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="U26" t="n">
         <v>1.6</v>
@@ -5135,10 +5135,10 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
@@ -5156,7 +5156,7 @@
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5174,10 +5174,10 @@
         <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
         <v>13.5</v>
@@ -5189,10 +5189,10 @@
         <v>5.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
@@ -5204,10 +5204,10 @@
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
@@ -5219,10 +5219,10 @@
         <v>9.25</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA26" t="n">
         <v>55</v>
@@ -5451,22 +5451,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="L28" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5475,40 +5475,40 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R28" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="S28" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="T28" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="W28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="n">
         <v>45</v>
@@ -5517,43 +5517,43 @@
         <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="n">
         <v>200</v>
       </c>
       <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AI28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AL28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
@@ -5562,31 +5562,31 @@
         <v>150</v>
       </c>
       <c r="AR28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV28" t="n">
         <v>45</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AY28" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="BA28" t="n">
         <v>32</v>
@@ -5648,7 +5648,7 @@
         <v>2.47</v>
       </c>
       <c r="L29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -5675,7 +5675,7 @@
         <v>2.99</v>
       </c>
       <c r="U29" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V29" t="n">
         <v>1.39</v>
@@ -5687,7 +5687,7 @@
         <v>5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z29" t="n">
         <v>6.1</v>
@@ -5699,7 +5699,7 @@
         <v>50</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>12</v>
@@ -5718,7 +5718,7 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="n">
         <v>600</v>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
         <v>2.2</v>
@@ -6552,31 +6552,31 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.8</v>
       </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
         <v>7.5</v>
@@ -6594,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -6603,19 +6603,19 @@
         <v>7.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH34" t="n">
         <v>15</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>17</v>
@@ -6633,13 +6633,13 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>
@@ -6648,10 +6648,10 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6672,7 +6672,7 @@
         <v>101</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -7091,10 +7091,10 @@
         <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -7103,10 +7103,10 @@
         <v>2.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
         <v>1.53</v>
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>2.75</v>
@@ -7270,7 +7270,7 @@
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
@@ -7291,10 +7291,10 @@
         <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U38" t="n">
         <v>1.95</v>
@@ -7306,22 +7306,22 @@
         <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
@@ -7333,16 +7333,16 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK38" t="n">
         <v>41</v>
@@ -7357,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -7372,7 +7372,7 @@
         <v>201</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
         <v>8.5</v>
@@ -7623,7 +7623,7 @@
         <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L40" t="n">
         <v>3.6</v>
@@ -8155,13 +8155,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H43" t="n">
         <v>4.33</v>
       </c>
       <c r="I43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>1.95</v>
@@ -8197,13 +8197,13 @@
         <v>3.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X43" t="n">
         <v>8</v>
@@ -8233,16 +8233,16 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH43" t="n">
         <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK43" t="n">
         <v>67</v>
@@ -8260,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="AP43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ43" t="n">
         <v>21</v>
@@ -8287,7 +8287,7 @@
         <v>29</v>
       </c>
       <c r="AY43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ43" t="n">
         <v>101</v>
@@ -8358,7 +8358,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
@@ -8579,7 +8579,7 @@
         <v>19</v>
       </c>
       <c r="AA45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB45" t="n">
         <v>29</v>
@@ -8657,7 +8657,7 @@
         <v>67</v>
       </c>
       <c r="BA45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB45" t="n">
         <v>201</v>
@@ -8719,22 +8719,22 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -8845,7 +8845,7 @@
         <v>151</v>
       </c>
       <c r="BC46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -9250,16 +9250,16 @@
         <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L49" t="n">
         <v>2.88</v>
@@ -9268,7 +9268,7 @@
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49" t="n">
         <v>1.22</v>
@@ -9295,7 +9295,7 @@
         <v>2.2</v>
       </c>
       <c r="W49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X49" t="n">
         <v>17</v>
@@ -9429,22 +9429,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J50" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -9453,37 +9453,37 @@
         <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>21</v>
       </c>
       <c r="Y50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z50" t="n">
         <v>41</v>
@@ -9495,7 +9495,7 @@
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD50" t="n">
         <v>6.5</v>
@@ -9507,7 +9507,7 @@
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH50" t="n">
         <v>7</v>
@@ -9522,10 +9522,10 @@
         <v>15</v>
       </c>
       <c r="AL50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
         <v>6</v>
@@ -9543,13 +9543,13 @@
         <v>101</v>
       </c>
       <c r="AS50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV50" t="n">
         <v>51</v>
@@ -9611,16 +9611,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
         <v>1.75</v>
       </c>
       <c r="J51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -9629,22 +9629,22 @@
         <v>2.4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9653,10 +9653,10 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W51" t="n">
         <v>12</v>
@@ -9671,52 +9671,52 @@
         <v>51</v>
       </c>
       <c r="AA51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="n">
         <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
         <v>7</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
         <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ51" t="n">
         <v>8.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
       </c>
       <c r="AM51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO51" t="n">
         <v>26</v>
       </c>
-      <c r="AN51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>23</v>
-      </c>
       <c r="AP51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ51" t="n">
         <v>81</v>
@@ -9725,13 +9725,13 @@
         <v>101</v>
       </c>
       <c r="AS51" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT51" t="n">
         <v>2.75</v>
       </c>
       <c r="AU51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
@@ -9746,7 +9746,7 @@
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA51" t="n">
         <v>51</v>
@@ -10703,73 +10703,73 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
         <v>2.1</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>2.88</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U57" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X57" t="n">
         <v>17</v>
       </c>
       <c r="Y57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="n">
         <v>41</v>
       </c>
       <c r="AA57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB57" t="n">
         <v>41</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
@@ -10778,16 +10778,16 @@
         <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG57" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ57" t="n">
         <v>9.5</v>
@@ -10808,22 +10808,22 @@
         <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR57" t="n">
         <v>101</v>
       </c>
       <c r="AS57" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV57" t="n">
         <v>67</v>
@@ -10835,7 +10835,7 @@
         <v>12</v>
       </c>
       <c r="AY57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ57" t="n">
         <v>41</v>
@@ -10844,7 +10844,7 @@
         <v>67</v>
       </c>
       <c r="BB57" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC57" t="n">
         <v>126</v>
@@ -11450,7 +11450,7 @@
         <v>1.04</v>
       </c>
       <c r="P61" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Q61" t="n">
         <v>1.3</v>
@@ -11613,10 +11613,10 @@
         <v>5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -11628,13 +11628,13 @@
         <v>1.13</v>
       </c>
       <c r="P62" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R62" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S62" t="n">
         <v>1.26</v>
@@ -11649,13 +11649,13 @@
         <v>1.98</v>
       </c>
       <c r="W62" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X62" t="n">
         <v>35</v>
       </c>
       <c r="Y62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z62" t="n">
         <v>90</v>
@@ -11667,7 +11667,7 @@
         <v>45</v>
       </c>
       <c r="AC62" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD62" t="n">
         <v>8.75</v>
@@ -11685,7 +11685,7 @@
         <v>8.75</v>
       </c>
       <c r="AI62" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ62" t="n">
         <v>8.25</v>
@@ -11694,19 +11694,19 @@
         <v>11</v>
       </c>
       <c r="AL62" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN62" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AO62" t="n">
         <v>27</v>
       </c>
       <c r="AP62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ62" t="n">
         <v>150</v>
@@ -11721,7 +11721,7 @@
         <v>3.35</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV62" t="n">
         <v>55</v>
@@ -11779,13 +11779,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H63" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I63" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J63" t="n">
         <v>1.72</v>
@@ -11809,10 +11809,10 @@
         <v>5.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R63" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="S63" t="n">
         <v>1.2</v>
@@ -11821,7 +11821,7 @@
         <v>4.2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V63" t="n">
         <v>2.05</v>
@@ -11842,13 +11842,13 @@
         <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC63" t="n">
         <v>21</v>
       </c>
       <c r="AD63" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE63" t="n">
         <v>17</v>
@@ -11860,7 +11860,7 @@
         <v>300</v>
       </c>
       <c r="AH63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI63" t="n">
         <v>50</v>
@@ -11878,7 +11878,7 @@
         <v>50</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO63" t="n">
         <v>5.8</v>
@@ -11899,7 +11899,7 @@
         <v>3.95</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV63" t="n">
         <v>50</v>
@@ -11908,7 +11908,7 @@
         <v>8.5</v>
       </c>
       <c r="AX63" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY63" t="n">
         <v>30</v>
@@ -11957,22 +11957,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K64" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L64" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
@@ -11981,16 +11981,16 @@
         <v>17.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P64" t="n">
-        <v>6.15</v>
+        <v>6.3</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R64" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="S64" t="n">
         <v>1.21</v>
@@ -11999,37 +11999,37 @@
         <v>4.1</v>
       </c>
       <c r="U64" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V64" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W64" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X64" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z64" t="n">
         <v>50</v>
       </c>
       <c r="AA64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB64" t="n">
         <v>23</v>
       </c>
       <c r="AC64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD64" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF64" t="n">
         <v>32</v>
@@ -12047,7 +12047,7 @@
         <v>9</v>
       </c>
       <c r="AK64" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL64" t="n">
         <v>12.5</v>
@@ -12059,31 +12059,31 @@
         <v>6</v>
       </c>
       <c r="AO64" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>65</v>
       </c>
       <c r="AR64" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS64" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT64" t="n">
         <v>4.1</v>
       </c>
       <c r="AU64" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV64" t="n">
         <v>35</v>
       </c>
       <c r="AW64" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX64" t="n">
         <v>8.5</v>
@@ -12155,10 +12155,10 @@
         <v>4.9</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.1</v>
@@ -12330,7 +12330,7 @@
         <v>3.4</v>
       </c>
       <c r="L66" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -12342,13 +12342,13 @@
         <v>1.02</v>
       </c>
       <c r="P66" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R66" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="S66" t="n">
         <v>1.13</v>
@@ -12357,7 +12357,7 @@
         <v>5.4</v>
       </c>
       <c r="U66" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V66" t="n">
         <v>1.6</v>
@@ -12366,13 +12366,13 @@
         <v>13</v>
       </c>
       <c r="X66" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y66" t="n">
         <v>13</v>
       </c>
       <c r="Z66" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA66" t="n">
         <v>11.25</v>
@@ -12384,13 +12384,13 @@
         <v>27</v>
       </c>
       <c r="AD66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE66" t="n">
         <v>40</v>
       </c>
       <c r="AF66" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG66" t="n">
         <v>1000</v>
@@ -13048,7 +13048,7 @@
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="O70" t="n">
         <v>1.13</v>
@@ -13920,25 +13920,25 @@
         <v>2.07</v>
       </c>
       <c r="H75" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I75" t="n">
         <v>3.55</v>
       </c>
       <c r="J75" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="K75" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L75" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="O75" t="n">
         <v>1.5</v>
@@ -13959,77 +13959,77 @@
         <v>2.07</v>
       </c>
       <c r="U75" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="V75" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="W75" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="X75" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z75" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC75" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD75" t="n">
         <v>5.1</v>
       </c>
       <c r="AE75" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF75" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI75" t="n">
         <v>14</v>
       </c>
       <c r="AJ75" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK75" t="n">
         <v>40</v>
       </c>
       <c r="AL75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO75" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ75" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR75" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS75" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT75" t="n">
         <v>2.07</v>
@@ -14038,22 +14038,22 @@
         <v>8.25</v>
       </c>
       <c r="AV75" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW75" t="n">
         <v>5.2</v>
       </c>
       <c r="AX75" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ75" t="n">
         <v>150</v>
       </c>
       <c r="BA75" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB75" t="n">
         <v>500</v>
@@ -14445,22 +14445,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L78" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14469,37 +14469,37 @@
         <v>6.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P78" t="n">
         <v>2.72</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S78" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T78" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U78" t="n">
         <v>1.8</v>
       </c>
       <c r="V78" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W78" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X78" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z78" t="n">
         <v>40</v>
@@ -14511,10 +14511,10 @@
         <v>40</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE78" t="n">
         <v>15</v>
@@ -14526,16 +14526,16 @@
         <v>700</v>
       </c>
       <c r="AH78" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI78" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ78" t="n">
         <v>9</v>
       </c>
       <c r="AK78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL78" t="n">
         <v>19</v>
@@ -14559,10 +14559,10 @@
         <v>120</v>
       </c>
       <c r="AS78" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU78" t="n">
         <v>7.1</v>
@@ -14574,7 +14574,7 @@
         <v>4.05</v>
       </c>
       <c r="AX78" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY78" t="n">
         <v>20</v>
@@ -14801,25 +14801,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K80" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L80" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
         <v>5.6</v>
@@ -14837,34 +14837,34 @@
         <v>1.34</v>
       </c>
       <c r="S80" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T80" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="U80" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="V80" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W80" t="n">
         <v>4.8</v>
       </c>
       <c r="X80" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB80" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC80" t="n">
         <v>5.5</v>
@@ -14882,43 +14882,43 @@
         <v>101</v>
       </c>
       <c r="AH80" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI80" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK80" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL80" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM80" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AO80" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR80" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS80" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AU80" t="n">
         <v>8</v>
@@ -14927,21 +14927,23 @@
         <v>100</v>
       </c>
       <c r="AW80" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX80" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY80" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ80" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BA80" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB80" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>500</v>
+      </c>
       <c r="BC80" t="inlineStr"/>
       <c r="BD80" t="inlineStr"/>
     </row>
@@ -14995,22 +14997,22 @@
         <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
         <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R81" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S81" t="n">
         <v>1.29</v>
@@ -15019,7 +15021,7 @@
         <v>3.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V81" t="n">
         <v>2.2</v>
@@ -15159,40 +15161,40 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I82" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K82" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P82" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S82" t="n">
         <v>1.25</v>
@@ -15201,16 +15203,16 @@
         <v>3.75</v>
       </c>
       <c r="U82" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V82" t="n">
         <v>2.25</v>
       </c>
       <c r="W82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y82" t="n">
         <v>17</v>
@@ -15219,16 +15221,16 @@
         <v>51</v>
       </c>
       <c r="AA82" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB82" t="n">
         <v>34</v>
       </c>
       <c r="AC82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -15240,7 +15242,7 @@
         <v>126</v>
       </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI82" t="n">
         <v>9.5</v>
@@ -15249,19 +15251,19 @@
         <v>8.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM82" t="n">
         <v>19</v>
       </c>
       <c r="AN82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP82" t="n">
         <v>26</v>
@@ -15285,7 +15287,7 @@
         <v>41</v>
       </c>
       <c r="AW82" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX82" t="n">
         <v>7.5</v>
@@ -15294,10 +15296,10 @@
         <v>15</v>
       </c>
       <c r="AZ82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB82" t="n">
         <v>81</v>
@@ -15341,31 +15343,31 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I83" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.1</v>
       </c>
       <c r="K83" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L83" t="n">
         <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N83" t="n">
         <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -15383,7 +15385,7 @@
         <v>3.5</v>
       </c>
       <c r="U83" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V83" t="n">
         <v>2.2</v>
@@ -15398,7 +15400,7 @@
         <v>8.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA83" t="n">
         <v>12</v>
@@ -15425,7 +15427,7 @@
         <v>19</v>
       </c>
       <c r="AI83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ83" t="n">
         <v>17</v>
@@ -15437,19 +15439,19 @@
         <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN83" t="n">
         <v>3.75</v>
       </c>
       <c r="AO83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP83" t="n">
         <v>17</v>
       </c>
       <c r="AQ83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR83" t="n">
         <v>41</v>
@@ -15461,7 +15463,7 @@
         <v>3.5</v>
       </c>
       <c r="AU83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV83" t="n">
         <v>41</v>
@@ -15470,7 +15472,7 @@
         <v>7</v>
       </c>
       <c r="AX83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY83" t="n">
         <v>29</v>
@@ -15877,7 +15879,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
@@ -15886,139 +15888,139 @@
         <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K86" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M86" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X86" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y86" t="n">
         <v>7.8</v>
       </c>
-      <c r="O86" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W86" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X86" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Z86" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA86" t="n">
         <v>16</v>
       </c>
       <c r="AB86" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD86" t="n">
         <v>5.2</v>
       </c>
       <c r="AE86" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG86" t="n">
         <v>400</v>
       </c>
       <c r="AH86" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL86" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM86" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AO86" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ86" t="n">
         <v>55</v>
       </c>
       <c r="AR86" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ86" t="n">
         <v>100</v>
       </c>
-      <c r="AS86" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>90</v>
-      </c>
       <c r="BA86" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB86" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16407,76 +16409,72 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
-        <v>5.2</v>
+        <v>4.55</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="K89" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="L89" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N89" t="n">
-        <v>11.8</v>
-      </c>
+        <v>8.25</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P89" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R89" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="S89" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T89" t="n">
-        <v>3.28</v>
+        <v>2.99</v>
       </c>
       <c r="U89" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V89" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="W89" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="X89" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z89" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AA89" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC89" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AD89" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE89" t="n">
         <v>27</v>
@@ -16488,16 +16486,16 @@
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI89" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ89" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK89" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL89" t="n">
         <v>150</v>
@@ -16506,40 +16504,40 @@
         <v>120</v>
       </c>
       <c r="AN89" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO89" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AP89" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AQ89" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR89" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS89" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AU89" t="n">
         <v>9.5</v>
       </c>
       <c r="AV89" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW89" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AX89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AY89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ89" t="n">
         <v>500</v>
@@ -16761,13 +16759,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H91" t="n">
         <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J91" t="n">
         <v>3.4</v>
@@ -16779,13 +16777,13 @@
         <v>3.25</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
         <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
         <v>3.4</v>
@@ -16809,7 +16807,7 @@
         <v>1.95</v>
       </c>
       <c r="W91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X91" t="n">
         <v>13</v>
@@ -16818,7 +16816,7 @@
         <v>11</v>
       </c>
       <c r="Z91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA91" t="n">
         <v>23</v>
@@ -16857,7 +16855,7 @@
         <v>21</v>
       </c>
       <c r="AM91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN91" t="n">
         <v>4.75</v>
@@ -16872,7 +16870,7 @@
         <v>51</v>
       </c>
       <c r="AR91" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS91" t="n">
         <v>201</v>
@@ -16946,19 +16944,19 @@
         <v>1.62</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I92" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J92" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K92" t="n">
         <v>2.22</v>
       </c>
       <c r="L92" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
@@ -16967,73 +16965,73 @@
         <v>9.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P92" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R92" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S92" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T92" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U92" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V92" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W92" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X92" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
       </c>
       <c r="Z92" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA92" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC92" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD92" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG92" t="n">
         <v>450</v>
       </c>
       <c r="AH92" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ92" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK92" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL92" t="n">
         <v>45</v>
@@ -17042,22 +17040,22 @@
         <v>45</v>
       </c>
       <c r="AN92" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO92" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AP92" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR92" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS92" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT92" t="n">
         <v>2.9</v>
@@ -17069,13 +17067,13 @@
         <v>60</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AX92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY92" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ92" t="n">
         <v>150</v>
@@ -17863,13 +17861,13 @@
         <v>4.75</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N97" t="n">
         <v>17</v>
       </c>
       <c r="O97" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -17887,7 +17885,7 @@
         <v>3.4</v>
       </c>
       <c r="U97" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V97" t="n">
         <v>2.2</v>
@@ -18027,40 +18025,40 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H98" t="n">
         <v>19</v>
       </c>
       <c r="I98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J98" t="n">
         <v>29</v>
       </c>
       <c r="K98" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L98" t="n">
         <v>1.2</v>
       </c>
       <c r="M98" t="n">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O98" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P98" t="n">
         <v>11</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R98" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S98" t="n">
         <v>1.13</v>
@@ -18072,25 +18070,25 @@
         <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W98" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="X98" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="Y98" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Z98" t="n">
         <v>51</v>
       </c>
       <c r="AA98" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AB98" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AC98" t="n">
         <v>26</v>
@@ -18124,13 +18122,13 @@
         <v>51</v>
       </c>
       <c r="AN98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO98" t="n">
         <v>151</v>
       </c>
       <c r="AP98" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ98" t="n">
         <v>51</v>
@@ -18145,7 +18143,7 @@
         <v>6</v>
       </c>
       <c r="AU98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV98" t="n">
         <v>126</v>
@@ -18166,7 +18164,7 @@
         <v>34</v>
       </c>
       <c r="BB98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC98" t="n">
         <v>51</v>
@@ -18231,7 +18229,7 @@
         <v>29</v>
       </c>
       <c r="O99" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P99" t="n">
         <v>13</v>
@@ -18252,7 +18250,7 @@
         <v>2.75</v>
       </c>
       <c r="V99" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W99" t="n">
         <v>51</v>
@@ -18541,28 +18539,28 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L101" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -18583,25 +18581,25 @@
         <v>2.5</v>
       </c>
       <c r="U101" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W101" t="n">
         <v>7</v>
       </c>
       <c r="X101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y101" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z101" t="n">
         <v>21</v>
       </c>
       <c r="AA101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB101" t="n">
         <v>34</v>
@@ -18619,13 +18617,13 @@
         <v>51</v>
       </c>
       <c r="AG101" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ101" t="n">
         <v>12</v>
@@ -18646,7 +18644,7 @@
         <v>13</v>
       </c>
       <c r="AP101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ101" t="n">
         <v>41</v>
@@ -18664,7 +18662,7 @@
         <v>8.5</v>
       </c>
       <c r="AV101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW101" t="n">
         <v>5</v>
@@ -18676,10 +18674,10 @@
         <v>29</v>
       </c>
       <c r="AZ101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA101" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB101" t="n">
         <v>251</v>
@@ -18726,55 +18724,55 @@
         <v>2.8</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I102" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K102" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L102" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M102" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N102" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O102" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P102" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R102" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S102" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T102" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U102" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V102" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W102" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y102" t="n">
         <v>11</v>
@@ -18783,28 +18781,28 @@
         <v>29</v>
       </c>
       <c r="AA102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB102" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC102" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD102" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG102" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH102" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI102" t="n">
         <v>12</v>
@@ -18816,34 +18814,34 @@
         <v>23</v>
       </c>
       <c r="AL102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM102" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN102" t="n">
         <v>4.75</v>
       </c>
       <c r="AO102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ102" t="n">
         <v>51</v>
       </c>
       <c r="AR102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU102" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV102" t="n">
         <v>51</v>
@@ -18852,19 +18850,19 @@
         <v>4.5</v>
       </c>
       <c r="AX102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC102" t="n">
         <v>51</v>
@@ -18935,10 +18933,10 @@
         <v>3.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R103" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S103" t="n">
         <v>1.4</v>
@@ -19105,10 +19103,10 @@
         <v>1.95</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -19117,10 +19115,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S104" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -753,10 +753,10 @@
         <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="J2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -798,13 +798,13 @@
         <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AA2" t="n">
         <v>81</v>
@@ -816,31 +816,31 @@
         <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR2" t="n">
         <v>201</v>
@@ -867,16 +867,16 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -995,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1007,19 +1007,19 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1484,13 +1484,13 @@
         <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,10 +1499,10 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1538,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>21</v>
@@ -1580,7 +1580,7 @@
         <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1613,7 +1613,7 @@
         <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
         <v>126</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2350,7 +2350,7 @@
         <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -2745,22 +2745,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2787,25 +2787,25 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
         <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>5.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>51</v>
@@ -2814,44 +2814,44 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="n">
         <v>351</v>
       </c>
       <c r="AL13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AM13" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="n">
         <v>2.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2863,19 +2863,19 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AY13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AZ13" t="n">
         <v>351</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>2.75</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3688,13 +3688,13 @@
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
@@ -3718,19 +3718,19 @@
         <v>900</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3751,7 +3751,7 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
         <v>2.25</v>
@@ -3763,10 +3763,10 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -4004,52 +4004,52 @@
         <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.73</v>
       </c>
-      <c r="L20" t="n">
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3.5</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.6</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -4064,23 +4064,23 @@
         <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>126</v>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AI20" t="n">
         <v>9.5</v>
@@ -4089,10 +4089,10 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>51</v>
@@ -4101,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>41</v>
@@ -4110,31 +4110,31 @@
         <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS20" t="n">
         <v>501</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
         <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
         <v>126</v>
@@ -4184,7 +4184,7 @@
         <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
         <v>3.1</v>
@@ -4193,43 +4193,43 @@
         <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4262,7 +4262,7 @@
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
@@ -4295,16 +4295,16 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
@@ -4322,7 +4322,7 @@
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -4363,22 +4363,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L22" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -4387,124 +4387,124 @@
         <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>3.42</v>
+        <v>3.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="W22" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X22" t="n">
         <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV22" t="n">
         <v>45</v>
       </c>
-      <c r="AA22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AW22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY22" t="n">
         <v>16.5</v>
       </c>
-      <c r="AN22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
@@ -4541,58 +4541,58 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
         <v>2.32</v>
       </c>
       <c r="K23" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V23" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.25</v>
@@ -4601,28 +4601,28 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE23" t="n">
         <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="n">
         <v>250</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4631,13 +4631,13 @@
         <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN23" t="n">
         <v>3.95</v>
@@ -4652,13 +4652,13 @@
         <v>28</v>
       </c>
       <c r="AR23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS23" t="n">
         <v>150</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU23" t="n">
         <v>6.7</v>
@@ -4670,10 +4670,10 @@
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>100</v>
@@ -4750,13 +4750,13 @@
         <v>1.14</v>
       </c>
       <c r="P24" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Q24" t="n">
         <v>1.45</v>
       </c>
       <c r="R24" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S24" t="n">
         <v>1.26</v>
@@ -4774,13 +4774,13 @@
         <v>9.25</v>
       </c>
       <c r="X24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y24" t="n">
         <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
         <v>10.25</v>
@@ -4792,13 +4792,13 @@
         <v>9.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
         <v>17.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG24" t="n">
         <v>400</v>
@@ -4828,7 +4828,7 @@
         <v>5.9</v>
       </c>
       <c r="AP24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>15</v>
@@ -4843,10 +4843,10 @@
         <v>3.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
@@ -4861,10 +4861,10 @@
         <v>250</v>
       </c>
       <c r="BA24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4905,22 +4905,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4944,7 +4944,7 @@
         <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
@@ -4959,13 +4959,13 @@
         <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
         <v>32</v>
@@ -5004,7 +5004,7 @@
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -5022,31 +5022,31 @@
         <v>300</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
         <v>4.25</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ25" t="n">
         <v>45</v>
       </c>
       <c r="BA25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5087,10 +5087,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
         <v>1.88</v>
@@ -5099,10 +5099,10 @@
         <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5111,34 +5111,34 @@
         <v>8.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q26" t="n">
         <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
@@ -5147,10 +5147,10 @@
         <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC26" t="n">
         <v>8.5</v>
@@ -5165,7 +5165,7 @@
         <v>50</v>
       </c>
       <c r="AG26" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
@@ -5183,10 +5183,10 @@
         <v>13.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO26" t="n">
         <v>19</v>
@@ -5204,10 +5204,10 @@
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
@@ -5219,10 +5219,10 @@
         <v>9.25</v>
       </c>
       <c r="AY26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA26" t="n">
         <v>55</v>
@@ -5451,19 +5451,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J28" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L28" t="n">
         <v>1.85</v>
@@ -5487,31 +5487,31 @@
         <v>2.87</v>
       </c>
       <c r="S28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V28" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>45</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
         <v>37</v>
@@ -5520,10 +5520,10 @@
         <v>10.25</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF28" t="n">
         <v>45</v>
@@ -5538,7 +5538,7 @@
         <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK28" t="n">
         <v>11.5</v>
@@ -5547,13 +5547,13 @@
         <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
@@ -5562,13 +5562,13 @@
         <v>150</v>
       </c>
       <c r="AR28" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU28" t="n">
         <v>7.1</v>
@@ -5586,10 +5586,10 @@
         <v>12.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>110</v>
@@ -5648,7 +5648,7 @@
         <v>2.47</v>
       </c>
       <c r="L29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -6175,16 +6175,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
@@ -6193,10 +6193,10 @@
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
         <v>1.29</v>
@@ -6223,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -6238,7 +6238,7 @@
         <v>19</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -6250,13 +6250,13 @@
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
         <v>201</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
         <v>15</v>
@@ -6265,7 +6265,7 @@
         <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>23</v>
@@ -6277,16 +6277,16 @@
         <v>4.33</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
         <v>151</v>
@@ -6313,7 +6313,7 @@
         <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB32" t="n">
         <v>151</v>
@@ -6395,10 +6395,10 @@
         <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W33" t="n">
         <v>7.5</v>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
         <v>2.2</v>
@@ -6552,31 +6552,31 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
         <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>7.5</v>
@@ -6594,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
         <v>12</v>
@@ -6603,19 +6603,19 @@
         <v>7.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH34" t="n">
         <v>15</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>17</v>
@@ -6633,13 +6633,13 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>
@@ -6648,10 +6648,10 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6672,7 +6672,7 @@
         <v>101</v>
       </c>
       <c r="BB34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>2.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W35" t="n">
         <v>6</v>
@@ -6933,10 +6933,10 @@
         <v>2.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W36" t="n">
         <v>8.5</v>
@@ -7115,10 +7115,10 @@
         <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W37" t="n">
         <v>7</v>
@@ -7285,10 +7285,10 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7297,10 +7297,10 @@
         <v>2.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
@@ -7623,7 +7623,7 @@
         <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L40" t="n">
         <v>3.6</v>
@@ -7979,22 +7979,22 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L42" t="n">
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
@@ -8015,13 +8015,13 @@
         <v>2.63</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -8042,7 +8042,7 @@
         <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8051,13 +8051,13 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ42" t="n">
         <v>11</v>
@@ -8081,13 +8081,13 @@
         <v>23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR42" t="n">
         <v>67</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT42" t="n">
         <v>2.63</v>
@@ -8337,16 +8337,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H44" t="n">
         <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
         <v>2.25</v>
@@ -8394,7 +8394,7 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
         <v>13</v>
@@ -8406,7 +8406,7 @@
         <v>9.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
         <v>21</v>
@@ -8421,10 +8421,10 @@
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
         <v>81</v>
@@ -8445,7 +8445,7 @@
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR44" t="n">
         <v>51</v>
@@ -8475,13 +8475,13 @@
         <v>151</v>
       </c>
       <c r="BA44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB44" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD44" t="n">
         <v>151</v>
@@ -8519,16 +8519,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
@@ -8537,16 +8537,16 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -8585,7 +8585,7 @@
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
         <v>6.5</v>
@@ -8630,7 +8630,7 @@
         <v>41</v>
       </c>
       <c r="AR45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS45" t="n">
         <v>151</v>
@@ -8725,16 +8725,16 @@
         <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -8845,7 +8845,7 @@
         <v>151</v>
       </c>
       <c r="BC46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8901,10 +8901,10 @@
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -9030,7 +9030,7 @@
         <v>126</v>
       </c>
       <c r="BD47" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -9256,7 +9256,7 @@
         <v>2.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
@@ -9429,22 +9429,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K50" t="n">
         <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -9471,10 +9471,10 @@
         <v>2.63</v>
       </c>
       <c r="U50" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V50" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W50" t="n">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>21</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z50" t="n">
         <v>41</v>
@@ -9495,22 +9495,22 @@
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD50" t="n">
         <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI50" t="n">
         <v>8.5</v>
@@ -9534,7 +9534,7 @@
         <v>23</v>
       </c>
       <c r="AP50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ50" t="n">
         <v>81</v>
@@ -9614,55 +9614,55 @@
         <v>4.33</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J51" t="n">
         <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="n">
         <v>2.05</v>
       </c>
       <c r="R51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.8</v>
       </c>
-      <c r="S51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
         <v>15</v>
@@ -9677,7 +9677,7 @@
         <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
         <v>7</v>
@@ -9689,7 +9689,7 @@
         <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH51" t="n">
         <v>6.5</v>
@@ -9701,7 +9701,7 @@
         <v>8.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -9710,7 +9710,7 @@
         <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO51" t="n">
         <v>26</v>
@@ -9722,13 +9722,13 @@
         <v>81</v>
       </c>
       <c r="AR51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS51" t="n">
         <v>251</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU51" t="n">
         <v>8.5</v>
@@ -10187,10 +10187,10 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R54" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S54" t="n">
         <v>1.44</v>
@@ -10363,10 +10363,10 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="n">
         <v>2.1</v>
@@ -11067,148 +11067,148 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="I59" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L59" t="n">
         <v>3.65</v>
       </c>
-      <c r="K59" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.45</v>
-      </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>5.95</v>
+        <v>4.95</v>
       </c>
       <c r="O59" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="P59" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.69</v>
+        <v>3.22</v>
       </c>
       <c r="R59" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="S59" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="n">
-        <v>2.21</v>
+        <v>2.51</v>
       </c>
       <c r="V59" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="W59" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="X59" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AB59" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AC59" t="n">
-        <v>5.2</v>
+        <v>4.25</v>
       </c>
       <c r="AD59" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AE59" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF59" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG59" t="n">
         <v>101</v>
       </c>
       <c r="AH59" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ59" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK59" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL59" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM59" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO59" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AP59" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ59" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AR59" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS59" t="n">
         <v>450</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AU59" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV59" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW59" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AX59" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AY59" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ59" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA59" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB59" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC59" t="inlineStr"/>
       <c r="BD59" t="inlineStr"/>
@@ -11628,7 +11628,7 @@
         <v>1.13</v>
       </c>
       <c r="P62" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q62" t="n">
         <v>1.52</v>
@@ -11984,7 +11984,7 @@
         <v>1.04</v>
       </c>
       <c r="P64" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="Q64" t="n">
         <v>1.35</v>
@@ -12137,22 +12137,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H65" t="n">
         <v>4.35</v>
       </c>
       <c r="I65" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="K65" t="n">
         <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
@@ -12164,13 +12164,13 @@
         <v>1.1</v>
       </c>
       <c r="P65" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R65" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S65" t="n">
         <v>1.23</v>
@@ -12194,16 +12194,16 @@
         <v>8.25</v>
       </c>
       <c r="Z65" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA65" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD65" t="n">
         <v>9</v>
@@ -12218,40 +12218,40 @@
         <v>300</v>
       </c>
       <c r="AH65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI65" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ65" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM65" t="n">
         <v>45</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>40</v>
       </c>
       <c r="AN65" t="n">
         <v>3.65</v>
       </c>
       <c r="AO65" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AR65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS65" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT65" t="n">
         <v>3.65</v>
@@ -12263,19 +12263,19 @@
         <v>45</v>
       </c>
       <c r="AW65" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AX65" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AY65" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ65" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA65" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB65" t="n">
         <v>250</v>
@@ -12321,23 +12321,19 @@
         <v>8.5</v>
       </c>
       <c r="I66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J66" t="n">
         <v>1.35</v>
       </c>
       <c r="K66" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L66" t="n">
-        <v>12</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N66" t="n">
-        <v>24</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
         <v>1.02</v>
       </c>
@@ -12345,10 +12341,10 @@
         <v>7.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R66" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="S66" t="n">
         <v>1.13</v>
@@ -12357,22 +12353,22 @@
         <v>5.4</v>
       </c>
       <c r="U66" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V66" t="n">
         <v>1.6</v>
       </c>
       <c r="W66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X66" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y66" t="n">
         <v>13</v>
       </c>
       <c r="Z66" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA66" t="n">
         <v>11.25</v>
@@ -12381,7 +12377,7 @@
         <v>35</v>
       </c>
       <c r="AC66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD66" t="n">
         <v>22</v>
@@ -12390,7 +12386,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG66" t="n">
         <v>1000</v>
@@ -12399,19 +12395,19 @@
         <v>70</v>
       </c>
       <c r="AI66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ66" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK66" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL66" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AM66" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN66" t="n">
         <v>3.3</v>
@@ -12432,7 +12428,7 @@
         <v>150</v>
       </c>
       <c r="AT66" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AU66" t="n">
         <v>11</v>
@@ -12441,10 +12437,10 @@
         <v>90</v>
       </c>
       <c r="AW66" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AX66" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AY66" t="n">
         <v>70</v>
@@ -12694,7 +12690,7 @@
         <v>1.07</v>
       </c>
       <c r="P68" t="n">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="Q68" t="n">
         <v>1.4</v>
@@ -12868,13 +12864,13 @@
         <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="O69" t="n">
         <v>1.11</v>
       </c>
       <c r="P69" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q69" t="n">
         <v>1.52</v>
@@ -13066,7 +13062,7 @@
         <v>1.29</v>
       </c>
       <c r="T70" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U70" t="n">
         <v>1.52</v>
@@ -13132,7 +13128,7 @@
         <v>11.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ70" t="n">
         <v>45</v>
@@ -13561,28 +13557,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J73" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K73" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L73" t="n">
         <v>4.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O73" t="n">
         <v>1.2</v>
@@ -13624,7 +13620,7 @@
         <v>13</v>
       </c>
       <c r="AB73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC73" t="n">
         <v>13</v>
@@ -13663,7 +13659,7 @@
         <v>3.75</v>
       </c>
       <c r="AO73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP73" t="n">
         <v>17</v>
@@ -14445,13 +14441,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H78" t="n">
         <v>3.2</v>
       </c>
       <c r="I78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J78" t="n">
         <v>3.65</v>
@@ -14460,7 +14456,7 @@
         <v>2.07</v>
       </c>
       <c r="L78" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14469,22 +14465,22 @@
         <v>6.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P78" t="n">
         <v>2.72</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S78" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T78" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U78" t="n">
         <v>1.8</v>
@@ -14517,19 +14513,19 @@
         <v>6.2</v>
       </c>
       <c r="AE78" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG78" t="n">
         <v>700</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI78" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ78" t="n">
         <v>9</v>
@@ -14544,13 +14540,13 @@
         <v>32</v>
       </c>
       <c r="AN78" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO78" t="n">
         <v>17</v>
       </c>
       <c r="AP78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ78" t="n">
         <v>80</v>
@@ -14562,7 +14558,7 @@
         <v>300</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU78" t="n">
         <v>7.1</v>
@@ -14571,13 +14567,13 @@
         <v>65</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AX78" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ78" t="n">
         <v>45</v>
@@ -14623,43 +14619,43 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="H79" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="J79" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K79" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="O79" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P79" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
         <v>1.65</v>
       </c>
       <c r="S79" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T79" t="n">
         <v>2.55</v>
@@ -14671,31 +14667,31 @@
         <v>1.85</v>
       </c>
       <c r="W79" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X79" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA79" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB79" t="n">
         <v>35</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD79" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF79" t="n">
         <v>70</v>
@@ -14704,64 +14700,64 @@
         <v>600</v>
       </c>
       <c r="AH79" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AI79" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM79" t="n">
         <v>32</v>
       </c>
       <c r="AN79" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP79" t="n">
         <v>22</v>
       </c>
       <c r="AQ79" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AR79" t="n">
         <v>100</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ79" t="n">
         <v>55</v>
       </c>
-      <c r="AW79" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>50</v>
-      </c>
       <c r="BA79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB79" t="n">
         <v>250</v>
@@ -14997,16 +14993,16 @@
         <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
         <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q81" t="n">
         <v>1.53</v>
@@ -15021,7 +15017,7 @@
         <v>3.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V81" t="n">
         <v>2.2</v>
@@ -15161,13 +15157,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H82" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I82" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J82" t="n">
         <v>5.5</v>
@@ -15176,16 +15172,16 @@
         <v>2.6</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
         <v>21</v>
       </c>
       <c r="O82" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P82" t="n">
         <v>6</v>
@@ -15203,7 +15199,7 @@
         <v>3.75</v>
       </c>
       <c r="U82" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V82" t="n">
         <v>2.25</v>
@@ -15215,7 +15211,7 @@
         <v>34</v>
       </c>
       <c r="Y82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z82" t="n">
         <v>51</v>
@@ -15242,7 +15238,7 @@
         <v>126</v>
       </c>
       <c r="AH82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI82" t="n">
         <v>9.5</v>
@@ -15290,7 +15286,7 @@
         <v>3.75</v>
       </c>
       <c r="AX82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY82" t="n">
         <v>15</v>
@@ -15343,7 +15339,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H83" t="n">
         <v>4.1</v>
@@ -15361,13 +15357,13 @@
         <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -15385,7 +15381,7 @@
         <v>3.5</v>
       </c>
       <c r="U83" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V83" t="n">
         <v>2.2</v>
@@ -15879,124 +15875,124 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I86" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J86" t="n">
         <v>3.1</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L86" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="M86" t="n">
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>6.85</v>
+        <v>7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P86" t="n">
-        <v>2.51</v>
+        <v>2.58</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R86" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T86" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U86" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V86" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="W86" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="X86" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y86" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y86" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD86" t="n">
         <v>5.2</v>
       </c>
       <c r="AE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO86" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF86" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL86" t="n">
+      <c r="AP86" t="n">
         <v>25</v>
       </c>
-      <c r="AM86" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR86" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS86" t="n">
         <v>400</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU86" t="n">
         <v>7.8</v>
@@ -16005,22 +16001,22 @@
         <v>90</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="AX86" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY86" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ86" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BA86" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB86" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16057,146 +16053,146 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
         <v>1.5</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="K87" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L87" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>7.23</v>
+        <v>6.9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P87" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R87" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S87" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T87" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="U87" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="V87" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="W87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X87" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y87" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA87" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB87" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD87" t="n">
         <v>6.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF87" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG87" t="n">
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AI87" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AJ87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN87" t="n">
         <v>7.3</v>
       </c>
-      <c r="AK87" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AO87" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP87" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ87" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR87" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AS87" t="inlineStr"/>
       <c r="AT87" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="AU87" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AV87" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW87" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AX87" t="n">
         <v>7.3</v>
       </c>
       <c r="AY87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA87" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB87" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC87" t="inlineStr"/>
       <c r="BD87" t="inlineStr"/>
@@ -16233,91 +16229,91 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J88" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K88" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="L88" t="n">
         <v>5.9</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="O88" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P88" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S88" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T88" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="U88" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="V88" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W88" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="X88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="n">
         <v>6.3</v>
       </c>
-      <c r="Y88" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AD88" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ88" t="n">
         <v>19.5</v>
@@ -16326,52 +16322,52 @@
         <v>120</v>
       </c>
       <c r="AL88" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM88" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN88" t="n">
         <v>3.2</v>
       </c>
       <c r="AO88" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AP88" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ88" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR88" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AS88" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="AU88" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AV88" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW88" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AX88" t="n">
         <v>37</v>
       </c>
       <c r="AY88" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ88" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA88" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr"/>
@@ -16777,13 +16773,13 @@
         <v>3.25</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N91" t="n">
         <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P91" t="n">
         <v>3.4</v>
@@ -16962,7 +16958,7 @@
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.22</v>
@@ -17140,7 +17136,7 @@
         <v>1.02</v>
       </c>
       <c r="N93" t="n">
-        <v>8.699999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="O93" t="n">
         <v>1.28</v>
@@ -17661,10 +17657,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H96" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I96" t="n">
         <v>3.35</v>
@@ -17682,28 +17678,28 @@
         <v>1.15</v>
       </c>
       <c r="N96" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="O96" t="n">
         <v>1.65</v>
       </c>
       <c r="P96" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R96" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S96" t="n">
         <v>1.65</v>
       </c>
       <c r="T96" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U96" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V96" t="n">
         <v>1.53</v>
@@ -17715,7 +17711,7 @@
         <v>9.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z96" t="n">
         <v>24</v>
@@ -17727,10 +17723,10 @@
         <v>55</v>
       </c>
       <c r="AC96" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE96" t="n">
         <v>22</v>
@@ -17778,7 +17774,7 @@
         <v>500</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AU96" t="n">
         <v>8.75</v>
@@ -17787,7 +17783,7 @@
         <v>120</v>
       </c>
       <c r="AW96" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX96" t="n">
         <v>22</v>
@@ -17861,13 +17857,13 @@
         <v>4.75</v>
       </c>
       <c r="M97" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
         <v>17</v>
       </c>
       <c r="O97" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -17885,7 +17881,7 @@
         <v>3.4</v>
       </c>
       <c r="U97" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V97" t="n">
         <v>2.2</v>
@@ -18049,7 +18045,7 @@
         <v>26</v>
       </c>
       <c r="O98" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P98" t="n">
         <v>11</v>
@@ -18070,7 +18066,7 @@
         <v>3.25</v>
       </c>
       <c r="V98" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
         <v>67</v>
@@ -18229,7 +18225,7 @@
         <v>29</v>
       </c>
       <c r="O99" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P99" t="n">
         <v>13</v>
@@ -18250,7 +18246,7 @@
         <v>2.75</v>
       </c>
       <c r="V99" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W99" t="n">
         <v>51</v>
@@ -18539,13 +18535,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
@@ -18569,10 +18565,10 @@
         <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R101" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S101" t="n">
         <v>1.5</v>
@@ -18599,7 +18595,7 @@
         <v>21</v>
       </c>
       <c r="AA101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB101" t="n">
         <v>34</v>
@@ -18623,10 +18619,10 @@
         <v>9</v>
       </c>
       <c r="AI101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK101" t="n">
         <v>34</v>
@@ -18644,7 +18640,7 @@
         <v>13</v>
       </c>
       <c r="AP101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ101" t="n">
         <v>41</v>
@@ -18662,7 +18658,7 @@
         <v>8.5</v>
       </c>
       <c r="AV101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW101" t="n">
         <v>5</v>
@@ -18677,7 +18673,7 @@
         <v>67</v>
       </c>
       <c r="BA101" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB101" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1114,7 +1114,7 @@
         <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
@@ -1123,7 +1123,7 @@
         <v>1.53</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>10</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1258,7 +1258,7 @@
         <v>501</v>
       </c>
       <c r="BD4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>15</v>
@@ -1335,16 +1335,16 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1359,19 +1359,19 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1389,10 +1389,10 @@
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1845,121 +1845,121 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>1.57</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
         <v>7</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
         <v>67</v>
       </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,25 +1968,25 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA8" t="n">
         <v>201</v>
       </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>451</v>
       </c>
       <c r="BD8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2350,7 +2350,7 @@
         <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -2385,143 +2385,143 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N11" t="n">
         <v>5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW11" t="n">
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
         <v>500</v>
@@ -2586,7 +2586,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2775,10 +2775,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2973,7 +2973,7 @@
         <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X14" t="n">
         <v>4.75</v>
@@ -3019,7 +3019,7 @@
         <v>126</v>
       </c>
       <c r="AM14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="n">
         <v>2.88</v>
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>2.5</v>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -3307,10 +3307,10 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -3325,13 +3325,13 @@
         <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
         <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>13</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
@@ -3368,7 +3368,7 @@
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
@@ -3395,7 +3395,7 @@
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
@@ -3404,7 +3404,7 @@
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I19" t="n">
         <v>2.5</v>
@@ -3843,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>3.4</v>
@@ -3861,19 +3861,19 @@
         <v>2.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -3885,13 +3885,13 @@
         <v>51</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD19" t="n">
         <v>5.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3915,13 +3915,13 @@
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
         <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
         <v>41</v>
@@ -3933,16 +3933,16 @@
         <v>151</v>
       </c>
       <c r="AS19" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW19" t="n">
         <v>4.33</v>
@@ -3951,16 +3951,16 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
@@ -4001,28 +4001,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K20" t="n">
         <v>1.8</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.73</v>
@@ -4031,16 +4031,16 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U20" t="n">
         <v>2.63</v>
@@ -4076,17 +4076,17 @@
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -4101,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>41</v>
@@ -4128,19 +4128,19 @@
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4363,40 +4363,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
         <v>1.28</v>
@@ -4405,37 +4405,37 @@
         <v>3.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V22" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Z22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF22" t="n">
         <v>32</v>
@@ -4447,61 +4447,61 @@
         <v>8.25</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM22" t="n">
         <v>15.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="n">
         <v>3.15</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV22" t="n">
         <v>45</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB22" t="n">
         <v>150</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="I23" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="K23" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="L23" t="n">
         <v>4.4</v>
@@ -4562,37 +4562,37 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="S23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="X23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>8.25</v>
@@ -4601,16 +4601,16 @@
         <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -4619,16 +4619,16 @@
         <v>45</v>
       </c>
       <c r="AG23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
         <v>70</v>
@@ -4637,46 +4637,46 @@
         <v>35</v>
       </c>
       <c r="AM23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AP23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS23" t="n">
         <v>150</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV23" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA23" t="n">
         <v>120</v>
@@ -4723,46 +4723,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L24" t="n">
         <v>5.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U24" t="n">
         <v>1.7</v>
@@ -4771,100 +4771,100 @@
         <v>2.05</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X24" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE24" t="n">
         <v>15.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="n">
         <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN24" t="n">
         <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AP24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS24" t="n">
         <v>175</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW24" t="n">
         <v>7.3</v>
       </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY24" t="n">
         <v>32</v>
       </c>
-      <c r="AY24" t="n">
-        <v>30</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA24" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4905,40 +4905,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4953,10 +4953,10 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10.75</v>
@@ -4965,16 +4965,16 @@
         <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE25" t="n">
         <v>12.5</v>
@@ -4986,40 +4986,40 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.75</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>17</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN25" t="n">
         <v>5.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>80</v>
       </c>
       <c r="AR25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS25" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
         <v>2.75</v>
@@ -5028,25 +5028,25 @@
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ25" t="n">
         <v>45</v>
       </c>
       <c r="BA25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5087,22 +5087,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5123,109 +5123,109 @@
         <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U26" t="n">
         <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="n">
         <v>29</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>32</v>
       </c>
       <c r="AC26" t="n">
         <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG26" t="n">
         <v>300</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS26" t="n">
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AY26" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BA26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB26" t="n">
         <v>175</v>
@@ -5451,10 +5451,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
         <v>1.42</v>
@@ -5463,7 +5463,7 @@
         <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="L28" t="n">
         <v>1.85</v>
@@ -5493,22 +5493,22 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V28" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>45</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="n">
         <v>50</v>
@@ -5520,7 +5520,7 @@
         <v>10.25</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE28" t="n">
         <v>14.5</v>
@@ -5532,13 +5532,13 @@
         <v>200</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI28" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK28" t="n">
         <v>11.5</v>
@@ -5547,13 +5547,13 @@
         <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>27</v>
@@ -5571,7 +5571,7 @@
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>45</v>
@@ -5586,7 +5586,7 @@
         <v>12.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
@@ -5650,12 +5650,8 @@
       <c r="L29" t="n">
         <v>10.5</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
         <v>1.22</v>
       </c>
@@ -5675,10 +5671,10 @@
         <v>3.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="V29" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W29" t="n">
         <v>6</v>
@@ -5690,7 +5686,7 @@
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA29" t="n">
         <v>12.5</v>
@@ -5712,7 +5708,7 @@
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
@@ -5730,16 +5726,16 @@
         <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AR29" t="n">
         <v>50</v>
@@ -5751,16 +5747,16 @@
         <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AV29" t="n">
         <v>150</v>
       </c>
       <c r="AW29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AY29" t="n">
         <v>90</v>
@@ -6371,10 +6367,10 @@
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
@@ -6531,22 +6527,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L34" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6561,10 +6557,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6573,13 +6569,13 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
         <v>8.5</v>
@@ -6600,13 +6596,13 @@
         <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="n">
         <v>201</v>
@@ -6633,16 +6629,16 @@
         <v>3.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
         <v>126</v>
@@ -6660,7 +6656,7 @@
         <v>6.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY34" t="n">
         <v>29</v>
@@ -7251,13 +7247,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -7269,10 +7265,10 @@
         <v>3.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -7302,10 +7298,10 @@
         <v>7</v>
       </c>
       <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
         <v>11</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>26</v>
@@ -7314,16 +7310,16 @@
         <v>23</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
@@ -7433,7 +7429,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
@@ -7442,43 +7438,43 @@
         <v>3.9</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L39" t="n">
         <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.95</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.8</v>
       </c>
       <c r="W39" t="n">
         <v>7</v>
@@ -7487,22 +7483,22 @@
         <v>9.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z39" t="n">
         <v>19</v>
       </c>
       <c r="AA39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -7511,7 +7507,7 @@
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH39" t="n">
         <v>10</v>
@@ -7550,13 +7546,13 @@
         <v>201</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU39" t="n">
         <v>8.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
         <v>5.5</v>
@@ -7565,7 +7561,7 @@
         <v>21</v>
       </c>
       <c r="AY39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ39" t="n">
         <v>67</v>
@@ -7975,7 +7971,7 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -7999,10 +7995,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8020,7 +8016,7 @@
         <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8029,7 +8025,7 @@
         <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
         <v>34</v>
@@ -8098,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="AX42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY42" t="n">
         <v>29</v>
@@ -8539,16 +8535,16 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8712,13 +8708,13 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -8763,7 +8759,7 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8808,7 +8804,7 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS46" t="n">
         <v>151</v>
@@ -8817,7 +8813,7 @@
         <v>2.63</v>
       </c>
       <c r="AU46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
         <v>51</v>
@@ -8838,7 +8834,7 @@
         <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC46" t="n">
         <v>126</v>
@@ -9023,7 +9019,7 @@
         <v>201</v>
       </c>
       <c r="BC47" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD47" t="n">
         <v>151</v>
@@ -9455,10 +9451,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9607,34 +9603,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="n">
         <v>2.05</v>
@@ -9658,10 +9654,10 @@
         <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="n">
         <v>41</v>
@@ -9673,7 +9669,7 @@
         <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9691,28 +9687,28 @@
         <v>7</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM51" t="n">
         <v>29</v>
       </c>
       <c r="AN51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ51" t="n">
         <v>81</v>
@@ -9733,16 +9729,16 @@
         <v>51</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA51" t="n">
         <v>51</v>
@@ -9995,16 +9991,16 @@
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10118,7 +10114,7 @@
         <v>126</v>
       </c>
       <c r="BD53" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -10153,10 +10149,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
         <v>2.25</v>
@@ -10183,10 +10179,10 @@
         <v>2.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S54" t="n">
         <v>1.53</v>
@@ -10195,10 +10191,10 @@
         <v>2.38</v>
       </c>
       <c r="U54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W54" t="n">
         <v>8</v>
@@ -10213,7 +10209,7 @@
         <v>41</v>
       </c>
       <c r="AA54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB54" t="n">
         <v>41</v>
@@ -10231,16 +10227,16 @@
         <v>67</v>
       </c>
       <c r="AG54" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI54" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK54" t="n">
         <v>21</v>
@@ -10249,7 +10245,7 @@
         <v>21</v>
       </c>
       <c r="AM54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN54" t="n">
         <v>5</v>
@@ -10285,10 +10281,10 @@
         <v>13</v>
       </c>
       <c r="AY54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA54" t="n">
         <v>81</v>
@@ -10335,40 +10331,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.1</v>
       </c>
       <c r="L55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R55" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10386,7 +10382,7 @@
         <v>6.5</v>
       </c>
       <c r="X55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10401,7 +10397,7 @@
         <v>29</v>
       </c>
       <c r="AC55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
@@ -10437,13 +10433,13 @@
         <v>3.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP55" t="n">
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
@@ -10458,13 +10454,13 @@
         <v>8.5</v>
       </c>
       <c r="AV55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW55" t="n">
         <v>6.5</v>
       </c>
       <c r="AX55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY55" t="n">
         <v>34</v>
@@ -10476,7 +10472,7 @@
         <v>126</v>
       </c>
       <c r="BB55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC55" t="n">
         <v>126</v>
@@ -10547,10 +10543,10 @@
         <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S56" t="n">
         <v>1.44</v>
@@ -10699,22 +10695,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H57" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I57" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J57" t="n">
         <v>2.1</v>
       </c>
       <c r="K57" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -10729,28 +10725,28 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S57" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U57" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V57" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
@@ -10762,7 +10758,7 @@
         <v>12</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC57" t="n">
         <v>15</v>
@@ -10771,13 +10767,13 @@
         <v>8.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH57" t="n">
         <v>15</v>
@@ -10786,22 +10782,22 @@
         <v>29</v>
       </c>
       <c r="AJ57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK57" t="n">
         <v>51</v>
       </c>
       <c r="AL57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP57" t="n">
         <v>17</v>
@@ -10813,10 +10809,10 @@
         <v>41</v>
       </c>
       <c r="AS57" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU57" t="n">
         <v>8</v>
@@ -10828,19 +10824,19 @@
         <v>7</v>
       </c>
       <c r="AX57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ57" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA57" t="n">
         <v>101</v>
       </c>
       <c r="BB57" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC57" t="n">
         <v>501</v>
@@ -11619,7 +11615,7 @@
         <v>1.72</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
         <v>21</v>
@@ -11803,7 +11799,7 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P63" t="n">
         <v>4.4</v>
@@ -11957,19 +11953,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H64" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J64" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K64" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="L64" t="n">
         <v>5.9</v>
@@ -11981,16 +11977,16 @@
         <v>20</v>
       </c>
       <c r="O64" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P64" t="n">
-        <v>5.8</v>
+        <v>5.45</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="R64" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="S64" t="n">
         <v>1.2</v>
@@ -11999,16 +11995,16 @@
         <v>4.2</v>
       </c>
       <c r="U64" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V64" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W64" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="X64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y64" t="n">
         <v>8.75</v>
@@ -12017,31 +12013,31 @@
         <v>9.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB64" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD64" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE64" t="n">
         <v>17.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG64" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AH64" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ64" t="n">
         <v>22</v>
@@ -12053,49 +12049,49 @@
         <v>65</v>
       </c>
       <c r="AM64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO64" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AP64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ64" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AR64" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AS64" t="n">
         <v>120</v>
       </c>
       <c r="AT64" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW64" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX64" t="n">
         <v>35</v>
       </c>
       <c r="AY64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ64" t="n">
         <v>200</v>
       </c>
       <c r="BA64" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB64" t="n">
         <v>300</v>
@@ -12162,7 +12158,7 @@
         <v>1.04</v>
       </c>
       <c r="P65" t="n">
-        <v>6.35</v>
+        <v>6.4</v>
       </c>
       <c r="Q65" t="n">
         <v>1.34</v>
@@ -12315,22 +12311,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I66" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="K66" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.02</v>
@@ -12342,13 +12338,13 @@
         <v>1.1</v>
       </c>
       <c r="P66" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R66" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S66" t="n">
         <v>1.24</v>
@@ -12369,10 +12365,10 @@
         <v>9</v>
       </c>
       <c r="Y66" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA66" t="n">
         <v>10.75</v>
@@ -12384,49 +12380,49 @@
         <v>16.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH66" t="n">
         <v>20</v>
       </c>
       <c r="AI66" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM66" t="n">
         <v>40</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO66" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AP66" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS66" t="n">
         <v>120</v>
@@ -12435,19 +12431,19 @@
         <v>3.65</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV66" t="n">
         <v>45</v>
       </c>
       <c r="AW66" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AX66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY66" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ66" t="n">
         <v>150</v>
@@ -12514,13 +12510,13 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O67" t="n">
         <v>1.01</v>
       </c>
       <c r="P67" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Q67" t="n">
         <v>1.23</v>
@@ -12565,7 +12561,7 @@
         <v>22</v>
       </c>
       <c r="AE67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF67" t="n">
         <v>150</v>
@@ -12583,7 +12579,7 @@
         <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL67" t="n">
         <v>300</v>
@@ -13049,10 +13045,10 @@
         <v>13.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P70" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q70" t="n">
         <v>1.5</v>
@@ -13229,10 +13225,10 @@
         <v>12.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
@@ -13244,7 +13240,7 @@
         <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U71" t="n">
         <v>1.52</v>
@@ -13386,58 +13382,58 @@
         <v>1.65</v>
       </c>
       <c r="H72" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="J72" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L72" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P72" t="n">
-        <v>6.25</v>
+        <v>6.2</v>
       </c>
       <c r="Q72" t="n">
         <v>1.32</v>
       </c>
       <c r="R72" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="S72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T72" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="U72" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V72" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="W72" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X72" t="n">
         <v>12.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z72" t="n">
         <v>16</v>
@@ -13446,76 +13442,76 @@
         <v>11.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD72" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE72" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF72" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI72" t="n">
         <v>32</v>
       </c>
-      <c r="AG72" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI72" t="n">
+      <c r="AJ72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL72" t="n">
         <v>30</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>28</v>
       </c>
       <c r="AM72" t="n">
         <v>25</v>
       </c>
       <c r="AN72" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AO72" t="n">
         <v>7.8</v>
       </c>
       <c r="AP72" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR72" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV72" t="n">
         <v>32</v>
       </c>
-      <c r="AS72" t="n">
-        <v>90</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>35</v>
-      </c>
       <c r="AW72" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AX72" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY72" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>19</v>
       </c>
       <c r="AZ72" t="n">
         <v>80</v>
@@ -13527,7 +13523,7 @@
         <v>150</v>
       </c>
       <c r="BC72" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD72" t="inlineStr"/>
     </row>
@@ -13566,19 +13562,19 @@
         <v>1.47</v>
       </c>
       <c r="H73" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I73" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J73" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K73" t="n">
         <v>2.77</v>
       </c>
       <c r="L73" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -13589,10 +13585,10 @@
         <v>8.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S73" t="n">
         <v>1.14</v>
@@ -13604,16 +13600,16 @@
         <v>1.35</v>
       </c>
       <c r="V73" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W73" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X73" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z73" t="n">
         <v>14.5</v>
@@ -13622,16 +13618,16 @@
         <v>10.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD73" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE73" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF73" t="n">
         <v>30</v>
@@ -13640,7 +13636,7 @@
         <v>120</v>
       </c>
       <c r="AH73" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI73" t="n">
         <v>45</v>
@@ -13649,7 +13645,7 @@
         <v>17.5</v>
       </c>
       <c r="AK73" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL73" t="n">
         <v>37</v>
@@ -13658,52 +13654,52 @@
         <v>28</v>
       </c>
       <c r="AN73" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AO73" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP73" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>16</v>
       </c>
       <c r="AR73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS73" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AT73" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AU73" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW73" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AX73" t="n">
         <v>23</v>
       </c>
       <c r="AY73" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ73" t="n">
         <v>100</v>
       </c>
       <c r="BA73" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB73" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC73" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD73" t="inlineStr"/>
     </row>
@@ -13781,7 +13777,7 @@
         <v>3.25</v>
       </c>
       <c r="U74" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V74" t="n">
         <v>2.1</v>
@@ -14275,34 +14271,34 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H77" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="I77" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J77" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L77" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="M77" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>6.3</v>
+        <v>5.75</v>
       </c>
       <c r="O77" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="Q77" t="n">
         <v>2.32</v>
@@ -14311,107 +14307,107 @@
         <v>1.47</v>
       </c>
       <c r="S77" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T77" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="U77" t="n">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="V77" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W77" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="X77" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y77" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA77" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE77" t="n">
         <v>16</v>
       </c>
-      <c r="AB77" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>15</v>
-      </c>
       <c r="AF77" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AI77" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK77" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL77" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM77" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN77" t="n">
         <v>3.7</v>
       </c>
       <c r="AO77" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP77" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS77" t="n">
         <v>450</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX77" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY77" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AZ77" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA77" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB77" t="n">
         <v>500</v>
@@ -14803,7 +14799,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>3.35</v>
@@ -14818,7 +14814,7 @@
         <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -14830,7 +14826,7 @@
         <v>1.35</v>
       </c>
       <c r="P80" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q80" t="n">
         <v>2.02</v>
@@ -14863,13 +14859,13 @@
         <v>45</v>
       </c>
       <c r="AA80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB80" t="n">
         <v>45</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
@@ -14893,7 +14889,7 @@
         <v>8.75</v>
       </c>
       <c r="AK80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL80" t="n">
         <v>17.5</v>
@@ -14905,7 +14901,7 @@
         <v>5.2</v>
       </c>
       <c r="AO80" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP80" t="n">
         <v>27</v>
@@ -14923,7 +14919,7 @@
         <v>2.52</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV80" t="n">
         <v>70</v>
@@ -14981,28 +14977,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>3.35</v>
       </c>
       <c r="I81" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J81" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
         <v>1.32</v>
@@ -15032,16 +15028,16 @@
         <v>8.75</v>
       </c>
       <c r="X81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y81" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA81" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB81" t="n">
         <v>37</v>
@@ -15053,7 +15049,7 @@
         <v>6.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF81" t="n">
         <v>75</v>
@@ -15062,34 +15058,34 @@
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI81" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL81" t="n">
         <v>18.5</v>
       </c>
       <c r="AM81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO81" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ81" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR81" t="n">
         <v>110</v>
@@ -15098,7 +15094,7 @@
         <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU81" t="n">
         <v>7.2</v>
@@ -15110,7 +15106,7 @@
         <v>4.05</v>
       </c>
       <c r="AX81" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY81" t="n">
         <v>20</v>
@@ -15177,10 +15173,10 @@
         <v>3.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="O82" t="n">
         <v>1.65</v>
@@ -15189,10 +15185,10 @@
         <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="R82" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S82" t="n">
         <v>1.62</v>
@@ -15373,10 +15369,10 @@
         <v>2.5</v>
       </c>
       <c r="S83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T83" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U83" t="n">
         <v>1.62</v>
@@ -15397,7 +15393,7 @@
         <v>12</v>
       </c>
       <c r="AA83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB83" t="n">
         <v>21</v>
@@ -15454,7 +15450,7 @@
         <v>81</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
@@ -15519,19 +15515,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H84" t="n">
         <v>4.5</v>
       </c>
       <c r="I84" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J84" t="n">
         <v>5.5</v>
       </c>
       <c r="K84" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L84" t="n">
         <v>2</v>
@@ -15555,19 +15551,19 @@
         <v>2.4</v>
       </c>
       <c r="S84" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U84" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V84" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X84" t="n">
         <v>34</v>
@@ -15582,10 +15578,10 @@
         <v>41</v>
       </c>
       <c r="AB84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD84" t="n">
         <v>9</v>
@@ -15600,10 +15596,10 @@
         <v>151</v>
       </c>
       <c r="AH84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ84" t="n">
         <v>8.5</v>
@@ -15627,16 +15623,16 @@
         <v>29</v>
       </c>
       <c r="AQ84" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR84" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS84" t="n">
         <v>151</v>
       </c>
       <c r="AT84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU84" t="n">
         <v>8</v>
@@ -15648,7 +15644,7 @@
         <v>3.75</v>
       </c>
       <c r="AX84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY84" t="n">
         <v>15</v>
@@ -15660,7 +15656,7 @@
         <v>41</v>
       </c>
       <c r="BB84" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC84" t="n">
         <v>351</v>
@@ -15701,16 +15697,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>4.2</v>
       </c>
       <c r="I85" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
         <v>2.5</v>
@@ -15758,10 +15754,10 @@
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB85" t="n">
         <v>21</v>
@@ -15788,10 +15784,10 @@
         <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK85" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL85" t="n">
         <v>41</v>
@@ -15830,13 +15826,13 @@
         <v>7.5</v>
       </c>
       <c r="AX85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY85" t="n">
         <v>29</v>
       </c>
       <c r="AZ85" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA85" t="n">
         <v>101</v>
@@ -16079,16 +16075,16 @@
         <v>2.8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="O87" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P87" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q87" t="n">
         <v>1.41</v>
@@ -16096,8 +16092,12 @@
       <c r="R87" t="n">
         <v>2.45</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T87" t="n">
+        <v>3.6</v>
+      </c>
       <c r="U87" t="n">
         <v>1.4</v>
       </c>
@@ -16415,143 +16415,143 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="J89" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="K89" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L89" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P89" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S89" t="n">
         <v>1.47</v>
       </c>
       <c r="T89" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U89" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="V89" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="W89" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="X89" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AA89" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB89" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC89" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF89" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AI89" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AJ89" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK89" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="AL89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM89" t="n">
         <v>35</v>
       </c>
       <c r="AN89" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AO89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ89" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AR89" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV89" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AX89" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AY89" t="n">
         <v>23</v>
       </c>
       <c r="AZ89" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BA89" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB89" t="n">
         <v>450</v>
@@ -16767,22 +16767,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H91" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I91" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="J91" t="n">
         <v>1.62</v>
       </c>
       <c r="K91" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
@@ -16821,22 +16821,22 @@
         <v>5.3</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA91" t="n">
         <v>11.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC91" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE91" t="n">
         <v>32</v>
@@ -16851,31 +16851,31 @@
         <v>40</v>
       </c>
       <c r="AI91" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM91" t="n">
         <v>175</v>
       </c>
-      <c r="AJ91" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>200</v>
-      </c>
       <c r="AN91" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AO91" t="n">
         <v>5</v>
       </c>
       <c r="AP91" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ91" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR91" t="n">
         <v>45</v>
@@ -16884,22 +16884,22 @@
         <v>300</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="AU91" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AV91" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX91" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AY91" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AZ91" t="n">
         <v>500</v>
@@ -17121,22 +17121,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L93" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.25</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -17172,22 +17172,22 @@
         <v>8.5</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z93" t="n">
         <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB93" t="n">
         <v>34</v>
       </c>
       <c r="AC93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD93" t="n">
         <v>6</v>
@@ -17208,19 +17208,19 @@
         <v>13</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO93" t="n">
         <v>15</v>
@@ -17247,7 +17247,7 @@
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17259,7 +17259,7 @@
         <v>51</v>
       </c>
       <c r="BA93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB93" t="n">
         <v>201</v>
@@ -17306,25 +17306,25 @@
         <v>1.65</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I94" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K94" t="n">
         <v>2.22</v>
       </c>
       <c r="L94" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M94" t="n">
         <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O94" t="n">
         <v>1.22</v>
@@ -17342,7 +17342,7 @@
         <v>1.3</v>
       </c>
       <c r="T94" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U94" t="n">
         <v>1.65</v>
@@ -17351,49 +17351,49 @@
         <v>1.98</v>
       </c>
       <c r="W94" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X94" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y94" t="n">
         <v>8</v>
       </c>
       <c r="Z94" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA94" t="n">
         <v>12.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD94" t="n">
         <v>7.4</v>
       </c>
       <c r="AE94" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG94" t="n">
         <v>400</v>
       </c>
       <c r="AH94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI94" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ94" t="n">
         <v>14.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL94" t="n">
         <v>40</v>
@@ -17411,40 +17411,40 @@
         <v>16</v>
       </c>
       <c r="AQ94" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR94" t="n">
         <v>50</v>
       </c>
       <c r="AS94" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT94" t="n">
         <v>2.92</v>
       </c>
       <c r="AU94" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV94" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW94" t="n">
         <v>6.3</v>
       </c>
       <c r="AX94" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY94" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ94" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA94" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB94" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC94" t="inlineStr"/>
       <c r="BD94" t="inlineStr"/>
@@ -17499,10 +17499,10 @@
         <v>2.22</v>
       </c>
       <c r="M95" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="O95" t="n">
         <v>1.28</v>
@@ -18023,10 +18023,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H98" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I98" t="n">
         <v>3.4</v>
@@ -18038,22 +18038,22 @@
         <v>1.82</v>
       </c>
       <c r="L98" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M98" t="n">
         <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
       </c>
       <c r="P98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="R98" t="n">
         <v>1.36</v>
@@ -18062,7 +18062,7 @@
         <v>1.65</v>
       </c>
       <c r="T98" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U98" t="n">
         <v>2.35</v>
@@ -18071,16 +18071,16 @@
         <v>1.53</v>
       </c>
       <c r="W98" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X98" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y98" t="n">
         <v>10.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA98" t="n">
         <v>27</v>
@@ -18089,10 +18089,10 @@
         <v>60</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE98" t="n">
         <v>22</v>
@@ -18104,7 +18104,7 @@
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI98" t="n">
         <v>15.5</v>
@@ -18122,13 +18122,13 @@
         <v>70</v>
       </c>
       <c r="AN98" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO98" t="n">
         <v>13.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ98" t="n">
         <v>65</v>
@@ -18140,10 +18140,10 @@
         <v>500</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AU98" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV98" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1311,10 +1311,10 @@
         <v>9.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
         <v>3.2</v>
@@ -1344,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1359,19 +1359,19 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1392,7 +1392,7 @@
         <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1687,16 +1687,16 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1705,7 +1705,7 @@
         <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1723,10 +1723,10 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1747,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -1848,10 +1848,10 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>10</v>
@@ -1860,19 +1860,19 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>1.22</v>
@@ -1881,31 +1881,31 @@
         <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1917,19 +1917,19 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL8" t="n">
         <v>81</v>
@@ -1938,16 +1938,16 @@
         <v>67</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
@@ -1980,7 +1980,7 @@
         <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>451</v>
@@ -2221,16 +2221,16 @@
         <v>1.83</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.5</v>
@@ -2403,16 +2403,16 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>3.4</v>
@@ -2745,19 +2745,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
         <v>17</v>
@@ -2769,28 +2769,28 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.3</v>
       </c>
       <c r="W13" t="n">
         <v>5.5</v>
@@ -2802,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -2811,23 +2811,23 @@
         <v>51</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
@@ -2836,7 +2836,7 @@
         <v>351</v>
       </c>
       <c r="AL13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM13" t="n">
         <v>151</v>
@@ -2845,13 +2845,13 @@
         <v>2.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2860,19 +2860,19 @@
         <v>301</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AW13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AY13" t="n">
         <v>81</v>
@@ -2925,40 +2925,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2967,10 +2967,10 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
         <v>4.75</v>
@@ -2982,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -2991,32 +2991,32 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>41</v>
       </c>
       <c r="AF14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM14" t="n">
         <v>151</v>
@@ -3025,7 +3025,7 @@
         <v>2.88</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3043,19 +3043,19 @@
         <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>126</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>67</v>
       </c>
       <c r="AY14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ14" t="n">
         <v>351</v>
@@ -3115,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -4181,52 +4181,52 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
@@ -4235,34 +4235,34 @@
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
@@ -4274,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4283,31 +4283,31 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4319,10 +4319,10 @@
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -4384,13 +4384,13 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>10.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="n">
         <v>1.55</v>
@@ -4405,10 +4405,10 @@
         <v>3.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="W22" t="n">
         <v>11.75</v>
@@ -4544,88 +4544,88 @@
         <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="L23" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
         <v>9.25</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W23" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ23" t="n">
         <v>14.5</v>
@@ -4634,58 +4634,58 @@
         <v>70</v>
       </c>
       <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
         <v>35</v>
       </c>
-      <c r="AM23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV23" t="n">
         <v>40</v>
       </c>
-      <c r="AS23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>45</v>
-      </c>
       <c r="AW23" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4723,148 +4723,148 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="J24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U24" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.25</v>
       </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8</v>
-      </c>
       <c r="Z24" t="n">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AD24" t="n">
         <v>8.25</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AG24" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AH24" t="n">
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR24" t="n">
         <v>50</v>
       </c>
-      <c r="AN24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY24" t="n">
         <v>45</v>
       </c>
-      <c r="AS24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>32</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BA24" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BB24" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -4914,49 +4914,49 @@
         <v>2.18</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L25" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>10.75</v>
@@ -4965,16 +4965,16 @@
         <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
         <v>12.5</v>
@@ -4986,10 +4986,10 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.75</v>
@@ -4998,55 +4998,55 @@
         <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>5.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>80</v>
       </c>
       <c r="AR25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
         <v>4.15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AY25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ25" t="n">
         <v>45</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5087,28 +5087,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
@@ -5132,7 +5132,7 @@
         <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
         <v>12.5</v>
@@ -5144,46 +5144,46 @@
         <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
         <v>300</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN26" t="n">
         <v>5.4</v>
@@ -5207,16 +5207,16 @@
         <v>3.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY26" t="n">
         <v>16.5</v>
@@ -5650,8 +5650,12 @@
       <c r="L29" t="n">
         <v>10.5</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
       <c r="O29" t="n">
         <v>1.22</v>
       </c>
@@ -5809,13 +5813,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H30" t="n">
         <v>4.05</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.93</v>
@@ -5824,7 +5828,7 @@
         <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -5833,16 +5837,16 @@
         <v>7.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P30" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5851,37 +5855,37 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>150</v>
@@ -5894,28 +5898,28 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="n">
         <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
         <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR30" t="n">
         <v>55</v>
@@ -5924,22 +5928,22 @@
         <v>300</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX30" t="n">
         <v>40</v>
       </c>
       <c r="AY30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ30" t="n">
         <v>300</v>
@@ -7447,10 +7451,10 @@
         <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>1.33</v>
@@ -7459,10 +7463,10 @@
         <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7626,7 +7630,7 @@
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -7640,7 +7644,7 @@
         <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S40" t="n">
         <v>1.27</v>
@@ -7673,7 +7677,7 @@
         <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD40" t="n">
         <v>6.7</v>
@@ -7691,13 +7695,13 @@
         <v>7.3</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.9</v>
       </c>
       <c r="AK40" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
         <v>10</v>
@@ -7709,7 +7713,7 @@
         <v>6.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -7730,10 +7734,10 @@
         <v>6.9</v>
       </c>
       <c r="AV40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX40" t="n">
         <v>7.8</v>
@@ -7785,28 +7789,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -7827,25 +7831,25 @@
         <v>2.25</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
         <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
         <v>29</v>
       </c>
       <c r="AA41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
@@ -7867,13 +7871,13 @@
         <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL41" t="n">
         <v>26</v>
@@ -7882,16 +7886,16 @@
         <v>41</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP41" t="n">
         <v>34</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR41" t="n">
         <v>101</v>
@@ -7915,7 +7919,7 @@
         <v>17</v>
       </c>
       <c r="AY41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ41" t="n">
         <v>51</v>
@@ -8147,28 +8151,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -8189,10 +8193,10 @@
         <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
@@ -8204,10 +8208,10 @@
         <v>9.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="n">
         <v>29</v>
@@ -8237,10 +8241,10 @@
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8517,7 +8521,7 @@
         <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J45" t="n">
         <v>2</v>
@@ -8532,7 +8536,7 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8541,10 +8545,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8553,13 +8557,13 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X45" t="n">
         <v>6.5</v>
@@ -8577,19 +8581,19 @@
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
         <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH45" t="n">
         <v>17</v>
@@ -8598,7 +8602,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
         <v>81</v>
@@ -8613,13 +8617,13 @@
         <v>3.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
@@ -8649,13 +8653,13 @@
         <v>151</v>
       </c>
       <c r="BA45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB45" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8714,7 +8718,7 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -8759,7 +8763,7 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8795,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP46" t="n">
         <v>23</v>
@@ -8804,7 +8808,7 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS46" t="n">
         <v>151</v>
@@ -8813,7 +8817,7 @@
         <v>2.63</v>
       </c>
       <c r="AU46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV46" t="n">
         <v>51</v>
@@ -8834,7 +8838,7 @@
         <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC46" t="n">
         <v>126</v>
@@ -9421,10 +9425,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
         <v>2.2</v>
@@ -9439,10 +9443,10 @@
         <v>2.88</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n">
         <v>1.2</v>
@@ -9523,7 +9527,7 @@
         <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP50" t="n">
         <v>21</v>
@@ -9603,34 +9607,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
         <v>2.05</v>
@@ -9645,13 +9649,13 @@
         <v>2.63</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
         <v>19</v>
@@ -9663,13 +9667,13 @@
         <v>41</v>
       </c>
       <c r="AA51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB51" t="n">
         <v>41</v>
       </c>
       <c r="AC51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9681,13 +9685,13 @@
         <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH51" t="n">
         <v>7</v>
       </c>
       <c r="AI51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
@@ -9711,19 +9715,19 @@
         <v>29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR51" t="n">
         <v>101</v>
       </c>
       <c r="AS51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT51" t="n">
         <v>2.63</v>
       </c>
       <c r="AU51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
@@ -10167,10 +10171,10 @@
         <v>3.1</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -10355,16 +10359,16 @@
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10695,7 +10699,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H57" t="n">
         <v>4.33</v>
@@ -10704,7 +10708,7 @@
         <v>5.25</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K57" t="n">
         <v>2.38</v>
@@ -10752,7 +10756,7 @@
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
         <v>12</v>
@@ -10773,7 +10777,7 @@
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH57" t="n">
         <v>15</v>
@@ -10821,7 +10825,7 @@
         <v>51</v>
       </c>
       <c r="AW57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX57" t="n">
         <v>29</v>
@@ -11440,7 +11444,7 @@
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -11597,22 +11601,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H62" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J62" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="L62" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -11627,10 +11631,10 @@
         <v>6.45</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R62" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
         <v>1.17</v>
@@ -11639,28 +11643,28 @@
         <v>4.7</v>
       </c>
       <c r="U62" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V62" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X62" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y62" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z62" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AA62" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB62" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC62" t="n">
         <v>26</v>
@@ -11669,7 +11673,7 @@
         <v>12.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF62" t="n">
         <v>50</v>
@@ -11681,31 +11685,31 @@
         <v>13</v>
       </c>
       <c r="AI62" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ62" t="n">
         <v>9.25</v>
       </c>
       <c r="AK62" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL62" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN62" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP62" t="n">
         <v>28</v>
       </c>
       <c r="AQ62" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR62" t="n">
         <v>150</v>
@@ -11714,7 +11718,7 @@
         <v>250</v>
       </c>
       <c r="AT62" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="AU62" t="n">
         <v>7.4</v>
@@ -11726,21 +11730,23 @@
         <v>3.65</v>
       </c>
       <c r="AX62" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AY62" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AZ62" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BA62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB62" t="n">
         <v>100</v>
       </c>
-      <c r="BC62" t="inlineStr"/>
+      <c r="BC62" t="n">
+        <v>500</v>
+      </c>
       <c r="BD62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -11778,7 +11784,7 @@
         <v>5.4</v>
       </c>
       <c r="H63" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I63" t="n">
         <v>1.47</v>
@@ -11787,10 +11793,10 @@
         <v>5.1</v>
       </c>
       <c r="K63" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L63" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
@@ -11802,13 +11808,13 @@
         <v>1.12</v>
       </c>
       <c r="P63" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S63" t="n">
         <v>1.26</v>
@@ -11820,13 +11826,13 @@
         <v>1.65</v>
       </c>
       <c r="V63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X63" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="n">
         <v>17.5</v>
@@ -11835,16 +11841,16 @@
         <v>100</v>
       </c>
       <c r="AA63" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB63" t="n">
         <v>45</v>
       </c>
       <c r="AC63" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD63" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE63" t="n">
         <v>16</v>
@@ -11853,13 +11859,13 @@
         <v>60</v>
       </c>
       <c r="AG63" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI63" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ63" t="n">
         <v>8.25</v>
@@ -11874,7 +11880,7 @@
         <v>21</v>
       </c>
       <c r="AN63" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AO63" t="n">
         <v>28</v>
@@ -11886,13 +11892,13 @@
         <v>150</v>
       </c>
       <c r="AR63" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS63" t="n">
         <v>300</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AU63" t="n">
         <v>7.4</v>
@@ -11904,16 +11910,16 @@
         <v>3.5</v>
       </c>
       <c r="AX63" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AY63" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ63" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB63" t="n">
         <v>150</v>
@@ -12338,7 +12344,7 @@
         <v>1.1</v>
       </c>
       <c r="P66" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q66" t="n">
         <v>1.45</v>
@@ -12504,7 +12510,7 @@
         <v>3.45</v>
       </c>
       <c r="L67" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -12513,10 +12519,10 @@
         <v>25</v>
       </c>
       <c r="O67" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P67" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q67" t="n">
         <v>1.23</v>
@@ -12546,7 +12552,7 @@
         <v>13</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA67" t="n">
         <v>11</v>
@@ -12561,7 +12567,7 @@
         <v>22</v>
       </c>
       <c r="AE67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF67" t="n">
         <v>150</v>
@@ -12615,7 +12621,7 @@
         <v>80</v>
       </c>
       <c r="AW67" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AX67" t="n">
         <v>100</v>
@@ -12841,22 +12847,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H69" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="I69" t="n">
         <v>6.1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="K69" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="L69" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
@@ -12865,16 +12871,16 @@
         <v>16.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P69" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R69" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="S69" t="n">
         <v>1.21</v>
@@ -12883,19 +12889,19 @@
         <v>4.1</v>
       </c>
       <c r="U69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="W69" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y69" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z69" t="n">
         <v>11.25</v>
@@ -12904,31 +12910,31 @@
         <v>10.25</v>
       </c>
       <c r="AB69" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AD69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE69" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF69" t="n">
         <v>45</v>
       </c>
       <c r="AG69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH69" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI69" t="n">
         <v>50</v>
       </c>
       <c r="AJ69" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK69" t="n">
         <v>150</v>
@@ -12940,49 +12946,49 @@
         <v>40</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO69" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP69" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ69" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS69" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT69" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AU69" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV69" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW69" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX69" t="n">
         <v>30</v>
       </c>
       <c r="AY69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ69" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA69" t="n">
         <v>150</v>
       </c>
       <c r="BB69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC69" t="n">
         <v>500</v>
@@ -13400,7 +13406,7 @@
         <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O72" t="n">
         <v>1.05</v>
@@ -13753,13 +13759,13 @@
         <v>4.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
       </c>
       <c r="O74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P74" t="n">
         <v>4.33</v>
@@ -14271,34 +14277,34 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H77" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I77" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K77" t="n">
         <v>1.78</v>
       </c>
       <c r="L77" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P77" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="Q77" t="n">
         <v>2.32</v>
@@ -14319,28 +14325,28 @@
         <v>1.58</v>
       </c>
       <c r="W77" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="X77" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y77" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC77" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD77" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AE77" t="n">
         <v>16</v>
@@ -14350,37 +14356,37 @@
       </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI77" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL77" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO77" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR77" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS77" t="n">
         <v>450</v>
@@ -14389,25 +14395,25 @@
         <v>1.98</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV77" t="n">
         <v>120</v>
       </c>
       <c r="AW77" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX77" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ77" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BA77" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB77" t="n">
         <v>500</v>
@@ -14447,22 +14453,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="J78" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="K78" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
@@ -14477,16 +14483,16 @@
         <v>2.51</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R78" t="n">
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T78" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U78" t="n">
         <v>2.14</v>
@@ -14495,92 +14501,92 @@
         <v>1.67</v>
       </c>
       <c r="W78" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="X78" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y78" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z78" t="n">
         <v>11.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI78" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>12.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL78" t="n">
         <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN78" t="n">
         <v>3.45</v>
       </c>
       <c r="AO78" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ78" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR78" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS78" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AU78" t="n">
         <v>8.25</v>
       </c>
       <c r="AV78" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW78" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AX78" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ78" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA78" t="n">
         <v>250</v>
@@ -14799,67 +14805,67 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J80" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K80" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L80" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="O80" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P80" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U80" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V80" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W80" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="X80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y80" t="n">
         <v>12.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB80" t="n">
         <v>45</v>
@@ -14868,16 +14874,16 @@
         <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE80" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF80" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG80" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH80" t="n">
         <v>6.5</v>
@@ -14889,25 +14895,25 @@
         <v>8.75</v>
       </c>
       <c r="AK80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM80" t="n">
         <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO80" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AP80" t="n">
         <v>27</v>
       </c>
       <c r="AQ80" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR80" t="n">
         <v>150</v>
@@ -14916,19 +14922,19 @@
         <v>350</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV80" t="n">
         <v>70</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX80" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AY80" t="n">
         <v>19.5</v>
@@ -14980,19 +14986,19 @@
         <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J81" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15022,10 +15028,10 @@
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W81" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X81" t="n">
         <v>15</v>
@@ -15049,7 +15055,7 @@
         <v>6.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF81" t="n">
         <v>75</v>
@@ -15061,7 +15067,7 @@
         <v>7.3</v>
       </c>
       <c r="AI81" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ81" t="n">
         <v>9</v>
@@ -15070,7 +15076,7 @@
         <v>20</v>
       </c>
       <c r="AL81" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM81" t="n">
         <v>30</v>
@@ -15103,7 +15109,7 @@
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AX81" t="n">
         <v>11</v>
@@ -15155,22 +15161,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="H82" t="n">
         <v>2.62</v>
       </c>
       <c r="I82" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="J82" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K82" t="n">
         <v>1.75</v>
       </c>
       <c r="L82" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M82" t="n">
         <v>1.09</v>
@@ -15203,22 +15209,22 @@
         <v>1.55</v>
       </c>
       <c r="W82" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X82" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y82" t="n">
         <v>9.25</v>
       </c>
       <c r="Z82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA82" t="n">
         <v>24</v>
       </c>
       <c r="AB82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC82" t="n">
         <v>5</v>
@@ -15227,25 +15233,25 @@
         <v>4.85</v>
       </c>
       <c r="AE82" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG82" t="n">
         <v>101</v>
       </c>
       <c r="AH82" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AI82" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AJ82" t="n">
         <v>9.75</v>
       </c>
       <c r="AK82" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL82" t="n">
         <v>27</v>
@@ -15254,7 +15260,7 @@
         <v>45</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO82" t="n">
         <v>16</v>
@@ -15278,22 +15284,22 @@
         <v>8.5</v>
       </c>
       <c r="AV82" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AX82" t="n">
         <v>18</v>
       </c>
       <c r="AY82" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ82" t="n">
         <v>100</v>
       </c>
       <c r="BA82" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB82" t="n">
         <v>600</v>
@@ -15333,16 +15339,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H83" t="n">
         <v>4.33</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
         <v>2.5</v>
@@ -15459,7 +15465,7 @@
         <v>41</v>
       </c>
       <c r="AW83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX83" t="n">
         <v>26</v>
@@ -15718,7 +15724,7 @@
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
         <v>1.17</v>
@@ -16087,10 +16093,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R87" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16099,10 +16105,10 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V87" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="W87" t="n">
         <v>11.25</v>
@@ -16415,22 +16421,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="J89" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="K89" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L89" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -16439,10 +16445,10 @@
         <v>6.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P89" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="Q89" t="n">
         <v>2.27</v>
@@ -16451,107 +16457,107 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T89" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="V89" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W89" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="X89" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y89" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE89" t="n">
         <v>20</v>
       </c>
-      <c r="Z89" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>22</v>
-      </c>
       <c r="AF89" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AI89" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AJ89" t="n">
         <v>7.6</v>
       </c>
       <c r="AK89" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="AL89" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN89" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AO89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP89" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ89" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AR89" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AV89" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AW89" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AY89" t="n">
         <v>23</v>
       </c>
       <c r="AZ89" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA89" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB89" t="n">
         <v>450</v>
@@ -16767,73 +16773,73 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>5.3</v>
       </c>
       <c r="I91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J91" t="n">
         <v>1.62</v>
       </c>
       <c r="K91" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L91" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="O91" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P91" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R91" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T91" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="U91" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V91" t="n">
         <v>1.47</v>
       </c>
       <c r="W91" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X91" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z91" t="n">
         <v>6.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB91" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC91" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD91" t="n">
         <v>11.75</v>
@@ -16848,7 +16854,7 @@
         <v>101</v>
       </c>
       <c r="AH91" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI91" t="n">
         <v>150</v>
@@ -16875,7 +16881,7 @@
         <v>18</v>
       </c>
       <c r="AQ91" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR91" t="n">
         <v>45</v>
@@ -16884,7 +16890,7 @@
         <v>300</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU91" t="n">
         <v>10</v>
@@ -17324,7 +17330,7 @@
         <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O94" t="n">
         <v>1.22</v>
@@ -17342,7 +17348,7 @@
         <v>1.3</v>
       </c>
       <c r="T94" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U94" t="n">
         <v>1.65</v>
@@ -18026,10 +18032,10 @@
         <v>2.32</v>
       </c>
       <c r="H98" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J98" t="n">
         <v>3.1</v>
@@ -18044,19 +18050,19 @@
         <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
       </c>
       <c r="P98" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="R98" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S98" t="n">
         <v>1.65</v>
@@ -18080,19 +18086,19 @@
         <v>10.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA98" t="n">
         <v>27</v>
       </c>
       <c r="AB98" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE98" t="n">
         <v>22</v>
@@ -18107,7 +18113,7 @@
         <v>6.7</v>
       </c>
       <c r="AI98" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ98" t="n">
         <v>13.5</v>
@@ -18149,7 +18155,7 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX98" t="n">
         <v>21</v>
@@ -18226,19 +18232,19 @@
         <v>1.03</v>
       </c>
       <c r="N99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O99" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R99" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S99" t="n">
         <v>1.3</v>
@@ -18438,7 +18444,7 @@
         <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="Y100" t="n">
         <v>81</v>
@@ -18447,7 +18453,7 @@
         <v>51</v>
       </c>
       <c r="AA100" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AB100" t="n">
         <v>251</v>
@@ -18475,7 +18481,7 @@
         <v>21</v>
       </c>
       <c r="AK100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AL100" t="n">
         <v>17</v>
@@ -18490,7 +18496,7 @@
         <v>151</v>
       </c>
       <c r="AP100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18505,7 +18511,7 @@
         <v>6</v>
       </c>
       <c r="AU100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV100" t="n">
         <v>126</v>
@@ -18526,7 +18532,7 @@
         <v>34</v>
       </c>
       <c r="BB100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18588,7 +18594,7 @@
         <v>41</v>
       </c>
       <c r="N101" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18750,10 +18756,14 @@
         <v>1.88</v>
       </c>
       <c r="L102" t="n">
-        <v>4</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N102" t="n">
+        <v>6.45</v>
+      </c>
       <c r="O102" t="n">
         <v>1.47</v>
       </c>
@@ -18761,10 +18771,10 @@
         <v>2.35</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="R102" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S102" t="n">
         <v>1.52</v>
@@ -18772,13 +18782,17 @@
       <c r="T102" t="n">
         <v>2.12</v>
       </c>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
+      <c r="U102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1.72</v>
+      </c>
       <c r="W102" t="n">
         <v>5</v>
       </c>
       <c r="X102" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y102" t="n">
         <v>7.9</v>
@@ -18790,35 +18804,35 @@
         <v>16.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC102" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD102" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE102" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF102" t="n">
         <v>80</v>
       </c>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI102" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK102" t="n">
         <v>32</v>
       </c>
       <c r="AL102" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM102" t="n">
         <v>40</v>
@@ -18857,10 +18871,10 @@
         <v>20</v>
       </c>
       <c r="AY102" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ102" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA102" t="n">
         <v>200</v>
@@ -18901,22 +18915,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H103" t="n">
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="n">
         <v>2.05</v>
       </c>
       <c r="L103" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M103" t="n">
         <v>1.08</v>
@@ -18952,10 +18966,10 @@
         <v>7</v>
       </c>
       <c r="X103" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y103" t="n">
         <v>10</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z103" t="n">
         <v>21</v>
@@ -18988,7 +19002,7 @@
         <v>15</v>
       </c>
       <c r="AJ103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK103" t="n">
         <v>34</v>
@@ -19036,7 +19050,7 @@
         <v>29</v>
       </c>
       <c r="AZ103" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA103" t="n">
         <v>81</v>
@@ -19623,34 +19637,30 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H107" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="J107" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K107" t="n">
         <v>2.05</v>
       </c>
       <c r="L107" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N107" t="n">
-        <v>8.1</v>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
         <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q107" t="n">
         <v>2</v>
@@ -19662,7 +19672,7 @@
         <v>1.44</v>
       </c>
       <c r="T107" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U107" t="n">
         <v>1.93</v>
@@ -19674,13 +19684,13 @@
         <v>6</v>
       </c>
       <c r="X107" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y107" t="n">
         <v>8.5</v>
       </c>
       <c r="Z107" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA107" t="n">
         <v>15</v>
@@ -19689,13 +19699,13 @@
         <v>32</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD107" t="n">
         <v>6.8</v>
       </c>
       <c r="AE107" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF107" t="n">
         <v>100</v>
@@ -19710,58 +19720,58 @@
         <v>24</v>
       </c>
       <c r="AJ107" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM107" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN107" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO107" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR107" t="n">
         <v>75</v>
       </c>
       <c r="AS107" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AU107" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV107" t="n">
         <v>90</v>
       </c>
       <c r="AW107" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AX107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY107" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ107" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA107" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB107" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1058,7 +1058,7 @@
         <v>3.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
         <v>3.2</v>
@@ -1493,10 +1493,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -1863,13 +1863,13 @@
         <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
         <v>3</v>
@@ -1923,7 +1923,7 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>2.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2245,10 +2245,10 @@
         <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
         <v>21</v>
@@ -2272,16 +2272,16 @@
         <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
         <v>9.5</v>
@@ -2290,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>10</v>
@@ -2302,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>34</v>
@@ -2311,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2338,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
         <v>34</v>
@@ -2347,7 +2347,7 @@
         <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD10" t="n">
         <v>160</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -2400,19 +2400,19 @@
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>3.4</v>
@@ -2509,7 +2509,7 @@
         <v>101</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2518,7 +2518,7 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
         <v>201</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -4199,16 +4199,16 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
         <v>2.7</v>
@@ -4232,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -4274,7 +4274,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4319,10 +4319,10 @@
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -4363,28 +4363,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>9.949999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -4393,10 +4393,10 @@
         <v>4.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S22" t="n">
         <v>1.28</v>
@@ -4405,19 +4405,19 @@
         <v>3.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V22" t="n">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="W22" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>45</v>
@@ -4426,79 +4426,79 @@
         <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="n">
         <v>175</v>
       </c>
       <c r="AH22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI22" t="n">
         <v>8.25</v>
       </c>
-      <c r="AI22" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL22" t="n">
         <v>10.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ22" t="n">
         <v>100</v>
       </c>
       <c r="AR22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV22" t="n">
         <v>45</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY22" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
         <v>45</v>
@@ -4905,46 +4905,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
@@ -4953,28 +4953,28 @@
         <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE25" t="n">
         <v>12.5</v>
@@ -4986,28 +4986,28 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI25" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.75</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -5016,25 +5016,25 @@
         <v>80</v>
       </c>
       <c r="AR25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS25" t="n">
         <v>300</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AY25" t="n">
         <v>18.5</v>
@@ -5043,7 +5043,7 @@
         <v>45</v>
       </c>
       <c r="BA25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB25" t="n">
         <v>200</v>
@@ -5087,28 +5087,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>2.32</v>
       </c>
       <c r="L26" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.21</v>
@@ -5123,37 +5123,37 @@
         <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U26" t="n">
         <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="n">
         <v>12.5</v>
       </c>
-      <c r="X26" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>7.5</v>
@@ -5168,43 +5168,43 @@
         <v>300</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS26" t="n">
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU26" t="n">
         <v>6.9</v>
@@ -5213,19 +5213,19 @@
         <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY26" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB26" t="n">
         <v>175</v>
@@ -5460,7 +5460,7 @@
         <v>1.42</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.62</v>
@@ -5475,22 +5475,22 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P28" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U28" t="n">
         <v>1.52</v>
@@ -5499,10 +5499,10 @@
         <v>2.37</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y28" t="n">
         <v>19</v>
@@ -5514,19 +5514,19 @@
         <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="n">
         <v>10.25</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE28" t="n">
         <v>14.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="n">
         <v>200</v>
@@ -5553,28 +5553,28 @@
         <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
         <v>150</v>
       </c>
       <c r="AR28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW28" t="n">
         <v>3.75</v>
@@ -5589,7 +5589,7 @@
         <v>16.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB28" t="n">
         <v>110</v>
@@ -5657,10 +5657,10 @@
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
         <v>1.65</v>
@@ -5669,22 +5669,22 @@
         <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T29" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U29" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="V29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -5699,7 +5699,7 @@
         <v>50</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD29" t="n">
         <v>12.5</v>
@@ -5730,7 +5730,7 @@
         <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AO29" t="n">
         <v>4.8</v>
@@ -5751,16 +5751,16 @@
         <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AV29" t="n">
         <v>150</v>
       </c>
       <c r="AW29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AY29" t="n">
         <v>90</v>
@@ -5813,28 +5813,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H30" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="K30" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.31</v>
@@ -5855,37 +5855,37 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="V30" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W30" t="n">
         <v>5.6</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="n">
         <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>150</v>
@@ -5898,28 +5898,28 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="n">
         <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
         <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP30" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>55</v>
@@ -5934,10 +5934,10 @@
         <v>8.75</v>
       </c>
       <c r="AV30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX30" t="n">
         <v>40</v>
@@ -6020,7 +6020,7 @@
         <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q31" t="n">
         <v>1.55</v>
@@ -6751,10 +6751,10 @@
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
         <v>7.5</v>
@@ -6772,7 +6772,7 @@
         <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6838,7 +6838,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY35" t="n">
         <v>34</v>
@@ -6850,7 +6850,7 @@
         <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -6887,13 +6887,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J36" t="n">
         <v>2.25</v>
@@ -6908,7 +6908,7 @@
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -7075,7 +7075,7 @@
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -7084,13 +7084,13 @@
         <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -7156,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK37" t="n">
         <v>23</v>
@@ -7177,7 +7177,7 @@
         <v>29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR37" t="n">
         <v>81</v>
@@ -7198,7 +7198,7 @@
         <v>4.33</v>
       </c>
       <c r="AX37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
@@ -7207,7 +7207,7 @@
         <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB37" t="n">
         <v>201</v>
@@ -7436,16 +7436,16 @@
         <v>2.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
         <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
         <v>4.33</v>
@@ -7505,7 +7505,7 @@
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
         <v>51</v>
@@ -7514,7 +7514,7 @@
         <v>251</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI39" t="n">
         <v>19</v>
@@ -7547,7 +7547,7 @@
         <v>67</v>
       </c>
       <c r="AS39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT39" t="n">
         <v>2.63</v>
@@ -7638,7 +7638,7 @@
         <v>1.13</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="Q40" t="n">
         <v>1.57</v>
@@ -7647,16 +7647,16 @@
         <v>2.12</v>
       </c>
       <c r="S40" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T40" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="U40" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V40" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W40" t="n">
         <v>13</v>
@@ -7792,10 +7792,10 @@
         <v>2.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -7804,7 +7804,7 @@
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
         <v>1.11</v>
@@ -7831,16 +7831,16 @@
         <v>2.25</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W41" t="n">
         <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
@@ -7916,7 +7916,7 @@
         <v>4.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY41" t="n">
         <v>29</v>
@@ -7999,10 +7999,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8116,7 +8116,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -8157,28 +8157,28 @@
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
@@ -8217,7 +8217,7 @@
         <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8229,7 +8229,7 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH43" t="n">
         <v>9</v>
@@ -8265,7 +8265,7 @@
         <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT43" t="n">
         <v>2.63</v>
@@ -8283,7 +8283,7 @@
         <v>17</v>
       </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ43" t="n">
         <v>51</v>
@@ -8524,7 +8524,7 @@
         <v>7.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K45" t="n">
         <v>2.25</v>
@@ -8545,10 +8545,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8617,13 +8617,13 @@
         <v>3.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
@@ -8662,7 +8662,7 @@
         <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -8697,13 +8697,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -8748,13 +8748,13 @@
         <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8769,7 +8769,7 @@
         <v>6.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="n">
         <v>51</v>
@@ -8838,7 +8838,7 @@
         <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC46" t="n">
         <v>126</v>
@@ -9628,7 +9628,7 @@
         <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.3</v>
@@ -9813,10 +9813,10 @@
         <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>2.1</v>
@@ -11959,19 +11959,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H64" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I64" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J64" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K64" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="L64" t="n">
         <v>5.9</v>
@@ -11980,73 +11980,73 @@
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P64" t="n">
-        <v>5.45</v>
+        <v>4.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R64" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="S64" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="T64" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="U64" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="W64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD64" t="n">
         <v>9.75</v>
       </c>
-      <c r="X64" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB64" t="n">
+      <c r="AE64" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH64" t="n">
         <v>21</v>
       </c>
-      <c r="AC64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>25</v>
-      </c>
       <c r="AI64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK64" t="n">
         <v>150</v>
@@ -12055,43 +12055,43 @@
         <v>65</v>
       </c>
       <c r="AM64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT64" t="n">
         <v>3.45</v>
       </c>
-      <c r="AO64" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AU64" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX64" t="n">
         <v>35</v>
       </c>
       <c r="AY64" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ64" t="n">
         <v>200</v>
@@ -12100,7 +12100,7 @@
         <v>200</v>
       </c>
       <c r="BB64" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
@@ -12137,22 +12137,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I65" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
@@ -12164,13 +12164,13 @@
         <v>1.04</v>
       </c>
       <c r="P65" t="n">
-        <v>6.4</v>
+        <v>6.55</v>
       </c>
       <c r="Q65" t="n">
         <v>1.34</v>
       </c>
       <c r="R65" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="S65" t="n">
         <v>1.19</v>
@@ -12185,31 +12185,31 @@
         <v>2.57</v>
       </c>
       <c r="W65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X65" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z65" t="n">
         <v>55</v>
       </c>
       <c r="AA65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC65" t="n">
         <v>24</v>
       </c>
       <c r="AD65" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE65" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF65" t="n">
         <v>32</v>
@@ -12227,19 +12227,19 @@
         <v>9</v>
       </c>
       <c r="AK65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN65" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP65" t="n">
         <v>17.5</v>
@@ -12251,28 +12251,28 @@
         <v>70</v>
       </c>
       <c r="AS65" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT65" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AU65" t="n">
         <v>6.4</v>
       </c>
       <c r="AV65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW65" t="n">
         <v>4.3</v>
       </c>
       <c r="AX65" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AY65" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA65" t="n">
         <v>32</v>
@@ -12281,7 +12281,7 @@
         <v>90</v>
       </c>
       <c r="BC65" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD65" t="inlineStr"/>
     </row>
@@ -12495,19 +12495,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="I67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J67" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="K67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L67" t="n">
         <v>11.25</v>
@@ -12516,7 +12516,7 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O67" t="n">
         <v>1.02</v>
@@ -12537,7 +12537,7 @@
         <v>5.4</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V67" t="n">
         <v>1.65</v>
@@ -12549,10 +12549,10 @@
         <v>8.25</v>
       </c>
       <c r="Y67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA67" t="n">
         <v>11</v>
@@ -12564,10 +12564,10 @@
         <v>28</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF67" t="n">
         <v>150</v>
@@ -12594,16 +12594,16 @@
         <v>175</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ67" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AR67" t="n">
         <v>24</v>
@@ -12612,10 +12612,10 @@
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AU67" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AV67" t="n">
         <v>80</v>
@@ -12667,46 +12667,46 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H68" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K68" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L68" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.11</v>
       </c>
       <c r="P68" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R68" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T68" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="U68" t="n">
         <v>1.45</v>
@@ -12715,28 +12715,28 @@
         <v>2.37</v>
       </c>
       <c r="W68" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X68" t="n">
         <v>11.25</v>
       </c>
-      <c r="X68" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Y68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB68" t="n">
         <v>18</v>
       </c>
       <c r="AC68" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE68" t="n">
         <v>12.5</v>
@@ -12748,43 +12748,43 @@
         <v>200</v>
       </c>
       <c r="AH68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI68" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ68" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK68" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO68" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR68" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS68" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU68" t="n">
         <v>6.5</v>
@@ -12793,16 +12793,16 @@
         <v>40</v>
       </c>
       <c r="AW68" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX68" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ68" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA68" t="n">
         <v>80</v>
@@ -12847,22 +12847,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H69" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="I69" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L69" t="n">
         <v>6.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.3</v>
       </c>
       <c r="M69" t="n">
         <v>1.01</v>
@@ -12880,7 +12880,7 @@
         <v>1.37</v>
       </c>
       <c r="R69" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="S69" t="n">
         <v>1.21</v>
@@ -12889,106 +12889,106 @@
         <v>4.1</v>
       </c>
       <c r="U69" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V69" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W69" t="n">
         <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y69" t="n">
         <v>8.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD69" t="n">
         <v>10.25</v>
       </c>
-      <c r="AB69" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>10</v>
-      </c>
       <c r="AE69" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH69" t="n">
         <v>27</v>
       </c>
       <c r="AI69" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM69" t="n">
         <v>50</v>
       </c>
-      <c r="AJ69" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>40</v>
-      </c>
       <c r="AN69" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO69" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AP69" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ69" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AR69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AS69" t="n">
         <v>100</v>
       </c>
       <c r="AT69" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU69" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AV69" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW69" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AX69" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY69" t="n">
         <v>30</v>
       </c>
-      <c r="AY69" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ69" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BA69" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB69" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BC69" t="n">
         <v>500</v>
@@ -13759,13 +13759,13 @@
         <v>4.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N74" t="n">
         <v>15</v>
       </c>
       <c r="O74" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P74" t="n">
         <v>4.33</v>
@@ -13783,7 +13783,7 @@
         <v>3.25</v>
       </c>
       <c r="U74" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V74" t="n">
         <v>2.1</v>
@@ -14319,10 +14319,10 @@
         <v>1.98</v>
       </c>
       <c r="U77" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V77" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W77" t="n">
         <v>4.45</v>
@@ -14356,13 +14356,13 @@
       </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI77" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK77" t="n">
         <v>40</v>
@@ -14374,19 +14374,19 @@
         <v>50</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO77" t="n">
         <v>12.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ77" t="n">
         <v>60</v>
       </c>
       <c r="AR77" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS77" t="n">
         <v>450</v>
@@ -14805,145 +14805,145 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="J80" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K80" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="O80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P80" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
         <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T80" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U80" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V80" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y80" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA80" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AB80" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC80" t="n">
         <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG80" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH80" t="n">
         <v>6.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL80" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO80" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP80" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR80" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS80" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT80" t="n">
         <v>2.5</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV80" t="n">
         <v>70</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AX80" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY80" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ80" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA80" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -14983,37 +14983,37 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P81" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R81" t="n">
         <v>1.7</v>
@@ -15028,31 +15028,31 @@
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA81" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB81" t="n">
         <v>37</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE81" t="n">
         <v>15.5</v>
@@ -15067,40 +15067,40 @@
         <v>7.3</v>
       </c>
       <c r="AI81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ81" t="n">
         <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM81" t="n">
         <v>30</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AO81" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP81" t="n">
         <v>24</v>
       </c>
       <c r="AQ81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR81" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU81" t="n">
         <v>7.2</v>
@@ -15109,19 +15109,19 @@
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AX81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB81" t="n">
         <v>250</v>
@@ -15339,10 +15339,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I83" t="n">
         <v>5.75</v>
@@ -15354,7 +15354,7 @@
         <v>2.5</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
@@ -15420,7 +15420,7 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI83" t="n">
         <v>34</v>
@@ -15435,7 +15435,7 @@
         <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN83" t="n">
         <v>3.75</v>
@@ -15459,7 +15459,7 @@
         <v>3.75</v>
       </c>
       <c r="AU83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV83" t="n">
         <v>41</v>
@@ -16093,10 +16093,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R87" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16105,10 +16105,10 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V87" t="n">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="W87" t="n">
         <v>11.25</v>
@@ -16439,10 +16439,10 @@
         <v>2.15</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="O89" t="n">
         <v>1.5</v>
@@ -16463,10 +16463,10 @@
         <v>2.18</v>
       </c>
       <c r="U89" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="V89" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W89" t="n">
         <v>9.25</v>
@@ -16600,16 +16600,16 @@
         <v>1.57</v>
       </c>
       <c r="H90" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J90" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K90" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L90" t="n">
         <v>6.1</v>
@@ -16618,37 +16618,37 @@
         <v>1.09</v>
       </c>
       <c r="N90" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S90" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U90" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V90" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W90" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y90" t="n">
         <v>8.75</v>
@@ -16657,34 +16657,34 @@
         <v>10.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC90" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF90" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG90" t="n">
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI90" t="n">
         <v>32</v>
       </c>
       <c r="AJ90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK90" t="n">
         <v>120</v>
@@ -16693,40 +16693,40 @@
         <v>80</v>
       </c>
       <c r="AM90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN90" t="n">
         <v>3.2</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AP90" t="n">
         <v>22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR90" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS90" t="n">
         <v>400</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU90" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV90" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW90" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AX90" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY90" t="n">
         <v>50</v>
@@ -16735,7 +16735,7 @@
         <v>300</v>
       </c>
       <c r="BA90" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
@@ -16773,22 +16773,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H91" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I91" t="n">
         <v>15</v>
       </c>
       <c r="J91" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="K91" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L91" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="M91" t="n">
         <v>1.02</v>
@@ -16800,31 +16800,31 @@
         <v>1.2</v>
       </c>
       <c r="P91" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R91" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S91" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T91" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="U91" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V91" t="n">
         <v>1.47</v>
       </c>
       <c r="W91" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X91" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y91" t="n">
         <v>9.75</v>
@@ -16833,13 +16833,13 @@
         <v>6.4</v>
       </c>
       <c r="AA91" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB91" t="n">
         <v>40</v>
       </c>
       <c r="AC91" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD91" t="n">
         <v>11.75</v>
@@ -16848,7 +16848,7 @@
         <v>32</v>
       </c>
       <c r="AF91" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG91" t="n">
         <v>101</v>
@@ -16869,40 +16869,40 @@
         <v>300</v>
       </c>
       <c r="AM91" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN91" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AO91" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AP91" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR91" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS91" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AU91" t="n">
         <v>10</v>
       </c>
       <c r="AV91" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW91" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AY91" t="n">
         <v>75</v>
@@ -16970,7 +16970,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17127,22 +17127,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L93" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -17175,25 +17175,25 @@
         <v>1.95</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB93" t="n">
         <v>34</v>
       </c>
       <c r="AC93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD93" t="n">
         <v>6</v>
@@ -17214,19 +17214,19 @@
         <v>13</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM93" t="n">
         <v>29</v>
       </c>
-      <c r="AL93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>34</v>
-      </c>
       <c r="AN93" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO93" t="n">
         <v>15</v>
@@ -17238,7 +17238,7 @@
         <v>51</v>
       </c>
       <c r="AR93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS93" t="n">
         <v>201</v>
@@ -17253,7 +17253,7 @@
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17265,7 +17265,7 @@
         <v>51</v>
       </c>
       <c r="BA93" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB93" t="n">
         <v>201</v>
@@ -17487,40 +17487,36 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="H95" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I95" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="J95" t="n">
-        <v>4.85</v>
+        <v>3.6</v>
       </c>
       <c r="K95" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L95" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N95" t="n">
-        <v>8</v>
-      </c>
+        <v>2.62</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P95" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R95" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="S95" t="n">
         <v>1.38</v>
@@ -17529,106 +17525,106 @@
         <v>2.57</v>
       </c>
       <c r="U95" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="V95" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="W95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X95" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Y95" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL95" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z95" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC95" t="n">
+      <c r="AM95" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX95" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD95" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>8</v>
-      </c>
       <c r="AY95" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ95" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="BA95" t="n">
         <v>65</v>
       </c>
       <c r="BB95" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC95" t="inlineStr"/>
       <c r="BD95" t="inlineStr"/>
@@ -18029,40 +18025,40 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H98" t="n">
         <v>2.85</v>
       </c>
       <c r="I98" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J98" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K98" t="n">
         <v>1.82</v>
       </c>
       <c r="L98" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="M98" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N98" t="n">
         <v>4.85</v>
       </c>
       <c r="O98" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P98" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="R98" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S98" t="n">
         <v>1.65</v>
@@ -18071,25 +18067,25 @@
         <v>2.12</v>
       </c>
       <c r="U98" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V98" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W98" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X98" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y98" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z98" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB98" t="n">
         <v>55</v>
@@ -18110,16 +18106,16 @@
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AI98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ98" t="n">
         <v>13.5</v>
       </c>
       <c r="AK98" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL98" t="n">
         <v>45</v>
@@ -18128,10 +18124,10 @@
         <v>70</v>
       </c>
       <c r="AN98" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO98" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP98" t="n">
         <v>30</v>
@@ -18155,16 +18151,16 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AX98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY98" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ98" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA98" t="n">
         <v>250</v>
@@ -18241,10 +18237,10 @@
         <v>4.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R99" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S99" t="n">
         <v>1.3</v>
@@ -18396,31 +18392,31 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I100" t="n">
         <v>1.03</v>
       </c>
       <c r="J100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K100" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O100" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q100" t="n">
         <v>1.18</v>
@@ -18435,16 +18431,16 @@
         <v>6</v>
       </c>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W100" t="n">
         <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="Y100" t="n">
         <v>81</v>
@@ -18453,22 +18449,22 @@
         <v>51</v>
       </c>
       <c r="AA100" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AB100" t="n">
         <v>251</v>
       </c>
       <c r="AC100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF100" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
@@ -18478,10 +18474,10 @@
         <v>8</v>
       </c>
       <c r="AJ100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK100" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AL100" t="n">
         <v>17</v>
@@ -18493,10 +18489,10 @@
         <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP100" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18511,7 +18507,7 @@
         <v>6</v>
       </c>
       <c r="AU100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV100" t="n">
         <v>126</v>
@@ -18532,7 +18528,7 @@
         <v>34</v>
       </c>
       <c r="BB100" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18576,13 +18572,13 @@
         <v>34</v>
       </c>
       <c r="H101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I101" t="n">
         <v>1.03</v>
       </c>
       <c r="J101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K101" t="n">
         <v>4.75</v>
@@ -18591,10 +18587,10 @@
         <v>1.2</v>
       </c>
       <c r="M101" t="n">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18603,10 +18599,10 @@
         <v>13</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R101" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S101" t="n">
         <v>1.13</v>
@@ -18615,29 +18611,29 @@
         <v>6</v>
       </c>
       <c r="U101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W101" t="n">
         <v>51</v>
       </c>
       <c r="X101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="Y101" t="n">
         <v>67</v>
       </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AB101" t="n">
         <v>151</v>
       </c>
       <c r="AC101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD101" t="n">
         <v>41</v>
@@ -18650,7 +18646,7 @@
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI101" t="n">
         <v>8.5</v>
@@ -18662,7 +18658,7 @@
         <v>6.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
@@ -18683,7 +18679,7 @@
         <v>6</v>
       </c>
       <c r="AU101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV101" t="n">
         <v>101</v>
@@ -18695,7 +18691,7 @@
         <v>3.75</v>
       </c>
       <c r="AY101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ101" t="n">
         <v>6</v>
@@ -18915,10 +18911,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I103" t="n">
         <v>3.25</v>
@@ -18945,10 +18941,10 @@
         <v>3</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R103" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S103" t="n">
         <v>1.5</v>
@@ -18969,7 +18965,7 @@
         <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z103" t="n">
         <v>21</v>
@@ -18981,10 +18977,10 @@
         <v>34</v>
       </c>
       <c r="AC103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD103" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE103" t="n">
         <v>15</v>
@@ -18996,13 +18992,13 @@
         <v>301</v>
       </c>
       <c r="AH103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI103" t="n">
         <v>15</v>
       </c>
       <c r="AJ103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK103" t="n">
         <v>34</v>
@@ -19050,7 +19046,7 @@
         <v>29</v>
       </c>
       <c r="AZ103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA103" t="n">
         <v>81</v>
@@ -19115,13 +19111,13 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
       </c>
       <c r="O104" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -19288,7 +19284,7 @@
         <v>3.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K105" t="n">
         <v>2.2</v>
@@ -19297,13 +19293,13 @@
         <v>3.75</v>
       </c>
       <c r="M105" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N105" t="n">
         <v>11</v>
       </c>
       <c r="O105" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P105" t="n">
         <v>3.5</v>
@@ -19637,120 +19633,120 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="H107" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>4.55</v>
+        <v>5.7</v>
       </c>
       <c r="J107" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="K107" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L107" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P107" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V107" t="n">
         <v>1.65</v>
       </c>
-      <c r="S107" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T107" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U107" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V107" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W107" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X107" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z107" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AA107" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB107" t="n">
         <v>32</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD107" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE107" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF107" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG107" t="n">
         <v>900</v>
       </c>
       <c r="AH107" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AI107" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ107" t="n">
         <v>24</v>
       </c>
-      <c r="AJ107" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM107" t="n">
+      <c r="AR107" t="n">
         <v>60</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ107" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR107" t="n">
-        <v>75</v>
       </c>
       <c r="AS107" t="n">
         <v>300</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="AU107" t="n">
         <v>8.25</v>
@@ -19759,19 +19755,19 @@
         <v>90</v>
       </c>
       <c r="AW107" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="AX107" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AY107" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ107" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BA107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB107" t="n">
         <v>500</v>
@@ -19814,19 +19810,19 @@
         <v>2.07</v>
       </c>
       <c r="H108" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I108" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J108" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K108" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M108" t="n">
         <v>1.01</v>
@@ -19847,88 +19843,88 @@
         <v>1.72</v>
       </c>
       <c r="S108" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T108" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U108" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W108" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X108" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y108" t="n">
         <v>8.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA108" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC108" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD108" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE108" t="n">
         <v>13.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG108" t="n">
         <v>500</v>
       </c>
       <c r="AH108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI108" t="n">
         <v>18.5</v>
       </c>
       <c r="AJ108" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK108" t="n">
         <v>50</v>
       </c>
       <c r="AL108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM108" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN108" t="n">
         <v>3.9</v>
       </c>
       <c r="AO108" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ108" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR108" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS108" t="n">
         <v>250</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU108" t="n">
         <v>7</v>
@@ -19937,22 +19933,22 @@
         <v>65</v>
       </c>
       <c r="AW108" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY108" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ108" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BA108" t="n">
         <v>150</v>
       </c>
       <c r="BB108" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC108" t="inlineStr"/>
       <c r="BD108" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD108"/>
+  <dimension ref="A1:BD109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -1311,10 +1311,10 @@
         <v>9.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -1860,7 +1860,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1899,13 +1899,13 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1929,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL8" t="n">
         <v>81</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2075,7 +2075,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -2260,7 +2260,7 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="n">
         <v>41</v>
@@ -2332,7 +2332,7 @@
         <v>3.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>15</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2436,13 +2436,13 @@
         <v>4.75</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
@@ -2467,7 +2467,7 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2476,13 +2476,13 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2491,7 +2491,7 @@
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>101</v>
@@ -2509,7 +2509,7 @@
         <v>101</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2518,7 +2518,7 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
         <v>201</v>
@@ -2565,22 +2565,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2595,10 +2595,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2607,25 +2607,25 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
@@ -2644,34 +2644,34 @@
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2683,25 +2683,25 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA12" t="n">
         <v>151</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
@@ -2751,28 +2751,28 @@
         <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K13" t="n">
         <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.75</v>
@@ -2796,10 +2796,10 @@
         <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>5.5</v>
@@ -2824,13 +2824,13 @@
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>81</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="n">
         <v>351</v>
@@ -2839,7 +2839,7 @@
         <v>201</v>
       </c>
       <c r="AM13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="n">
         <v>2.75</v>
@@ -2857,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT13" t="n">
         <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>151</v>
@@ -2875,7 +2875,7 @@
         <v>101</v>
       </c>
       <c r="AY13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ13" t="n">
         <v>351</v>
@@ -2937,16 +2937,16 @@
         <v>1.73</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
         <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2967,13 +2967,13 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
         <v>4.75</v>
@@ -3031,7 +3031,7 @@
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3277,28 +3277,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3307,10 +3307,10 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -3319,31 +3319,31 @@
         <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3356,25 +3356,25 @@
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3383,7 +3383,7 @@
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3395,7 +3395,7 @@
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
@@ -3404,13 +3404,13 @@
         <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
         <v>151</v>
@@ -3475,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3487,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3855,7 +3855,7 @@
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T19" t="n">
         <v>2.05</v>
@@ -4037,7 +4037,7 @@
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
         <v>2.05</v>
@@ -4363,97 +4363,97 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J22" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>4.54</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S22" t="n">
         <v>1.28</v>
       </c>
       <c r="T22" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="U22" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="W22" t="n">
         <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="n">
         <v>25</v>
       </c>
-      <c r="AB22" t="n">
-        <v>24</v>
-      </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
         <v>175</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI22" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL22" t="n">
         <v>10.5</v>
@@ -4462,28 +4462,28 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR22" t="n">
         <v>110</v>
       </c>
       <c r="AS22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV22" t="n">
         <v>45</v>
@@ -4492,13 +4492,13 @@
         <v>3.85</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY22" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>45</v>
@@ -4905,22 +4905,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L25" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4935,16 +4935,16 @@
         <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
         <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
@@ -4953,22 +4953,22 @@
         <v>2.12</v>
       </c>
       <c r="W25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>9.75</v>
       </c>
-      <c r="X25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z25" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC25" t="n">
         <v>7.5</v>
@@ -4986,67 +4986,67 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA25" t="n">
         <v>80</v>
       </c>
-      <c r="AR25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>75</v>
-      </c>
       <c r="BB25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5087,136 +5087,136 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V26" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="W26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X26" t="n">
         <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
         <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS26" t="n">
         <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
         <v>50</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>15.5</v>
@@ -5228,7 +5228,7 @@
         <v>50</v>
       </c>
       <c r="BB26" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5454,19 +5454,19 @@
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5475,22 +5475,22 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R28" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="U28" t="n">
         <v>1.52</v>
@@ -5505,7 +5505,7 @@
         <v>50</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
         <v>120</v>
@@ -5517,40 +5517,40 @@
         <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="n">
         <v>200</v>
       </c>
       <c r="AH28" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
@@ -5568,31 +5568,31 @@
         <v>200</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV28" t="n">
         <v>40</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ28" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC28" t="n">
         <v>500</v>
@@ -5813,22 +5813,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K30" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -5837,16 +5837,16 @@
         <v>7.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5870,7 +5870,7 @@
         <v>8.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
@@ -5879,10 +5879,10 @@
         <v>37</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5892,19 +5892,19 @@
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>100</v>
@@ -5913,13 +5913,13 @@
         <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AP30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>55</v>
@@ -5928,16 +5928,16 @@
         <v>300</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>100</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>40</v>
@@ -6035,10 +6035,10 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W31" t="n">
         <v>12.5</v>
@@ -6531,28 +6531,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6582,13 +6582,13 @@
         <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
         <v>13</v>
@@ -6621,19 +6621,19 @@
         <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="n">
         <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
         <v>3.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6657,7 +6657,7 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX34" t="n">
         <v>23</v>
@@ -6669,7 +6669,7 @@
         <v>81</v>
       </c>
       <c r="BA34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
@@ -7451,16 +7451,16 @@
         <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q39" t="n">
         <v>2.1</v>
@@ -7789,13 +7789,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -7834,7 +7834,7 @@
         <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W41" t="n">
         <v>7</v>
@@ -7999,10 +7999,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8011,10 +8011,10 @@
         <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W42" t="n">
         <v>6.5</v>
@@ -8116,7 +8116,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
@@ -8175,10 +8175,10 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
@@ -8193,10 +8193,10 @@
         <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
@@ -8375,7 +8375,7 @@
         <v>3.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V44" t="n">
         <v>2</v>
@@ -8515,28 +8515,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8545,10 +8545,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8560,28 +8560,28 @@
         <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W45" t="n">
         <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
         <v>8</v>
@@ -8593,16 +8593,16 @@
         <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
         <v>81</v>
@@ -8617,13 +8617,13 @@
         <v>3.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
@@ -8641,7 +8641,7 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
@@ -8659,10 +8659,10 @@
         <v>401</v>
       </c>
       <c r="BC45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
@@ -8885,7 +8885,7 @@
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J47" t="n">
         <v>2.88</v>
@@ -8903,16 +8903,16 @@
         <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8927,10 +8927,10 @@
         <v>1.91</v>
       </c>
       <c r="W47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y47" t="n">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB47" t="n">
         <v>29</v>
@@ -8990,7 +8990,7 @@
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS47" t="n">
         <v>151</v>
@@ -9255,7 +9255,7 @@
         <v>2.25</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L49" t="n">
         <v>4.75</v>
@@ -9264,19 +9264,19 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="n">
         <v>1.3</v>
@@ -9294,7 +9294,7 @@
         <v>9</v>
       </c>
       <c r="X49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y49" t="n">
         <v>8.5</v>
@@ -9327,7 +9327,7 @@
         <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
         <v>15</v>
@@ -9342,7 +9342,7 @@
         <v>34</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO49" t="n">
         <v>8.5</v>
@@ -9378,7 +9378,7 @@
         <v>26</v>
       </c>
       <c r="AZ49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA49" t="n">
         <v>81</v>
@@ -9455,10 +9455,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9813,16 +9813,16 @@
         <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -10174,7 +10174,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -10201,7 +10201,7 @@
         <v>1.75</v>
       </c>
       <c r="W54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -10219,7 +10219,7 @@
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD54" t="n">
         <v>6</v>
@@ -10237,7 +10237,7 @@
         <v>6.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ54" t="n">
         <v>9.5</v>
@@ -10273,7 +10273,7 @@
         <v>2.38</v>
       </c>
       <c r="AU54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV54" t="n">
         <v>67</v>
@@ -10353,10 +10353,10 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>1.3</v>
@@ -10365,10 +10365,10 @@
         <v>3.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10517,13 +10517,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10538,7 +10538,7 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -10559,22 +10559,22 @@
         <v>2.63</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V56" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA56" t="n">
         <v>17</v>
@@ -10595,13 +10595,13 @@
         <v>51</v>
       </c>
       <c r="AG56" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH56" t="n">
         <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -10610,7 +10610,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -10640,7 +10640,7 @@
         <v>8.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW56" t="n">
         <v>5.5</v>
@@ -10649,7 +10649,7 @@
         <v>21</v>
       </c>
       <c r="AY56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ56" t="n">
         <v>67</v>
@@ -10723,16 +10723,16 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -11081,10 +11081,10 @@
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
         <v>1.22</v>
@@ -11093,10 +11093,10 @@
         <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S59" t="n">
         <v>1.33</v>
@@ -11601,22 +11601,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I62" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K62" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="L62" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M62" t="n">
         <v>1.02</v>
@@ -11631,10 +11631,10 @@
         <v>6.45</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="S62" t="n">
         <v>1.17</v>
@@ -11643,22 +11643,22 @@
         <v>4.7</v>
       </c>
       <c r="U62" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V62" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W62" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y62" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA62" t="n">
         <v>65</v>
@@ -11667,13 +11667,13 @@
         <v>50</v>
       </c>
       <c r="AC62" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE62" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF62" t="n">
         <v>50</v>
@@ -11682,67 +11682,67 @@
         <v>250</v>
       </c>
       <c r="AH62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI62" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK62" t="n">
         <v>10</v>
       </c>
       <c r="AL62" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM62" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN62" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AO62" t="n">
         <v>35</v>
       </c>
       <c r="AP62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ62" t="n">
         <v>200</v>
       </c>
       <c r="AR62" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS62" t="n">
         <v>250</v>
       </c>
       <c r="AT62" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV62" t="n">
         <v>45</v>
       </c>
       <c r="AW62" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX62" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AY62" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA62" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB62" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC62" t="n">
         <v>500</v>
@@ -11781,22 +11781,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="I63" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="J63" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L63" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
@@ -11805,16 +11805,16 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P63" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R63" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="n">
         <v>1.26</v>
@@ -11823,40 +11823,40 @@
         <v>3.6</v>
       </c>
       <c r="U63" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X63" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y63" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA63" t="n">
         <v>45</v>
       </c>
       <c r="AB63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC63" t="n">
         <v>16</v>
       </c>
       <c r="AD63" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG63" t="n">
         <v>350</v>
@@ -11871,22 +11871,22 @@
         <v>8.25</v>
       </c>
       <c r="AK63" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AL63" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM63" t="n">
         <v>21</v>
       </c>
       <c r="AN63" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AO63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP63" t="n">
         <v>28</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>29</v>
       </c>
       <c r="AQ63" t="n">
         <v>150</v>
@@ -11898,28 +11898,28 @@
         <v>300</v>
       </c>
       <c r="AT63" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV63" t="n">
         <v>55</v>
       </c>
       <c r="AW63" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX63" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AY63" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB63" t="n">
         <v>150</v>
@@ -12317,40 +12317,40 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="I66" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="J66" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="K66" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L66" t="n">
-        <v>5.1</v>
+        <v>4.35</v>
       </c>
       <c r="M66" t="n">
         <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P66" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R66" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
         <v>1.24</v>
@@ -12359,108 +12359,110 @@
         <v>3.8</v>
       </c>
       <c r="U66" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W66" t="n">
         <v>9.75</v>
       </c>
       <c r="X66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y66" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z66" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AB66" t="n">
         <v>18.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AE66" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG66" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH66" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI66" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR66" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>32</v>
       </c>
       <c r="AS66" t="n">
         <v>120</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AV66" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW66" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX66" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AY66" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ66" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BA66" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BB66" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC66" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>500</v>
+      </c>
       <c r="BD66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -12498,16 +12500,16 @@
         <v>1.1</v>
       </c>
       <c r="H67" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n">
         <v>17</v>
       </c>
       <c r="J67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="K67" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L67" t="n">
         <v>11.25</v>
@@ -12522,13 +12524,13 @@
         <v>1.02</v>
       </c>
       <c r="P67" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R67" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="S67" t="n">
         <v>1.13</v>
@@ -12543,28 +12545,28 @@
         <v>1.65</v>
       </c>
       <c r="W67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X67" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y67" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA67" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB67" t="n">
         <v>32</v>
       </c>
       <c r="AC67" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE67" t="n">
         <v>37</v>
@@ -12576,7 +12578,7 @@
         <v>900</v>
       </c>
       <c r="AH67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI67" t="n">
         <v>200</v>
@@ -12594,25 +12596,25 @@
         <v>175</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO67" t="n">
         <v>4.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AR67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS67" t="n">
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AU67" t="n">
         <v>10.5</v>
@@ -12847,46 +12849,46 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H69" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="I69" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="J69" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K69" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L69" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="O69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P69" t="n">
-        <v>5.8</v>
+        <v>6.05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R69" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="S69" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="T69" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="U69" t="n">
         <v>1.55</v>
@@ -12895,7 +12897,7 @@
         <v>2.15</v>
       </c>
       <c r="W69" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X69" t="n">
         <v>9</v>
@@ -12904,88 +12906,88 @@
         <v>8.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA69" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB69" t="n">
         <v>18</v>
       </c>
       <c r="AC69" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE69" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG69" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK69" t="n">
         <v>250</v>
       </c>
-      <c r="AH69" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI69" t="n">
+      <c r="AL69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM69" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>50</v>
       </c>
       <c r="AN69" t="n">
         <v>3.6</v>
       </c>
       <c r="AO69" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AP69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AR69" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS69" t="n">
         <v>100</v>
       </c>
       <c r="AT69" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV69" t="n">
         <v>45</v>
       </c>
       <c r="AW69" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AX69" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AY69" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AZ69" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BA69" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BB69" t="n">
         <v>300</v>
@@ -13234,7 +13236,7 @@
         <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
@@ -14319,10 +14321,10 @@
         <v>1.98</v>
       </c>
       <c r="U77" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="V77" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W77" t="n">
         <v>4.45</v>
@@ -14633,7 +14635,7 @@
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J79" t="n">
         <v>2.7</v>
@@ -14651,7 +14653,7 @@
         <v>7.6</v>
       </c>
       <c r="O79" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P79" t="n">
         <v>2.65</v>
@@ -14669,22 +14671,22 @@
         <v>2.5</v>
       </c>
       <c r="U79" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V79" t="n">
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y79" t="n">
         <v>8.75</v>
       </c>
       <c r="Z79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="n">
         <v>18.5</v>
@@ -14696,7 +14698,7 @@
         <v>8</v>
       </c>
       <c r="AD79" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE79" t="n">
         <v>15.5</v>
@@ -14708,19 +14710,19 @@
         <v>700</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI79" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK79" t="n">
         <v>45</v>
       </c>
       <c r="AL79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM79" t="n">
         <v>45</v>
@@ -14732,10 +14734,10 @@
         <v>10.75</v>
       </c>
       <c r="AP79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR79" t="n">
         <v>75</v>
@@ -14805,22 +14807,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J80" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -14829,40 +14831,40 @@
         <v>6.45</v>
       </c>
       <c r="O80" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P80" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R80" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S80" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T80" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U80" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W80" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X80" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y80" t="n">
         <v>13.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA80" t="n">
         <v>40</v>
@@ -14871,25 +14873,25 @@
         <v>50</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
         <v>90</v>
       </c>
       <c r="AG80" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI80" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ80" t="n">
         <v>8.5</v>
@@ -14898,19 +14900,19 @@
         <v>15.5</v>
       </c>
       <c r="AL80" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP80" t="n">
         <v>30</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>29</v>
       </c>
       <c r="AQ80" t="n">
         <v>120</v>
@@ -14922,13 +14924,13 @@
         <v>400</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV80" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW80" t="n">
         <v>3.65</v>
@@ -14937,13 +14939,13 @@
         <v>9.25</v>
       </c>
       <c r="AY80" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA80" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -14983,22 +14985,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J81" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15007,13 +15009,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P81" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
         <v>1.7</v>
@@ -15028,31 +15030,31 @@
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W81" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y81" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA81" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB81" t="n">
         <v>37</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15.5</v>
@@ -15061,37 +15063,37 @@
         <v>75</v>
       </c>
       <c r="AG81" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI81" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ81" t="n">
         <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL81" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN81" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AO81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP81" t="n">
         <v>24</v>
       </c>
       <c r="AQ81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR81" t="n">
         <v>120</v>
@@ -15100,28 +15102,28 @@
         <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV81" t="n">
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX81" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY81" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ81" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB81" t="n">
         <v>250</v>
@@ -15942,7 +15944,7 @@
         <v>7.6</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA86" t="n">
         <v>13.5</v>
@@ -15966,7 +15968,7 @@
         <v>200</v>
       </c>
       <c r="AH86" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
@@ -15978,7 +15980,7 @@
         <v>26</v>
       </c>
       <c r="AL86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM86" t="n">
         <v>22</v>
@@ -15990,7 +15992,7 @@
         <v>11.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ86" t="n">
         <v>45</v>
@@ -16063,7 +16065,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H87" t="n">
         <v>3.65</v>
@@ -16072,13 +16074,13 @@
         <v>2.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K87" t="n">
         <v>2.32</v>
       </c>
       <c r="L87" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M87" t="n">
         <v>1.01</v>
@@ -16093,10 +16095,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R87" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16117,10 +16119,10 @@
         <v>14</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA87" t="n">
         <v>14.5</v>
@@ -16144,7 +16146,7 @@
         <v>120</v>
       </c>
       <c r="AH87" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI87" t="n">
         <v>12.5</v>
@@ -16153,7 +16155,7 @@
         <v>8.25</v>
       </c>
       <c r="AK87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL87" t="n">
         <v>13.5</v>
@@ -16180,7 +16182,7 @@
         <v>150</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU87" t="n">
         <v>6.3</v>
@@ -16192,10 +16194,10 @@
         <v>4.65</v>
       </c>
       <c r="AX87" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ87" t="n">
         <v>40</v>
@@ -16970,7 +16972,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17127,13 +17129,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -17175,7 +17177,7 @@
         <v>1.95</v>
       </c>
       <c r="W93" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -17184,7 +17186,7 @@
         <v>11</v>
       </c>
       <c r="Z93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA93" t="n">
         <v>23</v>
@@ -17223,7 +17225,7 @@
         <v>21</v>
       </c>
       <c r="AM93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN93" t="n">
         <v>4.75</v>
@@ -17238,7 +17240,7 @@
         <v>51</v>
       </c>
       <c r="AR93" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS93" t="n">
         <v>201</v>
@@ -17487,10 +17489,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I95" t="n">
         <v>2.05</v>
@@ -17502,7 +17504,7 @@
         <v>2.18</v>
       </c>
       <c r="L95" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -17531,10 +17533,10 @@
         <v>2.02</v>
       </c>
       <c r="W95" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X95" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y95" t="n">
         <v>11</v>
@@ -17546,13 +17548,13 @@
         <v>25</v>
       </c>
       <c r="AB95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC95" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE95" t="n">
         <v>13.5</v>
@@ -17597,13 +17599,13 @@
         <v>110</v>
       </c>
       <c r="AS95" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT95" t="n">
         <v>2.67</v>
       </c>
       <c r="AU95" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV95" t="n">
         <v>60</v>
@@ -18025,40 +18027,40 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H98" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I98" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J98" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K98" t="n">
         <v>1.82</v>
       </c>
       <c r="L98" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M98" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="O98" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P98" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R98" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S98" t="n">
         <v>1.65</v>
@@ -18073,16 +18075,16 @@
         <v>1.55</v>
       </c>
       <c r="W98" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="X98" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y98" t="n">
         <v>10.25</v>
       </c>
       <c r="Z98" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA98" t="n">
         <v>26</v>
@@ -18091,10 +18093,10 @@
         <v>55</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE98" t="n">
         <v>22</v>
@@ -18106,31 +18108,31 @@
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AI98" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ98" t="n">
         <v>13.5</v>
       </c>
       <c r="AK98" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL98" t="n">
         <v>45</v>
       </c>
       <c r="AM98" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN98" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO98" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ98" t="n">
         <v>65</v>
@@ -18151,10 +18153,10 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX98" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY98" t="n">
         <v>40</v>
@@ -18237,10 +18239,10 @@
         <v>4.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R99" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S99" t="n">
         <v>1.3</v>
@@ -18392,16 +18394,16 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I100" t="n">
         <v>1.03</v>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L100" t="n">
         <v>1.18</v>
@@ -18410,7 +18412,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O100" t="n">
         <v>1.04</v>
@@ -18431,10 +18433,10 @@
         <v>6</v>
       </c>
       <c r="U100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W100" t="n">
         <v>67</v>
@@ -18449,35 +18451,35 @@
         <v>51</v>
       </c>
       <c r="AA100" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AB100" t="n">
         <v>251</v>
       </c>
       <c r="AC100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD100" t="n">
         <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF100" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI100" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AL100" t="n">
         <v>17</v>
@@ -18528,7 +18530,7 @@
         <v>34</v>
       </c>
       <c r="BB100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18587,10 +18589,10 @@
         <v>1.2</v>
       </c>
       <c r="M101" t="n">
+        <v>51</v>
+      </c>
+      <c r="N101" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N101" t="n">
-        <v>29</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18752,7 +18754,7 @@
         <v>1.88</v>
       </c>
       <c r="L102" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M102" t="n">
         <v>1.04</v>
@@ -18767,7 +18769,7 @@
         <v>2.35</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R102" t="n">
         <v>1.47</v>
@@ -18785,10 +18787,10 @@
         <v>1.72</v>
       </c>
       <c r="W102" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X102" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y102" t="n">
         <v>7.9</v>
@@ -18800,10 +18802,10 @@
         <v>16.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC102" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD102" t="n">
         <v>5.2</v>
@@ -18816,19 +18818,19 @@
       </c>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI102" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK102" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL102" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM102" t="n">
         <v>40</v>
@@ -18867,10 +18869,10 @@
         <v>20</v>
       </c>
       <c r="AY102" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ102" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA102" t="n">
         <v>200</v>
@@ -19111,13 +19113,13 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
         <v>9</v>
       </c>
       <c r="O104" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -19284,7 +19286,7 @@
         <v>3.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K105" t="n">
         <v>2.2</v>
@@ -19293,13 +19295,13 @@
         <v>3.75</v>
       </c>
       <c r="M105" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N105" t="n">
         <v>11</v>
       </c>
       <c r="O105" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P105" t="n">
         <v>3.5</v>
@@ -19460,13 +19462,13 @@
         <v>9</v>
       </c>
       <c r="H106" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I106" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K106" t="n">
         <v>2.2</v>
@@ -19475,10 +19477,10 @@
         <v>1.95</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -19493,10 +19495,10 @@
         <v>1.65</v>
       </c>
       <c r="S106" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T106" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U106" t="n">
         <v>2.63</v>
@@ -19523,10 +19525,10 @@
         <v>81</v>
       </c>
       <c r="AC106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE106" t="n">
         <v>29</v>
@@ -19544,7 +19546,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK106" t="n">
         <v>8</v>
@@ -19556,7 +19558,7 @@
         <v>41</v>
       </c>
       <c r="AN106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO106" t="n">
         <v>51</v>
@@ -19572,7 +19574,7 @@
       </c>
       <c r="AS106" t="inlineStr"/>
       <c r="AT106" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU106" t="n">
         <v>11</v>
@@ -19584,7 +19586,7 @@
         <v>3.1</v>
       </c>
       <c r="AX106" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY106" t="n">
         <v>23</v>
@@ -19604,7 +19606,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>QHWqjFUh</t>
+          <t>zJ4B0ULi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -19614,171 +19616,173 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+          <t>WALES - CYMRU NORTH</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Algeria U20</t>
+          <t>Prestatyn</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Libya U20</t>
+          <t>Denbigh</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="H107" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="I107" t="n">
-        <v>5.7</v>
+        <v>1.85</v>
       </c>
       <c r="J107" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="K107" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="L107" t="n">
-        <v>5.8</v>
+        <v>2.25</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="P107" t="n">
-        <v>2.82</v>
+        <v>7.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.93</v>
+        <v>1.22</v>
       </c>
       <c r="R107" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="S107" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="T107" t="n">
-        <v>2.52</v>
+        <v>6.1</v>
       </c>
       <c r="U107" t="n">
-        <v>1.98</v>
+        <v>1.28</v>
       </c>
       <c r="V107" t="n">
-        <v>1.65</v>
+        <v>3.52</v>
       </c>
       <c r="W107" t="n">
-        <v>5.9</v>
+        <v>16.5</v>
       </c>
       <c r="X107" t="n">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z107" t="n">
-        <v>10.75</v>
+        <v>35</v>
       </c>
       <c r="AA107" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AB107" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.75</v>
+        <v>25</v>
       </c>
       <c r="AD107" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>20</v>
+        <v>9.75</v>
       </c>
       <c r="AF107" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AG107" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AH107" t="n">
         <v>13</v>
       </c>
       <c r="AI107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA107" t="n">
         <v>32</v>
       </c>
-      <c r="AJ107" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ107" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR107" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS107" t="n">
+      <c r="BB107" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC107" t="n">
         <v>300</v>
       </c>
-      <c r="AT107" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ107" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB107" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC107" t="inlineStr"/>
       <c r="BD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2y7saADN</t>
+          <t>QHWqjFUh</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -19798,160 +19802,338 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Egypt U20</t>
+          <t>Algeria U20</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tunisia U20</t>
+          <t>Libya U20</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="H108" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I108" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="J108" t="n">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="L108" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>9.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="O108" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P108" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R108" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S108" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T108" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="U108" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="V108" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="W108" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="X108" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y108" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z108" t="n">
-        <v>20</v>
+        <v>10.75</v>
       </c>
       <c r="AA108" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AC108" t="n">
         <v>8.75</v>
       </c>
       <c r="AD108" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE108" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AF108" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR108" t="n">
         <v>60</v>
       </c>
-      <c r="AG108" t="n">
+      <c r="AS108" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB108" t="n">
         <v>500</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR108" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ108" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>400</v>
       </c>
       <c r="BC108" t="inlineStr"/>
       <c r="BD108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2y7saADN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>WORLD - FRIENDLY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Egypt U20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Tunisia U20</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N109" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X109" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC109" t="inlineStr"/>
+      <c r="BD109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -777,10 +777,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1171,7 +1171,7 @@
         <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1180,7 +1180,7 @@
         <v>23</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1189,28 +1189,28 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA4" t="n">
         <v>251</v>
       </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.53</v>
@@ -1308,7 +1308,7 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1335,10 +1335,10 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1490,7 +1490,7 @@
         <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1517,16 +1517,16 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>81</v>
@@ -1619,7 +1619,7 @@
         <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>160</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2595,10 +2595,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2925,16 +2925,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
@@ -2943,10 +2943,10 @@
         <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2967,22 +2967,22 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -2991,10 +2991,10 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>41</v>
@@ -3013,22 +3013,22 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM14" t="n">
         <v>151</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AO14" t="n">
         <v>5.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
@@ -3046,13 +3046,13 @@
         <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AY14" t="n">
         <v>81</v>
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.8</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
@@ -3163,74 +3163,74 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL15" t="n">
         <v>151</v>
       </c>
-      <c r="AL15" t="n">
-        <v>101</v>
-      </c>
       <c r="AM15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
         <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA15" t="n">
         <v>351</v>
@@ -3855,7 +3855,7 @@
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
         <v>2.05</v>
@@ -4037,7 +4037,7 @@
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T20" t="n">
         <v>2.05</v>
@@ -4205,10 +4205,10 @@
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
         <v>2.7</v>
@@ -4319,7 +4319,7 @@
         <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
         <v>351</v>
@@ -4905,46 +4905,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="T25" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U25" t="n">
         <v>1.65</v>
@@ -4956,13 +4956,13 @@
         <v>9.5</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>9.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
         <v>21</v>
@@ -4971,13 +4971,13 @@
         <v>27</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
@@ -4992,25 +4992,25 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
         <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>60</v>
@@ -5022,10 +5022,10 @@
         <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
@@ -5037,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ25" t="n">
         <v>55</v>
@@ -5087,145 +5087,145 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K26" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T26" t="n">
         <v>3.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W26" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="n">
         <v>250</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AO26" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR26" t="n">
         <v>90</v>
       </c>
-      <c r="AR26" t="n">
-        <v>100</v>
-      </c>
       <c r="AS26" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT26" t="n">
         <v>3.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AY26" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BA26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB26" t="n">
         <v>150</v>
@@ -5451,13 +5451,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H28" t="n">
         <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J28" t="n">
         <v>5.3</v>
@@ -5475,37 +5475,37 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="S28" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T28" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="U28" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="W28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X28" t="n">
         <v>50</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>120</v>
@@ -5517,37 +5517,37 @@
         <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="n">
         <v>200</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL28" t="n">
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>8.25</v>
@@ -5568,34 +5568,34 @@
         <v>200</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV28" t="n">
         <v>40</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AX28" t="n">
         <v>6.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AZ28" t="n">
         <v>14.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC28" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5654,7 +5654,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
@@ -5666,7 +5666,7 @@
         <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>1.34</v>
@@ -5675,7 +5675,7 @@
         <v>3.1</v>
       </c>
       <c r="U29" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V29" t="n">
         <v>1.4</v>
@@ -5690,7 +5690,7 @@
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA29" t="n">
         <v>12.5</v>
@@ -5708,7 +5708,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
@@ -5724,7 +5724,7 @@
         <v>600</v>
       </c>
       <c r="AL29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="n">
         <v>250</v>
@@ -5745,10 +5745,10 @@
         <v>50</v>
       </c>
       <c r="AS29" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
         <v>11.5</v>
@@ -5819,16 +5819,16 @@
         <v>4.15</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="K30" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L30" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -5855,16 +5855,16 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>8.75</v>
@@ -5876,13 +5876,13 @@
         <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="n">
         <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5892,34 +5892,34 @@
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
         <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AP30" t="n">
         <v>18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR30" t="n">
         <v>55</v>
@@ -5931,13 +5931,13 @@
         <v>2.62</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AX30" t="n">
         <v>40</v>
@@ -6908,7 +6908,7 @@
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -7251,22 +7251,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
         <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
@@ -7299,7 +7299,7 @@
         <v>1.8</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
@@ -7308,10 +7308,10 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA38" t="n">
         <v>26</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>23</v>
       </c>
       <c r="AB38" t="n">
         <v>41</v>
@@ -7320,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7335,7 +7335,7 @@
         <v>7.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ38" t="n">
         <v>11</v>
@@ -7353,7 +7353,7 @@
         <v>4.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP38" t="n">
         <v>29</v>
@@ -7377,7 +7377,7 @@
         <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX38" t="n">
         <v>17</v>
@@ -7624,7 +7624,7 @@
         <v>1.62</v>
       </c>
       <c r="J40" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="K40" t="n">
         <v>2.25</v>
@@ -7659,43 +7659,43 @@
         <v>2.22</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
         <v>60</v>
       </c>
       <c r="AA40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB40" t="n">
         <v>30</v>
       </c>
-      <c r="AB40" t="n">
-        <v>29</v>
-      </c>
       <c r="AC40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE40" t="n">
         <v>11.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
         <v>200</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.9</v>
@@ -7704,10 +7704,10 @@
         <v>11</v>
       </c>
       <c r="AL40" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN40" t="n">
         <v>6.5</v>
@@ -7716,10 +7716,10 @@
         <v>25</v>
       </c>
       <c r="AP40" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ40" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR40" t="n">
         <v>150</v>
@@ -7728,31 +7728,31 @@
         <v>300</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU40" t="n">
         <v>6.9</v>
       </c>
       <c r="AV40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW40" t="n">
         <v>3.65</v>
       </c>
       <c r="AX40" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AY40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA40" t="n">
         <v>45</v>
       </c>
       <c r="BB40" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
@@ -7834,7 +7834,7 @@
         <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W41" t="n">
         <v>7</v>
@@ -7975,7 +7975,7 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -8011,10 +8011,10 @@
         <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
         <v>6.5</v>
@@ -8154,25 +8154,25 @@
         <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -8196,7 +8196,7 @@
         <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
@@ -8217,7 +8217,7 @@
         <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8229,7 +8229,7 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH43" t="n">
         <v>9</v>
@@ -8265,7 +8265,7 @@
         <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
         <v>2.63</v>
@@ -8283,7 +8283,7 @@
         <v>17</v>
       </c>
       <c r="AY43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ43" t="n">
         <v>51</v>
@@ -8295,7 +8295,7 @@
         <v>201</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H44" t="n">
         <v>4.5</v>
@@ -8375,7 +8375,7 @@
         <v>3.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
         <v>2</v>
@@ -8390,7 +8390,7 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
         <v>11</v>
@@ -8402,25 +8402,25 @@
         <v>15</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK44" t="n">
         <v>67</v>
@@ -8432,7 +8432,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO44" t="n">
         <v>7</v>
@@ -8462,7 +8462,7 @@
         <v>8</v>
       </c>
       <c r="AX44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY44" t="n">
         <v>34</v>
@@ -8471,7 +8471,7 @@
         <v>101</v>
       </c>
       <c r="BA44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB44" t="n">
         <v>201</v>
@@ -8515,28 +8515,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
         <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8557,10 +8557,10 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W45" t="n">
         <v>6</v>
@@ -8584,37 +8584,37 @@
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="n">
         <v>501</v>
       </c>
       <c r="AH45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO45" t="n">
         <v>7</v>
@@ -8635,7 +8635,7 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV45" t="n">
         <v>67</v>
@@ -8650,16 +8650,16 @@
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA45" t="n">
         <v>201</v>
       </c>
       <c r="BB45" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8718,7 +8718,7 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -9607,55 +9607,55 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T51" t="n">
         <v>2.75</v>
       </c>
-      <c r="M51" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N51" t="n">
-        <v>10</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R51" t="n">
+      <c r="U51" t="n">
         <v>1.75</v>
       </c>
-      <c r="S51" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
         <v>19</v>
@@ -9670,28 +9670,28 @@
         <v>29</v>
       </c>
       <c r="AB51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
@@ -9700,10 +9700,10 @@
         <v>17</v>
       </c>
       <c r="AL51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN51" t="n">
         <v>5.5</v>
@@ -9712,19 +9712,19 @@
         <v>21</v>
       </c>
       <c r="AP51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ51" t="n">
         <v>67</v>
       </c>
       <c r="AR51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS51" t="n">
         <v>201</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU51" t="n">
         <v>8</v>
@@ -9819,10 +9819,10 @@
         <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -10165,28 +10165,28 @@
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="n">
         <v>1.53</v>
@@ -10207,10 +10207,10 @@
         <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="n">
         <v>29</v>
@@ -10228,10 +10228,10 @@
         <v>17</v>
       </c>
       <c r="AF54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH54" t="n">
         <v>6.5</v>
@@ -10335,55 +10335,55 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K55" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L55" t="n">
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R55" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V55" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X55" t="n">
         <v>8</v>
@@ -10398,10 +10398,10 @@
         <v>15</v>
       </c>
       <c r="AB55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
@@ -10413,7 +10413,7 @@
         <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH55" t="n">
         <v>12</v>
@@ -10437,13 +10437,13 @@
         <v>3.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP55" t="n">
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
@@ -10452,7 +10452,7 @@
         <v>151</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU55" t="n">
         <v>8.5</v>
@@ -10470,10 +10470,10 @@
         <v>34</v>
       </c>
       <c r="AZ55" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA55" t="n">
         <v>101</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>126</v>
       </c>
       <c r="BB55" t="n">
         <v>251</v>
@@ -10708,7 +10708,7 @@
         <v>5.25</v>
       </c>
       <c r="J57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K57" t="n">
         <v>2.38</v>
@@ -10717,10 +10717,10 @@
         <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
@@ -10747,10 +10747,10 @@
         <v>1.95</v>
       </c>
       <c r="W57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
@@ -10765,7 +10765,7 @@
         <v>23</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD57" t="n">
         <v>8.5</v>
@@ -10825,7 +10825,7 @@
         <v>51</v>
       </c>
       <c r="AW57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX57" t="n">
         <v>29</v>
@@ -10911,10 +10911,10 @@
         <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
         <v>1.53</v>
@@ -11601,112 +11601,112 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H62" t="n">
-        <v>5.4</v>
+        <v>4.85</v>
       </c>
       <c r="I62" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="J62" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K62" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="L62" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P62" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>24</v>
+      </c>
+      <c r="X62" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y62" t="n">
         <v>21</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T62" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V62" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W62" t="n">
-        <v>30</v>
-      </c>
-      <c r="X62" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>23</v>
       </c>
       <c r="Z62" t="n">
         <v>150</v>
       </c>
       <c r="AA62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB62" t="n">
         <v>50</v>
       </c>
       <c r="AC62" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AD62" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AE62" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG62" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI62" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK62" t="n">
         <v>10</v>
       </c>
       <c r="AL62" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AO62" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ62" t="n">
         <v>200</v>
@@ -11715,34 +11715,34 @@
         <v>175</v>
       </c>
       <c r="AS62" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT62" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV62" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW62" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX62" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AY62" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ62" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BA62" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB62" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC62" t="n">
         <v>500</v>
@@ -11781,22 +11781,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I63" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="J63" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="K63" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L63" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
@@ -11805,43 +11805,43 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.4</v>
+        <v>4.71</v>
       </c>
       <c r="Q63" t="n">
         <v>1.52</v>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S63" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="T63" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="U63" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V63" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W63" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X63" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y63" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB63" t="n">
         <v>40</v>
@@ -11850,10 +11850,10 @@
         <v>16</v>
       </c>
       <c r="AD63" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
         <v>55</v>
@@ -11865,31 +11865,31 @@
         <v>9</v>
       </c>
       <c r="AI63" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AJ63" t="n">
         <v>8.25</v>
       </c>
       <c r="AK63" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AL63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM63" t="n">
         <v>21</v>
       </c>
       <c r="AN63" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AO63" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP63" t="n">
         <v>26</v>
       </c>
-      <c r="AP63" t="n">
-        <v>28</v>
-      </c>
       <c r="AQ63" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR63" t="n">
         <v>150</v>
@@ -11901,22 +11901,22 @@
         <v>3.35</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV63" t="n">
         <v>55</v>
       </c>
       <c r="AW63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX63" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AY63" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA63" t="n">
         <v>40</v>
@@ -12137,22 +12137,22 @@
         </is>
       </c>
       <c r="G65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J65" t="n">
         <v>3.7</v>
       </c>
-      <c r="H65" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K65" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="L65" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M65" t="n">
         <v>1.02</v>
@@ -12167,10 +12167,10 @@
         <v>6.55</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R65" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S65" t="n">
         <v>1.19</v>
@@ -12179,16 +12179,16 @@
         <v>4.4</v>
       </c>
       <c r="U65" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V65" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W65" t="n">
         <v>21</v>
       </c>
       <c r="X65" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y65" t="n">
         <v>13.5</v>
@@ -12197,19 +12197,19 @@
         <v>55</v>
       </c>
       <c r="AA65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB65" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC65" t="n">
         <v>25</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>24</v>
       </c>
       <c r="AD65" t="n">
         <v>10</v>
       </c>
       <c r="AE65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>32</v>
@@ -12218,7 +12218,7 @@
         <v>150</v>
       </c>
       <c r="AH65" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI65" t="n">
         <v>12.5</v>
@@ -12227,7 +12227,7 @@
         <v>9</v>
       </c>
       <c r="AK65" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL65" t="n">
         <v>11.75</v>
@@ -12236,10 +12236,10 @@
         <v>16</v>
       </c>
       <c r="AN65" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AO65" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP65" t="n">
         <v>17.5</v>
@@ -12254,7 +12254,7 @@
         <v>120</v>
       </c>
       <c r="AT65" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AU65" t="n">
         <v>6.4</v>
@@ -12266,7 +12266,7 @@
         <v>4.3</v>
       </c>
       <c r="AX65" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY65" t="n">
         <v>11.75</v>
@@ -12509,7 +12509,7 @@
         <v>1.37</v>
       </c>
       <c r="K67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L67" t="n">
         <v>11.25</v>
@@ -12518,19 +12518,19 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O67" t="n">
         <v>1.02</v>
       </c>
       <c r="P67" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="S67" t="n">
         <v>1.13</v>
@@ -12539,43 +12539,43 @@
         <v>5.4</v>
       </c>
       <c r="U67" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V67" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X67" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y67" t="n">
         <v>12</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA67" t="n">
         <v>10.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD67" t="n">
         <v>20</v>
       </c>
       <c r="AE67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF67" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG67" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH67" t="n">
         <v>65</v>
@@ -12593,34 +12593,34 @@
         <v>300</v>
       </c>
       <c r="AM67" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN67" t="n">
         <v>3.35</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AP67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ67" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AR67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS67" t="n">
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AU67" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV67" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW67" t="n">
         <v>16</v>
@@ -12876,7 +12876,7 @@
         <v>1.05</v>
       </c>
       <c r="P69" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="Q69" t="n">
         <v>1.35</v>
@@ -13029,22 +13029,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="H70" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L70" t="n">
         <v>3.15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.45</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -13053,16 +13053,16 @@
         <v>13.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R70" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S70" t="n">
         <v>1.25</v>
@@ -13071,37 +13071,37 @@
         <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V70" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W70" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X70" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA70" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC70" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE70" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF70" t="n">
         <v>37</v>
@@ -13110,64 +13110,64 @@
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AI70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL70" t="n">
         <v>20</v>
       </c>
-      <c r="AJ70" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>40</v>
       </c>
-      <c r="AL70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>32</v>
-      </c>
       <c r="AR70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS70" t="n">
         <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU70" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV70" t="n">
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AX70" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AY70" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BA70" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB70" t="n">
         <v>175</v>
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H77" t="n">
         <v>2.7</v>
@@ -14294,19 +14294,19 @@
         <v>1.78</v>
       </c>
       <c r="L77" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="O77" t="n">
         <v>1.6</v>
       </c>
       <c r="P77" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="Q77" t="n">
         <v>2.32</v>
@@ -14315,16 +14315,16 @@
         <v>1.47</v>
       </c>
       <c r="S77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T77" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U77" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V77" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W77" t="n">
         <v>4.45</v>
@@ -14345,16 +14345,16 @@
         <v>37</v>
       </c>
       <c r="AC77" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD77" t="n">
         <v>4.9</v>
       </c>
       <c r="AE77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
@@ -14367,7 +14367,7 @@
         <v>11.25</v>
       </c>
       <c r="AK77" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL77" t="n">
         <v>35</v>
@@ -14382,19 +14382,19 @@
         <v>12.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ77" t="n">
         <v>60</v>
       </c>
       <c r="AR77" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS77" t="n">
         <v>450</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14638,13 +14638,13 @@
         <v>3.35</v>
       </c>
       <c r="J79" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K79" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L79" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14659,34 +14659,34 @@
         <v>2.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R79" t="n">
         <v>1.6</v>
       </c>
       <c r="S79" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T79" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U79" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V79" t="n">
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X79" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y79" t="n">
         <v>8.75</v>
       </c>
       <c r="Z79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA79" t="n">
         <v>18.5</v>
@@ -14695,10 +14695,10 @@
         <v>32</v>
       </c>
       <c r="AC79" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE79" t="n">
         <v>15.5</v>
@@ -14710,19 +14710,19 @@
         <v>700</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK79" t="n">
         <v>45</v>
       </c>
       <c r="AL79" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM79" t="n">
         <v>45</v>
@@ -14731,7 +14731,7 @@
         <v>3.95</v>
       </c>
       <c r="AO79" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP79" t="n">
         <v>19.5</v>
@@ -14746,10 +14746,10 @@
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU79" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV79" t="n">
         <v>65</v>
@@ -14758,10 +14758,10 @@
         <v>5.1</v>
       </c>
       <c r="AX79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ79" t="n">
         <v>100</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H80" t="n">
         <v>3.35</v>
@@ -14816,7 +14816,7 @@
         <v>1.88</v>
       </c>
       <c r="J80" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
@@ -14834,7 +14834,7 @@
         <v>1.35</v>
       </c>
       <c r="P80" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q80" t="n">
         <v>2.02</v>
@@ -14864,7 +14864,7 @@
         <v>13.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA80" t="n">
         <v>40</v>
@@ -14873,7 +14873,7 @@
         <v>50</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
         <v>6.5</v>
@@ -14900,7 +14900,7 @@
         <v>15.5</v>
       </c>
       <c r="AL80" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM80" t="n">
         <v>32</v>
@@ -14909,7 +14909,7 @@
         <v>5.5</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP80" t="n">
         <v>30</v>
@@ -14939,7 +14939,7 @@
         <v>9.25</v>
       </c>
       <c r="AY80" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ80" t="n">
         <v>35</v>
@@ -14988,37 +14988,37 @@
         <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I81" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.12</v>
       </c>
       <c r="L81" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R81" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S81" t="n">
         <v>1.38</v>
@@ -15027,7 +15027,7 @@
         <v>2.6</v>
       </c>
       <c r="U81" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
         <v>1.82</v>
@@ -15051,22 +15051,22 @@
         <v>37</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE81" t="n">
         <v>15.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG81" t="n">
         <v>700</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI81" t="n">
         <v>10</v>
@@ -15075,10 +15075,10 @@
         <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL81" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM81" t="n">
         <v>32</v>
@@ -15096,7 +15096,7 @@
         <v>75</v>
       </c>
       <c r="AR81" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
@@ -15105,13 +15105,13 @@
         <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV81" t="n">
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AX81" t="n">
         <v>11</v>
@@ -15163,28 +15163,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="H82" t="n">
         <v>2.62</v>
       </c>
       <c r="I82" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K82" t="n">
         <v>1.75</v>
       </c>
       <c r="L82" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="M82" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N82" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O82" t="n">
         <v>1.65</v>
@@ -15193,37 +15193,37 @@
         <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="R82" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T82" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U82" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="V82" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="W82" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="X82" t="n">
-        <v>9.25</v>
+        <v>7.8</v>
       </c>
       <c r="Y82" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AA82" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB82" t="n">
         <v>40</v>
@@ -15232,73 +15232,73 @@
         <v>5</v>
       </c>
       <c r="AD82" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AE82" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG82" t="n">
         <v>101</v>
       </c>
       <c r="AH82" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AI82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ82" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AL82" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM82" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="AO82" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ82" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AR82" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS82" t="n">
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV82" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="AX82" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY82" t="n">
         <v>35</v>
       </c>
       <c r="AZ82" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BA82" t="n">
         <v>200</v>
@@ -15341,13 +15341,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H83" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I83" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
@@ -15356,13 +15356,13 @@
         <v>2.5</v>
       </c>
       <c r="L83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O83" t="n">
         <v>1.14</v>
@@ -15389,7 +15389,7 @@
         <v>2.2</v>
       </c>
       <c r="W83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X83" t="n">
         <v>9</v>
@@ -15404,13 +15404,13 @@
         <v>11</v>
       </c>
       <c r="AB83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE83" t="n">
         <v>15</v>
@@ -15419,7 +15419,7 @@
         <v>41</v>
       </c>
       <c r="AG83" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH83" t="n">
         <v>21</v>
@@ -15437,7 +15437,7 @@
         <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN83" t="n">
         <v>3.75</v>
@@ -15461,7 +15461,7 @@
         <v>3.75</v>
       </c>
       <c r="AU83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV83" t="n">
         <v>41</v>
@@ -15547,10 +15547,10 @@
         <v>17</v>
       </c>
       <c r="O84" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P84" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q84" t="n">
         <v>1.53</v>
@@ -16465,10 +16465,10 @@
         <v>2.18</v>
       </c>
       <c r="U89" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V89" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W89" t="n">
         <v>9.25</v>
@@ -17129,22 +17129,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J93" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -17183,13 +17183,13 @@
         <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z93" t="n">
         <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB93" t="n">
         <v>34</v>
@@ -17216,19 +17216,19 @@
         <v>13</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK93" t="n">
         <v>26</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO93" t="n">
         <v>15</v>
@@ -17255,7 +17255,7 @@
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17489,19 +17489,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I95" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J95" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K95" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L95" t="n">
         <v>2.6</v>
@@ -17509,16 +17509,16 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S95" t="n">
         <v>1.38</v>
@@ -17527,34 +17527,34 @@
         <v>2.57</v>
       </c>
       <c r="U95" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V95" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W95" t="n">
         <v>10.75</v>
       </c>
       <c r="X95" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z95" t="n">
         <v>40</v>
       </c>
       <c r="AA95" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB95" t="n">
         <v>32</v>
       </c>
       <c r="AC95" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AD95" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE95" t="n">
         <v>13.5</v>
@@ -17566,16 +17566,16 @@
         <v>400</v>
       </c>
       <c r="AH95" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI95" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ95" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL95" t="n">
         <v>15.5</v>
@@ -17587,22 +17587,22 @@
         <v>5.1</v>
       </c>
       <c r="AO95" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ95" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR95" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS95" t="n">
         <v>300</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU95" t="n">
         <v>7</v>
@@ -17611,7 +17611,7 @@
         <v>60</v>
       </c>
       <c r="AW95" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AX95" t="n">
         <v>10.25</v>
@@ -18027,28 +18027,28 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="I98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J98" t="n">
         <v>3.35</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K98" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L98" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M98" t="n">
         <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
@@ -18057,19 +18057,19 @@
         <v>2.12</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R98" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S98" t="n">
         <v>1.65</v>
       </c>
       <c r="T98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U98" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V98" t="n">
         <v>1.55</v>
@@ -18078,94 +18078,94 @@
         <v>5.4</v>
       </c>
       <c r="X98" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y98" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z98" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA98" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB98" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF98" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG98" t="n">
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI98" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO98" t="n">
         <v>15</v>
       </c>
-      <c r="AJ98" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO98" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AP98" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ98" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AR98" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS98" t="n">
         <v>500</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AU98" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV98" t="n">
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX98" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AY98" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AZ98" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BA98" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB98" t="n">
         <v>51</v>
@@ -18592,7 +18592,7 @@
         <v>51</v>
       </c>
       <c r="N101" t="n">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -19459,16 +19459,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H106" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I106" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K106" t="n">
         <v>2.2</v>
@@ -19480,7 +19480,7 @@
         <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -19501,10 +19501,10 @@
         <v>2.5</v>
       </c>
       <c r="U106" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V106" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W106" t="n">
         <v>15</v>
@@ -19525,13 +19525,13 @@
         <v>81</v>
       </c>
       <c r="AC106" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD106" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF106" t="n">
         <v>126</v>
@@ -19543,7 +19543,7 @@
         <v>5</v>
       </c>
       <c r="AI106" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AJ106" t="n">
         <v>10</v>
@@ -19558,7 +19558,7 @@
         <v>41</v>
       </c>
       <c r="AN106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO106" t="n">
         <v>51</v>
@@ -19577,16 +19577,16 @@
         <v>2.5</v>
       </c>
       <c r="AU106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV106" t="n">
         <v>101</v>
       </c>
       <c r="AW106" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AX106" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY106" t="n">
         <v>23</v>
@@ -19673,10 +19673,10 @@
         <v>6.1</v>
       </c>
       <c r="U107" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V107" t="n">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="W107" t="n">
         <v>16.5</v>
@@ -19811,145 +19811,145 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="H108" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I108" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J108" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="K108" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L108" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N108" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W108" t="n">
         <v>5.8</v>
       </c>
-      <c r="M108" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N108" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P108" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R108" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S108" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T108" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U108" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V108" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W108" t="n">
-        <v>5.9</v>
-      </c>
       <c r="X108" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y108" t="n">
         <v>8.25</v>
       </c>
       <c r="Z108" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB108" t="n">
         <v>32</v>
       </c>
       <c r="AC108" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AE108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF108" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG108" t="n">
         <v>900</v>
       </c>
       <c r="AH108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI108" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ108" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK108" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AL108" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM108" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN108" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AO108" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AP108" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ108" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR108" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS108" t="n">
         <v>300</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU108" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV108" t="n">
         <v>90</v>
       </c>
       <c r="AW108" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AX108" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AY108" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ108" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA108" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB108" t="n">
         <v>500</v>
@@ -19989,139 +19989,135 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q109" t="n">
         <v>2.07</v>
       </c>
-      <c r="H109" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K109" t="n">
-        <v>2</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N109" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P109" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R109" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="S109" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="T109" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="U109" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="W109" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="X109" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Y109" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z109" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA109" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AC109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD109" t="n">
         <v>6.1</v>
       </c>
       <c r="AE109" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF109" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG109" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH109" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI109" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ109" t="n">
         <v>12</v>
       </c>
       <c r="AK109" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL109" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM109" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AO109" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ109" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR109" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV109" t="n">
         <v>75</v>
       </c>
-      <c r="AS109" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT109" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU109" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>65</v>
-      </c>
       <c r="AW109" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX109" t="n">
         <v>20</v>
       </c>
       <c r="AY109" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ109" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1302,10 +1302,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>9</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1374,10 +1374,10 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
@@ -1386,22 +1386,22 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
         <v>29</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1672,13 +1672,13 @@
         <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1705,7 +1705,7 @@
         <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1750,7 +1750,7 @@
         <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2565,19 +2565,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>5.5</v>
@@ -2586,7 +2586,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2634,13 +2634,13 @@
         <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
@@ -2662,7 +2662,7 @@
         <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
         <v>9.5</v>
@@ -2674,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
@@ -2686,7 +2686,7 @@
         <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>6.5</v>
@@ -2698,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
         <v>151</v>
@@ -2745,58 +2745,58 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
         <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.33</v>
       </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2811,16 +2811,16 @@
         <v>51</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
@@ -2839,34 +2839,34 @@
         <v>201</v>
       </c>
       <c r="AM13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AW13" t="n">
         <v>17</v>
@@ -2875,7 +2875,7 @@
         <v>101</v>
       </c>
       <c r="AY13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AZ13" t="n">
         <v>351</v>
@@ -2925,73 +2925,73 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
         <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>5</v>
       </c>
-      <c r="X14" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>6</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>12</v>
@@ -3000,11 +3000,11 @@
         <v>41</v>
       </c>
       <c r="AF14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>67</v>
@@ -3013,49 +3013,49 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AM14" t="n">
         <v>151</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AY14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ14" t="n">
         <v>351</v>
@@ -3100,79 +3100,79 @@
         <v>1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
         <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.5</v>
       </c>
-      <c r="L15" t="n">
-        <v>13</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
@@ -3188,46 +3188,46 @@
         <v>251</v>
       </c>
       <c r="AL15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>13</v>
       </c>
       <c r="AX15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
         <v>351</v>
@@ -3301,16 +3301,16 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
         <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
@@ -4932,7 +4932,7 @@
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
         <v>1.78</v>
@@ -4944,40 +4944,40 @@
         <v>1.37</v>
       </c>
       <c r="T25" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
         <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>7.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF25" t="n">
         <v>50</v>
@@ -4986,13 +4986,13 @@
         <v>350</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK25" t="n">
         <v>26</v>
@@ -5001,13 +5001,13 @@
         <v>19</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
@@ -5022,10 +5022,10 @@
         <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV25" t="n">
         <v>55</v>
@@ -5046,7 +5046,7 @@
         <v>80</v>
       </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5087,112 +5087,112 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L26" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="S26" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB26" t="n">
         <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG26" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH26" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI26" t="n">
         <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>70</v>
@@ -5204,28 +5204,28 @@
         <v>200</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV26" t="n">
         <v>45</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AY26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB26" t="n">
         <v>150</v>
@@ -5650,12 +5650,8 @@
       <c r="L29" t="n">
         <v>10.5</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
@@ -5669,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="U29" t="n">
         <v>2.52</v>
@@ -5813,40 +5809,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>2.27</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5855,104 +5851,106 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY30" t="n">
         <v>35</v>
       </c>
-      <c r="AC30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>45</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BA30" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BB30" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC30" t="n">
         <v>51</v>
@@ -6035,10 +6033,10 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W31" t="n">
         <v>12.5</v>
@@ -6531,13 +6529,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
         <v>2.38</v>
@@ -6546,7 +6544,7 @@
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6627,13 +6625,13 @@
         <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN34" t="n">
         <v>3.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6669,7 +6667,7 @@
         <v>81</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
@@ -6730,7 +6728,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6751,10 +6749,10 @@
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W35" t="n">
         <v>7.5</v>
@@ -6772,7 +6770,7 @@
         <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -6829,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6838,7 +6836,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY35" t="n">
         <v>34</v>
@@ -6850,7 +6848,7 @@
         <v>101</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -7090,7 +7088,7 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -7099,10 +7097,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7807,10 +7805,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -8172,7 +8170,7 @@
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -8515,13 +8513,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>1.95</v>
@@ -8569,7 +8567,7 @@
         <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
@@ -8578,19 +8576,19 @@
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
         <v>501</v>
@@ -8659,7 +8657,7 @@
         <v>451</v>
       </c>
       <c r="BC45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -9061,16 +9059,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -9082,7 +9080,7 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9112,13 +9110,13 @@
         <v>7</v>
       </c>
       <c r="X48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="n">
         <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA48" t="n">
         <v>21</v>
@@ -9145,31 +9143,31 @@
         <v>8</v>
       </c>
       <c r="AI48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
         <v>11</v>
       </c>
       <c r="AK48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="n">
         <v>26</v>
       </c>
       <c r="AM48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="n">
         <v>4.33</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP48" t="n">
         <v>26</v>
       </c>
       <c r="AQ48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>67</v>
@@ -9190,7 +9188,7 @@
         <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY48" t="n">
         <v>29</v>
@@ -9443,22 +9441,22 @@
         <v>2.88</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9607,10 +9605,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -9619,64 +9617,64 @@
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
         <v>2.63</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X51" t="n">
         <v>19</v>
       </c>
       <c r="Y51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z51" t="n">
         <v>41</v>
       </c>
       <c r="AA51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB51" t="n">
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE51" t="n">
         <v>13</v>
@@ -9685,49 +9683,49 @@
         <v>41</v>
       </c>
       <c r="AG51" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI51" t="n">
         <v>10</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
       </c>
       <c r="AM51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN51" t="n">
         <v>5.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP51" t="n">
         <v>26</v>
       </c>
       <c r="AQ51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR51" t="n">
         <v>81</v>
       </c>
       <c r="AS51" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
@@ -9739,19 +9737,19 @@
         <v>11</v>
       </c>
       <c r="AY51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA51" t="n">
         <v>51</v>
       </c>
       <c r="BB51" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC51" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD51" t="n">
         <v>126</v>
@@ -9789,7 +9787,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
@@ -9798,7 +9796,7 @@
         <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.1</v>
@@ -9807,22 +9805,22 @@
         <v>2.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9831,10 +9829,10 @@
         <v>2.63</v>
       </c>
       <c r="U52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W52" t="n">
         <v>11</v>
@@ -9849,13 +9847,13 @@
         <v>51</v>
       </c>
       <c r="AA52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB52" t="n">
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD52" t="n">
         <v>7</v>
@@ -9867,7 +9865,7 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH52" t="n">
         <v>6.5</v>
@@ -9891,7 +9889,7 @@
         <v>6</v>
       </c>
       <c r="AO52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="n">
         <v>34</v>
@@ -9900,7 +9898,7 @@
         <v>81</v>
       </c>
       <c r="AR52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS52" t="n">
         <v>251</v>
@@ -9918,7 +9916,7 @@
         <v>3.75</v>
       </c>
       <c r="AX52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY52" t="n">
         <v>21</v>
@@ -9989,13 +9987,13 @@
         <v>2.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -10171,13 +10169,13 @@
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P54" t="n">
         <v>2.75</v>
@@ -10335,16 +10333,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K55" t="n">
         <v>2.2</v>
@@ -10353,13 +10351,13 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
         <v>3.5</v>
@@ -10377,10 +10375,10 @@
         <v>2.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10407,16 +10405,16 @@
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
         <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI55" t="n">
         <v>23</v>
@@ -10434,7 +10432,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO55" t="n">
         <v>9</v>
@@ -10455,7 +10453,7 @@
         <v>2.75</v>
       </c>
       <c r="AU55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV55" t="n">
         <v>51</v>
@@ -10517,13 +10515,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10535,13 +10533,13 @@
         <v>4.33</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -10565,19 +10563,19 @@
         <v>1.8</v>
       </c>
       <c r="W56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="n">
         <v>29</v>
@@ -10598,10 +10596,10 @@
         <v>351</v>
       </c>
       <c r="AH56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -10640,7 +10638,7 @@
         <v>8.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
         <v>5.5</v>
@@ -10649,7 +10647,7 @@
         <v>21</v>
       </c>
       <c r="AY56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ56" t="n">
         <v>67</v>
@@ -11245,28 +11243,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H60" t="n">
         <v>2.27</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="K60" t="n">
         <v>1.65</v>
       </c>
       <c r="L60" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N60" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O60" t="n">
         <v>1.75</v>
@@ -11275,7 +11273,7 @@
         <v>1.87</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="R60" t="n">
         <v>1.22</v>
@@ -11284,19 +11282,19 @@
         <v>1.7</v>
       </c>
       <c r="T60" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U60" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="V60" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W60" t="n">
         <v>5.2</v>
       </c>
       <c r="X60" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y60" t="n">
         <v>10.25</v>
@@ -11326,16 +11324,16 @@
         <v>101</v>
       </c>
       <c r="AH60" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AI60" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ60" t="n">
         <v>9.25</v>
       </c>
       <c r="AK60" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL60" t="n">
         <v>27</v>
@@ -11344,25 +11342,25 @@
         <v>45</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP60" t="n">
         <v>35</v>
       </c>
       <c r="AQ60" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR60" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS60" t="n">
         <v>450</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AU60" t="n">
         <v>7.9</v>
@@ -11371,10 +11369,10 @@
         <v>110</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AX60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY60" t="n">
         <v>32</v>
@@ -11453,10 +11451,10 @@
         <v>2.27</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="R61" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S61" t="n">
         <v>1.53</v>
@@ -11465,10 +11463,10 @@
         <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="V61" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W61" t="n">
         <v>5.4</v>
@@ -11959,22 +11957,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H64" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="I64" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J64" t="n">
         <v>1.78</v>
       </c>
       <c r="K64" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L64" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
@@ -11989,10 +11987,10 @@
         <v>4.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R64" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="S64" t="n">
         <v>1.25</v>
@@ -12001,40 +11999,40 @@
         <v>3.7</v>
       </c>
       <c r="U64" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V64" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W64" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X64" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y64" t="n">
         <v>8.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA64" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD64" t="n">
         <v>9.75</v>
       </c>
       <c r="AE64" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG64" t="n">
         <v>500</v>
@@ -12046,46 +12044,46 @@
         <v>45</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK64" t="n">
         <v>150</v>
       </c>
       <c r="AL64" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM64" t="n">
         <v>60</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO64" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP64" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AR64" t="n">
         <v>37</v>
       </c>
       <c r="AS64" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU64" t="n">
         <v>7.9</v>
       </c>
       <c r="AV64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW64" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX64" t="n">
         <v>35</v>
@@ -12094,10 +12092,10 @@
         <v>35</v>
       </c>
       <c r="AZ64" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA64" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB64" t="n">
         <v>400</v>
@@ -12161,10 +12159,10 @@
         <v>20</v>
       </c>
       <c r="O65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P65" t="n">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="Q65" t="n">
         <v>1.33</v>
@@ -12317,115 +12315,115 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H66" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I66" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K66" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L66" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="M66" t="n">
         <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="O66" t="n">
         <v>1.11</v>
       </c>
       <c r="P66" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S66" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T66" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U66" t="n">
         <v>1.5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W66" t="n">
         <v>9.75</v>
       </c>
       <c r="X66" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y66" t="n">
         <v>8</v>
       </c>
       <c r="Z66" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB66" t="n">
         <v>18.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD66" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF66" t="n">
         <v>40</v>
       </c>
       <c r="AG66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH66" t="n">
         <v>17</v>
       </c>
       <c r="AI66" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ66" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL66" t="n">
         <v>35</v>
       </c>
       <c r="AM66" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO66" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AP66" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR66" t="n">
         <v>40</v>
@@ -12434,28 +12432,28 @@
         <v>120</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV66" t="n">
         <v>40</v>
       </c>
       <c r="AW66" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AX66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ66" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA66" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB66" t="n">
         <v>200</v>
@@ -13029,76 +13027,76 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="J70" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L70" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R70" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S70" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T70" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="U70" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V70" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W70" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="X70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y70" t="n">
         <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA70" t="n">
         <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC70" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE70" t="n">
         <v>11.5</v>
@@ -13110,43 +13108,43 @@
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM70" t="n">
         <v>23</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO70" t="n">
         <v>11</v>
       </c>
       <c r="AP70" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ70" t="n">
         <v>40</v>
       </c>
       <c r="AR70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS70" t="n">
         <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU70" t="n">
         <v>6.3</v>
@@ -13155,19 +13153,19 @@
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX70" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA70" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB70" t="n">
         <v>175</v>
@@ -13209,22 +13207,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="H71" t="n">
         <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="J71" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
         <v>2.3</v>
       </c>
       <c r="L71" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -13236,7 +13234,7 @@
         <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
@@ -13245,10 +13243,10 @@
         <v>2.12</v>
       </c>
       <c r="S71" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T71" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="U71" t="n">
         <v>1.52</v>
@@ -13257,25 +13255,25 @@
         <v>2.22</v>
       </c>
       <c r="W71" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X71" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z71" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA71" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD71" t="n">
         <v>7.5</v>
@@ -13290,40 +13288,40 @@
         <v>250</v>
       </c>
       <c r="AH71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI71" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="AO71" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS71" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT71" t="n">
         <v>3.2</v>
@@ -13335,22 +13333,22 @@
         <v>50</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX71" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AY71" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB71" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC71" t="inlineStr"/>
       <c r="BD71" t="inlineStr"/>
@@ -13743,28 +13741,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H74" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J74" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K74" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L74" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
@@ -13800,7 +13798,7 @@
         <v>8.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA74" t="n">
         <v>13</v>
@@ -13815,7 +13813,7 @@
         <v>7.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
@@ -13827,7 +13825,7 @@
         <v>15</v>
       </c>
       <c r="AI74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ74" t="n">
         <v>15</v>
@@ -13842,16 +13840,16 @@
         <v>34</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP74" t="n">
         <v>17</v>
       </c>
       <c r="AQ74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR74" t="n">
         <v>41</v>
@@ -13863,7 +13861,7 @@
         <v>3.25</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV74" t="n">
         <v>51</v>
@@ -13875,10 +13873,10 @@
         <v>23</v>
       </c>
       <c r="AY74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ74" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA74" t="n">
         <v>81</v>
@@ -14297,10 +14295,10 @@
         <v>4.45</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>5.65</v>
+        <v>5.6</v>
       </c>
       <c r="O77" t="n">
         <v>1.6</v>
@@ -14321,10 +14319,10 @@
         <v>1.95</v>
       </c>
       <c r="U77" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="V77" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W77" t="n">
         <v>4.45</v>
@@ -14461,7 +14459,7 @@
         <v>3.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J78" t="n">
         <v>2.42</v>
@@ -14470,7 +14468,7 @@
         <v>1.98</v>
       </c>
       <c r="L78" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
@@ -14530,14 +14528,14 @@
         <v>15.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI78" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ78" t="n">
         <v>12.5</v>
@@ -14546,10 +14544,10 @@
         <v>55</v>
       </c>
       <c r="AL78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN78" t="n">
         <v>3.45</v>
@@ -14573,7 +14571,7 @@
         <v>2.25</v>
       </c>
       <c r="AU78" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV78" t="n">
         <v>90</v>
@@ -14582,10 +14580,10 @@
         <v>5.9</v>
       </c>
       <c r="AX78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY78" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ78" t="n">
         <v>175</v>
@@ -14632,19 +14630,19 @@
         <v>2.15</v>
       </c>
       <c r="H79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I79" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J79" t="n">
         <v>2.72</v>
       </c>
       <c r="K79" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L79" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14671,34 +14669,34 @@
         <v>2.47</v>
       </c>
       <c r="U79" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V79" t="n">
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y79" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB79" t="n">
         <v>32</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD79" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE79" t="n">
         <v>15.5</v>
@@ -14707,22 +14705,22 @@
         <v>80</v>
       </c>
       <c r="AG79" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH79" t="n">
         <v>8.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ79" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK79" t="n">
         <v>45</v>
       </c>
       <c r="AL79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM79" t="n">
         <v>45</v>
@@ -14734,37 +14732,37 @@
         <v>11</v>
       </c>
       <c r="AP79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ79" t="n">
         <v>45</v>
       </c>
       <c r="AR79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS79" t="n">
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU79" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV79" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW79" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX79" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY79" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ79" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA79" t="n">
         <v>150</v>
@@ -14985,34 +14983,34 @@
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L81" t="n">
         <v>3</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.75</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P81" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q81" t="n">
         <v>1.98</v>
@@ -15021,88 +15019,88 @@
         <v>1.65</v>
       </c>
       <c r="S81" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T81" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U81" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V81" t="n">
         <v>1.82</v>
       </c>
       <c r="W81" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB81" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC81" t="n">
         <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG81" t="n">
         <v>700</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL81" t="n">
         <v>21</v>
       </c>
-      <c r="AL81" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AM81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="AO81" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ81" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR81" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU81" t="n">
         <v>7.2</v>
@@ -15111,22 +15109,22 @@
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="AX81" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ81" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BA81" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB81" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -15341,22 +15339,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.02</v>
@@ -15437,7 +15435,7 @@
         <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN83" t="n">
         <v>3.75</v>
@@ -15523,22 +15521,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I84" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J84" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
         <v>2.5</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M84" t="n">
         <v>1.03</v>
@@ -15547,10 +15545,10 @@
         <v>17</v>
       </c>
       <c r="O84" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P84" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q84" t="n">
         <v>1.53</v>
@@ -15571,16 +15569,16 @@
         <v>2.1</v>
       </c>
       <c r="W84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X84" t="n">
         <v>34</v>
       </c>
       <c r="Y84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA84" t="n">
         <v>41</v>
@@ -15622,7 +15620,7 @@
         <v>21</v>
       </c>
       <c r="AN84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO84" t="n">
         <v>29</v>
@@ -15646,10 +15644,10 @@
         <v>8</v>
       </c>
       <c r="AV84" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW84" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX84" t="n">
         <v>7</v>
@@ -15658,7 +15656,7 @@
         <v>15</v>
       </c>
       <c r="AZ84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA84" t="n">
         <v>41</v>
@@ -15914,7 +15912,7 @@
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="Q86" t="n">
         <v>1.7</v>
@@ -16263,16 +16261,16 @@
         <v>3.35</v>
       </c>
       <c r="M88" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
       </c>
       <c r="O88" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P88" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="Q88" t="n">
         <v>2.18</v>
@@ -16287,10 +16285,10 @@
         <v>2.3</v>
       </c>
       <c r="U88" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="V88" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="W88" t="n">
         <v>5.9</v>
@@ -16778,25 +16776,25 @@
         <v>1.19</v>
       </c>
       <c r="H91" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J91" t="n">
         <v>1.55</v>
       </c>
       <c r="K91" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L91" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N91" t="n">
         <v>11</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N91" t="n">
-        <v>12.8</v>
       </c>
       <c r="O91" t="n">
         <v>1.2</v>
@@ -16811,28 +16809,28 @@
         <v>2.05</v>
       </c>
       <c r="S91" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T91" t="n">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="U91" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V91" t="n">
         <v>1.47</v>
       </c>
       <c r="W91" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X91" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y91" t="n">
         <v>9.75</v>
       </c>
       <c r="Z91" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA91" t="n">
         <v>11.5</v>
@@ -16850,19 +16848,19 @@
         <v>32</v>
       </c>
       <c r="AF91" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG91" t="n">
         <v>101</v>
       </c>
       <c r="AH91" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI91" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK91" t="n">
         <v>800</v>
@@ -16892,22 +16890,22 @@
         <v>250</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU91" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AV91" t="n">
         <v>100</v>
       </c>
       <c r="AW91" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AX91" t="n">
         <v>100</v>
       </c>
       <c r="AY91" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ91" t="n">
         <v>500</v>
@@ -16972,7 +16970,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17147,13 +17145,13 @@
         <v>3.4</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
         <v>3.4</v>
@@ -17506,8 +17504,12 @@
       <c r="L95" t="n">
         <v>2.6</v>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N95" t="n">
+        <v>8.65</v>
+      </c>
       <c r="O95" t="n">
         <v>1.25</v>
       </c>
@@ -17533,7 +17535,7 @@
         <v>2</v>
       </c>
       <c r="W95" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X95" t="n">
         <v>17.5</v>
@@ -18027,37 +18029,37 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H98" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I98" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J98" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K98" t="n">
         <v>1.8</v>
       </c>
       <c r="L98" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
         <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
       </c>
       <c r="P98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R98" t="n">
         <v>1.36</v>
@@ -18069,22 +18071,22 @@
         <v>2.1</v>
       </c>
       <c r="U98" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V98" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W98" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X98" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y98" t="n">
         <v>11</v>
       </c>
       <c r="Z98" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA98" t="n">
         <v>30</v>
@@ -18093,7 +18095,7 @@
         <v>60</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AD98" t="n">
         <v>5.7</v>
@@ -18102,16 +18104,16 @@
         <v>21</v>
       </c>
       <c r="AF98" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG98" t="n">
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI98" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ98" t="n">
         <v>12.5</v>
@@ -18120,13 +18122,13 @@
         <v>45</v>
       </c>
       <c r="AL98" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM98" t="n">
         <v>65</v>
       </c>
       <c r="AN98" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO98" t="n">
         <v>15</v>
@@ -18135,7 +18137,7 @@
         <v>32</v>
       </c>
       <c r="AQ98" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR98" t="n">
         <v>175</v>
@@ -18153,16 +18155,16 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX98" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY98" t="n">
         <v>35</v>
       </c>
       <c r="AZ98" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA98" t="n">
         <v>200</v>
@@ -18209,16 +18211,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
         <v>4.5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K99" t="n">
         <v>2.4</v>
@@ -18260,7 +18262,7 @@
         <v>9</v>
       </c>
       <c r="X99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y99" t="n">
         <v>8.5</v>
@@ -18269,7 +18271,7 @@
         <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB99" t="n">
         <v>21</v>
@@ -18290,7 +18292,7 @@
         <v>151</v>
       </c>
       <c r="AH99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI99" t="n">
         <v>26</v>
@@ -18317,7 +18319,7 @@
         <v>17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR99" t="n">
         <v>41</v>
@@ -18580,7 +18582,7 @@
         <v>1.03</v>
       </c>
       <c r="J101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K101" t="n">
         <v>4.75</v>
@@ -18589,10 +18591,10 @@
         <v>1.2</v>
       </c>
       <c r="M101" t="n">
-        <v>51</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18607,35 +18609,35 @@
         <v>5</v>
       </c>
       <c r="S101" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="T101" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W101" t="n">
         <v>51</v>
       </c>
       <c r="X101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="Y101" t="n">
         <v>67</v>
       </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AB101" t="n">
         <v>151</v>
       </c>
       <c r="AC101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD101" t="n">
         <v>41</v>
@@ -18644,14 +18646,14 @@
         <v>67</v>
       </c>
       <c r="AF101" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
         <v>17</v>
       </c>
       <c r="AI101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ101" t="n">
         <v>21</v>
@@ -18660,7 +18662,7 @@
         <v>6.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
@@ -18678,7 +18680,7 @@
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
       <c r="AT101" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AU101" t="n">
         <v>19</v>
@@ -18913,19 +18915,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H103" t="n">
         <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
         <v>3.75</v>
@@ -18934,7 +18936,7 @@
         <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O103" t="n">
         <v>1.36</v>
@@ -18961,16 +18963,16 @@
         <v>1.83</v>
       </c>
       <c r="W103" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X103" t="n">
         <v>11</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA103" t="n">
         <v>21</v>
@@ -18994,13 +18996,13 @@
         <v>301</v>
       </c>
       <c r="AH103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI103" t="n">
         <v>15</v>
       </c>
       <c r="AJ103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK103" t="n">
         <v>34</v>
@@ -19015,16 +19017,16 @@
         <v>4.33</v>
       </c>
       <c r="AO103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP103" t="n">
         <v>26</v>
       </c>
       <c r="AQ103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR103" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS103" t="n">
         <v>201</v>
@@ -19039,16 +19041,16 @@
         <v>67</v>
       </c>
       <c r="AW103" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY103" t="n">
         <v>29</v>
       </c>
       <c r="AZ103" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA103" t="n">
         <v>81</v>
@@ -19125,10 +19127,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S104" t="n">
         <v>1.44</v>
@@ -19477,10 +19479,10 @@
         <v>1.95</v>
       </c>
       <c r="M106" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -19489,10 +19491,10 @@
         <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S106" t="n">
         <v>1.5</v>
@@ -19635,22 +19637,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H107" t="n">
-        <v>4.05</v>
+        <v>5.2</v>
       </c>
       <c r="I107" t="n">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="J107" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="K107" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="L107" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -19679,103 +19681,103 @@
         <v>3.6</v>
       </c>
       <c r="W107" t="n">
-        <v>16.5</v>
+        <v>37</v>
       </c>
       <c r="X107" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Y107" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Z107" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AA107" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AB107" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AC107" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AD107" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AF107" t="n">
         <v>22</v>
       </c>
       <c r="AG107" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR107" t="n">
         <v>90</v>
       </c>
-      <c r="AH107" t="n">
+      <c r="AS107" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ107" t="n">
         <v>13</v>
       </c>
-      <c r="AI107" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ107" t="n">
+      <c r="BA107" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB107" t="n">
         <v>55</v>
       </c>
-      <c r="AR107" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>30</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ107" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB107" t="n">
-        <v>80</v>
-      </c>
       <c r="BC107" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD107" t="inlineStr"/>
     </row>
@@ -19811,28 +19813,28 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I108" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J108" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K108" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L108" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>8.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="O108" t="n">
         <v>1.3</v>
@@ -19841,7 +19843,7 @@
         <v>2.92</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R108" t="n">
         <v>1.72</v>
@@ -19850,16 +19852,16 @@
         <v>1.39</v>
       </c>
       <c r="T108" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U108" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W108" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X108" t="n">
         <v>6.2</v>
@@ -19868,7 +19870,7 @@
         <v>8.25</v>
       </c>
       <c r="Z108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA108" t="n">
         <v>13</v>
@@ -19880,49 +19882,49 @@
         <v>9.25</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF108" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG108" t="n">
         <v>900</v>
       </c>
       <c r="AH108" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI108" t="n">
         <v>40</v>
       </c>
       <c r="AJ108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ108" t="n">
         <v>22</v>
       </c>
-      <c r="AK108" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>21</v>
-      </c>
       <c r="AR108" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS108" t="n">
         <v>300</v>
@@ -19931,25 +19933,25 @@
         <v>2.52</v>
       </c>
       <c r="AU108" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV108" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW108" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AX108" t="n">
         <v>40</v>
       </c>
       <c r="AY108" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ108" t="n">
         <v>300</v>
       </c>
       <c r="BA108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB108" t="n">
         <v>500</v>
@@ -19989,36 +19991,40 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="H109" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L109" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N109" t="n">
+        <v>8</v>
+      </c>
       <c r="O109" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P109" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R109" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S109" t="n">
         <v>1.47</v>
@@ -20027,100 +20033,100 @@
         <v>2.32</v>
       </c>
       <c r="U109" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V109" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W109" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X109" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Y109" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z109" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA109" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AB109" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC109" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD109" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AE109" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF109" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG109" t="n">
         <v>700</v>
       </c>
       <c r="AH109" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI109" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AJ109" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK109" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ109" t="n">
         <v>55</v>
       </c>
-      <c r="AL109" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>45</v>
-      </c>
       <c r="AR109" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS109" t="n">
         <v>350</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU109" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV109" t="n">
         <v>75</v>
       </c>
       <c r="AW109" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AX109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY109" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ109" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA109" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1058,7 +1058,7 @@
         <v>3.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
         <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>1.2</v>
@@ -1180,7 +1180,7 @@
         <v>23</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1189,25 +1189,25 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>3.25</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1523,7 +1523,7 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>9.5</v>
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS6" t="n">
         <v>81</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2081,10 +2081,10 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2132,7 +2132,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
@@ -2403,16 +2403,16 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>3.4</v>
@@ -2436,16 +2436,16 @@
         <v>4.75</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>51</v>
@@ -2467,7 +2467,7 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -2482,7 +2482,7 @@
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2491,7 +2491,7 @@
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>101</v>
@@ -2565,28 +2565,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2595,10 +2595,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2616,16 +2616,16 @@
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
@@ -2634,47 +2634,47 @@
         <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
         <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
@@ -2689,19 +2689,19 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
@@ -3121,16 +3121,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3487,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -5451,22 +5451,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="L28" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5478,25 +5478,25 @@
         <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T28" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V28" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W28" t="n">
         <v>30</v>
@@ -5520,7 +5520,7 @@
         <v>10.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5529,34 +5529,34 @@
         <v>40</v>
       </c>
       <c r="AG28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL28" t="n">
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>150</v>
@@ -5565,31 +5565,31 @@
         <v>120</v>
       </c>
       <c r="AS28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="AU28" t="n">
         <v>7.1</v>
       </c>
       <c r="AV28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AX28" t="n">
         <v>6.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>90</v>
@@ -5809,28 +5809,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K30" t="n">
         <v>2.27</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.27</v>
@@ -5842,7 +5842,7 @@
         <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5851,7 +5851,7 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V30" t="n">
         <v>1.72</v>
@@ -5860,19 +5860,19 @@
         <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -5881,7 +5881,7 @@
         <v>7.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
@@ -5896,22 +5896,22 @@
         <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
         <v>60</v>
       </c>
-      <c r="AM30" t="n">
-        <v>65</v>
-      </c>
       <c r="AN30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AP30" t="n">
         <v>16.5</v>
@@ -5929,25 +5929,25 @@
         <v>2.72</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV30" t="n">
         <v>70</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AX30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY30" t="n">
         <v>32</v>
       </c>
-      <c r="AY30" t="n">
-        <v>35</v>
-      </c>
       <c r="AZ30" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA30" t="n">
         <v>200</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>250</v>
       </c>
       <c r="BB30" t="n">
         <v>450</v>
@@ -6351,13 +6351,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -6366,40 +6366,40 @@
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -6417,7 +6417,7 @@
         <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD33" t="n">
         <v>6.5</v>
@@ -6426,10 +6426,10 @@
         <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH33" t="n">
         <v>9.5</v>
@@ -6441,10 +6441,10 @@
         <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
         <v>34</v>
@@ -6468,7 +6468,7 @@
         <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU33" t="n">
         <v>8</v>
@@ -6489,10 +6489,10 @@
         <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -6915,10 +6915,10 @@
         <v>3.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -8114,7 +8114,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -8513,13 +8513,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.95</v>
@@ -8531,10 +8531,10 @@
         <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8567,7 +8567,7 @@
         <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
@@ -8576,19 +8576,19 @@
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
         <v>9.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="n">
         <v>501</v>
@@ -9617,28 +9617,28 @@
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
         <v>2.63</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="n">
         <v>1.36</v>
@@ -9647,10 +9647,10 @@
         <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W51" t="n">
         <v>12</v>
@@ -9695,7 +9695,7 @@
         <v>8.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -9737,7 +9737,7 @@
         <v>11</v>
       </c>
       <c r="AY51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ51" t="n">
         <v>34</v>
@@ -9805,13 +9805,13 @@
         <v>2.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P52" t="n">
         <v>3.4</v>
@@ -9987,13 +9987,13 @@
         <v>2.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I54" t="n">
         <v>2.25</v>
@@ -10169,13 +10169,13 @@
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
         <v>2.75</v>
@@ -10187,16 +10187,16 @@
         <v>1.62</v>
       </c>
       <c r="S54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
         <v>8.5</v>
@@ -10217,7 +10217,7 @@
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
         <v>6</v>
@@ -10229,10 +10229,10 @@
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI54" t="n">
         <v>10</v>
@@ -10253,10 +10253,10 @@
         <v>5</v>
       </c>
       <c r="AO54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ54" t="n">
         <v>67</v>
@@ -10265,10 +10265,10 @@
         <v>101</v>
       </c>
       <c r="AS54" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU54" t="n">
         <v>8.5</v>
@@ -10277,7 +10277,7 @@
         <v>67</v>
       </c>
       <c r="AW54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX54" t="n">
         <v>13</v>
@@ -10289,10 +10289,10 @@
         <v>41</v>
       </c>
       <c r="BA54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC54" t="n">
         <v>126</v>
@@ -10351,22 +10351,22 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
         <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R55" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -10384,7 +10384,7 @@
         <v>7</v>
       </c>
       <c r="X55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10414,7 +10414,7 @@
         <v>251</v>
       </c>
       <c r="AH55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI55" t="n">
         <v>23</v>
@@ -10426,7 +10426,7 @@
         <v>51</v>
       </c>
       <c r="AL55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM55" t="n">
         <v>41</v>
@@ -10462,7 +10462,7 @@
         <v>6.5</v>
       </c>
       <c r="AX55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY55" t="n">
         <v>34</v>
@@ -10474,7 +10474,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC55" t="n">
         <v>126</v>
@@ -10533,13 +10533,13 @@
         <v>4.33</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
         <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -10715,10 +10715,10 @@
         <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
@@ -11243,145 +11243,145 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="H60" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="I60" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J60" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S60" t="n">
         <v>1.65</v>
       </c>
-      <c r="L60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T60" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U60" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="V60" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W60" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AA60" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB60" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC60" t="n">
-        <v>4.15</v>
+        <v>4.55</v>
       </c>
       <c r="AD60" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="AE60" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG60" t="n">
         <v>101</v>
       </c>
       <c r="AH60" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AI60" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK60" t="n">
         <v>28</v>
       </c>
       <c r="AL60" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.85</v>
+        <v>4.45</v>
       </c>
       <c r="AO60" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AP60" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ60" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AR60" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AS60" t="n">
         <v>450</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AU60" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV60" t="n">
         <v>110</v>
       </c>
       <c r="AW60" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AX60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY60" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA60" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB60" t="n">
         <v>450</v>
@@ -11451,10 +11451,10 @@
         <v>2.27</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S61" t="n">
         <v>1.53</v>
@@ -11463,10 +11463,10 @@
         <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="V61" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W61" t="n">
         <v>5.4</v>
@@ -11957,148 +11957,148 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="H64" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="I64" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="J64" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="K64" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L64" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="P64" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q64" t="n">
         <v>1.52</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S64" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T64" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="U64" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="V64" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X64" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y64" t="n">
         <v>8.25</v>
       </c>
-      <c r="X64" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD64" t="n">
         <v>9</v>
       </c>
-      <c r="AA64" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AE64" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF64" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG64" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH64" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI64" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM64" t="n">
         <v>45</v>
       </c>
-      <c r="AJ64" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>60</v>
-      </c>
       <c r="AN64" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ64" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR64" t="n">
         <v>37</v>
       </c>
       <c r="AS64" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA64" t="n">
         <v>175</v>
       </c>
-      <c r="AT64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>35</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>250</v>
-      </c>
       <c r="BB64" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
@@ -12135,91 +12135,91 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I65" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="L65" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M65" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="P65" t="n">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R65" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="S65" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="T65" t="n">
-        <v>4.4</v>
+        <v>4.51</v>
       </c>
       <c r="U65" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V65" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X65" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y65" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z65" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB65" t="n">
         <v>24</v>
       </c>
       <c r="AC65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD65" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE65" t="n">
         <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG65" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
         <v>9</v>
@@ -12231,55 +12231,55 @@
         <v>11.75</v>
       </c>
       <c r="AM65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN65" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AO65" t="n">
         <v>17.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ65" t="n">
         <v>70</v>
       </c>
       <c r="AR65" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS65" t="n">
         <v>120</v>
       </c>
       <c r="AT65" t="n">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV65" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW65" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX65" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AY65" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AZ65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA65" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BB65" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BC65" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD65" t="inlineStr"/>
     </row>
@@ -12315,151 +12315,151 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I66" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J66" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="L66" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="M66" t="n">
         <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P66" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="R66" t="n">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="S66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T66" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="U66" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V66" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W66" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X66" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y66" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z66" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB66" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AD66" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AE66" t="n">
         <v>12</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG66" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH66" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AL66" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="n">
         <v>30</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO66" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR66" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AS66" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU66" t="n">
         <v>6.3</v>
       </c>
       <c r="AV66" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AW66" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AX66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY66" t="n">
         <v>21</v>
       </c>
       <c r="AZ66" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA66" t="n">
         <v>100</v>
       </c>
       <c r="BB66" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC66" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BD66" t="inlineStr"/>
     </row>
@@ -12495,143 +12495,147 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J67" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="K67" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L67" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O67" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P67" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="R67" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="S67" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="T67" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="U67" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V67" t="n">
         <v>1.7</v>
       </c>
       <c r="W67" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="X67" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Y67" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Z67" t="n">
         <v>7.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE67" t="n">
         <v>30</v>
       </c>
-      <c r="AC67" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>35</v>
-      </c>
       <c r="AF67" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM67" t="n">
         <v>120</v>
       </c>
-      <c r="AG67" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>150</v>
-      </c>
       <c r="AN67" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AP67" t="n">
         <v>13</v>
       </c>
       <c r="AQ67" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AR67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS67" t="n">
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AU67" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AV67" t="n">
         <v>75</v>
       </c>
       <c r="AW67" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AX67" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AY67" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AZ67" t="inlineStr"/>
-      <c r="BA67" t="inlineStr"/>
-      <c r="BB67" t="inlineStr"/>
+      <c r="BA67" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>500</v>
+      </c>
       <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
     </row>
@@ -12667,22 +12671,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J68" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K68" t="n">
         <v>2.5</v>
       </c>
       <c r="L68" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
@@ -12697,10 +12701,10 @@
         <v>4.65</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="S68" t="n">
         <v>1.22</v>
@@ -12724,10 +12728,10 @@
         <v>8.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA68" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB68" t="n">
         <v>18</v>
@@ -12748,22 +12752,22 @@
         <v>200</v>
       </c>
       <c r="AH68" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ68" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL68" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM68" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN68" t="n">
         <v>4.1</v>
@@ -12778,13 +12782,13 @@
         <v>24</v>
       </c>
       <c r="AR68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS68" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU68" t="n">
         <v>6.5</v>
@@ -12793,13 +12797,13 @@
         <v>40</v>
       </c>
       <c r="AW68" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX68" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY68" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ68" t="n">
         <v>75</v>
@@ -12847,22 +12851,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I69" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="J69" t="n">
         <v>1.65</v>
       </c>
       <c r="K69" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="L69" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
@@ -12874,13 +12878,13 @@
         <v>1.05</v>
       </c>
       <c r="P69" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R69" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="S69" t="n">
         <v>1.19</v>
@@ -12889,37 +12893,37 @@
         <v>4.4</v>
       </c>
       <c r="U69" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V69" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="W69" t="n">
         <v>11.25</v>
       </c>
       <c r="X69" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y69" t="n">
         <v>9</v>
       </c>
-      <c r="Y69" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z69" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" t="n">
         <v>9.75</v>
       </c>
       <c r="AB69" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AD69" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AE69" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF69" t="n">
         <v>55</v>
@@ -12931,61 +12935,61 @@
         <v>30</v>
       </c>
       <c r="AI69" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL69" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM69" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO69" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AP69" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS69" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT69" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV69" t="n">
         <v>45</v>
       </c>
       <c r="AW69" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AX69" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AY69" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ69" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA69" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BB69" t="n">
         <v>300</v>
@@ -13027,22 +13031,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J70" t="n">
         <v>2.87</v>
       </c>
-      <c r="J70" t="n">
-        <v>2.7</v>
-      </c>
       <c r="K70" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -13075,19 +13079,19 @@
         <v>2.32</v>
       </c>
       <c r="W70" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X70" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB70" t="n">
         <v>21</v>
@@ -13099,7 +13103,7 @@
         <v>7.2</v>
       </c>
       <c r="AE70" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF70" t="n">
         <v>37</v>
@@ -13108,40 +13112,40 @@
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK70" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL70" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR70" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS70" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT70" t="n">
         <v>3.2</v>
@@ -13153,22 +13157,22 @@
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX70" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ70" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA70" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB70" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC70" t="n">
         <v>500</v>
@@ -13243,10 +13247,10 @@
         <v>2.12</v>
       </c>
       <c r="S71" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U71" t="n">
         <v>1.52</v>
@@ -13747,7 +13751,7 @@
         <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J74" t="n">
         <v>2.3</v>
@@ -13771,10 +13775,10 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S74" t="n">
         <v>1.33</v>
@@ -13810,7 +13814,7 @@
         <v>13</v>
       </c>
       <c r="AD74" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE74" t="n">
         <v>13</v>
@@ -13873,7 +13877,7 @@
         <v>23</v>
       </c>
       <c r="AY74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ74" t="n">
         <v>67</v>
@@ -14280,16 +14284,16 @@
         <v>2.18</v>
       </c>
       <c r="H77" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I77" t="n">
         <v>3.6</v>
       </c>
       <c r="J77" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L77" t="n">
         <v>4.45</v>
@@ -14298,13 +14302,13 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P77" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q77" t="n">
         <v>2.32</v>
@@ -14319,13 +14323,13 @@
         <v>1.95</v>
       </c>
       <c r="U77" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W77" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="X77" t="n">
         <v>7.3</v>
@@ -14334,16 +14338,16 @@
         <v>8.25</v>
       </c>
       <c r="Z77" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB77" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC77" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD77" t="n">
         <v>4.9</v>
@@ -14356,28 +14360,28 @@
       </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI77" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK77" t="n">
         <v>45</v>
       </c>
       <c r="AL77" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO77" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP77" t="n">
         <v>29</v>
@@ -14395,7 +14399,7 @@
         <v>1.95</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV77" t="n">
         <v>120</v>
@@ -14459,16 +14463,16 @@
         <v>3.1</v>
       </c>
       <c r="I78" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J78" t="n">
         <v>2.42</v>
       </c>
       <c r="K78" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L78" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
@@ -14483,16 +14487,16 @@
         <v>2.51</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R78" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S78" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T78" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U78" t="n">
         <v>2.14</v>
@@ -14510,16 +14514,16 @@
         <v>7.4</v>
       </c>
       <c r="Z78" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA78" t="n">
         <v>14</v>
       </c>
       <c r="AB78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD78" t="n">
         <v>5.5</v>
@@ -14528,14 +14532,14 @@
         <v>15.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AI78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ78" t="n">
         <v>12.5</v>
@@ -14544,10 +14548,10 @@
         <v>55</v>
       </c>
       <c r="AL78" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN78" t="n">
         <v>3.45</v>
@@ -14568,22 +14572,22 @@
         <v>350</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU78" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW78" t="n">
         <v>5.9</v>
       </c>
       <c r="AX78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY78" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ78" t="n">
         <v>175</v>
@@ -14983,37 +14987,37 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H81" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I81" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="J81" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O81" t="n">
         <v>1.34</v>
       </c>
       <c r="P81" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
         <v>1.65</v>
@@ -15022,13 +15026,13 @@
         <v>1.39</v>
       </c>
       <c r="T81" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U81" t="n">
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15037,46 +15041,46 @@
         <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z81" t="n">
         <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB81" t="n">
         <v>35</v>
       </c>
       <c r="AC81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF81" t="n">
         <v>75</v>
       </c>
       <c r="AG81" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI81" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK81" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM81" t="n">
         <v>35</v>
@@ -15085,34 +15089,34 @@
         <v>4.55</v>
       </c>
       <c r="AO81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR81" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS81" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AV81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AX81" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY81" t="n">
         <v>21</v>
@@ -15124,7 +15128,7 @@
         <v>90</v>
       </c>
       <c r="BB81" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -16597,13 +16601,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H90" t="n">
         <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J90" t="n">
         <v>2.15</v>
@@ -16612,7 +16616,7 @@
         <v>2.07</v>
       </c>
       <c r="L90" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
@@ -16627,10 +16631,10 @@
         <v>2.6</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="R90" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S90" t="n">
         <v>1.5</v>
@@ -16639,22 +16643,22 @@
         <v>2.42</v>
       </c>
       <c r="U90" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V90" t="n">
         <v>1.53</v>
       </c>
       <c r="W90" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X90" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y90" t="n">
         <v>8.75</v>
       </c>
       <c r="Z90" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA90" t="n">
         <v>15.5</v>
@@ -16678,28 +16682,28 @@
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI90" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ90" t="n">
         <v>21</v>
       </c>
       <c r="AK90" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL90" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM90" t="n">
         <v>100</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AP90" t="n">
         <v>22</v>
@@ -16708,7 +16712,7 @@
         <v>26</v>
       </c>
       <c r="AR90" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS90" t="n">
         <v>400</v>
@@ -16723,7 +16727,7 @@
         <v>120</v>
       </c>
       <c r="AW90" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AX90" t="n">
         <v>40</v>
@@ -16970,7 +16974,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17145,13 +17149,13 @@
         <v>3.4</v>
       </c>
       <c r="M93" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="n">
         <v>3.4</v>
@@ -17309,46 +17313,46 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I94" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="J94" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="K94" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L94" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O94" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P94" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R94" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S94" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T94" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U94" t="n">
         <v>1.65</v>
@@ -17360,25 +17364,25 @@
         <v>7.9</v>
       </c>
       <c r="X94" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y94" t="n">
         <v>8</v>
       </c>
       <c r="Z94" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB94" t="n">
         <v>22</v>
       </c>
       <c r="AC94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD94" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE94" t="n">
         <v>14.5</v>
@@ -17390,34 +17394,34 @@
         <v>400</v>
       </c>
       <c r="AH94" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI94" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ94" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AL94" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="n">
         <v>40</v>
       </c>
       <c r="AN94" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO94" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AP94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR94" t="n">
         <v>50</v>
@@ -17426,31 +17430,31 @@
         <v>175</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU94" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV94" t="n">
         <v>60</v>
       </c>
       <c r="AW94" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AX94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY94" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ94" t="n">
         <v>150</v>
       </c>
       <c r="BA94" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB94" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC94" t="inlineStr"/>
       <c r="BD94" t="inlineStr"/>
@@ -17508,7 +17512,7 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -17668,10 +17672,10 @@
         <v>3.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I96" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J96" t="n">
         <v>4</v>
@@ -17680,7 +17684,7 @@
         <v>1.82</v>
       </c>
       <c r="L96" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M96" t="n">
         <v>1.15</v>
@@ -17695,28 +17699,28 @@
         <v>2.15</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R96" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S96" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T96" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U96" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V96" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W96" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X96" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y96" t="n">
         <v>12.5</v>
@@ -17725,7 +17729,7 @@
         <v>45</v>
       </c>
       <c r="AA96" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB96" t="n">
         <v>65</v>
@@ -17734,10 +17738,10 @@
         <v>4.8</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF96" t="n">
         <v>150</v>
@@ -17746,16 +17750,16 @@
         <v>101</v>
       </c>
       <c r="AH96" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI96" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ96" t="n">
         <v>10.5</v>
       </c>
       <c r="AK96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL96" t="n">
         <v>28</v>
@@ -17782,25 +17786,25 @@
         <v>500</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AU96" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV96" t="n">
         <v>110</v>
       </c>
       <c r="AW96" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AX96" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY96" t="n">
         <v>29</v>
       </c>
       <c r="AZ96" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA96" t="n">
         <v>150</v>
@@ -18591,10 +18595,10 @@
         <v>1.2</v>
       </c>
       <c r="M101" t="n">
+        <v>51</v>
+      </c>
+      <c r="N101" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N101" t="n">
-        <v>34</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18759,10 +18763,10 @@
         <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N102" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="O102" t="n">
         <v>1.47</v>
@@ -18783,10 +18787,10 @@
         <v>2.12</v>
       </c>
       <c r="U102" t="n">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="V102" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="W102" t="n">
         <v>5.1</v>
@@ -18915,16 +18919,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H103" t="n">
         <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J103" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="n">
         <v>2</v>
@@ -18936,7 +18940,7 @@
         <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O103" t="n">
         <v>1.36</v>
@@ -18945,10 +18949,10 @@
         <v>3</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R103" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S103" t="n">
         <v>1.5</v>
@@ -18963,7 +18967,7 @@
         <v>1.83</v>
       </c>
       <c r="W103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X103" t="n">
         <v>11</v>
@@ -19017,7 +19021,7 @@
         <v>4.33</v>
       </c>
       <c r="AO103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP103" t="n">
         <v>26</v>
@@ -19026,7 +19030,7 @@
         <v>51</v>
       </c>
       <c r="AR103" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS103" t="n">
         <v>201</v>
@@ -19041,7 +19045,7 @@
         <v>67</v>
       </c>
       <c r="AW103" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX103" t="n">
         <v>17</v>
@@ -19097,28 +19101,28 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J104" t="n">
         <v>3.4</v>
       </c>
       <c r="K104" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -19133,10 +19137,10 @@
         <v>1.65</v>
       </c>
       <c r="S104" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T104" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U104" t="n">
         <v>1.83</v>
@@ -19148,7 +19152,7 @@
         <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -19163,7 +19167,7 @@
         <v>34</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD104" t="n">
         <v>6</v>
@@ -19184,7 +19188,7 @@
         <v>12</v>
       </c>
       <c r="AJ104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK104" t="n">
         <v>26</v>
@@ -19196,7 +19200,7 @@
         <v>34</v>
       </c>
       <c r="AN104" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO104" t="n">
         <v>15</v>
@@ -19214,7 +19218,7 @@
         <v>201</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU104" t="n">
         <v>8.5</v>
@@ -19831,10 +19835,10 @@
         <v>6.2</v>
       </c>
       <c r="M108" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>9.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O108" t="n">
         <v>1.3</v>
@@ -19991,34 +19995,30 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K109" t="n">
         <v>1.93</v>
       </c>
       <c r="L109" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N109" t="n">
-        <v>8</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P109" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q109" t="n">
         <v>2.1</v>
@@ -20039,16 +20039,16 @@
         <v>1.8</v>
       </c>
       <c r="W109" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X109" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y109" t="n">
         <v>9.25</v>
       </c>
       <c r="Z109" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA109" t="n">
         <v>21</v>
@@ -20063,43 +20063,43 @@
         <v>5.8</v>
       </c>
       <c r="AE109" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF109" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG109" t="n">
         <v>700</v>
       </c>
       <c r="AH109" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AI109" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ109" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK109" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL109" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM109" t="n">
         <v>40</v>
       </c>
       <c r="AN109" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO109" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP109" t="n">
         <v>24</v>
       </c>
       <c r="AQ109" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR109" t="n">
         <v>110</v>
@@ -20117,10 +20117,10 @@
         <v>75</v>
       </c>
       <c r="AW109" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AX109" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY109" t="n">
         <v>27</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1135,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.4</v>
@@ -1311,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1380,7 +1380,7 @@
         <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>151</v>
@@ -1672,13 +1672,13 @@
         <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1693,10 +1693,10 @@
         <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1899,7 +1899,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1908,46 +1908,46 @@
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,13 +1968,13 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA8" t="n">
         <v>201</v>
@@ -2233,13 +2233,13 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T10" t="n">
         <v>3.75</v>
@@ -2925,28 +2925,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K14" t="n">
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2955,10 +2955,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2967,22 +2967,22 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2994,13 +2994,13 @@
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
@@ -3013,31 +3013,31 @@
         <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AN14" t="n">
         <v>2.88</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3049,7 +3049,7 @@
         <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>67</v>
@@ -4205,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.62</v>
@@ -5451,19 +5451,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.75</v>
@@ -5475,43 +5475,43 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R28" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="S28" t="n">
         <v>1.18</v>
       </c>
       <c r="T28" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
         <v>37</v>
@@ -5523,79 +5523,79 @@
         <v>12</v>
       </c>
       <c r="AE28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH28" t="n">
         <v>15</v>
       </c>
-      <c r="AF28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>14</v>
-      </c>
       <c r="AI28" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ28" t="n">
         <v>9.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR28" t="n">
         <v>150</v>
       </c>
-      <c r="AR28" t="n">
-        <v>120</v>
-      </c>
       <c r="AS28" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
         <v>6.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AZ28" t="n">
         <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5633,22 +5633,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L29" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -5662,7 +5662,7 @@
         <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>1.35</v>
@@ -5671,71 +5671,71 @@
         <v>3.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="V29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="n">
         <v>11.75</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="n">
         <v>250</v>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
         <v>250</v>
       </c>
       <c r="AM29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AR29" t="n">
         <v>50</v>
@@ -5747,19 +5747,19 @@
         <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>150</v>
       </c>
       <c r="AW29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AY29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ29" t="n">
         <v>51</v>
@@ -5809,40 +5809,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>7.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5851,25 +5851,25 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
         <v>28</v>
@@ -5881,7 +5881,7 @@
         <v>7.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
@@ -5890,34 +5890,34 @@
         <v>800</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI30" t="n">
         <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="n">
         <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AP30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>50</v>
@@ -5926,28 +5926,28 @@
         <v>200</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV30" t="n">
         <v>70</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AX30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB30" t="n">
         <v>450</v>
@@ -5991,34 +5991,34 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J31" t="n">
         <v>4.25</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q31" t="n">
         <v>1.55</v>
@@ -6033,103 +6033,103 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
         <v>22</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
         <v>13.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF31" t="n">
         <v>35</v>
       </c>
       <c r="AG31" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AI31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>6.9</v>
       </c>
       <c r="AK31" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP31" t="n">
         <v>23</v>
       </c>
-      <c r="AP31" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR31" t="n">
         <v>120</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>150</v>
       </c>
       <c r="AS31" t="n">
         <v>300</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV31" t="n">
         <v>45</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX31" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB31" t="n">
         <v>150</v>
@@ -7787,16 +7787,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
@@ -7805,10 +7805,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -7829,10 +7829,10 @@
         <v>2.25</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
         <v>7</v>
@@ -7844,7 +7844,7 @@
         <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
         <v>29</v>
@@ -7862,23 +7862,23 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
@@ -7899,7 +7899,7 @@
         <v>101</v>
       </c>
       <c r="AS41" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT41" t="n">
         <v>2.25</v>
@@ -7911,7 +7911,7 @@
         <v>81</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX41" t="n">
         <v>15</v>
@@ -7923,7 +7923,7 @@
         <v>51</v>
       </c>
       <c r="BA41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB41" t="n">
         <v>301</v>
@@ -8114,7 +8114,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
@@ -8531,10 +8531,10 @@
         <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8713,16 +8713,16 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q46" t="n">
         <v>2.1</v>
@@ -9080,7 +9080,7 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9605,58 +9605,58 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -9665,43 +9665,43 @@
         <v>41</v>
       </c>
       <c r="AA51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB51" t="n">
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>13</v>
       </c>
       <c r="AF51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH51" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI51" t="n">
         <v>10</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL51" t="n">
         <v>17</v>
       </c>
-      <c r="AL51" t="n">
-        <v>15</v>
-      </c>
       <c r="AM51" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN51" t="n">
         <v>5.5</v>
@@ -9710,22 +9710,22 @@
         <v>19</v>
       </c>
       <c r="AP51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR51" t="n">
         <v>81</v>
       </c>
       <c r="AS51" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
@@ -9734,19 +9734,19 @@
         <v>4</v>
       </c>
       <c r="AX51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA51" t="n">
         <v>51</v>
       </c>
       <c r="BB51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC51" t="n">
         <v>501</v>
@@ -10333,22 +10333,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.2</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.05</v>
@@ -10363,10 +10363,10 @@
         <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R55" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -10390,7 +10390,7 @@
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA55" t="n">
         <v>15</v>
@@ -10405,7 +10405,7 @@
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF55" t="n">
         <v>51</v>
@@ -10417,7 +10417,7 @@
         <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ55" t="n">
         <v>15</v>
@@ -10435,7 +10435,7 @@
         <v>3.75</v>
       </c>
       <c r="AO55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP55" t="n">
         <v>21</v>
@@ -10459,13 +10459,13 @@
         <v>51</v>
       </c>
       <c r="AW55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX55" t="n">
         <v>23</v>
       </c>
       <c r="AY55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ55" t="n">
         <v>81</v>
@@ -10545,10 +10545,10 @@
         <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S56" t="n">
         <v>1.44</v>
@@ -12315,91 +12315,91 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H66" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L66" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="M66" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="O66" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="P66" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q66" t="n">
         <v>1.42</v>
       </c>
       <c r="R66" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="S66" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T66" t="n">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="U66" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V66" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W66" t="n">
+        <v>11</v>
+      </c>
+      <c r="X66" t="n">
         <v>10.5</v>
-      </c>
-      <c r="X66" t="n">
-        <v>10</v>
       </c>
       <c r="Y66" t="n">
         <v>8.25</v>
       </c>
       <c r="Z66" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA66" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB66" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD66" t="n">
         <v>8.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF66" t="n">
         <v>37</v>
       </c>
       <c r="AG66" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI66" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ66" t="n">
         <v>15.5</v>
@@ -12408,58 +12408,58 @@
         <v>90</v>
       </c>
       <c r="AL66" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM66" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO66" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AP66" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS66" t="n">
         <v>100</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV66" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AW66" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AX66" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY66" t="n">
         <v>23</v>
       </c>
-      <c r="AY66" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ66" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA66" t="n">
         <v>110</v>
       </c>
-      <c r="BA66" t="n">
-        <v>100</v>
-      </c>
       <c r="BB66" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC66" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD66" t="inlineStr"/>
     </row>
@@ -12501,7 +12501,7 @@
         <v>7.3</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J67" t="n">
         <v>1.42</v>
@@ -12510,7 +12510,7 @@
         <v>3.15</v>
       </c>
       <c r="L67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -12519,16 +12519,16 @@
         <v>22</v>
       </c>
       <c r="O67" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P67" t="n">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R67" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="S67" t="n">
         <v>1.16</v>
@@ -12549,7 +12549,7 @@
         <v>7.7</v>
       </c>
       <c r="Y67" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z67" t="n">
         <v>7.2</v>
@@ -12561,19 +12561,19 @@
         <v>29</v>
       </c>
       <c r="AC67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE67" t="n">
         <v>30</v>
       </c>
       <c r="AF67" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG67" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH67" t="n">
         <v>50</v>
@@ -12597,7 +12597,7 @@
         <v>3.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AP67" t="n">
         <v>13</v>
@@ -12612,7 +12612,7 @@
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AU67" t="n">
         <v>9.75</v>
@@ -12621,10 +12621,10 @@
         <v>75</v>
       </c>
       <c r="AW67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AX67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AY67" t="n">
         <v>55</v>
@@ -12671,22 +12671,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="H68" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I68" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="K68" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L68" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M68" t="n">
         <v>1.01</v>
@@ -12713,73 +12713,73 @@
         <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V68" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="W68" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X68" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z68" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB68" t="n">
         <v>18</v>
       </c>
       <c r="AC68" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG68" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM68" t="n">
         <v>24</v>
       </c>
-      <c r="AJ68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>26</v>
-      </c>
       <c r="AN68" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO68" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR68" t="n">
         <v>40</v>
@@ -12791,31 +12791,31 @@
         <v>3.75</v>
       </c>
       <c r="AU68" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV68" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW68" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AX68" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY68" t="n">
         <v>17.5</v>
       </c>
-      <c r="AY68" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ68" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BA68" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB68" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC68" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD68" t="inlineStr"/>
     </row>
@@ -12878,7 +12878,7 @@
         <v>1.05</v>
       </c>
       <c r="P69" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q69" t="n">
         <v>1.34</v>
@@ -13052,13 +13052,13 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P70" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q70" t="n">
         <v>1.55</v>
@@ -13067,10 +13067,10 @@
         <v>2.15</v>
       </c>
       <c r="S70" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="T70" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="U70" t="n">
         <v>1.47</v>
@@ -13389,22 +13389,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I72" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="J72" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K72" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -13437,31 +13437,31 @@
         <v>2.65</v>
       </c>
       <c r="W72" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X72" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y72" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z72" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA72" t="n">
         <v>11.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD72" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
         <v>30</v>
@@ -13470,64 +13470,64 @@
         <v>120</v>
       </c>
       <c r="AH72" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI72" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ72" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK72" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL72" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN72" t="n">
         <v>4.25</v>
       </c>
       <c r="AO72" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP72" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR72" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS72" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT72" t="n">
         <v>4.25</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV72" t="n">
         <v>32</v>
       </c>
       <c r="AW72" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AX72" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ72" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA72" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB72" t="n">
         <v>150</v>
@@ -13745,127 +13745,127 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
         <v>2.3</v>
       </c>
       <c r="K74" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="R74" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="S74" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T74" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V74" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W74" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X74" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y74" t="n">
         <v>8.5</v>
       </c>
       <c r="Z74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA74" t="n">
         <v>15</v>
       </c>
-      <c r="AA74" t="n">
-        <v>13</v>
-      </c>
       <c r="AB74" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC74" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD74" t="n">
         <v>7</v>
       </c>
       <c r="AE74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH74" t="n">
         <v>13</v>
       </c>
-      <c r="AF74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>15</v>
-      </c>
       <c r="AI74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK74" t="n">
         <v>51</v>
       </c>
       <c r="AL74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN74" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO74" t="n">
         <v>9</v>
       </c>
       <c r="AP74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ74" t="n">
         <v>29</v>
       </c>
       <c r="AR74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS74" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT74" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV74" t="n">
         <v>51</v>
@@ -13874,19 +13874,19 @@
         <v>6.5</v>
       </c>
       <c r="AX74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ74" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA74" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB74" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
@@ -14299,10 +14299,10 @@
         <v>4.45</v>
       </c>
       <c r="M77" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O77" t="n">
         <v>1.62</v>
@@ -14323,10 +14323,10 @@
         <v>1.95</v>
       </c>
       <c r="U77" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="V77" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W77" t="n">
         <v>4.4</v>
@@ -14478,7 +14478,7 @@
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>6.97</v>
+        <v>6.98</v>
       </c>
       <c r="O78" t="n">
         <v>1.39</v>
@@ -14499,10 +14499,10 @@
         <v>2.22</v>
       </c>
       <c r="U78" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V78" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W78" t="n">
         <v>4.6</v>
@@ -14649,19 +14649,19 @@
         <v>3.8</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O79" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P79" t="n">
         <v>2.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R79" t="n">
         <v>1.6</v>
@@ -14679,7 +14679,7 @@
         <v>1.78</v>
       </c>
       <c r="W79" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X79" t="n">
         <v>9.75</v>
@@ -14691,7 +14691,7 @@
         <v>20</v>
       </c>
       <c r="AA79" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB79" t="n">
         <v>32</v>
@@ -14700,7 +14700,7 @@
         <v>8</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
         <v>15.5</v>
@@ -14812,43 +14812,43 @@
         <v>3.85</v>
       </c>
       <c r="H80" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I80" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J80" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K80" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L80" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P80" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R80" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S80" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T80" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U80" t="n">
         <v>1.88</v>
@@ -14857,16 +14857,16 @@
         <v>1.72</v>
       </c>
       <c r="W80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X80" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y80" t="n">
         <v>13.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA80" t="n">
         <v>40</v>
@@ -14875,10 +14875,10 @@
         <v>50</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE80" t="n">
         <v>17</v>
@@ -14887,19 +14887,19 @@
         <v>90</v>
       </c>
       <c r="AG80" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI80" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ80" t="n">
         <v>8.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL80" t="n">
         <v>16</v>
@@ -14908,43 +14908,43 @@
         <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ80" t="n">
         <v>120</v>
       </c>
       <c r="AR80" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS80" t="n">
         <v>400</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV80" t="n">
         <v>75</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX80" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY80" t="n">
         <v>19</v>
       </c>
       <c r="AZ80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA80" t="n">
         <v>70</v>
@@ -14987,22 +14987,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="J81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15023,7 +15023,7 @@
         <v>1.65</v>
       </c>
       <c r="S81" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T81" t="n">
         <v>2.57</v>
@@ -15032,7 +15032,7 @@
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W81" t="n">
         <v>8</v>
@@ -15041,25 +15041,25 @@
         <v>13</v>
       </c>
       <c r="Y81" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z81" t="n">
         <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB81" t="n">
         <v>35</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF81" t="n">
         <v>75</v>
@@ -15071,58 +15071,58 @@
         <v>7.6</v>
       </c>
       <c r="AI81" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL81" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN81" t="n">
         <v>4.55</v>
       </c>
       <c r="AO81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR81" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS81" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT81" t="n">
         <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV81" t="n">
         <v>60</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AX81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA81" t="n">
         <v>90</v>
@@ -15707,16 +15707,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H85" t="n">
         <v>4.2</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="n">
         <v>2.5</v>
@@ -15728,7 +15728,7 @@
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O85" t="n">
         <v>1.17</v>
@@ -15764,10 +15764,10 @@
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB85" t="n">
         <v>21</v>
@@ -15794,10 +15794,10 @@
         <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK85" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL85" t="n">
         <v>41</v>
@@ -15812,7 +15812,7 @@
         <v>7.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ85" t="n">
         <v>21</v>
@@ -15830,19 +15830,19 @@
         <v>8</v>
       </c>
       <c r="AV85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW85" t="n">
         <v>7.5</v>
       </c>
       <c r="AX85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY85" t="n">
         <v>29</v>
       </c>
       <c r="AZ85" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA85" t="n">
         <v>101</v>
@@ -15916,7 +15916,7 @@
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="Q86" t="n">
         <v>1.7</v>
@@ -16425,22 +16425,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H89" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I89" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J89" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K89" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L89" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M89" t="n">
         <v>1.08</v>
@@ -16461,86 +16461,86 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U89" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="V89" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z89" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA89" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB89" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC89" t="n">
         <v>6.2</v>
       </c>
       <c r="AD89" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF89" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AI89" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AJ89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN89" t="n">
         <v>7.6</v>
       </c>
-      <c r="AK89" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AO89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP89" t="n">
         <v>55</v>
       </c>
       <c r="AQ89" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR89" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU89" t="n">
         <v>9.25</v>
@@ -16552,13 +16552,13 @@
         <v>3.1</v>
       </c>
       <c r="AX89" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AY89" t="n">
         <v>23</v>
       </c>
       <c r="AZ89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA89" t="n">
         <v>80</v>
@@ -16601,22 +16601,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I90" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K90" t="n">
         <v>2.07</v>
       </c>
       <c r="L90" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
@@ -16628,13 +16628,13 @@
         <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R90" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S90" t="n">
         <v>1.5</v>
@@ -16658,10 +16658,10 @@
         <v>8.75</v>
       </c>
       <c r="Z90" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA90" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB90" t="n">
         <v>45</v>
@@ -16670,7 +16670,7 @@
         <v>6.1</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE90" t="n">
         <v>25</v>
@@ -16682,34 +16682,34 @@
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ90" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK90" t="n">
         <v>150</v>
       </c>
       <c r="AL90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM90" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN90" t="n">
         <v>3.15</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AP90" t="n">
         <v>22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR90" t="n">
         <v>75</v>
@@ -16727,19 +16727,19 @@
         <v>120</v>
       </c>
       <c r="AW90" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ90" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA90" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
@@ -16971,10 +16971,10 @@
         <v>5.4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17131,22 +17131,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
       </c>
       <c r="I93" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
@@ -17185,13 +17185,13 @@
         <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z93" t="n">
         <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB93" t="n">
         <v>34</v>
@@ -17218,19 +17218,19 @@
         <v>13</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK93" t="n">
         <v>26</v>
       </c>
       <c r="AL93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO93" t="n">
         <v>15</v>
@@ -17257,7 +17257,7 @@
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17491,148 +17491,148 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="H95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="J95" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q95" t="n">
         <v>2.15</v>
       </c>
-      <c r="L95" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N95" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P95" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R95" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="S95" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="T95" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="U95" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="V95" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W95" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="X95" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Z95" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AA95" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AB95" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AC95" t="n">
-        <v>11.25</v>
+        <v>7.8</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE95" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK95" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF95" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG95" t="n">
+      <c r="AL95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB95" t="n">
         <v>400</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW95" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY95" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ95" t="n">
-        <v>37</v>
-      </c>
-      <c r="BA95" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB95" t="n">
-        <v>200</v>
       </c>
       <c r="BC95" t="inlineStr"/>
       <c r="BD95" t="inlineStr"/>
@@ -18215,16 +18215,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K99" t="n">
         <v>2.4</v>
@@ -18257,10 +18257,10 @@
         <v>3.4</v>
       </c>
       <c r="U99" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V99" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W99" t="n">
         <v>9</v>
@@ -18275,7 +18275,7 @@
         <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB99" t="n">
         <v>21</v>
@@ -18296,7 +18296,7 @@
         <v>151</v>
       </c>
       <c r="AH99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI99" t="n">
         <v>26</v>
@@ -18314,7 +18314,7 @@
         <v>34</v>
       </c>
       <c r="AN99" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO99" t="n">
         <v>8.5</v>
@@ -18338,7 +18338,7 @@
         <v>7.5</v>
       </c>
       <c r="AV99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW99" t="n">
         <v>6.5</v>
@@ -18350,7 +18350,7 @@
         <v>26</v>
       </c>
       <c r="AZ99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA99" t="n">
         <v>81</v>
@@ -18400,7 +18400,7 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I100" t="n">
         <v>1.03</v>
@@ -18409,7 +18409,7 @@
         <v>29</v>
       </c>
       <c r="K100" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L100" t="n">
         <v>1.18</v>
@@ -18418,7 +18418,7 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O100" t="n">
         <v>1.04</v>
@@ -18427,16 +18427,16 @@
         <v>13</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S100" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="T100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U100" t="n">
         <v>3.25</v>
@@ -18445,25 +18445,25 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
+        <v>51</v>
+      </c>
+      <c r="X100" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y100" t="n">
         <v>67</v>
-      </c>
-      <c r="X100" t="n">
-        <v>251</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>81</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
       </c>
       <c r="AA100" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AC100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD100" t="n">
         <v>41</v>
@@ -18472,7 +18472,7 @@
         <v>67</v>
       </c>
       <c r="AF100" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
@@ -18497,10 +18497,10 @@
         <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18512,16 +18512,16 @@
         <v>451</v>
       </c>
       <c r="AT100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV100" t="n">
         <v>126</v>
       </c>
       <c r="AW100" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX100" t="n">
         <v>3.75</v>
@@ -18533,7 +18533,7 @@
         <v>6</v>
       </c>
       <c r="BA100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB100" t="n">
         <v>151</v>
@@ -18598,7 +18598,7 @@
         <v>51</v>
       </c>
       <c r="N101" t="n">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -19823,34 +19823,34 @@
         <v>3.75</v>
       </c>
       <c r="I108" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J108" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K108" t="n">
         <v>2.15</v>
       </c>
       <c r="L108" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O108" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P108" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R108" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S108" t="n">
         <v>1.39</v>
@@ -19859,16 +19859,16 @@
         <v>2.55</v>
       </c>
       <c r="U108" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V108" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W108" t="n">
         <v>5.7</v>
       </c>
       <c r="X108" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y108" t="n">
         <v>8.25</v>
@@ -19877,13 +19877,13 @@
         <v>10</v>
       </c>
       <c r="AA108" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB108" t="n">
         <v>32</v>
       </c>
       <c r="AC108" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD108" t="n">
         <v>7.5</v>
@@ -19892,28 +19892,28 @@
         <v>20</v>
       </c>
       <c r="AF108" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG108" t="n">
         <v>900</v>
       </c>
       <c r="AH108" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI108" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ108" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK108" t="n">
         <v>150</v>
       </c>
       <c r="AL108" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM108" t="n">
         <v>80</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>75</v>
       </c>
       <c r="AN108" t="n">
         <v>3.2</v>
@@ -19940,19 +19940,19 @@
         <v>8.25</v>
       </c>
       <c r="AV108" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW108" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AX108" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY108" t="n">
         <v>40</v>
       </c>
-      <c r="AY108" t="n">
-        <v>37</v>
-      </c>
       <c r="AZ108" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA108" t="n">
         <v>300</v>
@@ -19995,7 +19995,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
@@ -20004,27 +20004,27 @@
         <v>3.05</v>
       </c>
       <c r="J109" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>1.93</v>
       </c>
       <c r="L109" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P109" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R109" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S109" t="n">
         <v>1.47</v>
@@ -20033,43 +20033,43 @@
         <v>2.32</v>
       </c>
       <c r="U109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V109" t="n">
         <v>1.82</v>
       </c>
-      <c r="V109" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W109" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X109" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y109" t="n">
         <v>9.25</v>
       </c>
       <c r="Z109" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA109" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB109" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC109" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD109" t="n">
         <v>5.8</v>
       </c>
       <c r="AE109" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF109" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG109" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH109" t="n">
         <v>8.25</v>
@@ -20096,31 +20096,31 @@
         <v>13</v>
       </c>
       <c r="AP109" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ109" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR109" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS109" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT109" t="n">
         <v>2.27</v>
       </c>
       <c r="AU109" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV109" t="n">
         <v>75</v>
       </c>
       <c r="AW109" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AX109" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY109" t="n">
         <v>27</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1114,7 +1114,7 @@
         <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1135,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
         <v>1.4</v>
@@ -1147,16 +1147,16 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1171,7 +1171,7 @@
         <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1198,19 +1198,19 @@
         <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1228,7 +1228,7 @@
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
         <v>51</v>
@@ -1252,7 +1252,7 @@
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1869,10 +1869,10 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.22</v>
@@ -2027,7 +2027,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2239,7 +2239,7 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
         <v>3.75</v>
@@ -2925,22 +2925,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2949,22 +2949,22 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.88</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>2.63</v>
@@ -2973,16 +2973,16 @@
         <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2991,71 +2991,71 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM14" t="n">
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV14" t="n">
         <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
         <v>351</v>
@@ -3097,113 +3097,113 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.25</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>29</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AK15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="n">
         <v>67</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>101</v>
-      </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3212,16 +3212,16 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>51</v>
@@ -3230,10 +3230,10 @@
         <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BA15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
@@ -3277,28 +3277,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3313,10 +3313,10 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -3328,44 +3328,44 @@
         <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3374,25 +3374,25 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>
@@ -3401,22 +3401,22 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -4004,7 +4004,7 @@
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
         <v>2.35</v>
@@ -4013,16 +4013,16 @@
         <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.73</v>
@@ -4031,16 +4031,16 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U20" t="n">
         <v>2.63</v>
@@ -4067,16 +4067,16 @@
         <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
@@ -4110,13 +4110,13 @@
         <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS20" t="n">
         <v>501</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4128,19 +4128,19 @@
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -5451,22 +5451,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="J28" t="n">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5475,19 +5475,19 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T28" t="n">
         <v>4.25</v>
@@ -5496,34 +5496,34 @@
         <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W28" t="n">
+        <v>29</v>
+      </c>
+      <c r="X28" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="n">
         <v>32</v>
-      </c>
-      <c r="X28" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>37</v>
       </c>
       <c r="AC28" t="n">
         <v>10.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
         <v>37</v>
@@ -5532,7 +5532,7 @@
         <v>150</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI28" t="n">
         <v>11.25</v>
@@ -5544,28 +5544,28 @@
         <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS28" t="n">
         <v>175</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>200</v>
       </c>
       <c r="AT28" t="n">
         <v>4.25</v>
@@ -5574,25 +5574,25 @@
         <v>6.9</v>
       </c>
       <c r="AV28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY28" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC28" t="n">
         <v>400</v>
@@ -5650,8 +5650,12 @@
       <c r="L29" t="n">
         <v>9.75</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
@@ -5665,10 +5669,10 @@
         <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T29" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="U29" t="n">
         <v>2.42</v>
@@ -5809,22 +5813,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K30" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -5851,73 +5855,73 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V30" t="n">
         <v>1.75</v>
       </c>
       <c r="W30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X30" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA30" t="n">
         <v>12.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
       </c>
       <c r="AG30" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI30" t="n">
         <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL30" t="n">
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN30" t="n">
         <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>50</v>
@@ -5929,16 +5933,16 @@
         <v>2.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV30" t="n">
         <v>70</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AX30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AY30" t="n">
         <v>35</v>
@@ -5947,7 +5951,7 @@
         <v>200</v>
       </c>
       <c r="BA30" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB30" t="n">
         <v>450</v>
@@ -7097,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7306,10 +7310,10 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB38" t="n">
         <v>41</v>
@@ -7318,7 +7322,7 @@
         <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7431,19 +7435,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L39" t="n">
         <v>4.33</v>
@@ -7452,7 +7456,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -7473,22 +7477,22 @@
         <v>2.63</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
         <v>7</v>
       </c>
       <c r="X39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>17</v>
@@ -7497,22 +7501,22 @@
         <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD39" t="n">
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
         <v>19</v>
@@ -7533,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP39" t="n">
         <v>23</v>
@@ -7545,7 +7549,7 @@
         <v>67</v>
       </c>
       <c r="AS39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT39" t="n">
         <v>2.63</v>
@@ -7613,22 +7617,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -7642,7 +7646,7 @@
         <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
         <v>1.28</v>
@@ -7660,64 +7664,64 @@
         <v>12.5</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB40" t="n">
         <v>30</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR40" t="n">
         <v>150</v>
@@ -7726,22 +7730,22 @@
         <v>300</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV40" t="n">
         <v>55</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AX40" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AY40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ40" t="n">
         <v>23</v>
@@ -7750,7 +7754,7 @@
         <v>45</v>
       </c>
       <c r="BB40" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
@@ -7869,7 +7873,7 @@
         <v>6</v>
       </c>
       <c r="AI41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
@@ -7923,7 +7927,7 @@
         <v>51</v>
       </c>
       <c r="BA41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB41" t="n">
         <v>301</v>
@@ -8114,7 +8118,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -8528,7 +8532,7 @@
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -8570,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8579,7 +8583,7 @@
         <v>34</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
         <v>8.5</v>
@@ -8639,7 +8643,7 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
@@ -8657,7 +8661,7 @@
         <v>451</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8877,7 +8881,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
@@ -8919,13 +8923,13 @@
         <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X47" t="n">
         <v>10</v>
@@ -8940,7 +8944,7 @@
         <v>17</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
         <v>10</v>
@@ -8982,7 +8986,7 @@
         <v>12</v>
       </c>
       <c r="AP47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
         <v>41</v>
@@ -10333,7 +10337,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
@@ -10351,10 +10355,10 @@
         <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>1.29</v>
@@ -10399,13 +10403,13 @@
         <v>26</v>
       </c>
       <c r="AC55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
         <v>51</v>
@@ -10441,7 +10445,7 @@
         <v>21</v>
       </c>
       <c r="AQ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
@@ -10474,7 +10478,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC55" t="n">
         <v>126</v>
@@ -10697,10 +10701,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H57" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I57" t="n">
         <v>5.25</v>
@@ -10715,10 +10719,10 @@
         <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
@@ -10727,10 +10731,10 @@
         <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S57" t="n">
         <v>1.33</v>
@@ -10766,7 +10770,7 @@
         <v>13</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE57" t="n">
         <v>17</v>
@@ -10817,7 +10821,7 @@
         <v>3.25</v>
       </c>
       <c r="AU57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV57" t="n">
         <v>51</v>
@@ -12495,115 +12499,115 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H67" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="I67" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J67" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="K67" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L67" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O67" t="n">
         <v>1.03</v>
       </c>
       <c r="P67" t="n">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R67" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="S67" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="T67" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V67" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X67" t="n">
         <v>7.7</v>
       </c>
       <c r="Y67" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA67" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE67" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AF67" t="n">
         <v>120</v>
       </c>
       <c r="AG67" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI67" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM67" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>120</v>
       </c>
       <c r="AN67" t="n">
         <v>3.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AP67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AR67" t="n">
         <v>26</v>
@@ -12612,26 +12616,26 @@
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AU67" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AV67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AX67" t="n">
         <v>80</v>
       </c>
       <c r="AY67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB67" t="n">
         <v>500</v>
@@ -12671,151 +12675,151 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="H68" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="I68" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J68" t="n">
-        <v>2.37</v>
+        <v>1.98</v>
       </c>
       <c r="K68" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="L68" t="n">
-        <v>3.45</v>
+        <v>4.25</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="O68" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P68" t="n">
-        <v>4.65</v>
+        <v>5.15</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R68" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="U68" t="n">
         <v>1.44</v>
       </c>
       <c r="V68" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W68" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X68" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Y68" t="n">
         <v>8.75</v>
       </c>
       <c r="Z68" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC68" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AD68" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG68" t="n">
         <v>175</v>
       </c>
       <c r="AH68" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI68" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AJ68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AP68" t="n">
         <v>11.75</v>
       </c>
-      <c r="AK68" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AQ68" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AR68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AS68" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AU68" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV68" t="n">
         <v>37</v>
       </c>
       <c r="AW68" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="AX68" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AY68" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AZ68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BA68" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB68" t="n">
         <v>150</v>
       </c>
       <c r="BC68" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD68" t="inlineStr"/>
     </row>
@@ -12851,40 +12855,40 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="H69" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I69" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K69" t="n">
         <v>2.77</v>
       </c>
       <c r="L69" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O69" t="n">
         <v>1.05</v>
       </c>
       <c r="P69" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R69" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="S69" t="n">
         <v>1.19</v>
@@ -12893,106 +12897,106 @@
         <v>4.4</v>
       </c>
       <c r="U69" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="V69" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="W69" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X69" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y69" t="n">
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB69" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD69" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE69" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF69" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL69" t="n">
         <v>55</v>
       </c>
-      <c r="AG69" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>75</v>
-      </c>
       <c r="AM69" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AO69" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AP69" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AR69" t="n">
         <v>27</v>
       </c>
       <c r="AS69" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT69" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV69" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW69" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AX69" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AY69" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AZ69" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BA69" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB69" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC69" t="n">
         <v>500</v>
@@ -13031,19 +13035,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I70" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J70" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="K70" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L70" t="n">
         <v>3.1</v>
@@ -13052,13 +13056,13 @@
         <v>1.02</v>
       </c>
       <c r="N70" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="O70" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
         <v>1.55</v>
@@ -13067,10 +13071,10 @@
         <v>2.15</v>
       </c>
       <c r="S70" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T70" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="U70" t="n">
         <v>1.47</v>
@@ -13079,7 +13083,7 @@
         <v>2.32</v>
       </c>
       <c r="W70" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X70" t="n">
         <v>14</v>
@@ -13100,10 +13104,10 @@
         <v>14.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE70" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF70" t="n">
         <v>37</v>
@@ -13112,10 +13116,10 @@
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI70" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ70" t="n">
         <v>10</v>
@@ -13127,28 +13131,28 @@
         <v>19.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN70" t="n">
         <v>4.55</v>
       </c>
       <c r="AO70" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS70" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU70" t="n">
         <v>6.3</v>
@@ -13157,22 +13161,22 @@
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX70" t="n">
         <v>13.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ70" t="n">
         <v>50</v>
       </c>
       <c r="BA70" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB70" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC70" t="n">
         <v>500</v>
@@ -13745,7 +13749,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
@@ -13763,22 +13767,22 @@
         <v>5.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R74" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S74" t="n">
         <v>1.4</v>
@@ -14299,10 +14303,10 @@
         <v>4.45</v>
       </c>
       <c r="M77" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N77" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O77" t="n">
         <v>1.62</v>
@@ -14323,10 +14327,10 @@
         <v>1.95</v>
       </c>
       <c r="U77" t="n">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="V77" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="W77" t="n">
         <v>4.4</v>
@@ -14478,13 +14482,13 @@
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>6.98</v>
+        <v>7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P78" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="Q78" t="n">
         <v>2.32</v>
@@ -14499,10 +14503,10 @@
         <v>2.22</v>
       </c>
       <c r="U78" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V78" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W78" t="n">
         <v>4.6</v>
@@ -14809,22 +14813,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I80" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="J80" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="K80" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L80" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -14851,103 +14855,103 @@
         <v>2.57</v>
       </c>
       <c r="U80" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V80" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W80" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X80" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z80" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="n">
         <v>55</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>50</v>
       </c>
       <c r="AC80" t="n">
         <v>9</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG80" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI80" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AJ80" t="n">
         <v>8.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL80" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM80" t="n">
         <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ80" t="n">
         <v>120</v>
       </c>
       <c r="AR80" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS80" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT80" t="n">
         <v>2.52</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV80" t="n">
         <v>75</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY80" t="n">
         <v>19</v>
       </c>
       <c r="AZ80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -14987,28 +14991,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J81" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="O81" t="n">
         <v>1.34</v>
@@ -15032,31 +15036,31 @@
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X81" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y81" t="n">
         <v>10.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA81" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB81" t="n">
         <v>35</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15068,16 +15072,16 @@
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AI81" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ81" t="n">
         <v>9.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL81" t="n">
         <v>21</v>
@@ -15086,7 +15090,7 @@
         <v>32</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO81" t="n">
         <v>14.5</v>
@@ -15098,7 +15102,7 @@
         <v>65</v>
       </c>
       <c r="AR81" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
@@ -15107,13 +15111,13 @@
         <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV81" t="n">
         <v>60</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX81" t="n">
         <v>12.5</v>
@@ -15125,7 +15129,7 @@
         <v>50</v>
       </c>
       <c r="BA81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB81" t="n">
         <v>250</v>
@@ -15707,13 +15711,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H85" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I85" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J85" t="n">
         <v>2.05</v>
@@ -15722,13 +15726,13 @@
         <v>2.5</v>
       </c>
       <c r="L85" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
         <v>1.17</v>
@@ -15749,16 +15753,16 @@
         <v>3.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V85" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X85" t="n">
         <v>9</v>
-      </c>
-      <c r="X85" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
@@ -15773,7 +15777,7 @@
         <v>21</v>
       </c>
       <c r="AC85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD85" t="n">
         <v>8.5</v>
@@ -15791,7 +15795,7 @@
         <v>19</v>
       </c>
       <c r="AI85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ85" t="n">
         <v>17</v>
@@ -15833,7 +15837,7 @@
         <v>41</v>
       </c>
       <c r="AW85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX85" t="n">
         <v>26</v>
@@ -15845,7 +15849,7 @@
         <v>81</v>
       </c>
       <c r="BA85" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB85" t="n">
         <v>151</v>
@@ -16076,13 +16080,13 @@
         <v>2.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K87" t="n">
         <v>2.32</v>
       </c>
       <c r="L87" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="M87" t="n">
         <v>1.01</v>
@@ -16097,10 +16101,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R87" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16109,16 +16113,16 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V87" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="W87" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X87" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y87" t="n">
         <v>8.5</v>
@@ -16130,31 +16134,31 @@
         <v>14.5</v>
       </c>
       <c r="AB87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC87" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC87" t="n">
-        <v>17</v>
-      </c>
       <c r="AD87" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE87" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG87" t="n">
         <v>120</v>
       </c>
       <c r="AH87" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ87" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK87" t="n">
         <v>20</v>
@@ -16163,37 +16167,37 @@
         <v>13.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO87" t="n">
         <v>12.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ87" t="n">
         <v>45</v>
       </c>
       <c r="AR87" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS87" t="n">
         <v>150</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV87" t="n">
         <v>40</v>
       </c>
       <c r="AW87" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AX87" t="n">
         <v>11.5</v>
@@ -16205,7 +16209,7 @@
         <v>40</v>
       </c>
       <c r="BA87" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB87" t="n">
         <v>150</v>
@@ -16467,10 +16471,10 @@
         <v>2.2</v>
       </c>
       <c r="U89" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="V89" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W89" t="n">
         <v>9.5</v>
@@ -16604,7 +16608,7 @@
         <v>1.53</v>
       </c>
       <c r="H90" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
         <v>6.5</v>
@@ -16613,7 +16617,7 @@
         <v>2.1</v>
       </c>
       <c r="K90" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L90" t="n">
         <v>6.5</v>
@@ -16637,25 +16641,25 @@
         <v>1.57</v>
       </c>
       <c r="S90" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T90" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U90" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="V90" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W90" t="n">
         <v>4.9</v>
       </c>
       <c r="X90" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z90" t="n">
         <v>10</v>
@@ -16670,7 +16674,7 @@
         <v>6.1</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE90" t="n">
         <v>25</v>
@@ -16694,16 +16698,16 @@
         <v>150</v>
       </c>
       <c r="AL90" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM90" t="n">
         <v>110</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AP90" t="n">
         <v>22</v>
@@ -16718,10 +16722,10 @@
         <v>400</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU90" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV90" t="n">
         <v>120</v>
@@ -16730,16 +16734,16 @@
         <v>7.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AZ90" t="n">
         <v>350</v>
       </c>
       <c r="BA90" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
@@ -16956,145 +16960,145 @@
         <v>1.65</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K92" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L92" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>6.65</v>
+        <v>7.5</v>
       </c>
       <c r="O92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S92" t="n">
         <v>1.4</v>
       </c>
-      <c r="P92" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.45</v>
-      </c>
       <c r="T92" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="U92" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="V92" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="W92" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="X92" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC92" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD92" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE92" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG92" t="n">
         <v>900</v>
       </c>
       <c r="AH92" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AI92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ92" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK92" t="n">
         <v>100</v>
       </c>
       <c r="AL92" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM92" t="n">
         <v>65</v>
       </c>
-      <c r="AM92" t="n">
-        <v>75</v>
-      </c>
       <c r="AN92" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO92" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AP92" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS92" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="AU92" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AV92" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW92" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX92" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AY92" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ92" t="n">
         <v>200</v>
       </c>
       <c r="BA92" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB92" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
@@ -17491,10 +17495,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I95" t="n">
         <v>1.78</v>
@@ -17503,49 +17507,49 @@
         <v>4.8</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L95" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M95" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>6.94</v>
       </c>
       <c r="O95" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P95" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R95" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S95" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T95" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U95" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V95" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W95" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X95" t="n">
         <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z95" t="n">
         <v>70</v>
@@ -17554,16 +17558,16 @@
         <v>50</v>
       </c>
       <c r="AB95" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC95" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD95" t="n">
         <v>6.7</v>
       </c>
       <c r="AE95" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF95" t="n">
         <v>120</v>
@@ -17572,22 +17576,22 @@
         <v>1000</v>
       </c>
       <c r="AH95" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AJ95" t="n">
         <v>8.75</v>
       </c>
       <c r="AK95" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL95" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM95" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN95" t="n">
         <v>5.8</v>
@@ -17596,7 +17600,7 @@
         <v>26</v>
       </c>
       <c r="AP95" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ95" t="n">
         <v>175</v>
@@ -17608,19 +17612,19 @@
         <v>350</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU95" t="n">
         <v>8.5</v>
       </c>
       <c r="AV95" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW95" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AX95" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY95" t="n">
         <v>23</v>
@@ -18406,13 +18410,13 @@
         <v>1.03</v>
       </c>
       <c r="J100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K100" t="n">
         <v>5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
@@ -18445,13 +18449,13 @@
         <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="Y100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
@@ -18460,7 +18464,7 @@
         <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AC100" t="n">
         <v>29</v>
@@ -18469,20 +18473,20 @@
         <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
         <v>17</v>
       </c>
       <c r="AI100" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK100" t="n">
         <v>6.5</v>
@@ -18497,10 +18501,10 @@
         <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP100" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18515,7 +18519,7 @@
         <v>6.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV100" t="n">
         <v>126</v>
@@ -18530,7 +18534,7 @@
         <v>21</v>
       </c>
       <c r="AZ100" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BA100" t="n">
         <v>29</v>
@@ -18586,19 +18590,19 @@
         <v>1.03</v>
       </c>
       <c r="J101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K101" t="n">
         <v>4.75</v>
       </c>
       <c r="L101" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M101" t="n">
-        <v>51</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O101" t="n">
         <v>1.04</v>
@@ -18650,7 +18654,7 @@
         <v>67</v>
       </c>
       <c r="AF101" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
@@ -18666,7 +18670,7 @@
         <v>6.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
@@ -19113,7 +19117,7 @@
         <v>3.4</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L104" t="n">
         <v>3.4</v>
@@ -19131,10 +19135,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R104" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S104" t="n">
         <v>1.5</v>
@@ -19152,7 +19156,7 @@
         <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -19185,7 +19189,7 @@
         <v>8</v>
       </c>
       <c r="AI104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ104" t="n">
         <v>11</v>
@@ -19283,13 +19287,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J105" t="n">
         <v>2.88</v>
@@ -19370,13 +19374,13 @@
         <v>17</v>
       </c>
       <c r="AJ105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK105" t="n">
         <v>34</v>
       </c>
       <c r="AL105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM105" t="n">
         <v>34</v>
@@ -19838,7 +19842,7 @@
         <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>8.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="O108" t="n">
         <v>1.31</v>
@@ -19995,7 +19999,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
@@ -20004,60 +20008,64 @@
         <v>3.05</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K109" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L109" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N109" t="n">
+        <v>8</v>
+      </c>
       <c r="O109" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P109" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R109" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S109" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T109" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U109" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V109" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W109" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="X109" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y109" t="n">
         <v>9.25</v>
       </c>
       <c r="Z109" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA109" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB109" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC109" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD109" t="n">
         <v>5.8</v>
@@ -20069,70 +20077,70 @@
         <v>75</v>
       </c>
       <c r="AG109" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH109" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI109" t="n">
         <v>15.5</v>
       </c>
       <c r="AJ109" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK109" t="n">
         <v>40</v>
       </c>
       <c r="AL109" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM109" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN109" t="n">
         <v>4.1</v>
       </c>
       <c r="AO109" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ109" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR109" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS109" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU109" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV109" t="n">
         <v>75</v>
       </c>
       <c r="AW109" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX109" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ109" t="n">
         <v>90</v>
       </c>
       <c r="BA109" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB109" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC109" t="inlineStr"/>
       <c r="BD109" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -756,7 +756,7 @@
         <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.11</v>
@@ -789,16 +789,16 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
         <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
@@ -807,10 +807,10 @@
         <v>151</v>
       </c>
       <c r="AA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
@@ -819,25 +819,25 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AR2" t="n">
         <v>201</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="n">
         <v>29</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
         <v>5.5</v>
@@ -944,7 +944,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -971,16 +971,16 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>7.5</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1171,7 +1171,7 @@
         <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
         <v>101</v>
@@ -1252,7 +1252,7 @@
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1296,7 +1296,7 @@
         <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
@@ -1311,16 +1311,16 @@
         <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -1335,19 +1335,19 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>8</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1371,28 +1371,28 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>151</v>
       </c>
       <c r="AL5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="n">
         <v>67</v>
       </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>5.5</v>
@@ -1845,7 +1845,7 @@
         <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>1.57</v>
@@ -1854,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
         <v>6</v>
@@ -1881,13 +1881,13 @@
         <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1899,7 +1899,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1908,22 +1908,22 @@
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -1932,16 +1932,16 @@
         <v>151</v>
       </c>
       <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
         <v>67</v>
       </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,13 +1968,13 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA8" t="n">
         <v>201</v>
@@ -2039,7 +2039,7 @@
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
@@ -2048,13 +2048,13 @@
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2221,13 +2221,13 @@
         <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3121,16 +3121,16 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -3292,13 +3292,13 @@
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3319,13 +3319,13 @@
         <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>8.5</v>
@@ -3334,7 +3334,7 @@
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
@@ -3356,10 +3356,10 @@
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3374,7 +3374,7 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
@@ -3416,7 +3416,7 @@
         <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
         <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3679,22 +3679,22 @@
         <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>21</v>
@@ -3703,25 +3703,25 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>900</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -3730,16 +3730,16 @@
         <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -3757,7 +3757,7 @@
         <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
@@ -3766,16 +3766,16 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -3864,7 +3864,7 @@
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -4004,7 +4004,7 @@
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
         <v>2.35</v>
@@ -4013,16 +4013,16 @@
         <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.73</v>
@@ -4043,10 +4043,10 @@
         <v>2.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
@@ -4067,7 +4067,7 @@
         <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4110,13 +4110,13 @@
         <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS20" t="n">
         <v>501</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4181,16 +4181,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>1.83</v>
@@ -4199,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.62</v>
@@ -4211,22 +4211,22 @@
         <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
@@ -4241,13 +4241,13 @@
         <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4274,13 +4274,13 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO21" t="n">
         <v>17</v>
@@ -4295,13 +4295,13 @@
         <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>81</v>
@@ -4322,7 +4322,7 @@
         <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -5269,28 +5269,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5305,13 +5305,13 @@
         <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>1.8</v>
@@ -5320,7 +5320,7 @@
         <v>9.75</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -5335,10 +5335,10 @@
         <v>50</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE27" t="n">
         <v>16.5</v>
@@ -5359,7 +5359,7 @@
         <v>8.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -5374,34 +5374,34 @@
         <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR27" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS27" t="n">
         <v>400</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW27" t="n">
         <v>3.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>35</v>
@@ -5451,22 +5451,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5475,127 +5475,127 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R28" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T28" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V28" t="n">
-        <v>2.57</v>
+        <v>2.87</v>
       </c>
       <c r="W28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X28" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AH28" t="n">
         <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS28" t="n">
         <v>120</v>
       </c>
-      <c r="AR28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>175</v>
-      </c>
       <c r="AT28" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AV28" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC28" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -6012,17 +6012,13 @@
       <c r="L31" t="n">
         <v>2.22</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="Q31" t="n">
         <v>1.55</v>
@@ -6031,16 +6027,16 @@
         <v>2.15</v>
       </c>
       <c r="S31" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="U31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="W31" t="n">
         <v>13</v>
@@ -6376,19 +6372,19 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6735,16 +6731,16 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -7101,10 +7097,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7310,7 +7306,7 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
         <v>23</v>
@@ -7322,7 +7318,7 @@
         <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7337,7 +7333,7 @@
         <v>7.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
         <v>11</v>
@@ -7441,13 +7437,13 @@
         <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J39" t="n">
         <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
         <v>4.33</v>
@@ -7486,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="X39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -7549,7 +7545,7 @@
         <v>67</v>
       </c>
       <c r="AS39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT39" t="n">
         <v>2.63</v>
@@ -8001,10 +7997,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8535,10 +8531,10 @@
         <v>8</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -9245,16 +9241,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I49" t="n">
         <v>4.75</v>
       </c>
       <c r="J49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K49" t="n">
         <v>2.4</v>
@@ -9281,10 +9277,10 @@
         <v>2.35</v>
       </c>
       <c r="S49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U49" t="n">
         <v>1.62</v>
@@ -9293,7 +9289,7 @@
         <v>2.2</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X49" t="n">
         <v>9.5</v>
@@ -9311,10 +9307,10 @@
         <v>21</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -9329,7 +9325,7 @@
         <v>17</v>
       </c>
       <c r="AI49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
         <v>15</v>
@@ -9362,7 +9358,7 @@
         <v>101</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU49" t="n">
         <v>7.5</v>
@@ -9389,7 +9385,7 @@
         <v>151</v>
       </c>
       <c r="BC49" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD49" t="n">
         <v>151</v>
@@ -9427,7 +9423,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
@@ -9469,13 +9465,13 @@
         <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>17</v>
@@ -9484,10 +9480,10 @@
         <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB50" t="n">
         <v>26</v>
@@ -9496,19 +9492,19 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI50" t="n">
         <v>12</v>
@@ -9532,7 +9528,7 @@
         <v>15</v>
       </c>
       <c r="AP50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ50" t="n">
         <v>51</v>
@@ -9541,7 +9537,7 @@
         <v>67</v>
       </c>
       <c r="AS50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT50" t="n">
         <v>3.25</v>
@@ -9559,7 +9555,7 @@
         <v>12</v>
       </c>
       <c r="AY50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ50" t="n">
         <v>41</v>
@@ -9571,7 +9567,7 @@
         <v>126</v>
       </c>
       <c r="BC50" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD50" t="n">
         <v>126</v>
@@ -9651,10 +9647,10 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W51" t="n">
         <v>10</v>
@@ -9809,10 +9805,10 @@
         <v>2.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -9821,10 +9817,10 @@
         <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9833,10 +9829,10 @@
         <v>2.63</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W52" t="n">
         <v>11</v>
@@ -10015,10 +10011,10 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V53" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W53" t="n">
         <v>15</v>
@@ -10197,10 +10193,10 @@
         <v>2.5</v>
       </c>
       <c r="U54" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W54" t="n">
         <v>8.5</v>
@@ -10367,10 +10363,10 @@
         <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R55" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -10379,10 +10375,10 @@
         <v>2.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V55" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10421,7 +10417,7 @@
         <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
         <v>15</v>
@@ -10478,7 +10474,7 @@
         <v>101</v>
       </c>
       <c r="BB55" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC55" t="n">
         <v>126</v>
@@ -10549,10 +10545,10 @@
         <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S56" t="n">
         <v>1.44</v>
@@ -10701,19 +10697,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
         <v>4.2</v>
       </c>
       <c r="I57" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
         <v>2.1</v>
       </c>
       <c r="K57" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L57" t="n">
         <v>5.5</v>
@@ -10752,13 +10748,13 @@
         <v>7.5</v>
       </c>
       <c r="X57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y57" t="n">
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA57" t="n">
         <v>12</v>
@@ -10803,10 +10799,10 @@
         <v>3.6</v>
       </c>
       <c r="AO57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
         <v>23</v>
@@ -10821,7 +10817,7 @@
         <v>3.25</v>
       </c>
       <c r="AU57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV57" t="n">
         <v>51</v>
@@ -10886,7 +10882,7 @@
         <v>3.5</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
         <v>2.1</v>
@@ -10895,43 +10891,43 @@
         <v>4.33</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W58" t="n">
         <v>8</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W58" t="n">
-        <v>8.5</v>
       </c>
       <c r="X58" t="n">
         <v>17</v>
@@ -10949,19 +10945,19 @@
         <v>41</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="n">
         <v>67</v>
       </c>
       <c r="AG58" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -10976,10 +10972,10 @@
         <v>19</v>
       </c>
       <c r="AL58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
         <v>5.5</v>
@@ -10994,13 +10990,13 @@
         <v>81</v>
       </c>
       <c r="AR58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS58" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU58" t="n">
         <v>9</v>
@@ -11012,16 +11008,16 @@
         <v>4</v>
       </c>
       <c r="AX58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ58" t="n">
         <v>41</v>
       </c>
       <c r="BA58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB58" t="n">
         <v>251</v>
@@ -11446,7 +11442,7 @@
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -12499,97 +12495,97 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H67" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J67" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="K67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O67" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="P67" t="n">
-        <v>7</v>
+        <v>7.85</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R67" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S67" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="T67" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="U67" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W67" t="n">
         <v>12.5</v>
       </c>
       <c r="X67" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y67" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA67" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB67" t="n">
         <v>32</v>
       </c>
       <c r="AC67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG67" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI67" t="n">
         <v>175</v>
       </c>
       <c r="AJ67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL67" t="n">
         <v>250</v>
@@ -12601,13 +12597,13 @@
         <v>3.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AP67" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AR67" t="n">
         <v>26</v>
@@ -12616,22 +12612,22 @@
         <v>150</v>
       </c>
       <c r="AT67" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AU67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AV67" t="n">
         <v>80</v>
       </c>
       <c r="AW67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AX67" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AY67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="n">
@@ -12678,148 +12674,148 @@
         <v>1.57</v>
       </c>
       <c r="H68" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I68" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
         <v>1.98</v>
       </c>
       <c r="K68" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L68" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="O68" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P68" t="n">
-        <v>5.15</v>
+        <v>6.81</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="R68" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="S68" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="T68" t="n">
-        <v>4.4</v>
+        <v>4.51</v>
       </c>
       <c r="U68" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="V68" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="W68" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="X68" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Y68" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA68" t="n">
         <v>11</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AD68" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE68" t="n">
         <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG68" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH68" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL68" t="n">
         <v>32</v>
       </c>
-      <c r="AJ68" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>35</v>
-      </c>
       <c r="AM68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AO68" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AP68" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AQ68" t="n">
         <v>18.5</v>
       </c>
       <c r="AR68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS68" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT68" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="AU68" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV68" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AW68" t="n">
         <v>6.9</v>
       </c>
       <c r="AX68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ68" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA68" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB68" t="n">
         <v>150</v>
       </c>
       <c r="BC68" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD68" t="inlineStr"/>
     </row>
@@ -12855,151 +12851,151 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="H69" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I69" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K69" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L69" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
       </c>
       <c r="N69" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O69" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="P69" t="n">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="Q69" t="n">
         <v>1.33</v>
       </c>
       <c r="R69" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="S69" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="T69" t="n">
-        <v>4.4</v>
+        <v>4.51</v>
       </c>
       <c r="U69" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="V69" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="W69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z69" t="n">
         <v>12</v>
       </c>
-      <c r="X69" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD69" t="n">
         <v>10.75</v>
       </c>
-      <c r="AA69" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD69" t="n">
+      <c r="AE69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP69" t="n">
         <v>11.25</v>
       </c>
-      <c r="AE69" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AQ69" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AR69" t="n">
         <v>27</v>
       </c>
       <c r="AS69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA69" t="n">
         <v>100</v>
       </c>
-      <c r="AT69" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>150</v>
-      </c>
       <c r="BB69" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC69" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BD69" t="inlineStr"/>
     </row>
@@ -13062,7 +13058,7 @@
         <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q70" t="n">
         <v>1.55</v>
@@ -14503,7 +14499,7 @@
         <v>2.22</v>
       </c>
       <c r="U78" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="V78" t="n">
         <v>1.66</v>
@@ -14991,37 +14987,37 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H81" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I81" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J81" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>8.35</v>
+        <v>8.65</v>
       </c>
       <c r="O81" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R81" t="n">
         <v>1.65</v>
@@ -15030,37 +15026,37 @@
         <v>1.38</v>
       </c>
       <c r="T81" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U81" t="n">
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W81" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X81" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y81" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA81" t="n">
         <v>25</v>
       </c>
       <c r="AB81" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -15072,37 +15068,37 @@
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI81" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK81" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL81" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM81" t="n">
         <v>32</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO81" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR81" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
@@ -15111,16 +15107,16 @@
         <v>2.55</v>
       </c>
       <c r="AU81" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV81" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX81" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY81" t="n">
         <v>20</v>
@@ -15377,7 +15373,7 @@
         <v>5.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R83" t="n">
         <v>2.5</v>
@@ -15434,7 +15430,7 @@
         <v>34</v>
       </c>
       <c r="AJ83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK83" t="n">
         <v>51</v>
@@ -15458,7 +15454,7 @@
         <v>21</v>
       </c>
       <c r="AR83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS83" t="n">
         <v>81</v>
@@ -15559,7 +15555,7 @@
         <v>5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R84" t="n">
         <v>2.4</v>
@@ -15741,7 +15737,7 @@
         <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R85" t="n">
         <v>2.35</v>
@@ -15893,22 +15889,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H86" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J86" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="K86" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
@@ -15920,7 +15916,7 @@
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="Q86" t="n">
         <v>1.7</v>
@@ -15929,10 +15925,10 @@
         <v>1.93</v>
       </c>
       <c r="S86" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T86" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="U86" t="n">
         <v>1.59</v>
@@ -15941,91 +15937,91 @@
         <v>2.29</v>
       </c>
       <c r="W86" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X86" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y86" t="n">
         <v>7.7</v>
       </c>
-      <c r="X86" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z86" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB86" t="n">
         <v>19</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE86" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF86" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG86" t="n">
         <v>200</v>
       </c>
       <c r="AH86" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
       </c>
       <c r="AJ86" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK86" t="n">
         <v>26</v>
       </c>
       <c r="AL86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO86" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AP86" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>45</v>
       </c>
       <c r="AR86" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS86" t="n">
         <v>200</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV86" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX86" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ86" t="n">
         <v>65</v>
@@ -16034,7 +16030,7 @@
         <v>90</v>
       </c>
       <c r="BB86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16071,7 +16067,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>3.65</v>
@@ -16101,10 +16097,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R87" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16113,10 +16109,10 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="V87" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="W87" t="n">
         <v>10.75</v>
@@ -16131,13 +16127,13 @@
         <v>23</v>
       </c>
       <c r="AA87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB87" t="n">
         <v>17</v>
       </c>
       <c r="AC87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD87" t="n">
         <v>6.8</v>
@@ -16179,7 +16175,7 @@
         <v>17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR87" t="n">
         <v>65</v>
@@ -16429,34 +16425,34 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I89" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J89" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="K89" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L89" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N89" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P89" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="Q89" t="n">
         <v>2.27</v>
@@ -16465,46 +16461,46 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T89" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="n">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="V89" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W89" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X89" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y89" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA89" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB89" t="n">
         <v>75</v>
       </c>
-      <c r="AB89" t="n">
-        <v>90</v>
-      </c>
       <c r="AC89" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AE89" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
@@ -16513,59 +16509,59 @@
         <v>3.95</v>
       </c>
       <c r="AI89" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AJ89" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK89" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM89" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN89" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP89" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ89" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR89" t="n">
         <v>400</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>500</v>
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV89" t="n">
         <v>120</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY89" t="n">
         <v>23</v>
       </c>
       <c r="AZ89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA89" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB89" t="n">
         <v>450</v>
@@ -16617,10 +16613,10 @@
         <v>2.1</v>
       </c>
       <c r="K90" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L90" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
@@ -16632,28 +16628,28 @@
         <v>1.44</v>
       </c>
       <c r="P90" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R90" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S90" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U90" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V90" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W90" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="X90" t="n">
         <v>5.8</v>
@@ -16665,7 +16661,7 @@
         <v>10</v>
       </c>
       <c r="AA90" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB90" t="n">
         <v>45</v>
@@ -16677,28 +16673,28 @@
         <v>7.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF90" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG90" t="n">
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI90" t="n">
         <v>37</v>
       </c>
       <c r="AJ90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK90" t="n">
         <v>150</v>
       </c>
       <c r="AL90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM90" t="n">
         <v>110</v>
@@ -16707,10 +16703,10 @@
         <v>3.1</v>
       </c>
       <c r="AO90" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ90" t="n">
         <v>25</v>
@@ -16719,10 +16715,10 @@
         <v>75</v>
       </c>
       <c r="AS90" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU90" t="n">
         <v>9.5</v>
@@ -16734,16 +16730,16 @@
         <v>7.5</v>
       </c>
       <c r="AX90" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ90" t="n">
         <v>350</v>
       </c>
       <c r="BA90" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="inlineStr"/>
@@ -17135,7 +17131,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>3.1</v>
@@ -17144,7 +17140,7 @@
         <v>2.7</v>
       </c>
       <c r="J93" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
@@ -17153,22 +17149,22 @@
         <v>3.25</v>
       </c>
       <c r="M93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O93" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R93" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S93" t="n">
         <v>1.44</v>
@@ -17177,31 +17173,31 @@
         <v>2.63</v>
       </c>
       <c r="U93" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V93" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
       </c>
       <c r="Y93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z93" t="n">
         <v>26</v>
       </c>
       <c r="AA93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD93" t="n">
         <v>6</v>
@@ -17210,13 +17206,13 @@
         <v>13</v>
       </c>
       <c r="AF93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG93" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI93" t="n">
         <v>13</v>
@@ -17231,7 +17227,7 @@
         <v>21</v>
       </c>
       <c r="AM93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN93" t="n">
         <v>4.75</v>
@@ -17240,7 +17236,7 @@
         <v>15</v>
       </c>
       <c r="AP93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ93" t="n">
         <v>51</v>
@@ -17249,7 +17245,7 @@
         <v>67</v>
       </c>
       <c r="AS93" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT93" t="n">
         <v>2.63</v>
@@ -17261,13 +17257,13 @@
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
       </c>
       <c r="AY93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ93" t="n">
         <v>51</v>
@@ -17276,7 +17272,7 @@
         <v>67</v>
       </c>
       <c r="BB93" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC93" t="n">
         <v>126</v>
@@ -17504,7 +17500,7 @@
         <v>1.78</v>
       </c>
       <c r="J95" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="K95" t="n">
         <v>1.98</v>
@@ -17516,7 +17512,7 @@
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>6.94</v>
+        <v>7.81</v>
       </c>
       <c r="O95" t="n">
         <v>1.42</v>
@@ -18404,49 +18400,49 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J100" t="n">
         <v>34</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="R100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W100" t="n">
         <v>67</v>
@@ -18467,7 +18463,7 @@
         <v>251</v>
       </c>
       <c r="AC100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD100" t="n">
         <v>41</v>
@@ -18476,35 +18472,35 @@
         <v>81</v>
       </c>
       <c r="AF100" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK100" t="n">
         <v>6.5</v>
       </c>
       <c r="AL100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM100" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO100" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP100" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18516,31 +18512,31 @@
         <v>451</v>
       </c>
       <c r="AT100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AU100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV100" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AW100" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX100" t="n">
         <v>3.75</v>
       </c>
       <c r="AY100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ100" t="n">
         <v>5.5</v>
       </c>
       <c r="BA100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB100" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18590,13 +18586,13 @@
         <v>1.03</v>
       </c>
       <c r="J101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K101" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M101" t="n">
         <v>1.01</v>
@@ -18611,10 +18607,10 @@
         <v>13</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="R101" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S101" t="n">
         <v>1.11</v>
@@ -18654,23 +18650,23 @@
         <v>67</v>
       </c>
       <c r="AF101" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ101" t="n">
         <v>21</v>
       </c>
       <c r="AK101" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
@@ -18682,7 +18678,7 @@
         <v>151</v>
       </c>
       <c r="AP101" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="inlineStr"/>
@@ -18691,19 +18687,19 @@
         <v>6.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV101" t="n">
         <v>101</v>
       </c>
       <c r="AW101" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX101" t="n">
         <v>3.75</v>
       </c>
       <c r="AY101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ101" t="n">
         <v>6</v>
@@ -18712,7 +18708,7 @@
         <v>29</v>
       </c>
       <c r="BB101" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC101" t="inlineStr"/>
       <c r="BD101" t="inlineStr"/>
@@ -19123,10 +19119,10 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -19135,10 +19131,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S104" t="n">
         <v>1.5</v>
@@ -19287,7 +19283,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H105" t="n">
         <v>3.4</v>
@@ -19296,13 +19292,13 @@
         <v>3.1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K105" t="n">
         <v>2.2</v>
       </c>
       <c r="L105" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105" t="n">
         <v>1.05</v>
@@ -19335,19 +19331,19 @@
         <v>2</v>
       </c>
       <c r="W105" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X105" t="n">
         <v>11</v>
       </c>
       <c r="Y105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z105" t="n">
         <v>21</v>
       </c>
       <c r="AA105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB105" t="n">
         <v>26</v>
@@ -19371,7 +19367,7 @@
         <v>10</v>
       </c>
       <c r="AI105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ105" t="n">
         <v>11</v>
@@ -19389,7 +19385,7 @@
         <v>4.33</v>
       </c>
       <c r="AO105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP105" t="n">
         <v>21</v>
@@ -19425,7 +19421,7 @@
         <v>51</v>
       </c>
       <c r="BA105" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB105" t="n">
         <v>151</v>
@@ -19493,16 +19489,16 @@
         <v>9</v>
       </c>
       <c r="O106" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P106" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R106" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S106" t="n">
         <v>1.5</v>
@@ -19645,90 +19641,90 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.6</v>
+        <v>8.25</v>
       </c>
       <c r="H107" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="J107" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="L107" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P107" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
         <v>1.06</v>
       </c>
-      <c r="P107" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R107" t="n">
-        <v>4</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.09</v>
-      </c>
       <c r="T107" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="U107" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V107" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="W107" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="X107" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y107" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Z107" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AA107" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AB107" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AC107" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AD107" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AE107" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF107" t="n">
         <v>22</v>
       </c>
       <c r="AG107" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AH107" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI107" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AJ107" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK107" t="n">
         <v>13</v>
@@ -19737,55 +19733,55 @@
         <v>9.25</v>
       </c>
       <c r="AM107" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AN107" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO107" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AP107" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ107" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AR107" t="n">
         <v>90</v>
       </c>
       <c r="AS107" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT107" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AU107" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV107" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AW107" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="AX107" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AY107" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AZ107" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB107" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BC107" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BD107" t="inlineStr"/>
     </row>
@@ -19999,7 +19995,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
@@ -20026,10 +20022,10 @@
         <v>1.38</v>
       </c>
       <c r="P109" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R109" t="n">
         <v>1.57</v>
@@ -20044,13 +20040,13 @@
         <v>1.82</v>
       </c>
       <c r="V109" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W109" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X109" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y109" t="n">
         <v>9.25</v>
@@ -20059,49 +20055,49 @@
         <v>24</v>
       </c>
       <c r="AA109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB109" t="n">
         <v>35</v>
       </c>
       <c r="AC109" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD109" t="n">
         <v>5.8</v>
       </c>
       <c r="AE109" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF109" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG109" t="n">
         <v>700</v>
       </c>
       <c r="AH109" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI109" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ109" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK109" t="n">
         <v>40</v>
       </c>
       <c r="AL109" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM109" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN109" t="n">
         <v>4.1</v>
       </c>
       <c r="AO109" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP109" t="n">
         <v>24</v>
@@ -20122,7 +20118,7 @@
         <v>7.3</v>
       </c>
       <c r="AV109" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW109" t="n">
         <v>4.8</v>
@@ -20131,16 +20127,16 @@
         <v>17.5</v>
       </c>
       <c r="AY109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ109" t="n">
         <v>90</v>
       </c>
       <c r="BA109" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB109" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC109" t="inlineStr"/>
       <c r="BD109" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>34</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>7.5</v>
@@ -843,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>201</v>
       </c>
       <c r="AR2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -876,7 +876,7 @@
         <v>3.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
@@ -1171,19 +1171,19 @@
         <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1252,7 +1252,7 @@
         <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>15</v>
@@ -1857,13 +1857,13 @@
         <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
         <v>6</v>
@@ -1902,7 +1902,7 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
@@ -1917,7 +1917,7 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1929,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL8" t="n">
         <v>81</v>
@@ -1980,7 +1980,7 @@
         <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>451</v>
@@ -2027,7 +2027,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -2036,31 +2036,31 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.7</v>
@@ -2084,7 +2084,7 @@
         <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2111,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>17</v>
@@ -2120,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
@@ -2221,13 +2221,13 @@
         <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2239,10 +2239,10 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
@@ -2284,16 +2284,16 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>11</v>
@@ -2305,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2341,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
         <v>101</v>
@@ -2928,7 +2928,7 @@
         <v>1.27</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
         <v>11</v>
@@ -2940,25 +2940,25 @@
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2979,10 +2979,10 @@
         <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>9.5</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>51</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
         <v>11</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>1.73</v>
@@ -3112,13 +3112,13 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -3139,22 +3139,22 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
@@ -3182,7 +3182,7 @@
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>151</v>
@@ -3191,16 +3191,16 @@
         <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="n">
         <v>3.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>15</v>
@@ -3218,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>11</v>
@@ -3230,10 +3230,10 @@
         <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
@@ -3652,37 +3652,37 @@
         <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>5.5</v>
@@ -3691,10 +3691,10 @@
         <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>21</v>
@@ -3703,13 +3703,13 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
@@ -3718,13 +3718,13 @@
         <v>900</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
@@ -3739,7 +3739,7 @@
         <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -3751,13 +3751,13 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
@@ -3766,13 +3766,13 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
         <v>151</v>
@@ -3864,7 +3864,7 @@
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -4004,7 +4004,7 @@
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
         <v>2.35</v>
@@ -4013,16 +4013,16 @@
         <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.73</v>
@@ -4043,10 +4043,10 @@
         <v>2.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
@@ -4067,7 +4067,7 @@
         <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4110,13 +4110,13 @@
         <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS20" t="n">
         <v>501</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.14</v>
@@ -4205,16 +4205,16 @@
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>3.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
         <v>1.67</v>
@@ -4223,28 +4223,28 @@
         <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
         <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="n">
         <v>5.5</v>
@@ -4256,22 +4256,22 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="n">
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
@@ -4283,19 +4283,19 @@
         <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT21" t="n">
         <v>2.1</v>
@@ -4307,13 +4307,13 @@
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
@@ -4322,7 +4322,7 @@
         <v>126</v>
       </c>
       <c r="BB21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC21" t="n">
         <v>400</v>
@@ -5269,58 +5269,58 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T27" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W27" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -5332,43 +5332,43 @@
         <v>37</v>
       </c>
       <c r="AB27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.6</v>
       </c>
       <c r="AE27" t="n">
         <v>16.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
       <c r="AK27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL27" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>30</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO27" t="n">
         <v>21</v>
@@ -5383,10 +5383,10 @@
         <v>150</v>
       </c>
       <c r="AS27" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
@@ -5395,19 +5395,19 @@
         <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB27" t="n">
         <v>250</v>
@@ -5451,22 +5451,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="I28" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5475,64 +5475,64 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T28" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="U28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V28" t="n">
         <v>2.87</v>
       </c>
       <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB28" t="n">
         <v>25</v>
       </c>
-      <c r="X28" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>24</v>
-      </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
@@ -5541,61 +5541,61 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR28" t="n">
         <v>80</v>
       </c>
-      <c r="AR28" t="n">
-        <v>75</v>
-      </c>
       <c r="AS28" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AY28" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
         <v>80</v>
       </c>
       <c r="BC28" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5822,7 +5822,7 @@
         <v>5.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K30" t="n">
         <v>2.27</v>
@@ -5831,10 +5831,10 @@
         <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>7.85</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.26</v>
@@ -5846,7 +5846,7 @@
         <v>1.78</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5861,10 +5861,10 @@
         <v>1.75</v>
       </c>
       <c r="W30" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
@@ -5876,7 +5876,7 @@
         <v>12.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -5906,7 +5906,7 @@
         <v>100</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>60</v>
@@ -5915,10 +5915,10 @@
         <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
@@ -5933,7 +5933,7 @@
         <v>2.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV30" t="n">
         <v>70</v>
@@ -5945,16 +5945,16 @@
         <v>30</v>
       </c>
       <c r="AY30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA30" t="n">
         <v>200</v>
       </c>
       <c r="BB30" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC30" t="n">
         <v>51</v>
@@ -6707,13 +6707,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>2.2</v>
@@ -6737,16 +6737,16 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -6779,19 +6779,19 @@
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH35" t="n">
         <v>15</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>17</v>
@@ -6809,13 +6809,13 @@
         <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP35" t="n">
         <v>19</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
@@ -6824,7 +6824,7 @@
         <v>126</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
         <v>8</v>
@@ -6836,7 +6836,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY35" t="n">
         <v>34</v>
@@ -6915,10 +6915,10 @@
         <v>3.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.44</v>
@@ -7067,10 +7067,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
         <v>2.38</v>
@@ -7079,61 +7079,61 @@
         <v>3.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
       </c>
       <c r="AA37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -7145,10 +7145,10 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
         <v>11</v>
@@ -7163,13 +7163,13 @@
         <v>21</v>
       </c>
       <c r="AM37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN37" t="n">
         <v>5</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -7181,16 +7181,16 @@
         <v>81</v>
       </c>
       <c r="AS37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
         <v>4.33</v>
@@ -7199,10 +7199,10 @@
         <v>13</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA37" t="n">
         <v>67</v>
@@ -7862,14 +7862,14 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
@@ -7923,7 +7923,7 @@
         <v>51</v>
       </c>
       <c r="BA41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB41" t="n">
         <v>301</v>
@@ -7997,10 +7997,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8114,7 +8114,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
@@ -8355,16 +8355,16 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R44" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S44" t="n">
         <v>1.29</v>
@@ -8513,13 +8513,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>1.95</v>
@@ -8528,13 +8528,13 @@
         <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8567,28 +8567,28 @@
         <v>6</v>
       </c>
       <c r="Y45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z45" t="n">
         <v>9</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
         <v>501</v>
@@ -8639,7 +8639,7 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
@@ -8657,7 +8657,7 @@
         <v>451</v>
       </c>
       <c r="BC45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8883,7 +8883,7 @@
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>2.88</v>
@@ -8892,7 +8892,7 @@
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -8934,7 +8934,7 @@
         <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
         <v>17</v>
@@ -9003,7 +9003,7 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX47" t="n">
         <v>19</v>
@@ -9059,19 +9059,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
         <v>3.75</v>
@@ -9194,7 +9194,7 @@
         <v>29</v>
       </c>
       <c r="AZ48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA48" t="n">
         <v>81</v>
@@ -9206,7 +9206,7 @@
         <v>126</v>
       </c>
       <c r="BD48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -9244,7 +9244,7 @@
         <v>1.65</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
         <v>4.75</v>
@@ -9253,7 +9253,7 @@
         <v>2.2</v>
       </c>
       <c r="K49" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L49" t="n">
         <v>4.75</v>
@@ -9265,16 +9265,16 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S49" t="n">
         <v>1.29</v>
@@ -9283,16 +9283,16 @@
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="n">
         <v>8.5</v>
@@ -9304,7 +9304,7 @@
         <v>12</v>
       </c>
       <c r="AB49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="n">
         <v>17</v>
@@ -9319,13 +9319,13 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ49" t="n">
         <v>15</v>
@@ -9346,16 +9346,16 @@
         <v>8.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR49" t="n">
         <v>41</v>
       </c>
       <c r="AS49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT49" t="n">
         <v>3.5</v>
@@ -9385,7 +9385,7 @@
         <v>151</v>
       </c>
       <c r="BC49" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD49" t="n">
         <v>151</v>
@@ -9453,10 +9453,10 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9623,22 +9623,22 @@
         <v>2.88</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9647,10 +9647,10 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W51" t="n">
         <v>10</v>
@@ -9829,10 +9829,10 @@
         <v>2.63</v>
       </c>
       <c r="U52" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W52" t="n">
         <v>11</v>
@@ -10011,10 +10011,10 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V53" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W53" t="n">
         <v>15</v>
@@ -10151,40 +10151,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L54" t="n">
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S54" t="n">
         <v>1.5</v>
@@ -10193,10 +10193,10 @@
         <v>2.5</v>
       </c>
       <c r="U54" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
         <v>8.5</v>
@@ -10244,7 +10244,7 @@
         <v>21</v>
       </c>
       <c r="AL54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="n">
         <v>34</v>
@@ -10339,7 +10339,7 @@
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J55" t="n">
         <v>2.4</v>
@@ -10348,13 +10348,13 @@
         <v>2.2</v>
       </c>
       <c r="L55" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O55" t="n">
         <v>1.29</v>
@@ -10375,16 +10375,16 @@
         <v>2.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V55" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10399,7 +10399,7 @@
         <v>26</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD55" t="n">
         <v>7</v>
@@ -10417,13 +10417,13 @@
         <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ55" t="n">
         <v>15</v>
       </c>
       <c r="AK55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="n">
         <v>34</v>
@@ -10697,16 +10697,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
         <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
@@ -10757,7 +10757,7 @@
         <v>12</v>
       </c>
       <c r="AA57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB57" t="n">
         <v>23</v>
@@ -10769,13 +10769,13 @@
         <v>8</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH57" t="n">
         <v>15</v>
@@ -10805,7 +10805,7 @@
         <v>19</v>
       </c>
       <c r="AQ57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR57" t="n">
         <v>41</v>
@@ -10826,7 +10826,7 @@
         <v>7</v>
       </c>
       <c r="AX57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY57" t="n">
         <v>34</v>
@@ -13031,22 +13031,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="H70" t="n">
         <v>3.55</v>
       </c>
       <c r="I70" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="J70" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="K70" t="n">
         <v>2.27</v>
       </c>
       <c r="L70" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M70" t="n">
         <v>1.02</v>
@@ -13058,7 +13058,7 @@
         <v>1.12</v>
       </c>
       <c r="P70" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
         <v>1.55</v>
@@ -13067,10 +13067,10 @@
         <v>2.15</v>
       </c>
       <c r="S70" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T70" t="n">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="U70" t="n">
         <v>1.47</v>
@@ -13079,22 +13079,22 @@
         <v>2.32</v>
       </c>
       <c r="W70" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA70" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC70" t="n">
         <v>14.5</v>
@@ -13106,49 +13106,49 @@
         <v>11.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG70" t="n">
         <v>200</v>
       </c>
       <c r="AH70" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI70" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL70" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AM70" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="AO70" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ70" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR70" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS70" t="n">
         <v>150</v>
       </c>
       <c r="AT70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU70" t="n">
         <v>6.3</v>
@@ -13157,19 +13157,19 @@
         <v>40</v>
       </c>
       <c r="AW70" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AX70" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BA70" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB70" t="n">
         <v>175</v>
@@ -13211,22 +13211,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I71" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K71" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L71" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -13238,7 +13238,7 @@
         <v>1.13</v>
       </c>
       <c r="P71" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
@@ -13247,16 +13247,16 @@
         <v>2.12</v>
       </c>
       <c r="S71" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T71" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="U71" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V71" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W71" t="n">
         <v>11.25</v>
@@ -13271,22 +13271,22 @@
         <v>28</v>
       </c>
       <c r="AA71" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB71" t="n">
         <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="n">
         <v>250</v>
@@ -13295,16 +13295,16 @@
         <v>11</v>
       </c>
       <c r="AI71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ71" t="n">
         <v>9.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL71" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM71" t="n">
         <v>23</v>
@@ -13316,7 +13316,7 @@
         <v>12.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>50</v>
@@ -13325,22 +13325,22 @@
         <v>70</v>
       </c>
       <c r="AS71" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU71" t="n">
         <v>6.6</v>
       </c>
       <c r="AV71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX71" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY71" t="n">
         <v>17.5</v>
@@ -13349,7 +13349,7 @@
         <v>45</v>
       </c>
       <c r="BA71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB71" t="n">
         <v>175</v>
@@ -13389,22 +13389,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H72" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I72" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L72" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -13419,10 +13419,10 @@
         <v>6.2</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R72" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="S72" t="n">
         <v>1.18</v>
@@ -13434,7 +13434,7 @@
         <v>1.36</v>
       </c>
       <c r="V72" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="W72" t="n">
         <v>14.5</v>
@@ -13452,19 +13452,19 @@
         <v>11.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE72" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG72" t="n">
         <v>120</v>
@@ -13473,61 +13473,61 @@
         <v>22</v>
       </c>
       <c r="AI72" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL72" t="n">
         <v>30</v>
       </c>
-      <c r="AJ72" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>28</v>
-      </c>
       <c r="AM72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN72" t="n">
         <v>4.25</v>
       </c>
       <c r="AO72" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AP72" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ72" t="n">
         <v>21</v>
       </c>
       <c r="AR72" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS72" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT72" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AU72" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV72" t="n">
         <v>32</v>
       </c>
       <c r="AW72" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AX72" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY72" t="n">
         <v>18.5</v>
       </c>
-      <c r="AY72" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB72" t="n">
         <v>150</v>
@@ -15373,7 +15373,7 @@
         <v>5.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R83" t="n">
         <v>2.5</v>
@@ -15430,7 +15430,7 @@
         <v>34</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK83" t="n">
         <v>51</v>
@@ -15454,7 +15454,7 @@
         <v>21</v>
       </c>
       <c r="AR83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS83" t="n">
         <v>81</v>
@@ -15555,7 +15555,7 @@
         <v>5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R84" t="n">
         <v>2.4</v>
@@ -15707,13 +15707,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H85" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I85" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J85" t="n">
         <v>2.05</v>
@@ -15722,7 +15722,7 @@
         <v>2.5</v>
       </c>
       <c r="L85" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -15737,7 +15737,7 @@
         <v>5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R85" t="n">
         <v>2.35</v>
@@ -15749,16 +15749,16 @@
         <v>3.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V85" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
         <v>8.5</v>
@@ -15773,7 +15773,7 @@
         <v>21</v>
       </c>
       <c r="AC85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD85" t="n">
         <v>8.5</v>
@@ -15791,7 +15791,7 @@
         <v>19</v>
       </c>
       <c r="AI85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ85" t="n">
         <v>17</v>
@@ -15833,7 +15833,7 @@
         <v>41</v>
       </c>
       <c r="AW85" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX85" t="n">
         <v>26</v>
@@ -15845,7 +15845,7 @@
         <v>81</v>
       </c>
       <c r="BA85" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB85" t="n">
         <v>151</v>
@@ -15916,7 +15916,7 @@
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>3.68</v>
+        <v>3.74</v>
       </c>
       <c r="Q86" t="n">
         <v>1.7</v>
@@ -15925,16 +15925,16 @@
         <v>1.93</v>
       </c>
       <c r="S86" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T86" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U86" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V86" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="W86" t="n">
         <v>7.8</v>
@@ -16067,28 +16067,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I87" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L87" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="M87" t="n">
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="O87" t="n">
         <v>1.14</v>
@@ -16097,10 +16097,10 @@
         <v>4.9</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R87" t="n">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="n">
         <v>1.24</v>
@@ -16109,46 +16109,46 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="V87" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="W87" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="X87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z87" t="n">
         <v>23</v>
       </c>
       <c r="AA87" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC87" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AE87" t="n">
         <v>9.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG87" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH87" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI87" t="n">
         <v>12</v>
@@ -16157,52 +16157,52 @@
         <v>8</v>
       </c>
       <c r="AK87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL87" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM87" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO87" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ87" t="n">
         <v>50</v>
       </c>
       <c r="AR87" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS87" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT87" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU87" t="n">
         <v>6.4</v>
       </c>
       <c r="AV87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW87" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX87" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA87" t="n">
         <v>60</v>
@@ -17669,22 +17669,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H96" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I96" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K96" t="n">
         <v>1.82</v>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M96" t="n">
         <v>1.15</v>
@@ -17723,16 +17723,16 @@
         <v>14.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z96" t="n">
         <v>45</v>
       </c>
       <c r="AA96" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC96" t="n">
         <v>4.8</v>
@@ -17750,34 +17750,34 @@
         <v>101</v>
       </c>
       <c r="AH96" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI96" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL96" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM96" t="n">
         <v>55</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO96" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ96" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR96" t="n">
         <v>200</v>
@@ -17795,16 +17795,16 @@
         <v>110</v>
       </c>
       <c r="AW96" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AX96" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY96" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ96" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA96" t="n">
         <v>150</v>
@@ -18033,28 +18033,28 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H98" t="n">
         <v>2.77</v>
       </c>
       <c r="I98" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J98" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K98" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M98" t="n">
         <v>1.15</v>
       </c>
       <c r="N98" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
@@ -18063,7 +18063,7 @@
         <v>2.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R98" t="n">
         <v>1.36</v>
@@ -18072,25 +18072,25 @@
         <v>1.65</v>
       </c>
       <c r="T98" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U98" t="n">
         <v>2.32</v>
       </c>
       <c r="V98" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W98" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X98" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y98" t="n">
         <v>11</v>
       </c>
       <c r="Z98" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA98" t="n">
         <v>30</v>
@@ -18099,13 +18099,13 @@
         <v>60</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF98" t="n">
         <v>175</v>
@@ -18114,25 +18114,25 @@
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI98" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ98" t="n">
         <v>12.5</v>
       </c>
       <c r="AK98" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL98" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM98" t="n">
         <v>65</v>
       </c>
       <c r="AN98" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO98" t="n">
         <v>15</v>
@@ -18141,7 +18141,7 @@
         <v>32</v>
       </c>
       <c r="AQ98" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR98" t="n">
         <v>175</v>
@@ -18150,7 +18150,7 @@
         <v>500</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AU98" t="n">
         <v>8.5</v>
@@ -18159,16 +18159,16 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AX98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY98" t="n">
         <v>35</v>
       </c>
       <c r="AZ98" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA98" t="n">
         <v>200</v>
@@ -18412,7 +18412,7 @@
         <v>5.5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
@@ -18439,19 +18439,19 @@
         <v>7</v>
       </c>
       <c r="U100" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V100" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W100" t="n">
         <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="Y100" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
@@ -18460,13 +18460,13 @@
         <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AC100" t="n">
         <v>34</v>
       </c>
       <c r="AD100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE100" t="n">
         <v>81</v>
@@ -18497,10 +18497,10 @@
         <v>41</v>
       </c>
       <c r="AO100" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18515,10 +18515,10 @@
         <v>7</v>
       </c>
       <c r="AU100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AW100" t="n">
         <v>3.6</v>
@@ -18533,7 +18533,7 @@
         <v>5.5</v>
       </c>
       <c r="BA100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB100" t="n">
         <v>201</v>
@@ -18586,25 +18586,25 @@
         <v>1.03</v>
       </c>
       <c r="J101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K101" t="n">
         <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M101" t="n">
-        <v>1.01</v>
+        <v>51</v>
       </c>
       <c r="N101" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O101" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q101" t="n">
         <v>1.14</v>
@@ -18619,16 +18619,16 @@
         <v>6.5</v>
       </c>
       <c r="U101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W101" t="n">
         <v>51</v>
       </c>
       <c r="X101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="Y101" t="n">
         <v>67</v>
@@ -18638,7 +18638,7 @@
         <v>301</v>
       </c>
       <c r="AB101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AC101" t="n">
         <v>34</v>
@@ -18650,35 +18650,35 @@
         <v>67</v>
       </c>
       <c r="AF101" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
         <v>19</v>
       </c>
       <c r="AI101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ101" t="n">
         <v>21</v>
       </c>
       <c r="AK101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
       </c>
       <c r="AN101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO101" t="n">
         <v>151</v>
       </c>
       <c r="AP101" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="inlineStr"/>
@@ -18687,7 +18687,7 @@
         <v>6.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV101" t="n">
         <v>101</v>
@@ -18699,7 +18699,7 @@
         <v>3.75</v>
       </c>
       <c r="AY101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ101" t="n">
         <v>6</v>
@@ -18708,7 +18708,7 @@
         <v>29</v>
       </c>
       <c r="BB101" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC101" t="inlineStr"/>
       <c r="BD101" t="inlineStr"/>
@@ -19679,10 +19679,10 @@
         <v>7.3</v>
       </c>
       <c r="U107" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V107" t="n">
-        <v>3.77</v>
+        <v>3.69</v>
       </c>
       <c r="W107" t="n">
         <v>80</v>
@@ -19838,7 +19838,7 @@
         <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>9.35</v>
+        <v>7.65</v>
       </c>
       <c r="O108" t="n">
         <v>1.31</v>
@@ -19995,145 +19995,141 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I109" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="J109" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="K109" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L109" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W109" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X109" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN109" t="n">
         <v>3.7</v>
       </c>
-      <c r="M109" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N109" t="n">
-        <v>8</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P109" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R109" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S109" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T109" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U109" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V109" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W109" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X109" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB109" t="n">
+      <c r="AO109" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ109" t="n">
         <v>35</v>
       </c>
-      <c r="AC109" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>60</v>
-      </c>
       <c r="AR109" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AS109" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AU109" t="n">
         <v>7.3</v>
       </c>
       <c r="AV109" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW109" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AX109" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AY109" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AZ109" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BA109" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB109" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.11</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1192,16 +1192,16 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1213,13 +1213,13 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
         <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,16 +1693,16 @@
         <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>6.5</v>
@@ -1765,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,16 +1774,16 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1792,10 +1792,10 @@
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1869,10 +1869,10 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>1.22</v>
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K13" t="n">
         <v>2.88</v>
@@ -2769,28 +2769,28 @@
         <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.33</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2817,17 +2817,17 @@
         <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF13" t="n">
         <v>201</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2851,7 +2851,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2860,7 +2860,7 @@
         <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -2869,7 +2869,7 @@
         <v>126</v>
       </c>
       <c r="AW13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>101</v>
@@ -2925,40 +2925,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2967,13 +2967,13 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>5.5</v>
@@ -2991,47 +2991,47 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
         <v>101</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>51</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
         <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3043,13 +3043,13 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>51</v>
@@ -3058,9 +3058,11 @@
         <v>51</v>
       </c>
       <c r="AZ14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA14" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>301</v>
+      </c>
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3097,40 +3099,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
         <v>11</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3145,7 +3147,7 @@
         <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3163,20 +3165,20 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
         <v>11</v>
       </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
@@ -3185,10 +3187,10 @@
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -3203,7 +3205,7 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3221,7 +3223,7 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
         <v>51</v>
@@ -3230,10 +3232,10 @@
         <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
@@ -3649,7 +3651,7 @@
         <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
@@ -3679,13 +3681,13 @@
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
         <v>8</v>
@@ -3727,7 +3729,7 @@
         <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
         <v>41</v>
@@ -3751,7 +3753,7 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT18" t="n">
         <v>2.2</v>
@@ -3837,13 +3839,13 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -4019,13 +4021,13 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
         <v>4.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -4199,13 +4201,13 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P21" t="n">
         <v>2.1</v>
@@ -5269,115 +5271,115 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="J27" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T27" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="U27" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
         <v>6.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR27" t="n">
         <v>150</v>
@@ -5386,7 +5388,7 @@
         <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU27" t="n">
         <v>7.5</v>
@@ -5395,19 +5397,19 @@
         <v>70</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AX27" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB27" t="n">
         <v>250</v>
@@ -5451,22 +5453,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="H28" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J28" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L28" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5487,115 +5489,115 @@
         <v>3.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T28" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="V28" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH28" t="n">
         <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AU28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>11.25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>80</v>
       </c>
       <c r="BC28" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5813,28 +5815,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K30" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.26</v>
@@ -5846,7 +5848,7 @@
         <v>1.78</v>
       </c>
       <c r="R30" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
         <v>1.38</v>
@@ -5855,22 +5857,22 @@
         <v>2.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V30" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
         <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA30" t="n">
         <v>12.5</v>
@@ -5879,49 +5881,49 @@
         <v>28</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
       </c>
       <c r="AG30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO30" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AP30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>50</v>
@@ -5933,28 +5935,28 @@
         <v>2.75</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV30" t="n">
         <v>70</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AX30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB30" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC30" t="n">
         <v>51</v>
@@ -6033,10 +6035,10 @@
         <v>3.28</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V31" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="W31" t="n">
         <v>13</v>
@@ -6351,28 +6353,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6381,10 +6383,10 @@
         <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6393,13 +6395,13 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -6408,10 +6410,10 @@
         <v>9.5</v>
       </c>
       <c r="Z33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="n">
         <v>21</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>29</v>
@@ -6432,7 +6434,7 @@
         <v>251</v>
       </c>
       <c r="AH33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI33" t="n">
         <v>15</v>
@@ -6441,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM33" t="n">
         <v>34</v>
@@ -6477,7 +6479,7 @@
         <v>51</v>
       </c>
       <c r="AW33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX33" t="n">
         <v>17</v>
@@ -7067,13 +7069,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -7082,13 +7084,13 @@
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7121,7 +7123,7 @@
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
@@ -7130,7 +7132,7 @@
         <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -7157,10 +7159,10 @@
         <v>9.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
@@ -7169,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="AO37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -7452,7 +7454,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -7461,10 +7463,10 @@
         <v>3.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7805,10 +7807,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -8018,7 +8020,7 @@
         <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8096,7 +8098,7 @@
         <v>5</v>
       </c>
       <c r="AX42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY42" t="n">
         <v>29</v>
@@ -8531,10 +8533,10 @@
         <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8695,13 +8697,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -8746,13 +8748,13 @@
         <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8761,7 +8763,7 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8797,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
         <v>23</v>
@@ -8806,7 +8808,7 @@
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS46" t="n">
         <v>151</v>
@@ -9426,55 +9428,55 @@
         <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J50" t="n">
         <v>3.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
         <v>11</v>
@@ -9486,13 +9488,13 @@
         <v>21</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE50" t="n">
         <v>13</v>
@@ -9504,13 +9506,13 @@
         <v>151</v>
       </c>
       <c r="AH50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI50" t="n">
         <v>12</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK50" t="n">
         <v>21</v>
@@ -9519,7 +9521,7 @@
         <v>17</v>
       </c>
       <c r="AM50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN50" t="n">
         <v>5</v>
@@ -9540,19 +9542,19 @@
         <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU50" t="n">
         <v>7.5</v>
       </c>
       <c r="AV50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW50" t="n">
         <v>4.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY50" t="n">
         <v>21</v>
@@ -9787,10 +9789,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.8</v>
@@ -9799,40 +9801,40 @@
         <v>4.75</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L52" t="n">
         <v>2.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.8</v>
       </c>
-      <c r="S52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W52" t="n">
         <v>11</v>
@@ -9841,10 +9843,10 @@
         <v>21</v>
       </c>
       <c r="Y52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA52" t="n">
         <v>34</v>
@@ -9853,25 +9855,25 @@
         <v>41</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>7</v>
       </c>
       <c r="AE52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ52" t="n">
         <v>8.5</v>
@@ -9883,7 +9885,7 @@
         <v>15</v>
       </c>
       <c r="AM52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN52" t="n">
         <v>6</v>
@@ -9892,7 +9894,7 @@
         <v>23</v>
       </c>
       <c r="AP52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ52" t="n">
         <v>81</v>
@@ -9901,13 +9903,13 @@
         <v>101</v>
       </c>
       <c r="AS52" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV52" t="n">
         <v>51</v>
@@ -9916,7 +9918,7 @@
         <v>3.75</v>
       </c>
       <c r="AX52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY52" t="n">
         <v>21</v>
@@ -10363,10 +10365,10 @@
         <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R55" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -10697,13 +10699,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H57" t="n">
         <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
         <v>2.2</v>
@@ -10712,7 +10714,7 @@
         <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>1.04</v>
@@ -10739,10 +10741,10 @@
         <v>3.25</v>
       </c>
       <c r="U57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W57" t="n">
         <v>7.5</v>
@@ -10781,10 +10783,10 @@
         <v>15</v>
       </c>
       <c r="AI57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK57" t="n">
         <v>51</v>
@@ -10829,10 +10831,10 @@
         <v>26</v>
       </c>
       <c r="AY57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA57" t="n">
         <v>101</v>
@@ -11439,10 +11441,10 @@
         <v>3.45</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -11451,10 +11453,10 @@
         <v>2.27</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="R61" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S61" t="n">
         <v>1.53</v>
@@ -11463,10 +11465,10 @@
         <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="V61" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="W61" t="n">
         <v>5.4</v>
@@ -13211,10 +13213,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H71" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I71" t="n">
         <v>2.42</v>
@@ -13253,22 +13255,22 @@
         <v>3.46</v>
       </c>
       <c r="U71" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V71" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W71" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X71" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA71" t="n">
         <v>18</v>
@@ -13277,16 +13279,16 @@
         <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD71" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG71" t="n">
         <v>250</v>
@@ -13304,22 +13306,22 @@
         <v>26</v>
       </c>
       <c r="AL71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM71" t="n">
         <v>23</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP71" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR71" t="n">
         <v>70</v>
@@ -13328,13 +13330,13 @@
         <v>175</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU71" t="n">
         <v>6.6</v>
       </c>
       <c r="AV71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW71" t="n">
         <v>4.55</v>
@@ -14475,16 +14477,16 @@
         <v>4.8</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P78" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="Q78" t="n">
         <v>2.32</v>
@@ -14499,10 +14501,10 @@
         <v>2.22</v>
       </c>
       <c r="U78" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="V78" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="W78" t="n">
         <v>4.6</v>
@@ -14809,40 +14811,40 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H80" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I80" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="J80" t="n">
-        <v>4.45</v>
+        <v>5.1</v>
       </c>
       <c r="K80" t="n">
         <v>2.15</v>
       </c>
       <c r="L80" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>6.5</v>
+        <v>6.65</v>
       </c>
       <c r="O80" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S80" t="n">
         <v>1.39</v>
@@ -14851,37 +14853,37 @@
         <v>2.57</v>
       </c>
       <c r="U80" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V80" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W80" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="X80" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y80" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AA80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC80" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE80" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF80" t="n">
         <v>100</v>
@@ -14893,61 +14895,61 @@
         <v>6.2</v>
       </c>
       <c r="AI80" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL80" t="n">
         <v>14</v>
       </c>
-      <c r="AL80" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AM80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AO80" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ80" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AR80" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AS80" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV80" t="n">
         <v>75</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AX80" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AY80" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ80" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA80" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -15549,10 +15551,10 @@
         <v>17</v>
       </c>
       <c r="O84" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P84" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q84" t="n">
         <v>1.53</v>
@@ -15707,16 +15709,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>4.2</v>
       </c>
       <c r="I85" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
         <v>2.5</v>
@@ -15764,10 +15766,10 @@
         <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB85" t="n">
         <v>21</v>
@@ -15794,10 +15796,10 @@
         <v>34</v>
       </c>
       <c r="AJ85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK85" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL85" t="n">
         <v>41</v>
@@ -15830,13 +15832,13 @@
         <v>8</v>
       </c>
       <c r="AV85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW85" t="n">
         <v>7.5</v>
       </c>
       <c r="AX85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY85" t="n">
         <v>29</v>
@@ -15916,7 +15918,7 @@
         <v>1.18</v>
       </c>
       <c r="P86" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="Q86" t="n">
         <v>1.7</v>
@@ -16109,10 +16111,10 @@
         <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="V87" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="W87" t="n">
         <v>9.75</v>
@@ -18400,19 +18402,19 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I100" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M100" t="n">
         <v>1.01</v>
@@ -18433,25 +18435,25 @@
         <v>5.5</v>
       </c>
       <c r="S100" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="T100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U100" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W100" t="n">
         <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="Y100" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
@@ -18460,47 +18462,47 @@
         <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AC100" t="n">
         <v>34</v>
       </c>
       <c r="AD100" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF100" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
         <v>19</v>
       </c>
       <c r="AI100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK100" t="n">
         <v>6.5</v>
       </c>
       <c r="AL100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM100" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN100" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18512,13 +18514,13 @@
         <v>451</v>
       </c>
       <c r="AT100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW100" t="n">
         <v>3.6</v>
@@ -18527,7 +18529,7 @@
         <v>3.75</v>
       </c>
       <c r="AY100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ100" t="n">
         <v>5.5</v>
@@ -18536,7 +18538,7 @@
         <v>29</v>
       </c>
       <c r="BB100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18595,10 +18597,10 @@
         <v>1.18</v>
       </c>
       <c r="M101" t="n">
-        <v>51</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O101" t="n">
         <v>1.03</v>
@@ -18625,7 +18627,7 @@
         <v>1.36</v>
       </c>
       <c r="W101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X101" t="n">
         <v>201</v>
@@ -18633,7 +18635,9 @@
       <c r="Y101" t="n">
         <v>67</v>
       </c>
-      <c r="Z101" t="inlineStr"/>
+      <c r="Z101" t="n">
+        <v>51</v>
+      </c>
       <c r="AA101" t="n">
         <v>301</v>
       </c>
@@ -18647,23 +18651,23 @@
         <v>41</v>
       </c>
       <c r="AE101" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF101" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
         <v>19</v>
       </c>
       <c r="AI101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ101" t="n">
         <v>21</v>
       </c>
       <c r="AK101" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL101" t="n">
         <v>17</v>
@@ -18680,9 +18684,15 @@
       <c r="AP101" t="n">
         <v>101</v>
       </c>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
+      <c r="AQ101" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>51</v>
+      </c>
       <c r="AT101" t="n">
         <v>6.5</v>
       </c>
@@ -18710,8 +18720,12 @@
       <c r="BB101" t="n">
         <v>151</v>
       </c>
-      <c r="BC101" t="inlineStr"/>
-      <c r="BD101" t="inlineStr"/>
+      <c r="BC101" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -19119,10 +19133,10 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -19131,10 +19145,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
         <v>1.5</v>
@@ -19835,10 +19849,10 @@
         <v>6</v>
       </c>
       <c r="M108" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N108" t="n">
-        <v>7.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="O108" t="n">
         <v>1.31</v>
@@ -20012,8 +20026,12 @@
       <c r="L109" t="n">
         <v>4.3</v>
       </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N109" t="n">
+        <v>8</v>
+      </c>
       <c r="O109" t="n">
         <v>1.36</v>
       </c>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -756,7 +756,7 @@
         <v>1.22</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -807,7 +807,7 @@
         <v>151</v>
       </c>
       <c r="AA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -983,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>51</v>
@@ -995,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1013,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1058,13 +1058,13 @@
         <v>3.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
         <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K4" t="n">
         <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1159,16 +1159,16 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1180,16 +1180,16 @@
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1231,22 +1231,22 @@
         <v>4</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
@@ -1490,13 +1490,13 @@
         <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,16 +1517,16 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
         <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1550,10 +1550,10 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1619,7 +1619,7 @@
         <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>160</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
         <v>8</v>
@@ -1768,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
@@ -1848,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -1887,7 +1887,7 @@
         <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1929,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL8" t="n">
         <v>81</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
@@ -2039,22 +2039,22 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2111,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>5.5</v>
@@ -2126,13 +2126,13 @@
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -3279,28 +3279,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3309,10 +3309,10 @@
         <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
         <v>1.57</v>
@@ -3330,10 +3330,10 @@
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>19</v>
@@ -3370,16 +3370,16 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
         <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3397,7 +3397,7 @@
         <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
@@ -3406,10 +3406,10 @@
         <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
         <v>81</v>
@@ -3657,10 +3657,10 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.57</v>
@@ -3839,13 +3839,13 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -4021,13 +4021,13 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
         <v>4.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -4201,13 +4201,13 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
         <v>2.1</v>
@@ -6006,27 +6006,31 @@
         <v>1.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
         <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+        <v>2.18</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S31" t="n">
         <v>1.29</v>
@@ -6041,22 +6045,22 @@
         <v>2.31</v>
       </c>
       <c r="W31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X31" t="n">
         <v>22</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
         <v>50</v>
       </c>
       <c r="AA31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB31" t="n">
         <v>27</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>25</v>
       </c>
       <c r="AC31" t="n">
         <v>13.5</v>
@@ -6065,19 +6069,19 @@
         <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF31" t="n">
         <v>35</v>
       </c>
       <c r="AG31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ31" t="n">
         <v>6.9</v>
@@ -6092,43 +6096,43 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR31" t="n">
         <v>120</v>
       </c>
       <c r="AS31" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
         <v>3.15</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AY31" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>45</v>
@@ -6174,10 +6178,10 @@
         <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
         <v>2.27</v>
@@ -6186,13 +6190,13 @@
         <v>2.15</v>
       </c>
       <c r="L32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -6201,25 +6205,25 @@
         <v>3.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
         <v>1.42</v>
       </c>
       <c r="T32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
         <v>7.5</v>
@@ -6237,13 +6241,13 @@
         <v>28</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>80</v>
@@ -6255,7 +6259,7 @@
         <v>12.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
         <v>15.5</v>
@@ -6264,10 +6268,10 @@
         <v>80</v>
       </c>
       <c r="AL32" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN32" t="n">
         <v>3.45</v>
@@ -6276,10 +6280,10 @@
         <v>8.25</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
         <v>65</v>
@@ -6288,10 +6292,10 @@
         <v>300</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU32" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
         <v>80</v>
@@ -6300,7 +6304,7 @@
         <v>6.3</v>
       </c>
       <c r="AX32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY32" t="n">
         <v>35</v>
@@ -6374,7 +6378,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6543,16 +6547,16 @@
         <v>2.38</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.22</v>
@@ -6561,16 +6565,16 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.73</v>
@@ -6648,7 +6652,7 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
         <v>8</v>
@@ -6669,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="BA34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
@@ -6712,19 +6716,19 @@
         <v>1.6</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6733,16 +6737,16 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6751,16 +6755,16 @@
         <v>3.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6769,13 +6773,13 @@
         <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD35" t="n">
         <v>7.5</v>
@@ -6784,13 +6788,13 @@
         <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
         <v>29</v>
@@ -6808,13 +6812,13 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO35" t="n">
         <v>8</v>
       </c>
       <c r="AP35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ35" t="n">
         <v>23</v>
@@ -6823,7 +6827,7 @@
         <v>41</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT35" t="n">
         <v>3.25</v>
@@ -6838,13 +6842,13 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY35" t="n">
         <v>29</v>
       </c>
-      <c r="AY35" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA35" t="n">
         <v>101</v>
@@ -7463,10 +7467,10 @@
         <v>3.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
         <v>1.44</v>
@@ -7999,10 +8003,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8545,10 +8549,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8909,10 +8913,10 @@
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -9208,7 +9212,7 @@
         <v>126</v>
       </c>
       <c r="BD48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -9637,10 +9641,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9971,13 +9975,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
         <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J53" t="n">
         <v>5</v>
@@ -9986,7 +9990,7 @@
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -10007,22 +10011,22 @@
         <v>2.08</v>
       </c>
       <c r="S53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
         <v>15</v>
@@ -10031,31 +10035,31 @@
         <v>51</v>
       </c>
       <c r="AA53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB53" t="n">
         <v>41</v>
       </c>
       <c r="AC53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
         <v>7.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF53" t="n">
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ53" t="n">
         <v>8.5</v>
@@ -10070,13 +10074,13 @@
         <v>23</v>
       </c>
       <c r="AN53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ53" t="n">
         <v>81</v>
@@ -10088,7 +10092,7 @@
         <v>201</v>
       </c>
       <c r="AT53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU53" t="n">
         <v>8</v>
@@ -10097,7 +10101,7 @@
         <v>51</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX53" t="n">
         <v>8.5</v>
@@ -10881,22 +10885,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -10923,13 +10927,13 @@
         <v>2.25</v>
       </c>
       <c r="U58" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X58" t="n">
         <v>17</v>
@@ -10941,13 +10945,13 @@
         <v>41</v>
       </c>
       <c r="AA58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD58" t="n">
         <v>6</v>
@@ -10956,16 +10960,16 @@
         <v>19</v>
       </c>
       <c r="AF58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG58" t="n">
         <v>501</v>
       </c>
       <c r="AH58" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ58" t="n">
         <v>9.5</v>
@@ -10983,10 +10987,10 @@
         <v>5.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ58" t="n">
         <v>81</v>
@@ -11004,7 +11008,7 @@
         <v>9</v>
       </c>
       <c r="AV58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW58" t="n">
         <v>4</v>
@@ -11063,28 +11067,28 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>2.2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
         <v>1.22</v>
@@ -11117,13 +11121,13 @@
         <v>8</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB59" t="n">
         <v>23</v>
@@ -11147,10 +11151,10 @@
         <v>15</v>
       </c>
       <c r="AI59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK59" t="n">
         <v>51</v>
@@ -11162,16 +11166,16 @@
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR59" t="n">
         <v>41</v>
@@ -11189,7 +11193,7 @@
         <v>51</v>
       </c>
       <c r="AW59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX59" t="n">
         <v>26</v>
@@ -13237,10 +13241,10 @@
         <v>12.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P71" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
@@ -14811,145 +14815,145 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I80" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="J80" t="n">
-        <v>5.1</v>
+        <v>4.05</v>
       </c>
       <c r="K80" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L80" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>6.65</v>
+        <v>6.3</v>
       </c>
       <c r="O80" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P80" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S80" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T80" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="U80" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V80" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W80" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X80" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y80" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AA80" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AB80" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AC80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI80" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD80" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AI80" t="n">
+      <c r="AJ80" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU80" t="n">
         <v>7.2</v>
       </c>
-      <c r="AJ80" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AV80" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA80" t="n">
         <v>75</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>60</v>
       </c>
       <c r="BB80" t="n">
         <v>250</v>
@@ -14989,28 +14993,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="J81" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>8.65</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
         <v>1.33</v>
@@ -15028,28 +15032,28 @@
         <v>1.38</v>
       </c>
       <c r="T81" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U81" t="n">
         <v>1.78</v>
       </c>
       <c r="V81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W81" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X81" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA81" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB81" t="n">
         <v>37</v>
@@ -15070,37 +15074,37 @@
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AI81" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL81" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM81" t="n">
         <v>32</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO81" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ81" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR81" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
@@ -15115,19 +15119,19 @@
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AX81" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AY81" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB81" t="n">
         <v>250</v>
@@ -15527,22 +15531,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H84" t="n">
         <v>4.75</v>
       </c>
       <c r="I84" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J84" t="n">
         <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L84" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M84" t="n">
         <v>1.03</v>
@@ -15563,10 +15567,10 @@
         <v>2.4</v>
       </c>
       <c r="S84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T84" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U84" t="n">
         <v>1.67</v>
@@ -15596,10 +15600,10 @@
         <v>17</v>
       </c>
       <c r="AD84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF84" t="n">
         <v>41</v>
@@ -15608,10 +15612,10 @@
         <v>151</v>
       </c>
       <c r="AH84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ84" t="n">
         <v>8.5</v>
@@ -15644,7 +15648,7 @@
         <v>151</v>
       </c>
       <c r="AT84" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU84" t="n">
         <v>8</v>
@@ -17136,10 +17140,10 @@
         <v>2.7</v>
       </c>
       <c r="H93" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J93" t="n">
         <v>3.25</v>
@@ -17148,7 +17152,7 @@
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M93" t="n">
         <v>1.06</v>
@@ -17169,19 +17173,19 @@
         <v>1.88</v>
       </c>
       <c r="S93" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T93" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U93" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V93" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -17199,7 +17203,7 @@
         <v>29</v>
       </c>
       <c r="AC93" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD93" t="n">
         <v>6</v>
@@ -17250,16 +17254,16 @@
         <v>151</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV93" t="n">
         <v>51</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -18217,7 +18221,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H99" t="n">
         <v>4.1</v>
@@ -18325,7 +18329,7 @@
         <v>17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR99" t="n">
         <v>41</v>
@@ -18349,7 +18353,7 @@
         <v>23</v>
       </c>
       <c r="AY99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ99" t="n">
         <v>81</v>
@@ -18405,13 +18409,13 @@
         <v>21</v>
       </c>
       <c r="I100" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L100" t="n">
         <v>1.17</v>
@@ -18441,19 +18445,19 @@
         <v>6.5</v>
       </c>
       <c r="U100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="Y100" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
@@ -18462,7 +18466,7 @@
         <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AC100" t="n">
         <v>34</v>
@@ -18471,10 +18475,10 @@
         <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AF100" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
@@ -18490,7 +18494,7 @@
         <v>6.5</v>
       </c>
       <c r="AL100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM100" t="n">
         <v>51</v>
@@ -18499,10 +18503,10 @@
         <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP100" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18517,10 +18521,10 @@
         <v>6.5</v>
       </c>
       <c r="AU100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV100" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW100" t="n">
         <v>3.6</v>
@@ -18594,13 +18598,13 @@
         <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M101" t="n">
+        <v>51</v>
+      </c>
+      <c r="N101" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N101" t="n">
-        <v>34</v>
       </c>
       <c r="O101" t="n">
         <v>1.03</v>
@@ -18621,13 +18625,13 @@
         <v>6.5</v>
       </c>
       <c r="U101" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V101" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X101" t="n">
         <v>201</v>
@@ -18639,10 +18643,10 @@
         <v>51</v>
       </c>
       <c r="AA101" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AB101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AC101" t="n">
         <v>34</v>
@@ -18661,13 +18665,13 @@
         <v>19</v>
       </c>
       <c r="AI101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL101" t="n">
         <v>17</v>
@@ -18697,10 +18701,10 @@
         <v>6.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV101" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW101" t="n">
         <v>3.6</v>
@@ -18712,7 +18716,7 @@
         <v>21</v>
       </c>
       <c r="AZ101" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BA101" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>34</v>
@@ -801,13 +801,13 @@
         <v>51</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -834,7 +834,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
         <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -947,22 +947,22 @@
         <v>2.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
@@ -2039,10 +2039,10 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -3297,10 +3297,10 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3321,16 +3321,16 @@
         <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -3345,7 +3345,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3370,10 +3370,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
@@ -3391,13 +3391,13 @@
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
@@ -3406,10 +3406,10 @@
         <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
         <v>81</v>
@@ -6014,17 +6014,13 @@
       <c r="L31" t="n">
         <v>2.18</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>3.98</v>
+        <v>4.51</v>
       </c>
       <c r="Q31" t="n">
         <v>1.57</v>
@@ -6033,16 +6029,16 @@
         <v>2.12</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="V31" t="n">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="W31" t="n">
         <v>12.5</v>
@@ -6175,148 +6171,148 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="K32" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T32" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="W32" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
       </c>
       <c r="AF32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG32" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH32" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI32" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="n">
         <v>55</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR32" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS32" t="n">
         <v>300</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AX32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY32" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ32" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA32" t="n">
         <v>175</v>
       </c>
-      <c r="BA32" t="n">
-        <v>200</v>
-      </c>
       <c r="BB32" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6713,13 +6709,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H35" t="n">
         <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
@@ -6728,7 +6724,7 @@
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6761,7 +6757,7 @@
         <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X35" t="n">
         <v>8.5</v>
@@ -6776,13 +6772,13 @@
         <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -6791,7 +6787,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
@@ -8003,10 +7999,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8173,16 +8169,16 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
@@ -8299,7 +8295,7 @@
         <v>201</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8337,22 +8333,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H44" t="n">
         <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8379,19 +8375,19 @@
         <v>3.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y44" t="n">
         <v>8</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
         <v>10</v>
@@ -8418,19 +8414,19 @@
         <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM44" t="n">
         <v>41</v>
@@ -8457,7 +8453,7 @@
         <v>3.5</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8472,7 +8468,7 @@
         <v>34</v>
       </c>
       <c r="AZ44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA44" t="n">
         <v>126</v>
@@ -8519,7 +8515,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H45" t="n">
         <v>4.2</v>
@@ -8528,10 +8524,10 @@
         <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
         <v>7.5</v>
@@ -8540,7 +8536,7 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8573,7 +8569,7 @@
         <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
@@ -8582,7 +8578,7 @@
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
         <v>9.5</v>
@@ -8594,31 +8590,31 @@
         <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="n">
         <v>501</v>
       </c>
       <c r="AH45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO45" t="n">
         <v>7</v>
@@ -8654,7 +8650,7 @@
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA45" t="n">
         <v>201</v>
@@ -8663,7 +8659,7 @@
         <v>451</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8719,16 +8715,16 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.1</v>
@@ -9212,7 +9208,7 @@
         <v>126</v>
       </c>
       <c r="BD48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -9262,13 +9258,13 @@
         <v>2.5</v>
       </c>
       <c r="L49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O49" t="n">
         <v>1.14</v>
@@ -9283,19 +9279,19 @@
         <v>2.5</v>
       </c>
       <c r="S49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V49" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X49" t="n">
         <v>10</v>
@@ -9304,7 +9300,7 @@
         <v>8.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
         <v>12</v>
@@ -9313,19 +9309,19 @@
         <v>19</v>
       </c>
       <c r="AC49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH49" t="n">
         <v>19</v>
@@ -9343,7 +9339,7 @@
         <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN49" t="n">
         <v>4</v>
@@ -9364,7 +9360,7 @@
         <v>81</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU49" t="n">
         <v>7.5</v>
@@ -9376,19 +9372,19 @@
         <v>6.5</v>
       </c>
       <c r="AX49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY49" t="n">
         <v>23</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>26</v>
       </c>
       <c r="AZ49" t="n">
         <v>67</v>
       </c>
       <c r="BA49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC49" t="n">
         <v>351</v>
@@ -9498,7 +9494,7 @@
         <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
         <v>13</v>
@@ -9614,25 +9610,25 @@
         <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -9641,10 +9637,10 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9653,16 +9649,16 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -9677,7 +9673,7 @@
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9686,13 +9682,13 @@
         <v>13</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI51" t="n">
         <v>10</v>
@@ -9707,7 +9703,7 @@
         <v>17</v>
       </c>
       <c r="AM51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN51" t="n">
         <v>5.5</v>
@@ -9716,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="AP51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ51" t="n">
         <v>67</v>
@@ -9740,7 +9736,7 @@
         <v>4</v>
       </c>
       <c r="AX51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -10157,16 +10153,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
         <v>2.05</v>
@@ -10178,7 +10174,7 @@
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
@@ -10193,19 +10189,19 @@
         <v>1.7</v>
       </c>
       <c r="S54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U54" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -10217,31 +10213,31 @@
         <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
         <v>6</v>
       </c>
       <c r="AE54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
         <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ54" t="n">
         <v>9.5</v>
@@ -10253,7 +10249,7 @@
         <v>19</v>
       </c>
       <c r="AM54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN54" t="n">
         <v>5</v>
@@ -10265,22 +10261,22 @@
         <v>29</v>
       </c>
       <c r="AQ54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW54" t="n">
         <v>4.33</v>
@@ -10289,7 +10285,7 @@
         <v>13</v>
       </c>
       <c r="AY54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ54" t="n">
         <v>41</v>
@@ -10885,19 +10881,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J58" t="n">
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
         <v>2.88</v>
@@ -10909,16 +10905,16 @@
         <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
         <v>1.57</v>
@@ -10927,13 +10923,13 @@
         <v>2.25</v>
       </c>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V58" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X58" t="n">
         <v>17</v>
@@ -10945,13 +10941,13 @@
         <v>41</v>
       </c>
       <c r="AA58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB58" t="n">
         <v>41</v>
       </c>
-      <c r="AB58" t="n">
-        <v>51</v>
-      </c>
       <c r="AC58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD58" t="n">
         <v>6</v>
@@ -10960,16 +10956,16 @@
         <v>19</v>
       </c>
       <c r="AF58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG58" t="n">
         <v>501</v>
       </c>
       <c r="AH58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ58" t="n">
         <v>9.5</v>
@@ -10990,7 +10986,7 @@
         <v>23</v>
       </c>
       <c r="AP58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ58" t="n">
         <v>81</v>
@@ -11008,7 +11004,7 @@
         <v>9</v>
       </c>
       <c r="AV58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW58" t="n">
         <v>4</v>
@@ -11067,13 +11063,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J59" t="n">
         <v>2.2</v>
@@ -11118,16 +11114,16 @@
         <v>8</v>
       </c>
       <c r="X59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z59" t="n">
         <v>12</v>
       </c>
       <c r="AA59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB59" t="n">
         <v>23</v>
@@ -11151,10 +11147,10 @@
         <v>15</v>
       </c>
       <c r="AI59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK59" t="n">
         <v>51</v>
@@ -11166,7 +11162,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO59" t="n">
         <v>8</v>
@@ -11175,7 +11171,7 @@
         <v>17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR59" t="n">
         <v>41</v>
@@ -13217,22 +13213,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L71" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -13241,121 +13237,121 @@
         <v>12.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="P71" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="n">
         <v>1.57</v>
       </c>
       <c r="R71" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T71" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="U71" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="V71" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="W71" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X71" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y71" t="n">
         <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA71" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC71" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE71" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF71" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AG71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH71" t="n">
         <v>11</v>
       </c>
       <c r="AI71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ71" t="n">
         <v>9.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL71" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS71" t="n">
         <v>175</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU71" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AV71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ71" t="n">
         <v>50</v>
       </c>
-      <c r="AW71" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>45</v>
-      </c>
       <c r="BA71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB71" t="n">
         <v>175</v>
@@ -14815,46 +14811,46 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="J80" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="K80" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L80" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N80" t="n">
+        <v>9</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T80" t="n">
         <v>2.6</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N80" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T80" t="n">
-        <v>2.47</v>
       </c>
       <c r="U80" t="n">
         <v>1.83</v>
@@ -14863,28 +14859,28 @@
         <v>1.78</v>
       </c>
       <c r="W80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y80" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA80" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AB80" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC80" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AD80" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE80" t="n">
         <v>16</v>
@@ -14896,55 +14892,55 @@
         <v>800</v>
       </c>
       <c r="AH80" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AI80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK80" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL80" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>17.5</v>
       </c>
       <c r="AM80" t="n">
         <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AO80" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ80" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AR80" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS80" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AX80" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY80" t="n">
         <v>19.5</v>
@@ -15032,7 +15028,7 @@
         <v>1.38</v>
       </c>
       <c r="T81" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U81" t="n">
         <v>1.78</v>
@@ -15050,7 +15046,7 @@
         <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA81" t="n">
         <v>28</v>
@@ -15074,7 +15070,7 @@
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI81" t="n">
         <v>10.25</v>
@@ -15089,7 +15085,7 @@
         <v>18.5</v>
       </c>
       <c r="AM81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN81" t="n">
         <v>4.9</v>
@@ -15122,7 +15118,7 @@
         <v>4.05</v>
       </c>
       <c r="AX81" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY81" t="n">
         <v>19.5</v>
@@ -15349,13 +15345,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H83" t="n">
         <v>4.5</v>
       </c>
       <c r="I83" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
@@ -15364,7 +15360,7 @@
         <v>2.6</v>
       </c>
       <c r="L83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>1.02</v>
@@ -15391,10 +15387,10 @@
         <v>3.75</v>
       </c>
       <c r="U83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W83" t="n">
         <v>10</v>
@@ -15445,7 +15441,7 @@
         <v>41</v>
       </c>
       <c r="AM83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN83" t="n">
         <v>3.75</v>
@@ -15481,7 +15477,7 @@
         <v>26</v>
       </c>
       <c r="AY83" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ83" t="n">
         <v>81</v>
@@ -15549,10 +15545,10 @@
         <v>1.91</v>
       </c>
       <c r="M84" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O84" t="n">
         <v>1.14</v>
@@ -15561,10 +15557,10 @@
         <v>5.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R84" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S84" t="n">
         <v>1.25</v>
@@ -15904,13 +15900,13 @@
         <v>2.75</v>
       </c>
       <c r="J86" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="K86" t="n">
         <v>2.12</v>
       </c>
       <c r="L86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
@@ -15943,25 +15939,25 @@
         <v>2.31</v>
       </c>
       <c r="W86" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X86" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Z86" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA86" t="n">
         <v>14</v>
       </c>
       <c r="AB86" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD86" t="n">
         <v>5.8</v>
@@ -15976,10 +15972,10 @@
         <v>200</v>
       </c>
       <c r="AH86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ86" t="n">
         <v>8.5</v>
@@ -15988,25 +15984,25 @@
         <v>26</v>
       </c>
       <c r="AL86" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN86" t="n">
         <v>4.3</v>
       </c>
       <c r="AO86" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ86" t="n">
         <v>45</v>
       </c>
       <c r="AR86" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS86" t="n">
         <v>200</v>
@@ -16024,19 +16020,19 @@
         <v>4.8</v>
       </c>
       <c r="AX86" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ86" t="n">
         <v>65</v>
       </c>
       <c r="BA86" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -17675,28 +17671,28 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H96" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="I96" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J96" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K96" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L96" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M96" t="n">
         <v>1.15</v>
       </c>
       <c r="N96" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="O96" t="n">
         <v>1.62</v>
@@ -17711,43 +17707,43 @@
         <v>1.38</v>
       </c>
       <c r="S96" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T96" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U96" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="V96" t="n">
         <v>1.57</v>
       </c>
       <c r="W96" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="X96" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y96" t="n">
         <v>12</v>
       </c>
       <c r="Z96" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA96" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB96" t="n">
         <v>60</v>
       </c>
       <c r="AC96" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE96" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF96" t="n">
         <v>150</v>
@@ -17756,34 +17752,34 @@
         <v>101</v>
       </c>
       <c r="AH96" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI96" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ96" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK96" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL96" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM96" t="n">
         <v>55</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AO96" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AP96" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ96" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR96" t="n">
         <v>200</v>
@@ -17792,19 +17788,19 @@
         <v>500</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU96" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV96" t="n">
         <v>110</v>
       </c>
       <c r="AW96" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AX96" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY96" t="n">
         <v>30</v>
@@ -17860,10 +17856,10 @@
         <v>2.35</v>
       </c>
       <c r="H97" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I97" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J97" t="n">
         <v>3</v>
@@ -17875,10 +17871,10 @@
         <v>3.9</v>
       </c>
       <c r="M97" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N97" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O97" t="n">
         <v>1.5</v>
@@ -17893,13 +17889,13 @@
         <v>1.5</v>
       </c>
       <c r="S97" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T97" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U97" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
         <v>1.72</v>
@@ -17914,7 +17910,7 @@
         <v>9.5</v>
       </c>
       <c r="Z97" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA97" t="n">
         <v>23</v>
@@ -17923,10 +17919,10 @@
         <v>40</v>
       </c>
       <c r="AC97" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD97" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE97" t="n">
         <v>16.5</v>
@@ -17938,10 +17934,10 @@
         <v>101</v>
       </c>
       <c r="AH97" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI97" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ97" t="n">
         <v>11.75</v>
@@ -17974,22 +17970,22 @@
         <v>350</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AU97" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV97" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW97" t="n">
         <v>5</v>
       </c>
       <c r="AX97" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY97" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ97" t="n">
         <v>110</v>
@@ -18039,28 +18035,28 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H98" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="I98" t="n">
         <v>3.05</v>
       </c>
       <c r="J98" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="L98" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M98" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N98" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="O98" t="n">
         <v>1.65</v>
@@ -18069,94 +18065,94 @@
         <v>2.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R98" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="n">
         <v>1.65</v>
       </c>
       <c r="T98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U98" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V98" t="n">
         <v>1.55</v>
       </c>
       <c r="W98" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X98" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y98" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z98" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA98" t="n">
         <v>30</v>
       </c>
       <c r="AB98" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC98" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF98" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG98" t="n">
         <v>101</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI98" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ98" t="n">
         <v>12.5</v>
       </c>
       <c r="AK98" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL98" t="n">
         <v>40</v>
       </c>
-      <c r="AL98" t="n">
-        <v>37</v>
-      </c>
       <c r="AM98" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN98" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AO98" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ98" t="n">
         <v>80</v>
       </c>
       <c r="AR98" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS98" t="n">
         <v>500</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AU98" t="n">
         <v>8.5</v>
@@ -18165,19 +18161,19 @@
         <v>120</v>
       </c>
       <c r="AW98" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY98" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ98" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA98" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB98" t="n">
         <v>51</v>
@@ -18406,13 +18402,13 @@
         <v>41</v>
       </c>
       <c r="H100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K100" t="n">
         <v>5.5</v>
@@ -18430,34 +18426,34 @@
         <v>1.03</v>
       </c>
       <c r="P100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="R100" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X100" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="Y100" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Z100" t="n">
         <v>51</v>
@@ -18466,7 +18462,7 @@
         <v>351</v>
       </c>
       <c r="AB100" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AC100" t="n">
         <v>34</v>
@@ -18475,26 +18471,26 @@
         <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF100" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ100" t="n">
         <v>23</v>
       </c>
       <c r="AK100" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AL100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM100" t="n">
         <v>51</v>
@@ -18503,10 +18499,10 @@
         <v>34</v>
       </c>
       <c r="AO100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ100" t="n">
         <v>51</v>
@@ -18518,31 +18514,31 @@
         <v>451</v>
       </c>
       <c r="AT100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AU100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV100" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW100" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX100" t="n">
         <v>3.75</v>
       </c>
       <c r="AY100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ100" t="n">
         <v>5.5</v>
       </c>
       <c r="BA100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC100" t="n">
         <v>51</v>
@@ -18583,58 +18579,58 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H101" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I101" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="L101" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M101" t="n">
-        <v>51</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="O101" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="P101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S101" t="n">
         <v>1.14</v>
       </c>
-      <c r="R101" t="n">
+      <c r="T101" t="n">
         <v>5.5</v>
       </c>
-      <c r="S101" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T101" t="n">
-        <v>6.5</v>
-      </c>
       <c r="U101" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W101" t="n">
         <v>51</v>
       </c>
       <c r="X101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="Y101" t="n">
         <v>67</v>
@@ -18646,41 +18642,41 @@
         <v>351</v>
       </c>
       <c r="AB101" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AC101" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD101" t="n">
         <v>34</v>
       </c>
-      <c r="AD101" t="n">
-        <v>41</v>
-      </c>
       <c r="AE101" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AF101" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>19</v>
       </c>
-      <c r="AI101" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>23</v>
-      </c>
       <c r="AK101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AL101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM101" t="n">
         <v>51</v>
       </c>
       <c r="AN101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO101" t="n">
         <v>151</v>
@@ -18698,16 +18694,16 @@
         <v>51</v>
       </c>
       <c r="AT101" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV101" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW101" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AX101" t="n">
         <v>3.75</v>
@@ -18716,10 +18712,10 @@
         <v>21</v>
       </c>
       <c r="AZ101" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="BA101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB101" t="n">
         <v>151</v>
@@ -19119,28 +19115,28 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H104" t="n">
         <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J104" t="n">
         <v>3.4</v>
       </c>
       <c r="K104" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -19149,10 +19145,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S104" t="n">
         <v>1.5</v>
@@ -19167,10 +19163,10 @@
         <v>1.83</v>
       </c>
       <c r="W104" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -19197,7 +19193,7 @@
         <v>51</v>
       </c>
       <c r="AG104" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH104" t="n">
         <v>8</v>
@@ -19209,7 +19205,7 @@
         <v>11</v>
       </c>
       <c r="AK104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL104" t="n">
         <v>23</v>
@@ -19242,16 +19238,16 @@
         <v>8.5</v>
       </c>
       <c r="AV104" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW104" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ104" t="n">
         <v>51</v>
@@ -19501,22 +19497,22 @@
         <v>1.95</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P106" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S106" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1117,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.62</v>
@@ -1126,13 +1126,13 @@
         <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
@@ -1153,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>7.5</v>
@@ -1177,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1189,22 +1189,22 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1219,19 +1219,19 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="n">
         <v>4</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1308,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1323,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.2</v>
@@ -1335,22 +1335,22 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10</v>
       </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1371,34 +1371,34 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>5.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>12</v>
@@ -1413,13 +1413,13 @@
         <v>4.33</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1434,10 +1434,10 @@
         <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>160</v>
@@ -1493,10 +1493,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
         <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1863,10 +1863,10 @@
         <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.4</v>
@@ -1881,19 +1881,19 @@
         <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
@@ -1908,16 +1908,16 @@
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1929,31 +1929,31 @@
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
         <v>4</v>
@@ -1962,10 +1962,10 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX8" t="n">
         <v>51</v>
@@ -1974,13 +1974,13 @@
         <v>51</v>
       </c>
       <c r="AZ8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB8" t="n">
         <v>351</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>451</v>
       </c>
       <c r="BC8" t="n">
         <v>451</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2063,34 +2063,34 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2099,22 +2099,22 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>23</v>
@@ -2123,16 +2123,16 @@
         <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2150,7 +2150,7 @@
         <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2245,19 +2245,19 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
         <v>67</v>
@@ -2272,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2287,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>11</v>
@@ -2302,13 +2302,13 @@
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO10" t="n">
         <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>101</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>3.5</v>
@@ -2326,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY10" t="n">
         <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
@@ -3279,22 +3279,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -3303,22 +3303,22 @@
         <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -3330,16 +3330,16 @@
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3354,47 +3354,47 @@
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
         <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>
@@ -3403,16 +3403,16 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>126</v>
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>2.63</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
@@ -3654,7 +3654,7 @@
         <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
@@ -3687,10 +3687,10 @@
         <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3705,7 +3705,7 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3714,13 +3714,13 @@
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>900</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>34</v>
@@ -3768,13 +3768,13 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>151</v>
@@ -3851,16 +3851,16 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T19" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U19" t="n">
         <v>2.5</v>
@@ -6353,40 +6353,40 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6395,10 +6395,10 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W33" t="n">
         <v>7.5</v>
@@ -6434,7 +6434,7 @@
         <v>251</v>
       </c>
       <c r="AH33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI33" t="n">
         <v>15</v>
@@ -7632,8 +7632,12 @@
       <c r="L40" t="n">
         <v>2.1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12.8</v>
+      </c>
       <c r="O40" t="n">
         <v>1.13</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -8020,7 +8024,7 @@
         <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8098,7 +8102,7 @@
         <v>5</v>
       </c>
       <c r="AX42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY42" t="n">
         <v>29</v>
@@ -8151,7 +8155,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
@@ -8160,13 +8164,13 @@
         <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
@@ -8193,10 +8197,10 @@
         <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
@@ -8208,16 +8212,16 @@
         <v>9.5</v>
       </c>
       <c r="Z43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA43" t="n">
         <v>21</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>19</v>
       </c>
       <c r="AB43" t="n">
         <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8229,10 +8233,10 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -8241,7 +8245,7 @@
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL43" t="n">
         <v>26</v>
@@ -8265,7 +8269,7 @@
         <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT43" t="n">
         <v>2.63</v>
@@ -8515,46 +8519,46 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L45" t="n">
         <v>7.5</v>
       </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7</v>
-      </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T45" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
         <v>2.1</v>
@@ -8566,25 +8570,25 @@
         <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
@@ -8593,7 +8597,7 @@
         <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH45" t="n">
         <v>17</v>
@@ -8623,16 +8627,16 @@
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS45" t="n">
         <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU45" t="n">
         <v>9.5</v>
@@ -8641,7 +8645,7 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
@@ -8656,10 +8660,10 @@
         <v>201</v>
       </c>
       <c r="BB45" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8697,16 +8701,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
@@ -8727,10 +8731,10 @@
         <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
         <v>1.44</v>
@@ -8748,13 +8752,13 @@
         <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8763,13 +8767,13 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
         <v>51</v>
@@ -8778,19 +8782,19 @@
         <v>301</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
         <v>41</v>
       </c>
       <c r="AL46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
@@ -8799,16 +8803,16 @@
         <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS46" t="n">
         <v>151</v>
@@ -8838,7 +8842,7 @@
         <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC46" t="n">
         <v>126</v>
@@ -8879,22 +8883,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -8909,10 +8913,10 @@
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8930,19 +8934,19 @@
         <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA47" t="n">
         <v>19</v>
       </c>
-      <c r="AA47" t="n">
-        <v>17</v>
-      </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>10</v>
@@ -8957,22 +8961,22 @@
         <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK47" t="n">
         <v>34</v>
       </c>
       <c r="AL47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM47" t="n">
         <v>34</v>
@@ -8981,16 +8985,16 @@
         <v>4.33</v>
       </c>
       <c r="AO47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ47" t="n">
         <v>41</v>
       </c>
       <c r="AR47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS47" t="n">
         <v>151</v>
@@ -9005,10 +9009,10 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY47" t="n">
         <v>26</v>
@@ -9023,7 +9027,7 @@
         <v>201</v>
       </c>
       <c r="BC47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD47" t="n">
         <v>151</v>
@@ -9070,13 +9074,13 @@
         <v>3.1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -9121,7 +9125,7 @@
         <v>21</v>
       </c>
       <c r="AA48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="n">
         <v>34</v>
@@ -9142,19 +9146,19 @@
         <v>351</v>
       </c>
       <c r="AH48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK48" t="n">
         <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9166,7 +9170,7 @@
         <v>13</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -9184,7 +9188,7 @@
         <v>8.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
         <v>5</v>
@@ -9208,7 +9212,7 @@
         <v>126</v>
       </c>
       <c r="BD48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -9273,10 +9277,10 @@
         <v>5.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S49" t="n">
         <v>1.25</v>
@@ -9425,7 +9429,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
@@ -9440,13 +9444,13 @@
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -9473,7 +9477,7 @@
         <v>2.1</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -9485,7 +9489,7 @@
         <v>29</v>
       </c>
       <c r="AA50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB50" t="n">
         <v>29</v>
@@ -9512,7 +9516,7 @@
         <v>12</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK50" t="n">
         <v>21</v>
@@ -9521,13 +9525,13 @@
         <v>17</v>
       </c>
       <c r="AM50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN50" t="n">
         <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP50" t="n">
         <v>23</v>
@@ -9554,7 +9558,7 @@
         <v>4.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY50" t="n">
         <v>21</v>
@@ -9607,13 +9611,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -9625,22 +9629,22 @@
         <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R51" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.9</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9715,28 +9719,28 @@
         <v>26</v>
       </c>
       <c r="AQ51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR51" t="n">
         <v>81</v>
       </c>
       <c r="AS51" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT51" t="n">
         <v>2.75</v>
       </c>
       <c r="AU51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
       </c>
       <c r="AW51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9798,31 +9802,31 @@
         <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R52" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S52" t="n">
         <v>1.4</v>
@@ -9837,7 +9841,7 @@
         <v>1.95</v>
       </c>
       <c r="W52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X52" t="n">
         <v>21</v>
@@ -9870,7 +9874,7 @@
         <v>251</v>
       </c>
       <c r="AH52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI52" t="n">
         <v>8.5</v>
@@ -9971,22 +9975,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
         <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J53" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -10019,7 +10023,7 @@
         <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
         <v>23</v>
@@ -10034,7 +10038,7 @@
         <v>34</v>
       </c>
       <c r="AB53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC53" t="n">
         <v>13</v>
@@ -10100,13 +10104,13 @@
         <v>3.75</v>
       </c>
       <c r="AX53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY53" t="n">
         <v>19</v>
       </c>
       <c r="AZ53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA53" t="n">
         <v>41</v>
@@ -10177,16 +10181,16 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R54" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
         <v>1.44</v>
@@ -10341,16 +10345,16 @@
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K55" t="n">
         <v>2.2</v>
       </c>
       <c r="L55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.05</v>
@@ -10365,10 +10369,10 @@
         <v>3.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S55" t="n">
         <v>1.4</v>
@@ -10383,10 +10387,10 @@
         <v>1.95</v>
       </c>
       <c r="W55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10517,13 +10521,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
         <v>2.75</v>
@@ -10538,13 +10542,13 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q56" t="n">
         <v>2.1</v>
@@ -10559,22 +10563,22 @@
         <v>2.63</v>
       </c>
       <c r="U56" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
         <v>17</v>
@@ -10595,13 +10599,13 @@
         <v>51</v>
       </c>
       <c r="AG56" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH56" t="n">
         <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -10610,7 +10614,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -10640,7 +10644,7 @@
         <v>8.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
         <v>5.5</v>
@@ -10649,7 +10653,7 @@
         <v>21</v>
       </c>
       <c r="AY56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ56" t="n">
         <v>67</v>
@@ -10911,10 +10915,10 @@
         <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S58" t="n">
         <v>1.57</v>
@@ -13415,10 +13419,10 @@
         <v>19</v>
       </c>
       <c r="O72" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="P72" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q72" t="n">
         <v>1.31</v>
@@ -13427,10 +13431,10 @@
         <v>2.87</v>
       </c>
       <c r="S72" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="T72" t="n">
-        <v>4.35</v>
+        <v>4.19</v>
       </c>
       <c r="U72" t="n">
         <v>1.36</v>
@@ -13591,10 +13595,10 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P73" t="n">
-        <v>8.199999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="Q73" t="n">
         <v>1.26</v>
@@ -13603,10 +13607,10 @@
         <v>3.15</v>
       </c>
       <c r="S73" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="T73" t="n">
-        <v>5.1</v>
+        <v>4.61</v>
       </c>
       <c r="U73" t="n">
         <v>1.32</v>
@@ -14989,148 +14993,148 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.15</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="J81" t="n">
-        <v>4.55</v>
+        <v>5.4</v>
       </c>
       <c r="K81" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L81" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N81" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P81" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S81" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T81" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="U81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
         <v>1.65</v>
       </c>
       <c r="W81" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="X81" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y81" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AA81" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AB81" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE81" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF81" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG81" t="n">
         <v>600</v>
       </c>
       <c r="AH81" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI81" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AJ81" t="n">
         <v>8.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AL81" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AM81" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN81" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO81" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AP81" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AQ81" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AR81" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AS81" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV81" t="n">
         <v>80</v>
       </c>
       <c r="AW81" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AX81" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AY81" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BA81" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB81" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
@@ -15527,13 +15531,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
@@ -15557,10 +15561,10 @@
         <v>4.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R84" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S84" t="n">
         <v>1.3</v>
@@ -15581,13 +15585,13 @@
         <v>29</v>
       </c>
       <c r="Y84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z84" t="n">
         <v>51</v>
       </c>
       <c r="AA84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB84" t="n">
         <v>41</v>
@@ -15596,7 +15600,7 @@
         <v>15</v>
       </c>
       <c r="AD84" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE84" t="n">
         <v>15</v>
@@ -15608,7 +15612,7 @@
         <v>151</v>
       </c>
       <c r="AH84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI84" t="n">
         <v>8.5</v>
@@ -15730,19 +15734,19 @@
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R85" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S85" t="n">
         <v>1.29</v>
@@ -15802,13 +15806,13 @@
         <v>81</v>
       </c>
       <c r="AL85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM85" t="n">
         <v>41</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO85" t="n">
         <v>7</v>
@@ -17133,22 +17137,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J93" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.06</v>
@@ -17184,13 +17188,13 @@
         <v>9</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
         <v>10</v>
       </c>
       <c r="Z93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA93" t="n">
         <v>21</v>
@@ -17217,31 +17221,31 @@
         <v>9.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
         <v>29</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP93" t="n">
         <v>23</v>
       </c>
       <c r="AQ93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR93" t="n">
         <v>67</v>
@@ -17253,7 +17257,7 @@
         <v>2.75</v>
       </c>
       <c r="AU93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV93" t="n">
         <v>51</v>
@@ -18217,7 +18221,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H99" t="n">
         <v>4.1</v>
@@ -18259,10 +18263,10 @@
         <v>3.4</v>
       </c>
       <c r="U99" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V99" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W99" t="n">
         <v>9</v>
@@ -18289,7 +18293,7 @@
         <v>8</v>
       </c>
       <c r="AE99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF99" t="n">
         <v>41</v>
@@ -18325,7 +18329,7 @@
         <v>17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR99" t="n">
         <v>41</v>
@@ -18349,7 +18353,7 @@
         <v>23</v>
       </c>
       <c r="AY99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ99" t="n">
         <v>81</v>
@@ -19121,22 +19125,22 @@
         <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J104" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K104" t="n">
         <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104" t="n">
         <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O104" t="n">
         <v>1.4</v>
@@ -19145,10 +19149,10 @@
         <v>2.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S104" t="n">
         <v>1.5</v>
@@ -19157,13 +19161,13 @@
         <v>2.5</v>
       </c>
       <c r="U104" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X104" t="n">
         <v>12</v>
@@ -19181,22 +19185,22 @@
         <v>34</v>
       </c>
       <c r="AC104" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD104" t="n">
         <v>6</v>
       </c>
       <c r="AE104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF104" t="n">
         <v>51</v>
       </c>
       <c r="AG104" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH104" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI104" t="n">
         <v>13</v>
@@ -19208,10 +19212,10 @@
         <v>29</v>
       </c>
       <c r="AL104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN104" t="n">
         <v>4.5</v>
@@ -19220,7 +19224,7 @@
         <v>15</v>
       </c>
       <c r="AP104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ104" t="n">
         <v>51</v>
@@ -19229,7 +19233,7 @@
         <v>81</v>
       </c>
       <c r="AS104" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT104" t="n">
         <v>2.5</v>
@@ -19256,7 +19260,7 @@
         <v>81</v>
       </c>
       <c r="BB104" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC104" t="n">
         <v>51</v>
@@ -19655,22 +19659,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="H107" t="n">
         <v>5.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J107" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K107" t="n">
         <v>3.15</v>
       </c>
       <c r="L107" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -19693,19 +19697,19 @@
         <v>7.3</v>
       </c>
       <c r="U107" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V107" t="n">
-        <v>3.69</v>
+        <v>3.77</v>
       </c>
       <c r="W107" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X107" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y107" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z107" t="n">
         <v>250</v>
@@ -19714,10 +19718,10 @@
         <v>70</v>
       </c>
       <c r="AB107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC107" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD107" t="n">
         <v>18</v>
@@ -19726,25 +19730,25 @@
         <v>14</v>
       </c>
       <c r="AF107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG107" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH107" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI107" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ107" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL107" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM107" t="n">
         <v>12</v>
@@ -19753,49 +19757,49 @@
         <v>13</v>
       </c>
       <c r="AO107" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP107" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ107" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR107" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AS107" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AT107" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AU107" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV107" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW107" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX107" t="n">
         <v>6</v>
       </c>
       <c r="AY107" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AZ107" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB107" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC107" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD107" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-26.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>1.62</v>
@@ -1126,55 +1126,55 @@
         <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>23</v>
@@ -1183,22 +1183,22 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>101</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>5.5</v>
@@ -1228,7 +1228,7 @@
         <v>81</v>
       </c>
       <c r="AT4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1246,16 +1246,16 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>150</v>
@@ -1299,13 +1299,13 @@
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>8.5</v>
@@ -1317,10 +1317,10 @@
         <v>23</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
         <v>1.33</v>
@@ -1329,22 +1329,22 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
@@ -1383,7 +1383,7 @@
         <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>5.5</v>
@@ -1401,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1437,7 +1437,7 @@
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>160</v>
@@ -1478,19 +1478,19 @@
         <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,10 +1499,10 @@
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1517,16 +1517,16 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1541,25 +1541,25 @@
         <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1574,7 +1574,7 @@
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>81</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1616,10 +1616,10 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>160</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1687,16 +1687,16 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1723,10 +1723,10 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1747,10 +1747,10 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,19 +1783,19 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1860,19 +1860,19 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S8" t="n">
         <v>1.22</v>
@@ -2036,25 +2036,25 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2063,13 +2063,13 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -2090,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>8.5</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2227,40 +2227,40 @@
         <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
         <v>41</v>
@@ -2269,10 +2269,10 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2284,7 +2284,7 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>8.5</v>
@@ -2296,22 +2296,22 @@
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2320,13 +2320,13 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>3.75</v>
@@ -2335,10 +2335,10 @@
         <v>7.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>160</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -7084,7 +7084,7 @@
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -7123,7 +7123,7 @@
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>34</v>
@@ -7132,7 +7132,7 @@
         <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -7159,10 +7159,10 @@
         <v>9.5</v>
       </c>
       <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
         <v>21</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>19</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
@@ -7171,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="AO37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
         <v>29</v>
@@ -7618,19 +7618,19 @@
         <v>4.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J40" t="n">
         <v>4.55</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
@@ -7639,10 +7639,10 @@
         <v>12.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>4.3</v>
+        <v>4.44</v>
       </c>
       <c r="Q40" t="n">
         <v>1.57</v>
@@ -7657,10 +7657,10 @@
         <v>3.34</v>
       </c>
       <c r="U40" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V40" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="W40" t="n">
         <v>12.5</v>
@@ -7681,13 +7681,13 @@
         <v>30</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
@@ -7696,22 +7696,22 @@
         <v>250</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
         <v>10</v>
       </c>
       <c r="AM40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN40" t="n">
         <v>6.4</v>
@@ -7735,22 +7735,22 @@
         <v>3.1</v>
       </c>
       <c r="AU40" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV40" t="n">
         <v>55</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX40" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AY40" t="n">
         <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA40" t="n">
         <v>45</v>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H42" t="n">
         <v>3.3</v>
@@ -7982,7 +7982,7 @@
         <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
@@ -8003,10 +8003,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8030,7 +8030,7 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="n">
         <v>19</v>
@@ -8063,7 +8063,7 @@
         <v>12</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="n">
         <v>29</v>
@@ -8161,13 +8161,13 @@
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
         <v>3.6</v>
@@ -8197,10 +8197,10 @@
         <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
@@ -8221,7 +8221,7 @@
         <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8233,10 +8233,10 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -8248,7 +8248,7 @@
         <v>29</v>
       </c>
       <c r="AL43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8269,7 +8269,7 @@
         <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
         <v>2.63</v>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>4.33</v>
@@ -8531,10 +8531,10 @@
         <v>1.95</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -8543,16 +8543,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S45" t="n">
         <v>1.36</v>
@@ -8561,13 +8561,13 @@
         <v>3</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X45" t="n">
         <v>6.5</v>
@@ -8579,13 +8579,13 @@
         <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB45" t="n">
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
         <v>8.5</v>
@@ -8597,7 +8597,7 @@
         <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH45" t="n">
         <v>17</v>
@@ -8624,7 +8624,7 @@
         <v>7</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
         <v>21</v>
@@ -8657,13 +8657,13 @@
         <v>151</v>
       </c>
       <c r="BA45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD45" t="n">
         <v>151</v>
@@ -8701,22 +8701,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J46" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -8725,22 +8725,22 @@
         <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U46" t="n">
         <v>1.83</v>
@@ -8755,22 +8755,22 @@
         <v>9</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z46" t="n">
         <v>17</v>
       </c>
       <c r="AA46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE46" t="n">
         <v>15</v>
@@ -8782,7 +8782,7 @@
         <v>301</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>19</v>
@@ -8803,13 +8803,13 @@
         <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP46" t="n">
         <v>21</v>
       </c>
       <c r="AQ46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR46" t="n">
         <v>51</v>
@@ -8818,7 +8818,7 @@
         <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8827,7 +8827,7 @@
         <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX46" t="n">
         <v>21</v>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -8898,7 +8898,7 @@
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -8913,10 +8913,10 @@
         <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S47" t="n">
         <v>1.4</v>
@@ -8931,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X47" t="n">
         <v>11</v>
@@ -8946,7 +8946,7 @@
         <v>19</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
         <v>10</v>
@@ -8955,10 +8955,10 @@
         <v>6.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
         <v>201</v>
@@ -8973,13 +8973,13 @@
         <v>11</v>
       </c>
       <c r="AK47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL47" t="n">
         <v>23</v>
       </c>
       <c r="AM47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
         <v>4.33</v>
@@ -9021,10 +9021,10 @@
         <v>51</v>
       </c>
       <c r="BA47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB47" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC47" t="n">
         <v>151</v>
@@ -9065,28 +9065,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9113,16 +9113,16 @@
         <v>1.8</v>
       </c>
       <c r="W48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="n">
         <v>19</v>
@@ -9146,16 +9146,16 @@
         <v>351</v>
       </c>
       <c r="AH48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="n">
         <v>12</v>
       </c>
       <c r="AK48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL48" t="n">
         <v>29</v>
@@ -9164,10 +9164,10 @@
         <v>41</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
         <v>23</v>
@@ -9188,13 +9188,13 @@
         <v>8.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY48" t="n">
         <v>29</v>
@@ -9203,7 +9203,7 @@
         <v>67</v>
       </c>
       <c r="BA48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB48" t="n">
         <v>251</v>
@@ -9212,7 +9212,7 @@
         <v>126</v>
       </c>
       <c r="BD48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
@@ -9429,22 +9429,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9477,7 +9477,7 @@
         <v>2.1</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -9489,7 +9489,7 @@
         <v>29</v>
       </c>
       <c r="AA50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB50" t="n">
         <v>29</v>
@@ -9498,7 +9498,7 @@
         <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE50" t="n">
         <v>13</v>
@@ -9516,22 +9516,22 @@
         <v>12</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN50" t="n">
         <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP50" t="n">
         <v>23</v>
@@ -9558,7 +9558,7 @@
         <v>4.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY50" t="n">
         <v>21</v>
@@ -9620,7 +9620,7 @@
         <v>2.1</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -9635,16 +9635,16 @@
         <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R51" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9653,31 +9653,31 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W51" t="n">
         <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB51" t="n">
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>6.5</v>
@@ -9695,7 +9695,7 @@
         <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
@@ -9793,16 +9793,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K52" t="n">
         <v>2.2</v>
@@ -9817,10 +9817,10 @@
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="n">
         <v>1.9</v>
@@ -9844,13 +9844,13 @@
         <v>12</v>
       </c>
       <c r="X52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA52" t="n">
         <v>34</v>
@@ -9928,7 +9928,7 @@
         <v>21</v>
       </c>
       <c r="AZ52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA52" t="n">
         <v>51</v>
@@ -9975,22 +9975,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -10005,10 +10005,10 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+ 